--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DADB1-570A-4DB1-9AB3-9CF1247E92E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB59C9-A4F8-4354-9CEC-D12400AE355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23925" yWindow="1305" windowWidth="26340" windowHeight="16320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="531">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1876,6 +1876,9 @@
   </si>
   <si>
     <t>Use 0192 instead</t>
+  </si>
+  <si>
+    <t>removed</t>
   </si>
 </sst>
 </file>
@@ -1966,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2006,6 +2009,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2671,7 +2677,7 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
@@ -4157,10 +4163,13 @@
         <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>527</v>
+      </c>
+      <c r="I43" s="15">
+        <v>45162</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>100</v>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB59C9-A4F8-4354-9CEC-D12400AE355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EB0E2-613F-4633-BD95-ABEBC0C30DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1515" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -2677,10 +2677,10 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4169,7 @@
         <v>527</v>
       </c>
       <c r="I43" s="15">
-        <v>45162</v>
+        <v>45070</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>100</v>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EB0E2-613F-4633-BD95-ABEBC0C30DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5348658-D5AE-402F-8286-C00016281E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1515" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
@@ -1940,12 +1940,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1969,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2009,7 +2015,23 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2680,7 +2702,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,7 +3837,7 @@
       </c>
       <c r="AMN32" s="7"/>
     </row>
-    <row r="33" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>476</v>
       </c>
@@ -3849,7 +3871,7 @@
       </c>
       <c r="AMN33" s="7"/>
     </row>
-    <row r="34" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>478</v>
       </c>
@@ -3883,7 +3905,7 @@
       </c>
       <c r="AMN34" s="7"/>
     </row>
-    <row r="35" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>508</v>
       </c>
@@ -3920,7 +3942,7 @@
       </c>
       <c r="AMN35" s="7"/>
     </row>
-    <row r="36" spans="1:14 1028:1028" ht="240" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>515</v>
       </c>
@@ -3957,7 +3979,7 @@
       </c>
       <c r="AMN36" s="7"/>
     </row>
-    <row r="37" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>124</v>
       </c>
@@ -3989,7 +4011,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>128</v>
       </c>
@@ -4018,7 +4040,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="39" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>131</v>
       </c>
@@ -4047,7 +4069,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="40" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>135</v>
       </c>
@@ -4076,112 +4098,3164 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H41" s="8" t="s">
+      <c r="G41" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="I41" s="18">
+        <v>45138</v>
+      </c>
+      <c r="J41" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="17" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="42" spans="1:14 1028:1028" ht="285" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
+      <c r="CA41" s="15"/>
+      <c r="CB41" s="15"/>
+      <c r="CC41" s="15"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="15"/>
+      <c r="CF41" s="15"/>
+      <c r="CG41" s="15"/>
+      <c r="CH41" s="15"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="15"/>
+      <c r="CK41" s="15"/>
+      <c r="CL41" s="15"/>
+      <c r="CM41" s="15"/>
+      <c r="CN41" s="15"/>
+      <c r="CO41" s="15"/>
+      <c r="CP41" s="15"/>
+      <c r="CQ41" s="15"/>
+      <c r="CR41" s="15"/>
+      <c r="CS41" s="15"/>
+      <c r="CT41" s="15"/>
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="15"/>
+      <c r="CW41" s="15"/>
+      <c r="CX41" s="15"/>
+      <c r="CY41" s="15"/>
+      <c r="CZ41" s="15"/>
+      <c r="DA41" s="15"/>
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="15"/>
+      <c r="DE41" s="15"/>
+      <c r="DF41" s="15"/>
+      <c r="DG41" s="15"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="15"/>
+      <c r="DJ41" s="15"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="15"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="15"/>
+      <c r="DO41" s="15"/>
+      <c r="DP41" s="15"/>
+      <c r="DQ41" s="15"/>
+      <c r="DR41" s="15"/>
+      <c r="DS41" s="15"/>
+      <c r="DT41" s="15"/>
+      <c r="DU41" s="15"/>
+      <c r="DV41" s="15"/>
+      <c r="DW41" s="15"/>
+      <c r="DX41" s="15"/>
+      <c r="DY41" s="15"/>
+      <c r="DZ41" s="15"/>
+      <c r="EA41" s="15"/>
+      <c r="EB41" s="15"/>
+      <c r="EC41" s="15"/>
+      <c r="ED41" s="15"/>
+      <c r="EE41" s="15"/>
+      <c r="EF41" s="15"/>
+      <c r="EG41" s="15"/>
+      <c r="EH41" s="15"/>
+      <c r="EI41" s="15"/>
+      <c r="EJ41" s="15"/>
+      <c r="EK41" s="15"/>
+      <c r="EL41" s="15"/>
+      <c r="EM41" s="15"/>
+      <c r="EN41" s="15"/>
+      <c r="EO41" s="15"/>
+      <c r="EP41" s="15"/>
+      <c r="EQ41" s="15"/>
+      <c r="ER41" s="15"/>
+      <c r="ES41" s="15"/>
+      <c r="ET41" s="15"/>
+      <c r="EU41" s="15"/>
+      <c r="EV41" s="15"/>
+      <c r="EW41" s="15"/>
+      <c r="EX41" s="15"/>
+      <c r="EY41" s="15"/>
+      <c r="EZ41" s="15"/>
+      <c r="FA41" s="15"/>
+      <c r="FB41" s="15"/>
+      <c r="FC41" s="15"/>
+      <c r="FD41" s="15"/>
+      <c r="FE41" s="15"/>
+      <c r="FF41" s="15"/>
+      <c r="FG41" s="15"/>
+      <c r="FH41" s="15"/>
+      <c r="FI41" s="15"/>
+      <c r="FJ41" s="15"/>
+      <c r="FK41" s="15"/>
+      <c r="FL41" s="15"/>
+      <c r="FM41" s="15"/>
+      <c r="FN41" s="15"/>
+      <c r="FO41" s="15"/>
+      <c r="FP41" s="15"/>
+      <c r="FQ41" s="15"/>
+      <c r="FR41" s="15"/>
+      <c r="FS41" s="15"/>
+      <c r="FT41" s="15"/>
+      <c r="FU41" s="15"/>
+      <c r="FV41" s="15"/>
+      <c r="FW41" s="15"/>
+      <c r="FX41" s="15"/>
+      <c r="FY41" s="15"/>
+      <c r="FZ41" s="15"/>
+      <c r="GA41" s="15"/>
+      <c r="GB41" s="15"/>
+      <c r="GC41" s="15"/>
+      <c r="GD41" s="15"/>
+      <c r="GE41" s="15"/>
+      <c r="GF41" s="15"/>
+      <c r="GG41" s="15"/>
+      <c r="GH41" s="15"/>
+      <c r="GI41" s="15"/>
+      <c r="GJ41" s="15"/>
+      <c r="GK41" s="15"/>
+      <c r="GL41" s="15"/>
+      <c r="GM41" s="15"/>
+      <c r="GN41" s="15"/>
+      <c r="GO41" s="15"/>
+      <c r="GP41" s="15"/>
+      <c r="GQ41" s="15"/>
+      <c r="GR41" s="15"/>
+      <c r="GS41" s="15"/>
+      <c r="GT41" s="15"/>
+      <c r="GU41" s="15"/>
+      <c r="GV41" s="15"/>
+      <c r="GW41" s="15"/>
+      <c r="GX41" s="15"/>
+      <c r="GY41" s="15"/>
+      <c r="GZ41" s="15"/>
+      <c r="HA41" s="15"/>
+      <c r="HB41" s="15"/>
+      <c r="HC41" s="15"/>
+      <c r="HD41" s="15"/>
+      <c r="HE41" s="15"/>
+      <c r="HF41" s="15"/>
+      <c r="HG41" s="15"/>
+      <c r="HH41" s="15"/>
+      <c r="HI41" s="15"/>
+      <c r="HJ41" s="15"/>
+      <c r="HK41" s="15"/>
+      <c r="HL41" s="15"/>
+      <c r="HM41" s="15"/>
+      <c r="HN41" s="15"/>
+      <c r="HO41" s="15"/>
+      <c r="HP41" s="15"/>
+      <c r="HQ41" s="15"/>
+      <c r="HR41" s="15"/>
+      <c r="HS41" s="15"/>
+      <c r="HT41" s="15"/>
+      <c r="HU41" s="15"/>
+      <c r="HV41" s="15"/>
+      <c r="HW41" s="15"/>
+      <c r="HX41" s="15"/>
+      <c r="HY41" s="15"/>
+      <c r="HZ41" s="15"/>
+      <c r="IA41" s="15"/>
+      <c r="IB41" s="15"/>
+      <c r="IC41" s="15"/>
+      <c r="ID41" s="15"/>
+      <c r="IE41" s="15"/>
+      <c r="IF41" s="15"/>
+      <c r="IG41" s="15"/>
+      <c r="IH41" s="15"/>
+      <c r="II41" s="15"/>
+      <c r="IJ41" s="15"/>
+      <c r="IK41" s="15"/>
+      <c r="IL41" s="15"/>
+      <c r="IM41" s="15"/>
+      <c r="IN41" s="15"/>
+      <c r="IO41" s="15"/>
+      <c r="IP41" s="15"/>
+      <c r="IQ41" s="15"/>
+      <c r="IR41" s="15"/>
+      <c r="IS41" s="15"/>
+      <c r="IT41" s="15"/>
+      <c r="IU41" s="15"/>
+      <c r="IV41" s="15"/>
+      <c r="IW41" s="15"/>
+      <c r="IX41" s="15"/>
+      <c r="IY41" s="15"/>
+      <c r="IZ41" s="15"/>
+      <c r="JA41" s="15"/>
+      <c r="JB41" s="15"/>
+      <c r="JC41" s="15"/>
+      <c r="JD41" s="15"/>
+      <c r="JE41" s="15"/>
+      <c r="JF41" s="15"/>
+      <c r="JG41" s="15"/>
+      <c r="JH41" s="15"/>
+      <c r="JI41" s="15"/>
+      <c r="JJ41" s="15"/>
+      <c r="JK41" s="15"/>
+      <c r="JL41" s="15"/>
+      <c r="JM41" s="15"/>
+      <c r="JN41" s="15"/>
+      <c r="JO41" s="15"/>
+      <c r="JP41" s="15"/>
+      <c r="JQ41" s="15"/>
+      <c r="JR41" s="15"/>
+      <c r="JS41" s="15"/>
+      <c r="JT41" s="15"/>
+      <c r="JU41" s="15"/>
+      <c r="JV41" s="15"/>
+      <c r="JW41" s="15"/>
+      <c r="JX41" s="15"/>
+      <c r="JY41" s="15"/>
+      <c r="JZ41" s="15"/>
+      <c r="KA41" s="15"/>
+      <c r="KB41" s="15"/>
+      <c r="KC41" s="15"/>
+      <c r="KD41" s="15"/>
+      <c r="KE41" s="15"/>
+      <c r="KF41" s="15"/>
+      <c r="KG41" s="15"/>
+      <c r="KH41" s="15"/>
+      <c r="KI41" s="15"/>
+      <c r="KJ41" s="15"/>
+      <c r="KK41" s="15"/>
+      <c r="KL41" s="15"/>
+      <c r="KM41" s="15"/>
+      <c r="KN41" s="15"/>
+      <c r="KO41" s="15"/>
+      <c r="KP41" s="15"/>
+      <c r="KQ41" s="15"/>
+      <c r="KR41" s="15"/>
+      <c r="KS41" s="15"/>
+      <c r="KT41" s="15"/>
+      <c r="KU41" s="15"/>
+      <c r="KV41" s="15"/>
+      <c r="KW41" s="15"/>
+      <c r="KX41" s="15"/>
+      <c r="KY41" s="15"/>
+      <c r="KZ41" s="15"/>
+      <c r="LA41" s="15"/>
+      <c r="LB41" s="15"/>
+      <c r="LC41" s="15"/>
+      <c r="LD41" s="15"/>
+      <c r="LE41" s="15"/>
+      <c r="LF41" s="15"/>
+      <c r="LG41" s="15"/>
+      <c r="LH41" s="15"/>
+      <c r="LI41" s="15"/>
+      <c r="LJ41" s="15"/>
+      <c r="LK41" s="15"/>
+      <c r="LL41" s="15"/>
+      <c r="LM41" s="15"/>
+      <c r="LN41" s="15"/>
+      <c r="LO41" s="15"/>
+      <c r="LP41" s="15"/>
+      <c r="LQ41" s="15"/>
+      <c r="LR41" s="15"/>
+      <c r="LS41" s="15"/>
+      <c r="LT41" s="15"/>
+      <c r="LU41" s="15"/>
+      <c r="LV41" s="15"/>
+      <c r="LW41" s="15"/>
+      <c r="LX41" s="15"/>
+      <c r="LY41" s="15"/>
+      <c r="LZ41" s="15"/>
+      <c r="MA41" s="15"/>
+      <c r="MB41" s="15"/>
+      <c r="MC41" s="15"/>
+      <c r="MD41" s="15"/>
+      <c r="ME41" s="15"/>
+      <c r="MF41" s="15"/>
+      <c r="MG41" s="15"/>
+      <c r="MH41" s="15"/>
+      <c r="MI41" s="15"/>
+      <c r="MJ41" s="15"/>
+      <c r="MK41" s="15"/>
+      <c r="ML41" s="15"/>
+      <c r="MM41" s="15"/>
+      <c r="MN41" s="15"/>
+      <c r="MO41" s="15"/>
+      <c r="MP41" s="15"/>
+      <c r="MQ41" s="15"/>
+      <c r="MR41" s="15"/>
+      <c r="MS41" s="15"/>
+      <c r="MT41" s="15"/>
+      <c r="MU41" s="15"/>
+      <c r="MV41" s="15"/>
+      <c r="MW41" s="15"/>
+      <c r="MX41" s="15"/>
+      <c r="MY41" s="15"/>
+      <c r="MZ41" s="15"/>
+      <c r="NA41" s="15"/>
+      <c r="NB41" s="15"/>
+      <c r="NC41" s="15"/>
+      <c r="ND41" s="15"/>
+      <c r="NE41" s="15"/>
+      <c r="NF41" s="15"/>
+      <c r="NG41" s="15"/>
+      <c r="NH41" s="15"/>
+      <c r="NI41" s="15"/>
+      <c r="NJ41" s="15"/>
+      <c r="NK41" s="15"/>
+      <c r="NL41" s="15"/>
+      <c r="NM41" s="15"/>
+      <c r="NN41" s="15"/>
+      <c r="NO41" s="15"/>
+      <c r="NP41" s="15"/>
+      <c r="NQ41" s="15"/>
+      <c r="NR41" s="15"/>
+      <c r="NS41" s="15"/>
+      <c r="NT41" s="15"/>
+      <c r="NU41" s="15"/>
+      <c r="NV41" s="15"/>
+      <c r="NW41" s="15"/>
+      <c r="NX41" s="15"/>
+      <c r="NY41" s="15"/>
+      <c r="NZ41" s="15"/>
+      <c r="OA41" s="15"/>
+      <c r="OB41" s="15"/>
+      <c r="OC41" s="15"/>
+      <c r="OD41" s="15"/>
+      <c r="OE41" s="15"/>
+      <c r="OF41" s="15"/>
+      <c r="OG41" s="15"/>
+      <c r="OH41" s="15"/>
+      <c r="OI41" s="15"/>
+      <c r="OJ41" s="15"/>
+      <c r="OK41" s="15"/>
+      <c r="OL41" s="15"/>
+      <c r="OM41" s="15"/>
+      <c r="ON41" s="15"/>
+      <c r="OO41" s="15"/>
+      <c r="OP41" s="15"/>
+      <c r="OQ41" s="15"/>
+      <c r="OR41" s="15"/>
+      <c r="OS41" s="15"/>
+      <c r="OT41" s="15"/>
+      <c r="OU41" s="15"/>
+      <c r="OV41" s="15"/>
+      <c r="OW41" s="15"/>
+      <c r="OX41" s="15"/>
+      <c r="OY41" s="15"/>
+      <c r="OZ41" s="15"/>
+      <c r="PA41" s="15"/>
+      <c r="PB41" s="15"/>
+      <c r="PC41" s="15"/>
+      <c r="PD41" s="15"/>
+      <c r="PE41" s="15"/>
+      <c r="PF41" s="15"/>
+      <c r="PG41" s="15"/>
+      <c r="PH41" s="15"/>
+      <c r="PI41" s="15"/>
+      <c r="PJ41" s="15"/>
+      <c r="PK41" s="15"/>
+      <c r="PL41" s="15"/>
+      <c r="PM41" s="15"/>
+      <c r="PN41" s="15"/>
+      <c r="PO41" s="15"/>
+      <c r="PP41" s="15"/>
+      <c r="PQ41" s="15"/>
+      <c r="PR41" s="15"/>
+      <c r="PS41" s="15"/>
+      <c r="PT41" s="15"/>
+      <c r="PU41" s="15"/>
+      <c r="PV41" s="15"/>
+      <c r="PW41" s="15"/>
+      <c r="PX41" s="15"/>
+      <c r="PY41" s="15"/>
+      <c r="PZ41" s="15"/>
+      <c r="QA41" s="15"/>
+      <c r="QB41" s="15"/>
+      <c r="QC41" s="15"/>
+      <c r="QD41" s="15"/>
+      <c r="QE41" s="15"/>
+      <c r="QF41" s="15"/>
+      <c r="QG41" s="15"/>
+      <c r="QH41" s="15"/>
+      <c r="QI41" s="15"/>
+      <c r="QJ41" s="15"/>
+      <c r="QK41" s="15"/>
+      <c r="QL41" s="15"/>
+      <c r="QM41" s="15"/>
+      <c r="QN41" s="15"/>
+      <c r="QO41" s="15"/>
+      <c r="QP41" s="15"/>
+      <c r="QQ41" s="15"/>
+      <c r="QR41" s="15"/>
+      <c r="QS41" s="15"/>
+      <c r="QT41" s="15"/>
+      <c r="QU41" s="15"/>
+      <c r="QV41" s="15"/>
+      <c r="QW41" s="15"/>
+      <c r="QX41" s="15"/>
+      <c r="QY41" s="15"/>
+      <c r="QZ41" s="15"/>
+      <c r="RA41" s="15"/>
+      <c r="RB41" s="15"/>
+      <c r="RC41" s="15"/>
+      <c r="RD41" s="15"/>
+      <c r="RE41" s="15"/>
+      <c r="RF41" s="15"/>
+      <c r="RG41" s="15"/>
+      <c r="RH41" s="15"/>
+      <c r="RI41" s="15"/>
+      <c r="RJ41" s="15"/>
+      <c r="RK41" s="15"/>
+      <c r="RL41" s="15"/>
+      <c r="RM41" s="15"/>
+      <c r="RN41" s="15"/>
+      <c r="RO41" s="15"/>
+      <c r="RP41" s="15"/>
+      <c r="RQ41" s="15"/>
+      <c r="RR41" s="15"/>
+      <c r="RS41" s="15"/>
+      <c r="RT41" s="15"/>
+      <c r="RU41" s="15"/>
+      <c r="RV41" s="15"/>
+      <c r="RW41" s="15"/>
+      <c r="RX41" s="15"/>
+      <c r="RY41" s="15"/>
+      <c r="RZ41" s="15"/>
+      <c r="SA41" s="15"/>
+      <c r="SB41" s="15"/>
+      <c r="SC41" s="15"/>
+      <c r="SD41" s="15"/>
+      <c r="SE41" s="15"/>
+      <c r="SF41" s="15"/>
+      <c r="SG41" s="15"/>
+      <c r="SH41" s="15"/>
+      <c r="SI41" s="15"/>
+      <c r="SJ41" s="15"/>
+      <c r="SK41" s="15"/>
+      <c r="SL41" s="15"/>
+      <c r="SM41" s="15"/>
+      <c r="SN41" s="15"/>
+      <c r="SO41" s="15"/>
+      <c r="SP41" s="15"/>
+      <c r="SQ41" s="15"/>
+      <c r="SR41" s="15"/>
+      <c r="SS41" s="15"/>
+      <c r="ST41" s="15"/>
+      <c r="SU41" s="15"/>
+      <c r="SV41" s="15"/>
+      <c r="SW41" s="15"/>
+      <c r="SX41" s="15"/>
+      <c r="SY41" s="15"/>
+      <c r="SZ41" s="15"/>
+      <c r="TA41" s="15"/>
+      <c r="TB41" s="15"/>
+      <c r="TC41" s="15"/>
+      <c r="TD41" s="15"/>
+      <c r="TE41" s="15"/>
+      <c r="TF41" s="15"/>
+      <c r="TG41" s="15"/>
+      <c r="TH41" s="15"/>
+      <c r="TI41" s="15"/>
+      <c r="TJ41" s="15"/>
+      <c r="TK41" s="15"/>
+      <c r="TL41" s="15"/>
+      <c r="TM41" s="15"/>
+      <c r="TN41" s="15"/>
+      <c r="TO41" s="15"/>
+      <c r="TP41" s="15"/>
+      <c r="TQ41" s="15"/>
+      <c r="TR41" s="15"/>
+      <c r="TS41" s="15"/>
+      <c r="TT41" s="15"/>
+      <c r="TU41" s="15"/>
+      <c r="TV41" s="15"/>
+      <c r="TW41" s="15"/>
+      <c r="TX41" s="15"/>
+      <c r="TY41" s="15"/>
+      <c r="TZ41" s="15"/>
+      <c r="UA41" s="15"/>
+      <c r="UB41" s="15"/>
+      <c r="UC41" s="15"/>
+      <c r="UD41" s="15"/>
+      <c r="UE41" s="15"/>
+      <c r="UF41" s="15"/>
+      <c r="UG41" s="15"/>
+      <c r="UH41" s="15"/>
+      <c r="UI41" s="15"/>
+      <c r="UJ41" s="15"/>
+      <c r="UK41" s="15"/>
+      <c r="UL41" s="15"/>
+      <c r="UM41" s="15"/>
+      <c r="UN41" s="15"/>
+      <c r="UO41" s="15"/>
+      <c r="UP41" s="15"/>
+      <c r="UQ41" s="15"/>
+      <c r="UR41" s="15"/>
+      <c r="US41" s="15"/>
+      <c r="UT41" s="15"/>
+      <c r="UU41" s="15"/>
+      <c r="UV41" s="15"/>
+      <c r="UW41" s="15"/>
+      <c r="UX41" s="15"/>
+      <c r="UY41" s="15"/>
+      <c r="UZ41" s="15"/>
+      <c r="VA41" s="15"/>
+      <c r="VB41" s="15"/>
+      <c r="VC41" s="15"/>
+      <c r="VD41" s="15"/>
+      <c r="VE41" s="15"/>
+      <c r="VF41" s="15"/>
+      <c r="VG41" s="15"/>
+      <c r="VH41" s="15"/>
+      <c r="VI41" s="15"/>
+      <c r="VJ41" s="15"/>
+      <c r="VK41" s="15"/>
+      <c r="VL41" s="15"/>
+      <c r="VM41" s="15"/>
+      <c r="VN41" s="15"/>
+      <c r="VO41" s="15"/>
+      <c r="VP41" s="15"/>
+      <c r="VQ41" s="15"/>
+      <c r="VR41" s="15"/>
+      <c r="VS41" s="15"/>
+      <c r="VT41" s="15"/>
+      <c r="VU41" s="15"/>
+      <c r="VV41" s="15"/>
+      <c r="VW41" s="15"/>
+      <c r="VX41" s="15"/>
+      <c r="VY41" s="15"/>
+      <c r="VZ41" s="15"/>
+      <c r="WA41" s="15"/>
+      <c r="WB41" s="15"/>
+      <c r="WC41" s="15"/>
+      <c r="WD41" s="15"/>
+      <c r="WE41" s="15"/>
+      <c r="WF41" s="15"/>
+      <c r="WG41" s="15"/>
+      <c r="WH41" s="15"/>
+      <c r="WI41" s="15"/>
+      <c r="WJ41" s="15"/>
+      <c r="WK41" s="15"/>
+      <c r="WL41" s="15"/>
+      <c r="WM41" s="15"/>
+      <c r="WN41" s="15"/>
+      <c r="WO41" s="15"/>
+      <c r="WP41" s="15"/>
+      <c r="WQ41" s="15"/>
+      <c r="WR41" s="15"/>
+      <c r="WS41" s="15"/>
+      <c r="WT41" s="15"/>
+      <c r="WU41" s="15"/>
+      <c r="WV41" s="15"/>
+      <c r="WW41" s="15"/>
+      <c r="WX41" s="15"/>
+      <c r="WY41" s="15"/>
+      <c r="WZ41" s="15"/>
+      <c r="XA41" s="15"/>
+      <c r="XB41" s="15"/>
+      <c r="XC41" s="15"/>
+      <c r="XD41" s="15"/>
+      <c r="XE41" s="15"/>
+      <c r="XF41" s="15"/>
+      <c r="XG41" s="15"/>
+      <c r="XH41" s="15"/>
+      <c r="XI41" s="15"/>
+      <c r="XJ41" s="15"/>
+      <c r="XK41" s="15"/>
+      <c r="XL41" s="15"/>
+      <c r="XM41" s="15"/>
+      <c r="XN41" s="15"/>
+      <c r="XO41" s="15"/>
+      <c r="XP41" s="15"/>
+      <c r="XQ41" s="15"/>
+      <c r="XR41" s="15"/>
+      <c r="XS41" s="15"/>
+      <c r="XT41" s="15"/>
+      <c r="XU41" s="15"/>
+      <c r="XV41" s="15"/>
+      <c r="XW41" s="15"/>
+      <c r="XX41" s="15"/>
+      <c r="XY41" s="15"/>
+      <c r="XZ41" s="15"/>
+      <c r="YA41" s="15"/>
+      <c r="YB41" s="15"/>
+      <c r="YC41" s="15"/>
+      <c r="YD41" s="15"/>
+      <c r="YE41" s="15"/>
+      <c r="YF41" s="15"/>
+      <c r="YG41" s="15"/>
+      <c r="YH41" s="15"/>
+      <c r="YI41" s="15"/>
+      <c r="YJ41" s="15"/>
+      <c r="YK41" s="15"/>
+      <c r="YL41" s="15"/>
+      <c r="YM41" s="15"/>
+      <c r="YN41" s="15"/>
+      <c r="YO41" s="15"/>
+      <c r="YP41" s="15"/>
+      <c r="YQ41" s="15"/>
+      <c r="YR41" s="15"/>
+      <c r="YS41" s="15"/>
+      <c r="YT41" s="15"/>
+      <c r="YU41" s="15"/>
+      <c r="YV41" s="15"/>
+      <c r="YW41" s="15"/>
+      <c r="YX41" s="15"/>
+      <c r="YY41" s="15"/>
+      <c r="YZ41" s="15"/>
+      <c r="ZA41" s="15"/>
+      <c r="ZB41" s="15"/>
+      <c r="ZC41" s="15"/>
+      <c r="ZD41" s="15"/>
+      <c r="ZE41" s="15"/>
+      <c r="ZF41" s="15"/>
+      <c r="ZG41" s="15"/>
+      <c r="ZH41" s="15"/>
+      <c r="ZI41" s="15"/>
+      <c r="ZJ41" s="15"/>
+      <c r="ZK41" s="15"/>
+      <c r="ZL41" s="15"/>
+      <c r="ZM41" s="15"/>
+      <c r="ZN41" s="15"/>
+      <c r="ZO41" s="15"/>
+      <c r="ZP41" s="15"/>
+      <c r="ZQ41" s="15"/>
+      <c r="ZR41" s="15"/>
+      <c r="ZS41" s="15"/>
+      <c r="ZT41" s="15"/>
+      <c r="ZU41" s="15"/>
+      <c r="ZV41" s="15"/>
+      <c r="ZW41" s="15"/>
+      <c r="ZX41" s="15"/>
+      <c r="ZY41" s="15"/>
+      <c r="ZZ41" s="15"/>
+      <c r="AAA41" s="15"/>
+      <c r="AAB41" s="15"/>
+      <c r="AAC41" s="15"/>
+      <c r="AAD41" s="15"/>
+      <c r="AAE41" s="15"/>
+      <c r="AAF41" s="15"/>
+      <c r="AAG41" s="15"/>
+      <c r="AAH41" s="15"/>
+      <c r="AAI41" s="15"/>
+      <c r="AAJ41" s="15"/>
+      <c r="AAK41" s="15"/>
+      <c r="AAL41" s="15"/>
+      <c r="AAM41" s="15"/>
+      <c r="AAN41" s="15"/>
+      <c r="AAO41" s="15"/>
+      <c r="AAP41" s="15"/>
+      <c r="AAQ41" s="15"/>
+      <c r="AAR41" s="15"/>
+      <c r="AAS41" s="15"/>
+      <c r="AAT41" s="15"/>
+      <c r="AAU41" s="15"/>
+      <c r="AAV41" s="15"/>
+      <c r="AAW41" s="15"/>
+      <c r="AAX41" s="15"/>
+      <c r="AAY41" s="15"/>
+      <c r="AAZ41" s="15"/>
+      <c r="ABA41" s="15"/>
+      <c r="ABB41" s="15"/>
+      <c r="ABC41" s="15"/>
+      <c r="ABD41" s="15"/>
+      <c r="ABE41" s="15"/>
+      <c r="ABF41" s="15"/>
+      <c r="ABG41" s="15"/>
+      <c r="ABH41" s="15"/>
+      <c r="ABI41" s="15"/>
+      <c r="ABJ41" s="15"/>
+      <c r="ABK41" s="15"/>
+      <c r="ABL41" s="15"/>
+      <c r="ABM41" s="15"/>
+      <c r="ABN41" s="15"/>
+      <c r="ABO41" s="15"/>
+      <c r="ABP41" s="15"/>
+      <c r="ABQ41" s="15"/>
+      <c r="ABR41" s="15"/>
+      <c r="ABS41" s="15"/>
+      <c r="ABT41" s="15"/>
+      <c r="ABU41" s="15"/>
+      <c r="ABV41" s="15"/>
+      <c r="ABW41" s="15"/>
+      <c r="ABX41" s="15"/>
+      <c r="ABY41" s="15"/>
+      <c r="ABZ41" s="15"/>
+      <c r="ACA41" s="15"/>
+      <c r="ACB41" s="15"/>
+      <c r="ACC41" s="15"/>
+      <c r="ACD41" s="15"/>
+      <c r="ACE41" s="15"/>
+      <c r="ACF41" s="15"/>
+      <c r="ACG41" s="15"/>
+      <c r="ACH41" s="15"/>
+      <c r="ACI41" s="15"/>
+      <c r="ACJ41" s="15"/>
+      <c r="ACK41" s="15"/>
+      <c r="ACL41" s="15"/>
+      <c r="ACM41" s="15"/>
+      <c r="ACN41" s="15"/>
+      <c r="ACO41" s="15"/>
+      <c r="ACP41" s="15"/>
+      <c r="ACQ41" s="15"/>
+      <c r="ACR41" s="15"/>
+      <c r="ACS41" s="15"/>
+      <c r="ACT41" s="15"/>
+      <c r="ACU41" s="15"/>
+      <c r="ACV41" s="15"/>
+      <c r="ACW41" s="15"/>
+      <c r="ACX41" s="15"/>
+      <c r="ACY41" s="15"/>
+      <c r="ACZ41" s="15"/>
+      <c r="ADA41" s="15"/>
+      <c r="ADB41" s="15"/>
+      <c r="ADC41" s="15"/>
+      <c r="ADD41" s="15"/>
+      <c r="ADE41" s="15"/>
+      <c r="ADF41" s="15"/>
+      <c r="ADG41" s="15"/>
+      <c r="ADH41" s="15"/>
+      <c r="ADI41" s="15"/>
+      <c r="ADJ41" s="15"/>
+      <c r="ADK41" s="15"/>
+      <c r="ADL41" s="15"/>
+      <c r="ADM41" s="15"/>
+      <c r="ADN41" s="15"/>
+      <c r="ADO41" s="15"/>
+      <c r="ADP41" s="15"/>
+      <c r="ADQ41" s="15"/>
+      <c r="ADR41" s="15"/>
+      <c r="ADS41" s="15"/>
+      <c r="ADT41" s="15"/>
+      <c r="ADU41" s="15"/>
+      <c r="ADV41" s="15"/>
+      <c r="ADW41" s="15"/>
+      <c r="ADX41" s="15"/>
+      <c r="ADY41" s="15"/>
+      <c r="ADZ41" s="15"/>
+      <c r="AEA41" s="15"/>
+      <c r="AEB41" s="15"/>
+      <c r="AEC41" s="15"/>
+      <c r="AED41" s="15"/>
+      <c r="AEE41" s="15"/>
+      <c r="AEF41" s="15"/>
+      <c r="AEG41" s="15"/>
+      <c r="AEH41" s="15"/>
+      <c r="AEI41" s="15"/>
+      <c r="AEJ41" s="15"/>
+      <c r="AEK41" s="15"/>
+      <c r="AEL41" s="15"/>
+      <c r="AEM41" s="15"/>
+      <c r="AEN41" s="15"/>
+      <c r="AEO41" s="15"/>
+      <c r="AEP41" s="15"/>
+      <c r="AEQ41" s="15"/>
+      <c r="AER41" s="15"/>
+      <c r="AES41" s="15"/>
+      <c r="AET41" s="15"/>
+      <c r="AEU41" s="15"/>
+      <c r="AEV41" s="15"/>
+      <c r="AEW41" s="15"/>
+      <c r="AEX41" s="15"/>
+      <c r="AEY41" s="15"/>
+      <c r="AEZ41" s="15"/>
+      <c r="AFA41" s="15"/>
+      <c r="AFB41" s="15"/>
+      <c r="AFC41" s="15"/>
+      <c r="AFD41" s="15"/>
+      <c r="AFE41" s="15"/>
+      <c r="AFF41" s="15"/>
+      <c r="AFG41" s="15"/>
+      <c r="AFH41" s="15"/>
+      <c r="AFI41" s="15"/>
+      <c r="AFJ41" s="15"/>
+      <c r="AFK41" s="15"/>
+      <c r="AFL41" s="15"/>
+      <c r="AFM41" s="15"/>
+      <c r="AFN41" s="15"/>
+      <c r="AFO41" s="15"/>
+      <c r="AFP41" s="15"/>
+      <c r="AFQ41" s="15"/>
+      <c r="AFR41" s="15"/>
+      <c r="AFS41" s="15"/>
+      <c r="AFT41" s="15"/>
+      <c r="AFU41" s="15"/>
+      <c r="AFV41" s="15"/>
+      <c r="AFW41" s="15"/>
+      <c r="AFX41" s="15"/>
+      <c r="AFY41" s="15"/>
+      <c r="AFZ41" s="15"/>
+      <c r="AGA41" s="15"/>
+      <c r="AGB41" s="15"/>
+      <c r="AGC41" s="15"/>
+      <c r="AGD41" s="15"/>
+      <c r="AGE41" s="15"/>
+      <c r="AGF41" s="15"/>
+      <c r="AGG41" s="15"/>
+      <c r="AGH41" s="15"/>
+      <c r="AGI41" s="15"/>
+      <c r="AGJ41" s="15"/>
+      <c r="AGK41" s="15"/>
+      <c r="AGL41" s="15"/>
+      <c r="AGM41" s="15"/>
+      <c r="AGN41" s="15"/>
+      <c r="AGO41" s="15"/>
+      <c r="AGP41" s="15"/>
+      <c r="AGQ41" s="15"/>
+      <c r="AGR41" s="15"/>
+      <c r="AGS41" s="15"/>
+      <c r="AGT41" s="15"/>
+      <c r="AGU41" s="15"/>
+      <c r="AGV41" s="15"/>
+      <c r="AGW41" s="15"/>
+      <c r="AGX41" s="15"/>
+      <c r="AGY41" s="15"/>
+      <c r="AGZ41" s="15"/>
+      <c r="AHA41" s="15"/>
+      <c r="AHB41" s="15"/>
+      <c r="AHC41" s="15"/>
+      <c r="AHD41" s="15"/>
+      <c r="AHE41" s="15"/>
+      <c r="AHF41" s="15"/>
+      <c r="AHG41" s="15"/>
+      <c r="AHH41" s="15"/>
+      <c r="AHI41" s="15"/>
+      <c r="AHJ41" s="15"/>
+      <c r="AHK41" s="15"/>
+      <c r="AHL41" s="15"/>
+      <c r="AHM41" s="15"/>
+      <c r="AHN41" s="15"/>
+      <c r="AHO41" s="15"/>
+      <c r="AHP41" s="15"/>
+      <c r="AHQ41" s="15"/>
+      <c r="AHR41" s="15"/>
+      <c r="AHS41" s="15"/>
+      <c r="AHT41" s="15"/>
+      <c r="AHU41" s="15"/>
+      <c r="AHV41" s="15"/>
+      <c r="AHW41" s="15"/>
+      <c r="AHX41" s="15"/>
+      <c r="AHY41" s="15"/>
+      <c r="AHZ41" s="15"/>
+      <c r="AIA41" s="15"/>
+      <c r="AIB41" s="15"/>
+      <c r="AIC41" s="15"/>
+      <c r="AID41" s="15"/>
+      <c r="AIE41" s="15"/>
+      <c r="AIF41" s="15"/>
+      <c r="AIG41" s="15"/>
+      <c r="AIH41" s="15"/>
+      <c r="AII41" s="15"/>
+      <c r="AIJ41" s="15"/>
+      <c r="AIK41" s="15"/>
+      <c r="AIL41" s="15"/>
+      <c r="AIM41" s="15"/>
+      <c r="AIN41" s="15"/>
+      <c r="AIO41" s="15"/>
+      <c r="AIP41" s="15"/>
+      <c r="AIQ41" s="15"/>
+      <c r="AIR41" s="15"/>
+      <c r="AIS41" s="15"/>
+      <c r="AIT41" s="15"/>
+      <c r="AIU41" s="15"/>
+      <c r="AIV41" s="15"/>
+      <c r="AIW41" s="15"/>
+      <c r="AIX41" s="15"/>
+      <c r="AIY41" s="15"/>
+      <c r="AIZ41" s="15"/>
+      <c r="AJA41" s="15"/>
+      <c r="AJB41" s="15"/>
+      <c r="AJC41" s="15"/>
+      <c r="AJD41" s="15"/>
+      <c r="AJE41" s="15"/>
+      <c r="AJF41" s="15"/>
+      <c r="AJG41" s="15"/>
+      <c r="AJH41" s="15"/>
+      <c r="AJI41" s="15"/>
+      <c r="AJJ41" s="15"/>
+      <c r="AJK41" s="15"/>
+      <c r="AJL41" s="15"/>
+      <c r="AJM41" s="15"/>
+      <c r="AJN41" s="15"/>
+      <c r="AJO41" s="15"/>
+      <c r="AJP41" s="15"/>
+      <c r="AJQ41" s="15"/>
+      <c r="AJR41" s="15"/>
+      <c r="AJS41" s="15"/>
+      <c r="AJT41" s="15"/>
+      <c r="AJU41" s="15"/>
+      <c r="AJV41" s="15"/>
+      <c r="AJW41" s="15"/>
+      <c r="AJX41" s="15"/>
+      <c r="AJY41" s="15"/>
+      <c r="AJZ41" s="15"/>
+      <c r="AKA41" s="15"/>
+      <c r="AKB41" s="15"/>
+      <c r="AKC41" s="15"/>
+      <c r="AKD41" s="15"/>
+      <c r="AKE41" s="15"/>
+      <c r="AKF41" s="15"/>
+      <c r="AKG41" s="15"/>
+      <c r="AKH41" s="15"/>
+      <c r="AKI41" s="15"/>
+      <c r="AKJ41" s="15"/>
+      <c r="AKK41" s="15"/>
+      <c r="AKL41" s="15"/>
+      <c r="AKM41" s="15"/>
+      <c r="AKN41" s="15"/>
+      <c r="AKO41" s="15"/>
+      <c r="AKP41" s="15"/>
+      <c r="AKQ41" s="15"/>
+      <c r="AKR41" s="15"/>
+      <c r="AKS41" s="15"/>
+      <c r="AKT41" s="15"/>
+      <c r="AKU41" s="15"/>
+      <c r="AKV41" s="15"/>
+      <c r="AKW41" s="15"/>
+      <c r="AKX41" s="15"/>
+      <c r="AKY41" s="15"/>
+      <c r="AKZ41" s="15"/>
+      <c r="ALA41" s="15"/>
+      <c r="ALB41" s="15"/>
+      <c r="ALC41" s="15"/>
+      <c r="ALD41" s="15"/>
+      <c r="ALE41" s="15"/>
+      <c r="ALF41" s="15"/>
+      <c r="ALG41" s="15"/>
+      <c r="ALH41" s="15"/>
+      <c r="ALI41" s="15"/>
+      <c r="ALJ41" s="15"/>
+      <c r="ALK41" s="15"/>
+      <c r="ALL41" s="15"/>
+      <c r="ALM41" s="15"/>
+      <c r="ALN41" s="15"/>
+      <c r="ALO41" s="15"/>
+      <c r="ALP41" s="15"/>
+      <c r="ALQ41" s="15"/>
+      <c r="ALR41" s="15"/>
+      <c r="ALS41" s="15"/>
+      <c r="ALT41" s="15"/>
+      <c r="ALU41" s="15"/>
+      <c r="ALV41" s="15"/>
+      <c r="ALW41" s="15"/>
+      <c r="ALX41" s="15"/>
+      <c r="ALY41" s="15"/>
+      <c r="ALZ41" s="15"/>
+      <c r="AMA41" s="15"/>
+      <c r="AMB41" s="15"/>
+      <c r="AMC41" s="15"/>
+      <c r="AMD41" s="15"/>
+      <c r="AME41" s="15"/>
+      <c r="AMF41" s="15"/>
+      <c r="AMG41" s="15"/>
+      <c r="AMH41" s="15"/>
+      <c r="AMI41" s="15"/>
+      <c r="AMJ41" s="15"/>
+      <c r="AMK41" s="15"/>
+      <c r="AML41" s="15"/>
+      <c r="AMM41" s="15"/>
+    </row>
+    <row r="42" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H42" s="8" t="s">
+      <c r="G42" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="I42" s="18">
+        <v>45138</v>
+      </c>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="15" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="43" spans="1:14 1028:1028" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
+      <c r="AR42" s="15"/>
+      <c r="AS42" s="15"/>
+      <c r="AT42" s="15"/>
+      <c r="AU42" s="15"/>
+      <c r="AV42" s="15"/>
+      <c r="AW42" s="15"/>
+      <c r="AX42" s="15"/>
+      <c r="AY42" s="15"/>
+      <c r="AZ42" s="15"/>
+      <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
+      <c r="BC42" s="15"/>
+      <c r="BD42" s="15"/>
+      <c r="BE42" s="15"/>
+      <c r="BF42" s="15"/>
+      <c r="BG42" s="15"/>
+      <c r="BH42" s="15"/>
+      <c r="BI42" s="15"/>
+      <c r="BJ42" s="15"/>
+      <c r="BK42" s="15"/>
+      <c r="BL42" s="15"/>
+      <c r="BM42" s="15"/>
+      <c r="BN42" s="15"/>
+      <c r="BO42" s="15"/>
+      <c r="BP42" s="15"/>
+      <c r="BQ42" s="15"/>
+      <c r="BR42" s="15"/>
+      <c r="BS42" s="15"/>
+      <c r="BT42" s="15"/>
+      <c r="BU42" s="15"/>
+      <c r="BV42" s="15"/>
+      <c r="BW42" s="15"/>
+      <c r="BX42" s="15"/>
+      <c r="BY42" s="15"/>
+      <c r="BZ42" s="15"/>
+      <c r="CA42" s="15"/>
+      <c r="CB42" s="15"/>
+      <c r="CC42" s="15"/>
+      <c r="CD42" s="15"/>
+      <c r="CE42" s="15"/>
+      <c r="CF42" s="15"/>
+      <c r="CG42" s="15"/>
+      <c r="CH42" s="15"/>
+      <c r="CI42" s="15"/>
+      <c r="CJ42" s="15"/>
+      <c r="CK42" s="15"/>
+      <c r="CL42" s="15"/>
+      <c r="CM42" s="15"/>
+      <c r="CN42" s="15"/>
+      <c r="CO42" s="15"/>
+      <c r="CP42" s="15"/>
+      <c r="CQ42" s="15"/>
+      <c r="CR42" s="15"/>
+      <c r="CS42" s="15"/>
+      <c r="CT42" s="15"/>
+      <c r="CU42" s="15"/>
+      <c r="CV42" s="15"/>
+      <c r="CW42" s="15"/>
+      <c r="CX42" s="15"/>
+      <c r="CY42" s="15"/>
+      <c r="CZ42" s="15"/>
+      <c r="DA42" s="15"/>
+      <c r="DB42" s="15"/>
+      <c r="DC42" s="15"/>
+      <c r="DD42" s="15"/>
+      <c r="DE42" s="15"/>
+      <c r="DF42" s="15"/>
+      <c r="DG42" s="15"/>
+      <c r="DH42" s="15"/>
+      <c r="DI42" s="15"/>
+      <c r="DJ42" s="15"/>
+      <c r="DK42" s="15"/>
+      <c r="DL42" s="15"/>
+      <c r="DM42" s="15"/>
+      <c r="DN42" s="15"/>
+      <c r="DO42" s="15"/>
+      <c r="DP42" s="15"/>
+      <c r="DQ42" s="15"/>
+      <c r="DR42" s="15"/>
+      <c r="DS42" s="15"/>
+      <c r="DT42" s="15"/>
+      <c r="DU42" s="15"/>
+      <c r="DV42" s="15"/>
+      <c r="DW42" s="15"/>
+      <c r="DX42" s="15"/>
+      <c r="DY42" s="15"/>
+      <c r="DZ42" s="15"/>
+      <c r="EA42" s="15"/>
+      <c r="EB42" s="15"/>
+      <c r="EC42" s="15"/>
+      <c r="ED42" s="15"/>
+      <c r="EE42" s="15"/>
+      <c r="EF42" s="15"/>
+      <c r="EG42" s="15"/>
+      <c r="EH42" s="15"/>
+      <c r="EI42" s="15"/>
+      <c r="EJ42" s="15"/>
+      <c r="EK42" s="15"/>
+      <c r="EL42" s="15"/>
+      <c r="EM42" s="15"/>
+      <c r="EN42" s="15"/>
+      <c r="EO42" s="15"/>
+      <c r="EP42" s="15"/>
+      <c r="EQ42" s="15"/>
+      <c r="ER42" s="15"/>
+      <c r="ES42" s="15"/>
+      <c r="ET42" s="15"/>
+      <c r="EU42" s="15"/>
+      <c r="EV42" s="15"/>
+      <c r="EW42" s="15"/>
+      <c r="EX42" s="15"/>
+      <c r="EY42" s="15"/>
+      <c r="EZ42" s="15"/>
+      <c r="FA42" s="15"/>
+      <c r="FB42" s="15"/>
+      <c r="FC42" s="15"/>
+      <c r="FD42" s="15"/>
+      <c r="FE42" s="15"/>
+      <c r="FF42" s="15"/>
+      <c r="FG42" s="15"/>
+      <c r="FH42" s="15"/>
+      <c r="FI42" s="15"/>
+      <c r="FJ42" s="15"/>
+      <c r="FK42" s="15"/>
+      <c r="FL42" s="15"/>
+      <c r="FM42" s="15"/>
+      <c r="FN42" s="15"/>
+      <c r="FO42" s="15"/>
+      <c r="FP42" s="15"/>
+      <c r="FQ42" s="15"/>
+      <c r="FR42" s="15"/>
+      <c r="FS42" s="15"/>
+      <c r="FT42" s="15"/>
+      <c r="FU42" s="15"/>
+      <c r="FV42" s="15"/>
+      <c r="FW42" s="15"/>
+      <c r="FX42" s="15"/>
+      <c r="FY42" s="15"/>
+      <c r="FZ42" s="15"/>
+      <c r="GA42" s="15"/>
+      <c r="GB42" s="15"/>
+      <c r="GC42" s="15"/>
+      <c r="GD42" s="15"/>
+      <c r="GE42" s="15"/>
+      <c r="GF42" s="15"/>
+      <c r="GG42" s="15"/>
+      <c r="GH42" s="15"/>
+      <c r="GI42" s="15"/>
+      <c r="GJ42" s="15"/>
+      <c r="GK42" s="15"/>
+      <c r="GL42" s="15"/>
+      <c r="GM42" s="15"/>
+      <c r="GN42" s="15"/>
+      <c r="GO42" s="15"/>
+      <c r="GP42" s="15"/>
+      <c r="GQ42" s="15"/>
+      <c r="GR42" s="15"/>
+      <c r="GS42" s="15"/>
+      <c r="GT42" s="15"/>
+      <c r="GU42" s="15"/>
+      <c r="GV42" s="15"/>
+      <c r="GW42" s="15"/>
+      <c r="GX42" s="15"/>
+      <c r="GY42" s="15"/>
+      <c r="GZ42" s="15"/>
+      <c r="HA42" s="15"/>
+      <c r="HB42" s="15"/>
+      <c r="HC42" s="15"/>
+      <c r="HD42" s="15"/>
+      <c r="HE42" s="15"/>
+      <c r="HF42" s="15"/>
+      <c r="HG42" s="15"/>
+      <c r="HH42" s="15"/>
+      <c r="HI42" s="15"/>
+      <c r="HJ42" s="15"/>
+      <c r="HK42" s="15"/>
+      <c r="HL42" s="15"/>
+      <c r="HM42" s="15"/>
+      <c r="HN42" s="15"/>
+      <c r="HO42" s="15"/>
+      <c r="HP42" s="15"/>
+      <c r="HQ42" s="15"/>
+      <c r="HR42" s="15"/>
+      <c r="HS42" s="15"/>
+      <c r="HT42" s="15"/>
+      <c r="HU42" s="15"/>
+      <c r="HV42" s="15"/>
+      <c r="HW42" s="15"/>
+      <c r="HX42" s="15"/>
+      <c r="HY42" s="15"/>
+      <c r="HZ42" s="15"/>
+      <c r="IA42" s="15"/>
+      <c r="IB42" s="15"/>
+      <c r="IC42" s="15"/>
+      <c r="ID42" s="15"/>
+      <c r="IE42" s="15"/>
+      <c r="IF42" s="15"/>
+      <c r="IG42" s="15"/>
+      <c r="IH42" s="15"/>
+      <c r="II42" s="15"/>
+      <c r="IJ42" s="15"/>
+      <c r="IK42" s="15"/>
+      <c r="IL42" s="15"/>
+      <c r="IM42" s="15"/>
+      <c r="IN42" s="15"/>
+      <c r="IO42" s="15"/>
+      <c r="IP42" s="15"/>
+      <c r="IQ42" s="15"/>
+      <c r="IR42" s="15"/>
+      <c r="IS42" s="15"/>
+      <c r="IT42" s="15"/>
+      <c r="IU42" s="15"/>
+      <c r="IV42" s="15"/>
+      <c r="IW42" s="15"/>
+      <c r="IX42" s="15"/>
+      <c r="IY42" s="15"/>
+      <c r="IZ42" s="15"/>
+      <c r="JA42" s="15"/>
+      <c r="JB42" s="15"/>
+      <c r="JC42" s="15"/>
+      <c r="JD42" s="15"/>
+      <c r="JE42" s="15"/>
+      <c r="JF42" s="15"/>
+      <c r="JG42" s="15"/>
+      <c r="JH42" s="15"/>
+      <c r="JI42" s="15"/>
+      <c r="JJ42" s="15"/>
+      <c r="JK42" s="15"/>
+      <c r="JL42" s="15"/>
+      <c r="JM42" s="15"/>
+      <c r="JN42" s="15"/>
+      <c r="JO42" s="15"/>
+      <c r="JP42" s="15"/>
+      <c r="JQ42" s="15"/>
+      <c r="JR42" s="15"/>
+      <c r="JS42" s="15"/>
+      <c r="JT42" s="15"/>
+      <c r="JU42" s="15"/>
+      <c r="JV42" s="15"/>
+      <c r="JW42" s="15"/>
+      <c r="JX42" s="15"/>
+      <c r="JY42" s="15"/>
+      <c r="JZ42" s="15"/>
+      <c r="KA42" s="15"/>
+      <c r="KB42" s="15"/>
+      <c r="KC42" s="15"/>
+      <c r="KD42" s="15"/>
+      <c r="KE42" s="15"/>
+      <c r="KF42" s="15"/>
+      <c r="KG42" s="15"/>
+      <c r="KH42" s="15"/>
+      <c r="KI42" s="15"/>
+      <c r="KJ42" s="15"/>
+      <c r="KK42" s="15"/>
+      <c r="KL42" s="15"/>
+      <c r="KM42" s="15"/>
+      <c r="KN42" s="15"/>
+      <c r="KO42" s="15"/>
+      <c r="KP42" s="15"/>
+      <c r="KQ42" s="15"/>
+      <c r="KR42" s="15"/>
+      <c r="KS42" s="15"/>
+      <c r="KT42" s="15"/>
+      <c r="KU42" s="15"/>
+      <c r="KV42" s="15"/>
+      <c r="KW42" s="15"/>
+      <c r="KX42" s="15"/>
+      <c r="KY42" s="15"/>
+      <c r="KZ42" s="15"/>
+      <c r="LA42" s="15"/>
+      <c r="LB42" s="15"/>
+      <c r="LC42" s="15"/>
+      <c r="LD42" s="15"/>
+      <c r="LE42" s="15"/>
+      <c r="LF42" s="15"/>
+      <c r="LG42" s="15"/>
+      <c r="LH42" s="15"/>
+      <c r="LI42" s="15"/>
+      <c r="LJ42" s="15"/>
+      <c r="LK42" s="15"/>
+      <c r="LL42" s="15"/>
+      <c r="LM42" s="15"/>
+      <c r="LN42" s="15"/>
+      <c r="LO42" s="15"/>
+      <c r="LP42" s="15"/>
+      <c r="LQ42" s="15"/>
+      <c r="LR42" s="15"/>
+      <c r="LS42" s="15"/>
+      <c r="LT42" s="15"/>
+      <c r="LU42" s="15"/>
+      <c r="LV42" s="15"/>
+      <c r="LW42" s="15"/>
+      <c r="LX42" s="15"/>
+      <c r="LY42" s="15"/>
+      <c r="LZ42" s="15"/>
+      <c r="MA42" s="15"/>
+      <c r="MB42" s="15"/>
+      <c r="MC42" s="15"/>
+      <c r="MD42" s="15"/>
+      <c r="ME42" s="15"/>
+      <c r="MF42" s="15"/>
+      <c r="MG42" s="15"/>
+      <c r="MH42" s="15"/>
+      <c r="MI42" s="15"/>
+      <c r="MJ42" s="15"/>
+      <c r="MK42" s="15"/>
+      <c r="ML42" s="15"/>
+      <c r="MM42" s="15"/>
+      <c r="MN42" s="15"/>
+      <c r="MO42" s="15"/>
+      <c r="MP42" s="15"/>
+      <c r="MQ42" s="15"/>
+      <c r="MR42" s="15"/>
+      <c r="MS42" s="15"/>
+      <c r="MT42" s="15"/>
+      <c r="MU42" s="15"/>
+      <c r="MV42" s="15"/>
+      <c r="MW42" s="15"/>
+      <c r="MX42" s="15"/>
+      <c r="MY42" s="15"/>
+      <c r="MZ42" s="15"/>
+      <c r="NA42" s="15"/>
+      <c r="NB42" s="15"/>
+      <c r="NC42" s="15"/>
+      <c r="ND42" s="15"/>
+      <c r="NE42" s="15"/>
+      <c r="NF42" s="15"/>
+      <c r="NG42" s="15"/>
+      <c r="NH42" s="15"/>
+      <c r="NI42" s="15"/>
+      <c r="NJ42" s="15"/>
+      <c r="NK42" s="15"/>
+      <c r="NL42" s="15"/>
+      <c r="NM42" s="15"/>
+      <c r="NN42" s="15"/>
+      <c r="NO42" s="15"/>
+      <c r="NP42" s="15"/>
+      <c r="NQ42" s="15"/>
+      <c r="NR42" s="15"/>
+      <c r="NS42" s="15"/>
+      <c r="NT42" s="15"/>
+      <c r="NU42" s="15"/>
+      <c r="NV42" s="15"/>
+      <c r="NW42" s="15"/>
+      <c r="NX42" s="15"/>
+      <c r="NY42" s="15"/>
+      <c r="NZ42" s="15"/>
+      <c r="OA42" s="15"/>
+      <c r="OB42" s="15"/>
+      <c r="OC42" s="15"/>
+      <c r="OD42" s="15"/>
+      <c r="OE42" s="15"/>
+      <c r="OF42" s="15"/>
+      <c r="OG42" s="15"/>
+      <c r="OH42" s="15"/>
+      <c r="OI42" s="15"/>
+      <c r="OJ42" s="15"/>
+      <c r="OK42" s="15"/>
+      <c r="OL42" s="15"/>
+      <c r="OM42" s="15"/>
+      <c r="ON42" s="15"/>
+      <c r="OO42" s="15"/>
+      <c r="OP42" s="15"/>
+      <c r="OQ42" s="15"/>
+      <c r="OR42" s="15"/>
+      <c r="OS42" s="15"/>
+      <c r="OT42" s="15"/>
+      <c r="OU42" s="15"/>
+      <c r="OV42" s="15"/>
+      <c r="OW42" s="15"/>
+      <c r="OX42" s="15"/>
+      <c r="OY42" s="15"/>
+      <c r="OZ42" s="15"/>
+      <c r="PA42" s="15"/>
+      <c r="PB42" s="15"/>
+      <c r="PC42" s="15"/>
+      <c r="PD42" s="15"/>
+      <c r="PE42" s="15"/>
+      <c r="PF42" s="15"/>
+      <c r="PG42" s="15"/>
+      <c r="PH42" s="15"/>
+      <c r="PI42" s="15"/>
+      <c r="PJ42" s="15"/>
+      <c r="PK42" s="15"/>
+      <c r="PL42" s="15"/>
+      <c r="PM42" s="15"/>
+      <c r="PN42" s="15"/>
+      <c r="PO42" s="15"/>
+      <c r="PP42" s="15"/>
+      <c r="PQ42" s="15"/>
+      <c r="PR42" s="15"/>
+      <c r="PS42" s="15"/>
+      <c r="PT42" s="15"/>
+      <c r="PU42" s="15"/>
+      <c r="PV42" s="15"/>
+      <c r="PW42" s="15"/>
+      <c r="PX42" s="15"/>
+      <c r="PY42" s="15"/>
+      <c r="PZ42" s="15"/>
+      <c r="QA42" s="15"/>
+      <c r="QB42" s="15"/>
+      <c r="QC42" s="15"/>
+      <c r="QD42" s="15"/>
+      <c r="QE42" s="15"/>
+      <c r="QF42" s="15"/>
+      <c r="QG42" s="15"/>
+      <c r="QH42" s="15"/>
+      <c r="QI42" s="15"/>
+      <c r="QJ42" s="15"/>
+      <c r="QK42" s="15"/>
+      <c r="QL42" s="15"/>
+      <c r="QM42" s="15"/>
+      <c r="QN42" s="15"/>
+      <c r="QO42" s="15"/>
+      <c r="QP42" s="15"/>
+      <c r="QQ42" s="15"/>
+      <c r="QR42" s="15"/>
+      <c r="QS42" s="15"/>
+      <c r="QT42" s="15"/>
+      <c r="QU42" s="15"/>
+      <c r="QV42" s="15"/>
+      <c r="QW42" s="15"/>
+      <c r="QX42" s="15"/>
+      <c r="QY42" s="15"/>
+      <c r="QZ42" s="15"/>
+      <c r="RA42" s="15"/>
+      <c r="RB42" s="15"/>
+      <c r="RC42" s="15"/>
+      <c r="RD42" s="15"/>
+      <c r="RE42" s="15"/>
+      <c r="RF42" s="15"/>
+      <c r="RG42" s="15"/>
+      <c r="RH42" s="15"/>
+      <c r="RI42" s="15"/>
+      <c r="RJ42" s="15"/>
+      <c r="RK42" s="15"/>
+      <c r="RL42" s="15"/>
+      <c r="RM42" s="15"/>
+      <c r="RN42" s="15"/>
+      <c r="RO42" s="15"/>
+      <c r="RP42" s="15"/>
+      <c r="RQ42" s="15"/>
+      <c r="RR42" s="15"/>
+      <c r="RS42" s="15"/>
+      <c r="RT42" s="15"/>
+      <c r="RU42" s="15"/>
+      <c r="RV42" s="15"/>
+      <c r="RW42" s="15"/>
+      <c r="RX42" s="15"/>
+      <c r="RY42" s="15"/>
+      <c r="RZ42" s="15"/>
+      <c r="SA42" s="15"/>
+      <c r="SB42" s="15"/>
+      <c r="SC42" s="15"/>
+      <c r="SD42" s="15"/>
+      <c r="SE42" s="15"/>
+      <c r="SF42" s="15"/>
+      <c r="SG42" s="15"/>
+      <c r="SH42" s="15"/>
+      <c r="SI42" s="15"/>
+      <c r="SJ42" s="15"/>
+      <c r="SK42" s="15"/>
+      <c r="SL42" s="15"/>
+      <c r="SM42" s="15"/>
+      <c r="SN42" s="15"/>
+      <c r="SO42" s="15"/>
+      <c r="SP42" s="15"/>
+      <c r="SQ42" s="15"/>
+      <c r="SR42" s="15"/>
+      <c r="SS42" s="15"/>
+      <c r="ST42" s="15"/>
+      <c r="SU42" s="15"/>
+      <c r="SV42" s="15"/>
+      <c r="SW42" s="15"/>
+      <c r="SX42" s="15"/>
+      <c r="SY42" s="15"/>
+      <c r="SZ42" s="15"/>
+      <c r="TA42" s="15"/>
+      <c r="TB42" s="15"/>
+      <c r="TC42" s="15"/>
+      <c r="TD42" s="15"/>
+      <c r="TE42" s="15"/>
+      <c r="TF42" s="15"/>
+      <c r="TG42" s="15"/>
+      <c r="TH42" s="15"/>
+      <c r="TI42" s="15"/>
+      <c r="TJ42" s="15"/>
+      <c r="TK42" s="15"/>
+      <c r="TL42" s="15"/>
+      <c r="TM42" s="15"/>
+      <c r="TN42" s="15"/>
+      <c r="TO42" s="15"/>
+      <c r="TP42" s="15"/>
+      <c r="TQ42" s="15"/>
+      <c r="TR42" s="15"/>
+      <c r="TS42" s="15"/>
+      <c r="TT42" s="15"/>
+      <c r="TU42" s="15"/>
+      <c r="TV42" s="15"/>
+      <c r="TW42" s="15"/>
+      <c r="TX42" s="15"/>
+      <c r="TY42" s="15"/>
+      <c r="TZ42" s="15"/>
+      <c r="UA42" s="15"/>
+      <c r="UB42" s="15"/>
+      <c r="UC42" s="15"/>
+      <c r="UD42" s="15"/>
+      <c r="UE42" s="15"/>
+      <c r="UF42" s="15"/>
+      <c r="UG42" s="15"/>
+      <c r="UH42" s="15"/>
+      <c r="UI42" s="15"/>
+      <c r="UJ42" s="15"/>
+      <c r="UK42" s="15"/>
+      <c r="UL42" s="15"/>
+      <c r="UM42" s="15"/>
+      <c r="UN42" s="15"/>
+      <c r="UO42" s="15"/>
+      <c r="UP42" s="15"/>
+      <c r="UQ42" s="15"/>
+      <c r="UR42" s="15"/>
+      <c r="US42" s="15"/>
+      <c r="UT42" s="15"/>
+      <c r="UU42" s="15"/>
+      <c r="UV42" s="15"/>
+      <c r="UW42" s="15"/>
+      <c r="UX42" s="15"/>
+      <c r="UY42" s="15"/>
+      <c r="UZ42" s="15"/>
+      <c r="VA42" s="15"/>
+      <c r="VB42" s="15"/>
+      <c r="VC42" s="15"/>
+      <c r="VD42" s="15"/>
+      <c r="VE42" s="15"/>
+      <c r="VF42" s="15"/>
+      <c r="VG42" s="15"/>
+      <c r="VH42" s="15"/>
+      <c r="VI42" s="15"/>
+      <c r="VJ42" s="15"/>
+      <c r="VK42" s="15"/>
+      <c r="VL42" s="15"/>
+      <c r="VM42" s="15"/>
+      <c r="VN42" s="15"/>
+      <c r="VO42" s="15"/>
+      <c r="VP42" s="15"/>
+      <c r="VQ42" s="15"/>
+      <c r="VR42" s="15"/>
+      <c r="VS42" s="15"/>
+      <c r="VT42" s="15"/>
+      <c r="VU42" s="15"/>
+      <c r="VV42" s="15"/>
+      <c r="VW42" s="15"/>
+      <c r="VX42" s="15"/>
+      <c r="VY42" s="15"/>
+      <c r="VZ42" s="15"/>
+      <c r="WA42" s="15"/>
+      <c r="WB42" s="15"/>
+      <c r="WC42" s="15"/>
+      <c r="WD42" s="15"/>
+      <c r="WE42" s="15"/>
+      <c r="WF42" s="15"/>
+      <c r="WG42" s="15"/>
+      <c r="WH42" s="15"/>
+      <c r="WI42" s="15"/>
+      <c r="WJ42" s="15"/>
+      <c r="WK42" s="15"/>
+      <c r="WL42" s="15"/>
+      <c r="WM42" s="15"/>
+      <c r="WN42" s="15"/>
+      <c r="WO42" s="15"/>
+      <c r="WP42" s="15"/>
+      <c r="WQ42" s="15"/>
+      <c r="WR42" s="15"/>
+      <c r="WS42" s="15"/>
+      <c r="WT42" s="15"/>
+      <c r="WU42" s="15"/>
+      <c r="WV42" s="15"/>
+      <c r="WW42" s="15"/>
+      <c r="WX42" s="15"/>
+      <c r="WY42" s="15"/>
+      <c r="WZ42" s="15"/>
+      <c r="XA42" s="15"/>
+      <c r="XB42" s="15"/>
+      <c r="XC42" s="15"/>
+      <c r="XD42" s="15"/>
+      <c r="XE42" s="15"/>
+      <c r="XF42" s="15"/>
+      <c r="XG42" s="15"/>
+      <c r="XH42" s="15"/>
+      <c r="XI42" s="15"/>
+      <c r="XJ42" s="15"/>
+      <c r="XK42" s="15"/>
+      <c r="XL42" s="15"/>
+      <c r="XM42" s="15"/>
+      <c r="XN42" s="15"/>
+      <c r="XO42" s="15"/>
+      <c r="XP42" s="15"/>
+      <c r="XQ42" s="15"/>
+      <c r="XR42" s="15"/>
+      <c r="XS42" s="15"/>
+      <c r="XT42" s="15"/>
+      <c r="XU42" s="15"/>
+      <c r="XV42" s="15"/>
+      <c r="XW42" s="15"/>
+      <c r="XX42" s="15"/>
+      <c r="XY42" s="15"/>
+      <c r="XZ42" s="15"/>
+      <c r="YA42" s="15"/>
+      <c r="YB42" s="15"/>
+      <c r="YC42" s="15"/>
+      <c r="YD42" s="15"/>
+      <c r="YE42" s="15"/>
+      <c r="YF42" s="15"/>
+      <c r="YG42" s="15"/>
+      <c r="YH42" s="15"/>
+      <c r="YI42" s="15"/>
+      <c r="YJ42" s="15"/>
+      <c r="YK42" s="15"/>
+      <c r="YL42" s="15"/>
+      <c r="YM42" s="15"/>
+      <c r="YN42" s="15"/>
+      <c r="YO42" s="15"/>
+      <c r="YP42" s="15"/>
+      <c r="YQ42" s="15"/>
+      <c r="YR42" s="15"/>
+      <c r="YS42" s="15"/>
+      <c r="YT42" s="15"/>
+      <c r="YU42" s="15"/>
+      <c r="YV42" s="15"/>
+      <c r="YW42" s="15"/>
+      <c r="YX42" s="15"/>
+      <c r="YY42" s="15"/>
+      <c r="YZ42" s="15"/>
+      <c r="ZA42" s="15"/>
+      <c r="ZB42" s="15"/>
+      <c r="ZC42" s="15"/>
+      <c r="ZD42" s="15"/>
+      <c r="ZE42" s="15"/>
+      <c r="ZF42" s="15"/>
+      <c r="ZG42" s="15"/>
+      <c r="ZH42" s="15"/>
+      <c r="ZI42" s="15"/>
+      <c r="ZJ42" s="15"/>
+      <c r="ZK42" s="15"/>
+      <c r="ZL42" s="15"/>
+      <c r="ZM42" s="15"/>
+      <c r="ZN42" s="15"/>
+      <c r="ZO42" s="15"/>
+      <c r="ZP42" s="15"/>
+      <c r="ZQ42" s="15"/>
+      <c r="ZR42" s="15"/>
+      <c r="ZS42" s="15"/>
+      <c r="ZT42" s="15"/>
+      <c r="ZU42" s="15"/>
+      <c r="ZV42" s="15"/>
+      <c r="ZW42" s="15"/>
+      <c r="ZX42" s="15"/>
+      <c r="ZY42" s="15"/>
+      <c r="ZZ42" s="15"/>
+      <c r="AAA42" s="15"/>
+      <c r="AAB42" s="15"/>
+      <c r="AAC42" s="15"/>
+      <c r="AAD42" s="15"/>
+      <c r="AAE42" s="15"/>
+      <c r="AAF42" s="15"/>
+      <c r="AAG42" s="15"/>
+      <c r="AAH42" s="15"/>
+      <c r="AAI42" s="15"/>
+      <c r="AAJ42" s="15"/>
+      <c r="AAK42" s="15"/>
+      <c r="AAL42" s="15"/>
+      <c r="AAM42" s="15"/>
+      <c r="AAN42" s="15"/>
+      <c r="AAO42" s="15"/>
+      <c r="AAP42" s="15"/>
+      <c r="AAQ42" s="15"/>
+      <c r="AAR42" s="15"/>
+      <c r="AAS42" s="15"/>
+      <c r="AAT42" s="15"/>
+      <c r="AAU42" s="15"/>
+      <c r="AAV42" s="15"/>
+      <c r="AAW42" s="15"/>
+      <c r="AAX42" s="15"/>
+      <c r="AAY42" s="15"/>
+      <c r="AAZ42" s="15"/>
+      <c r="ABA42" s="15"/>
+      <c r="ABB42" s="15"/>
+      <c r="ABC42" s="15"/>
+      <c r="ABD42" s="15"/>
+      <c r="ABE42" s="15"/>
+      <c r="ABF42" s="15"/>
+      <c r="ABG42" s="15"/>
+      <c r="ABH42" s="15"/>
+      <c r="ABI42" s="15"/>
+      <c r="ABJ42" s="15"/>
+      <c r="ABK42" s="15"/>
+      <c r="ABL42" s="15"/>
+      <c r="ABM42" s="15"/>
+      <c r="ABN42" s="15"/>
+      <c r="ABO42" s="15"/>
+      <c r="ABP42" s="15"/>
+      <c r="ABQ42" s="15"/>
+      <c r="ABR42" s="15"/>
+      <c r="ABS42" s="15"/>
+      <c r="ABT42" s="15"/>
+      <c r="ABU42" s="15"/>
+      <c r="ABV42" s="15"/>
+      <c r="ABW42" s="15"/>
+      <c r="ABX42" s="15"/>
+      <c r="ABY42" s="15"/>
+      <c r="ABZ42" s="15"/>
+      <c r="ACA42" s="15"/>
+      <c r="ACB42" s="15"/>
+      <c r="ACC42" s="15"/>
+      <c r="ACD42" s="15"/>
+      <c r="ACE42" s="15"/>
+      <c r="ACF42" s="15"/>
+      <c r="ACG42" s="15"/>
+      <c r="ACH42" s="15"/>
+      <c r="ACI42" s="15"/>
+      <c r="ACJ42" s="15"/>
+      <c r="ACK42" s="15"/>
+      <c r="ACL42" s="15"/>
+      <c r="ACM42" s="15"/>
+      <c r="ACN42" s="15"/>
+      <c r="ACO42" s="15"/>
+      <c r="ACP42" s="15"/>
+      <c r="ACQ42" s="15"/>
+      <c r="ACR42" s="15"/>
+      <c r="ACS42" s="15"/>
+      <c r="ACT42" s="15"/>
+      <c r="ACU42" s="15"/>
+      <c r="ACV42" s="15"/>
+      <c r="ACW42" s="15"/>
+      <c r="ACX42" s="15"/>
+      <c r="ACY42" s="15"/>
+      <c r="ACZ42" s="15"/>
+      <c r="ADA42" s="15"/>
+      <c r="ADB42" s="15"/>
+      <c r="ADC42" s="15"/>
+      <c r="ADD42" s="15"/>
+      <c r="ADE42" s="15"/>
+      <c r="ADF42" s="15"/>
+      <c r="ADG42" s="15"/>
+      <c r="ADH42" s="15"/>
+      <c r="ADI42" s="15"/>
+      <c r="ADJ42" s="15"/>
+      <c r="ADK42" s="15"/>
+      <c r="ADL42" s="15"/>
+      <c r="ADM42" s="15"/>
+      <c r="ADN42" s="15"/>
+      <c r="ADO42" s="15"/>
+      <c r="ADP42" s="15"/>
+      <c r="ADQ42" s="15"/>
+      <c r="ADR42" s="15"/>
+      <c r="ADS42" s="15"/>
+      <c r="ADT42" s="15"/>
+      <c r="ADU42" s="15"/>
+      <c r="ADV42" s="15"/>
+      <c r="ADW42" s="15"/>
+      <c r="ADX42" s="15"/>
+      <c r="ADY42" s="15"/>
+      <c r="ADZ42" s="15"/>
+      <c r="AEA42" s="15"/>
+      <c r="AEB42" s="15"/>
+      <c r="AEC42" s="15"/>
+      <c r="AED42" s="15"/>
+      <c r="AEE42" s="15"/>
+      <c r="AEF42" s="15"/>
+      <c r="AEG42" s="15"/>
+      <c r="AEH42" s="15"/>
+      <c r="AEI42" s="15"/>
+      <c r="AEJ42" s="15"/>
+      <c r="AEK42" s="15"/>
+      <c r="AEL42" s="15"/>
+      <c r="AEM42" s="15"/>
+      <c r="AEN42" s="15"/>
+      <c r="AEO42" s="15"/>
+      <c r="AEP42" s="15"/>
+      <c r="AEQ42" s="15"/>
+      <c r="AER42" s="15"/>
+      <c r="AES42" s="15"/>
+      <c r="AET42" s="15"/>
+      <c r="AEU42" s="15"/>
+      <c r="AEV42" s="15"/>
+      <c r="AEW42" s="15"/>
+      <c r="AEX42" s="15"/>
+      <c r="AEY42" s="15"/>
+      <c r="AEZ42" s="15"/>
+      <c r="AFA42" s="15"/>
+      <c r="AFB42" s="15"/>
+      <c r="AFC42" s="15"/>
+      <c r="AFD42" s="15"/>
+      <c r="AFE42" s="15"/>
+      <c r="AFF42" s="15"/>
+      <c r="AFG42" s="15"/>
+      <c r="AFH42" s="15"/>
+      <c r="AFI42" s="15"/>
+      <c r="AFJ42" s="15"/>
+      <c r="AFK42" s="15"/>
+      <c r="AFL42" s="15"/>
+      <c r="AFM42" s="15"/>
+      <c r="AFN42" s="15"/>
+      <c r="AFO42" s="15"/>
+      <c r="AFP42" s="15"/>
+      <c r="AFQ42" s="15"/>
+      <c r="AFR42" s="15"/>
+      <c r="AFS42" s="15"/>
+      <c r="AFT42" s="15"/>
+      <c r="AFU42" s="15"/>
+      <c r="AFV42" s="15"/>
+      <c r="AFW42" s="15"/>
+      <c r="AFX42" s="15"/>
+      <c r="AFY42" s="15"/>
+      <c r="AFZ42" s="15"/>
+      <c r="AGA42" s="15"/>
+      <c r="AGB42" s="15"/>
+      <c r="AGC42" s="15"/>
+      <c r="AGD42" s="15"/>
+      <c r="AGE42" s="15"/>
+      <c r="AGF42" s="15"/>
+      <c r="AGG42" s="15"/>
+      <c r="AGH42" s="15"/>
+      <c r="AGI42" s="15"/>
+      <c r="AGJ42" s="15"/>
+      <c r="AGK42" s="15"/>
+      <c r="AGL42" s="15"/>
+      <c r="AGM42" s="15"/>
+      <c r="AGN42" s="15"/>
+      <c r="AGO42" s="15"/>
+      <c r="AGP42" s="15"/>
+      <c r="AGQ42" s="15"/>
+      <c r="AGR42" s="15"/>
+      <c r="AGS42" s="15"/>
+      <c r="AGT42" s="15"/>
+      <c r="AGU42" s="15"/>
+      <c r="AGV42" s="15"/>
+      <c r="AGW42" s="15"/>
+      <c r="AGX42" s="15"/>
+      <c r="AGY42" s="15"/>
+      <c r="AGZ42" s="15"/>
+      <c r="AHA42" s="15"/>
+      <c r="AHB42" s="15"/>
+      <c r="AHC42" s="15"/>
+      <c r="AHD42" s="15"/>
+      <c r="AHE42" s="15"/>
+      <c r="AHF42" s="15"/>
+      <c r="AHG42" s="15"/>
+      <c r="AHH42" s="15"/>
+      <c r="AHI42" s="15"/>
+      <c r="AHJ42" s="15"/>
+      <c r="AHK42" s="15"/>
+      <c r="AHL42" s="15"/>
+      <c r="AHM42" s="15"/>
+      <c r="AHN42" s="15"/>
+      <c r="AHO42" s="15"/>
+      <c r="AHP42" s="15"/>
+      <c r="AHQ42" s="15"/>
+      <c r="AHR42" s="15"/>
+      <c r="AHS42" s="15"/>
+      <c r="AHT42" s="15"/>
+      <c r="AHU42" s="15"/>
+      <c r="AHV42" s="15"/>
+      <c r="AHW42" s="15"/>
+      <c r="AHX42" s="15"/>
+      <c r="AHY42" s="15"/>
+      <c r="AHZ42" s="15"/>
+      <c r="AIA42" s="15"/>
+      <c r="AIB42" s="15"/>
+      <c r="AIC42" s="15"/>
+      <c r="AID42" s="15"/>
+      <c r="AIE42" s="15"/>
+      <c r="AIF42" s="15"/>
+      <c r="AIG42" s="15"/>
+      <c r="AIH42" s="15"/>
+      <c r="AII42" s="15"/>
+      <c r="AIJ42" s="15"/>
+      <c r="AIK42" s="15"/>
+      <c r="AIL42" s="15"/>
+      <c r="AIM42" s="15"/>
+      <c r="AIN42" s="15"/>
+      <c r="AIO42" s="15"/>
+      <c r="AIP42" s="15"/>
+      <c r="AIQ42" s="15"/>
+      <c r="AIR42" s="15"/>
+      <c r="AIS42" s="15"/>
+      <c r="AIT42" s="15"/>
+      <c r="AIU42" s="15"/>
+      <c r="AIV42" s="15"/>
+      <c r="AIW42" s="15"/>
+      <c r="AIX42" s="15"/>
+      <c r="AIY42" s="15"/>
+      <c r="AIZ42" s="15"/>
+      <c r="AJA42" s="15"/>
+      <c r="AJB42" s="15"/>
+      <c r="AJC42" s="15"/>
+      <c r="AJD42" s="15"/>
+      <c r="AJE42" s="15"/>
+      <c r="AJF42" s="15"/>
+      <c r="AJG42" s="15"/>
+      <c r="AJH42" s="15"/>
+      <c r="AJI42" s="15"/>
+      <c r="AJJ42" s="15"/>
+      <c r="AJK42" s="15"/>
+      <c r="AJL42" s="15"/>
+      <c r="AJM42" s="15"/>
+      <c r="AJN42" s="15"/>
+      <c r="AJO42" s="15"/>
+      <c r="AJP42" s="15"/>
+      <c r="AJQ42" s="15"/>
+      <c r="AJR42" s="15"/>
+      <c r="AJS42" s="15"/>
+      <c r="AJT42" s="15"/>
+      <c r="AJU42" s="15"/>
+      <c r="AJV42" s="15"/>
+      <c r="AJW42" s="15"/>
+      <c r="AJX42" s="15"/>
+      <c r="AJY42" s="15"/>
+      <c r="AJZ42" s="15"/>
+      <c r="AKA42" s="15"/>
+      <c r="AKB42" s="15"/>
+      <c r="AKC42" s="15"/>
+      <c r="AKD42" s="15"/>
+      <c r="AKE42" s="15"/>
+      <c r="AKF42" s="15"/>
+      <c r="AKG42" s="15"/>
+      <c r="AKH42" s="15"/>
+      <c r="AKI42" s="15"/>
+      <c r="AKJ42" s="15"/>
+      <c r="AKK42" s="15"/>
+      <c r="AKL42" s="15"/>
+      <c r="AKM42" s="15"/>
+      <c r="AKN42" s="15"/>
+      <c r="AKO42" s="15"/>
+      <c r="AKP42" s="15"/>
+      <c r="AKQ42" s="15"/>
+      <c r="AKR42" s="15"/>
+      <c r="AKS42" s="15"/>
+      <c r="AKT42" s="15"/>
+      <c r="AKU42" s="15"/>
+      <c r="AKV42" s="15"/>
+      <c r="AKW42" s="15"/>
+      <c r="AKX42" s="15"/>
+      <c r="AKY42" s="15"/>
+      <c r="AKZ42" s="15"/>
+      <c r="ALA42" s="15"/>
+      <c r="ALB42" s="15"/>
+      <c r="ALC42" s="15"/>
+      <c r="ALD42" s="15"/>
+      <c r="ALE42" s="15"/>
+      <c r="ALF42" s="15"/>
+      <c r="ALG42" s="15"/>
+      <c r="ALH42" s="15"/>
+      <c r="ALI42" s="15"/>
+      <c r="ALJ42" s="15"/>
+      <c r="ALK42" s="15"/>
+      <c r="ALL42" s="15"/>
+      <c r="ALM42" s="15"/>
+      <c r="ALN42" s="15"/>
+      <c r="ALO42" s="15"/>
+      <c r="ALP42" s="15"/>
+      <c r="ALQ42" s="15"/>
+      <c r="ALR42" s="15"/>
+      <c r="ALS42" s="15"/>
+      <c r="ALT42" s="15"/>
+      <c r="ALU42" s="15"/>
+      <c r="ALV42" s="15"/>
+      <c r="ALW42" s="15"/>
+      <c r="ALX42" s="15"/>
+      <c r="ALY42" s="15"/>
+      <c r="ALZ42" s="15"/>
+      <c r="AMA42" s="15"/>
+      <c r="AMB42" s="15"/>
+      <c r="AMC42" s="15"/>
+      <c r="AMD42" s="15"/>
+      <c r="AME42" s="15"/>
+      <c r="AMF42" s="15"/>
+      <c r="AMG42" s="15"/>
+      <c r="AMH42" s="15"/>
+      <c r="AMI42" s="15"/>
+      <c r="AMJ42" s="15"/>
+      <c r="AMK42" s="15"/>
+      <c r="AML42" s="15"/>
+      <c r="AMM42" s="15"/>
+    </row>
+    <row r="43" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="21" t="s">
         <v>527</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="18">
         <v>45070</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="K43" s="19"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="15" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="44" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
+      <c r="AR43" s="15"/>
+      <c r="AS43" s="15"/>
+      <c r="AT43" s="15"/>
+      <c r="AU43" s="15"/>
+      <c r="AV43" s="15"/>
+      <c r="AW43" s="15"/>
+      <c r="AX43" s="15"/>
+      <c r="AY43" s="15"/>
+      <c r="AZ43" s="15"/>
+      <c r="BA43" s="15"/>
+      <c r="BB43" s="15"/>
+      <c r="BC43" s="15"/>
+      <c r="BD43" s="15"/>
+      <c r="BE43" s="15"/>
+      <c r="BF43" s="15"/>
+      <c r="BG43" s="15"/>
+      <c r="BH43" s="15"/>
+      <c r="BI43" s="15"/>
+      <c r="BJ43" s="15"/>
+      <c r="BK43" s="15"/>
+      <c r="BL43" s="15"/>
+      <c r="BM43" s="15"/>
+      <c r="BN43" s="15"/>
+      <c r="BO43" s="15"/>
+      <c r="BP43" s="15"/>
+      <c r="BQ43" s="15"/>
+      <c r="BR43" s="15"/>
+      <c r="BS43" s="15"/>
+      <c r="BT43" s="15"/>
+      <c r="BU43" s="15"/>
+      <c r="BV43" s="15"/>
+      <c r="BW43" s="15"/>
+      <c r="BX43" s="15"/>
+      <c r="BY43" s="15"/>
+      <c r="BZ43" s="15"/>
+      <c r="CA43" s="15"/>
+      <c r="CB43" s="15"/>
+      <c r="CC43" s="15"/>
+      <c r="CD43" s="15"/>
+      <c r="CE43" s="15"/>
+      <c r="CF43" s="15"/>
+      <c r="CG43" s="15"/>
+      <c r="CH43" s="15"/>
+      <c r="CI43" s="15"/>
+      <c r="CJ43" s="15"/>
+      <c r="CK43" s="15"/>
+      <c r="CL43" s="15"/>
+      <c r="CM43" s="15"/>
+      <c r="CN43" s="15"/>
+      <c r="CO43" s="15"/>
+      <c r="CP43" s="15"/>
+      <c r="CQ43" s="15"/>
+      <c r="CR43" s="15"/>
+      <c r="CS43" s="15"/>
+      <c r="CT43" s="15"/>
+      <c r="CU43" s="15"/>
+      <c r="CV43" s="15"/>
+      <c r="CW43" s="15"/>
+      <c r="CX43" s="15"/>
+      <c r="CY43" s="15"/>
+      <c r="CZ43" s="15"/>
+      <c r="DA43" s="15"/>
+      <c r="DB43" s="15"/>
+      <c r="DC43" s="15"/>
+      <c r="DD43" s="15"/>
+      <c r="DE43" s="15"/>
+      <c r="DF43" s="15"/>
+      <c r="DG43" s="15"/>
+      <c r="DH43" s="15"/>
+      <c r="DI43" s="15"/>
+      <c r="DJ43" s="15"/>
+      <c r="DK43" s="15"/>
+      <c r="DL43" s="15"/>
+      <c r="DM43" s="15"/>
+      <c r="DN43" s="15"/>
+      <c r="DO43" s="15"/>
+      <c r="DP43" s="15"/>
+      <c r="DQ43" s="15"/>
+      <c r="DR43" s="15"/>
+      <c r="DS43" s="15"/>
+      <c r="DT43" s="15"/>
+      <c r="DU43" s="15"/>
+      <c r="DV43" s="15"/>
+      <c r="DW43" s="15"/>
+      <c r="DX43" s="15"/>
+      <c r="DY43" s="15"/>
+      <c r="DZ43" s="15"/>
+      <c r="EA43" s="15"/>
+      <c r="EB43" s="15"/>
+      <c r="EC43" s="15"/>
+      <c r="ED43" s="15"/>
+      <c r="EE43" s="15"/>
+      <c r="EF43" s="15"/>
+      <c r="EG43" s="15"/>
+      <c r="EH43" s="15"/>
+      <c r="EI43" s="15"/>
+      <c r="EJ43" s="15"/>
+      <c r="EK43" s="15"/>
+      <c r="EL43" s="15"/>
+      <c r="EM43" s="15"/>
+      <c r="EN43" s="15"/>
+      <c r="EO43" s="15"/>
+      <c r="EP43" s="15"/>
+      <c r="EQ43" s="15"/>
+      <c r="ER43" s="15"/>
+      <c r="ES43" s="15"/>
+      <c r="ET43" s="15"/>
+      <c r="EU43" s="15"/>
+      <c r="EV43" s="15"/>
+      <c r="EW43" s="15"/>
+      <c r="EX43" s="15"/>
+      <c r="EY43" s="15"/>
+      <c r="EZ43" s="15"/>
+      <c r="FA43" s="15"/>
+      <c r="FB43" s="15"/>
+      <c r="FC43" s="15"/>
+      <c r="FD43" s="15"/>
+      <c r="FE43" s="15"/>
+      <c r="FF43" s="15"/>
+      <c r="FG43" s="15"/>
+      <c r="FH43" s="15"/>
+      <c r="FI43" s="15"/>
+      <c r="FJ43" s="15"/>
+      <c r="FK43" s="15"/>
+      <c r="FL43" s="15"/>
+      <c r="FM43" s="15"/>
+      <c r="FN43" s="15"/>
+      <c r="FO43" s="15"/>
+      <c r="FP43" s="15"/>
+      <c r="FQ43" s="15"/>
+      <c r="FR43" s="15"/>
+      <c r="FS43" s="15"/>
+      <c r="FT43" s="15"/>
+      <c r="FU43" s="15"/>
+      <c r="FV43" s="15"/>
+      <c r="FW43" s="15"/>
+      <c r="FX43" s="15"/>
+      <c r="FY43" s="15"/>
+      <c r="FZ43" s="15"/>
+      <c r="GA43" s="15"/>
+      <c r="GB43" s="15"/>
+      <c r="GC43" s="15"/>
+      <c r="GD43" s="15"/>
+      <c r="GE43" s="15"/>
+      <c r="GF43" s="15"/>
+      <c r="GG43" s="15"/>
+      <c r="GH43" s="15"/>
+      <c r="GI43" s="15"/>
+      <c r="GJ43" s="15"/>
+      <c r="GK43" s="15"/>
+      <c r="GL43" s="15"/>
+      <c r="GM43" s="15"/>
+      <c r="GN43" s="15"/>
+      <c r="GO43" s="15"/>
+      <c r="GP43" s="15"/>
+      <c r="GQ43" s="15"/>
+      <c r="GR43" s="15"/>
+      <c r="GS43" s="15"/>
+      <c r="GT43" s="15"/>
+      <c r="GU43" s="15"/>
+      <c r="GV43" s="15"/>
+      <c r="GW43" s="15"/>
+      <c r="GX43" s="15"/>
+      <c r="GY43" s="15"/>
+      <c r="GZ43" s="15"/>
+      <c r="HA43" s="15"/>
+      <c r="HB43" s="15"/>
+      <c r="HC43" s="15"/>
+      <c r="HD43" s="15"/>
+      <c r="HE43" s="15"/>
+      <c r="HF43" s="15"/>
+      <c r="HG43" s="15"/>
+      <c r="HH43" s="15"/>
+      <c r="HI43" s="15"/>
+      <c r="HJ43" s="15"/>
+      <c r="HK43" s="15"/>
+      <c r="HL43" s="15"/>
+      <c r="HM43" s="15"/>
+      <c r="HN43" s="15"/>
+      <c r="HO43" s="15"/>
+      <c r="HP43" s="15"/>
+      <c r="HQ43" s="15"/>
+      <c r="HR43" s="15"/>
+      <c r="HS43" s="15"/>
+      <c r="HT43" s="15"/>
+      <c r="HU43" s="15"/>
+      <c r="HV43" s="15"/>
+      <c r="HW43" s="15"/>
+      <c r="HX43" s="15"/>
+      <c r="HY43" s="15"/>
+      <c r="HZ43" s="15"/>
+      <c r="IA43" s="15"/>
+      <c r="IB43" s="15"/>
+      <c r="IC43" s="15"/>
+      <c r="ID43" s="15"/>
+      <c r="IE43" s="15"/>
+      <c r="IF43" s="15"/>
+      <c r="IG43" s="15"/>
+      <c r="IH43" s="15"/>
+      <c r="II43" s="15"/>
+      <c r="IJ43" s="15"/>
+      <c r="IK43" s="15"/>
+      <c r="IL43" s="15"/>
+      <c r="IM43" s="15"/>
+      <c r="IN43" s="15"/>
+      <c r="IO43" s="15"/>
+      <c r="IP43" s="15"/>
+      <c r="IQ43" s="15"/>
+      <c r="IR43" s="15"/>
+      <c r="IS43" s="15"/>
+      <c r="IT43" s="15"/>
+      <c r="IU43" s="15"/>
+      <c r="IV43" s="15"/>
+      <c r="IW43" s="15"/>
+      <c r="IX43" s="15"/>
+      <c r="IY43" s="15"/>
+      <c r="IZ43" s="15"/>
+      <c r="JA43" s="15"/>
+      <c r="JB43" s="15"/>
+      <c r="JC43" s="15"/>
+      <c r="JD43" s="15"/>
+      <c r="JE43" s="15"/>
+      <c r="JF43" s="15"/>
+      <c r="JG43" s="15"/>
+      <c r="JH43" s="15"/>
+      <c r="JI43" s="15"/>
+      <c r="JJ43" s="15"/>
+      <c r="JK43" s="15"/>
+      <c r="JL43" s="15"/>
+      <c r="JM43" s="15"/>
+      <c r="JN43" s="15"/>
+      <c r="JO43" s="15"/>
+      <c r="JP43" s="15"/>
+      <c r="JQ43" s="15"/>
+      <c r="JR43" s="15"/>
+      <c r="JS43" s="15"/>
+      <c r="JT43" s="15"/>
+      <c r="JU43" s="15"/>
+      <c r="JV43" s="15"/>
+      <c r="JW43" s="15"/>
+      <c r="JX43" s="15"/>
+      <c r="JY43" s="15"/>
+      <c r="JZ43" s="15"/>
+      <c r="KA43" s="15"/>
+      <c r="KB43" s="15"/>
+      <c r="KC43" s="15"/>
+      <c r="KD43" s="15"/>
+      <c r="KE43" s="15"/>
+      <c r="KF43" s="15"/>
+      <c r="KG43" s="15"/>
+      <c r="KH43" s="15"/>
+      <c r="KI43" s="15"/>
+      <c r="KJ43" s="15"/>
+      <c r="KK43" s="15"/>
+      <c r="KL43" s="15"/>
+      <c r="KM43" s="15"/>
+      <c r="KN43" s="15"/>
+      <c r="KO43" s="15"/>
+      <c r="KP43" s="15"/>
+      <c r="KQ43" s="15"/>
+      <c r="KR43" s="15"/>
+      <c r="KS43" s="15"/>
+      <c r="KT43" s="15"/>
+      <c r="KU43" s="15"/>
+      <c r="KV43" s="15"/>
+      <c r="KW43" s="15"/>
+      <c r="KX43" s="15"/>
+      <c r="KY43" s="15"/>
+      <c r="KZ43" s="15"/>
+      <c r="LA43" s="15"/>
+      <c r="LB43" s="15"/>
+      <c r="LC43" s="15"/>
+      <c r="LD43" s="15"/>
+      <c r="LE43" s="15"/>
+      <c r="LF43" s="15"/>
+      <c r="LG43" s="15"/>
+      <c r="LH43" s="15"/>
+      <c r="LI43" s="15"/>
+      <c r="LJ43" s="15"/>
+      <c r="LK43" s="15"/>
+      <c r="LL43" s="15"/>
+      <c r="LM43" s="15"/>
+      <c r="LN43" s="15"/>
+      <c r="LO43" s="15"/>
+      <c r="LP43" s="15"/>
+      <c r="LQ43" s="15"/>
+      <c r="LR43" s="15"/>
+      <c r="LS43" s="15"/>
+      <c r="LT43" s="15"/>
+      <c r="LU43" s="15"/>
+      <c r="LV43" s="15"/>
+      <c r="LW43" s="15"/>
+      <c r="LX43" s="15"/>
+      <c r="LY43" s="15"/>
+      <c r="LZ43" s="15"/>
+      <c r="MA43" s="15"/>
+      <c r="MB43" s="15"/>
+      <c r="MC43" s="15"/>
+      <c r="MD43" s="15"/>
+      <c r="ME43" s="15"/>
+      <c r="MF43" s="15"/>
+      <c r="MG43" s="15"/>
+      <c r="MH43" s="15"/>
+      <c r="MI43" s="15"/>
+      <c r="MJ43" s="15"/>
+      <c r="MK43" s="15"/>
+      <c r="ML43" s="15"/>
+      <c r="MM43" s="15"/>
+      <c r="MN43" s="15"/>
+      <c r="MO43" s="15"/>
+      <c r="MP43" s="15"/>
+      <c r="MQ43" s="15"/>
+      <c r="MR43" s="15"/>
+      <c r="MS43" s="15"/>
+      <c r="MT43" s="15"/>
+      <c r="MU43" s="15"/>
+      <c r="MV43" s="15"/>
+      <c r="MW43" s="15"/>
+      <c r="MX43" s="15"/>
+      <c r="MY43" s="15"/>
+      <c r="MZ43" s="15"/>
+      <c r="NA43" s="15"/>
+      <c r="NB43" s="15"/>
+      <c r="NC43" s="15"/>
+      <c r="ND43" s="15"/>
+      <c r="NE43" s="15"/>
+      <c r="NF43" s="15"/>
+      <c r="NG43" s="15"/>
+      <c r="NH43" s="15"/>
+      <c r="NI43" s="15"/>
+      <c r="NJ43" s="15"/>
+      <c r="NK43" s="15"/>
+      <c r="NL43" s="15"/>
+      <c r="NM43" s="15"/>
+      <c r="NN43" s="15"/>
+      <c r="NO43" s="15"/>
+      <c r="NP43" s="15"/>
+      <c r="NQ43" s="15"/>
+      <c r="NR43" s="15"/>
+      <c r="NS43" s="15"/>
+      <c r="NT43" s="15"/>
+      <c r="NU43" s="15"/>
+      <c r="NV43" s="15"/>
+      <c r="NW43" s="15"/>
+      <c r="NX43" s="15"/>
+      <c r="NY43" s="15"/>
+      <c r="NZ43" s="15"/>
+      <c r="OA43" s="15"/>
+      <c r="OB43" s="15"/>
+      <c r="OC43" s="15"/>
+      <c r="OD43" s="15"/>
+      <c r="OE43" s="15"/>
+      <c r="OF43" s="15"/>
+      <c r="OG43" s="15"/>
+      <c r="OH43" s="15"/>
+      <c r="OI43" s="15"/>
+      <c r="OJ43" s="15"/>
+      <c r="OK43" s="15"/>
+      <c r="OL43" s="15"/>
+      <c r="OM43" s="15"/>
+      <c r="ON43" s="15"/>
+      <c r="OO43" s="15"/>
+      <c r="OP43" s="15"/>
+      <c r="OQ43" s="15"/>
+      <c r="OR43" s="15"/>
+      <c r="OS43" s="15"/>
+      <c r="OT43" s="15"/>
+      <c r="OU43" s="15"/>
+      <c r="OV43" s="15"/>
+      <c r="OW43" s="15"/>
+      <c r="OX43" s="15"/>
+      <c r="OY43" s="15"/>
+      <c r="OZ43" s="15"/>
+      <c r="PA43" s="15"/>
+      <c r="PB43" s="15"/>
+      <c r="PC43" s="15"/>
+      <c r="PD43" s="15"/>
+      <c r="PE43" s="15"/>
+      <c r="PF43" s="15"/>
+      <c r="PG43" s="15"/>
+      <c r="PH43" s="15"/>
+      <c r="PI43" s="15"/>
+      <c r="PJ43" s="15"/>
+      <c r="PK43" s="15"/>
+      <c r="PL43" s="15"/>
+      <c r="PM43" s="15"/>
+      <c r="PN43" s="15"/>
+      <c r="PO43" s="15"/>
+      <c r="PP43" s="15"/>
+      <c r="PQ43" s="15"/>
+      <c r="PR43" s="15"/>
+      <c r="PS43" s="15"/>
+      <c r="PT43" s="15"/>
+      <c r="PU43" s="15"/>
+      <c r="PV43" s="15"/>
+      <c r="PW43" s="15"/>
+      <c r="PX43" s="15"/>
+      <c r="PY43" s="15"/>
+      <c r="PZ43" s="15"/>
+      <c r="QA43" s="15"/>
+      <c r="QB43" s="15"/>
+      <c r="QC43" s="15"/>
+      <c r="QD43" s="15"/>
+      <c r="QE43" s="15"/>
+      <c r="QF43" s="15"/>
+      <c r="QG43" s="15"/>
+      <c r="QH43" s="15"/>
+      <c r="QI43" s="15"/>
+      <c r="QJ43" s="15"/>
+      <c r="QK43" s="15"/>
+      <c r="QL43" s="15"/>
+      <c r="QM43" s="15"/>
+      <c r="QN43" s="15"/>
+      <c r="QO43" s="15"/>
+      <c r="QP43" s="15"/>
+      <c r="QQ43" s="15"/>
+      <c r="QR43" s="15"/>
+      <c r="QS43" s="15"/>
+      <c r="QT43" s="15"/>
+      <c r="QU43" s="15"/>
+      <c r="QV43" s="15"/>
+      <c r="QW43" s="15"/>
+      <c r="QX43" s="15"/>
+      <c r="QY43" s="15"/>
+      <c r="QZ43" s="15"/>
+      <c r="RA43" s="15"/>
+      <c r="RB43" s="15"/>
+      <c r="RC43" s="15"/>
+      <c r="RD43" s="15"/>
+      <c r="RE43" s="15"/>
+      <c r="RF43" s="15"/>
+      <c r="RG43" s="15"/>
+      <c r="RH43" s="15"/>
+      <c r="RI43" s="15"/>
+      <c r="RJ43" s="15"/>
+      <c r="RK43" s="15"/>
+      <c r="RL43" s="15"/>
+      <c r="RM43" s="15"/>
+      <c r="RN43" s="15"/>
+      <c r="RO43" s="15"/>
+      <c r="RP43" s="15"/>
+      <c r="RQ43" s="15"/>
+      <c r="RR43" s="15"/>
+      <c r="RS43" s="15"/>
+      <c r="RT43" s="15"/>
+      <c r="RU43" s="15"/>
+      <c r="RV43" s="15"/>
+      <c r="RW43" s="15"/>
+      <c r="RX43" s="15"/>
+      <c r="RY43" s="15"/>
+      <c r="RZ43" s="15"/>
+      <c r="SA43" s="15"/>
+      <c r="SB43" s="15"/>
+      <c r="SC43" s="15"/>
+      <c r="SD43" s="15"/>
+      <c r="SE43" s="15"/>
+      <c r="SF43" s="15"/>
+      <c r="SG43" s="15"/>
+      <c r="SH43" s="15"/>
+      <c r="SI43" s="15"/>
+      <c r="SJ43" s="15"/>
+      <c r="SK43" s="15"/>
+      <c r="SL43" s="15"/>
+      <c r="SM43" s="15"/>
+      <c r="SN43" s="15"/>
+      <c r="SO43" s="15"/>
+      <c r="SP43" s="15"/>
+      <c r="SQ43" s="15"/>
+      <c r="SR43" s="15"/>
+      <c r="SS43" s="15"/>
+      <c r="ST43" s="15"/>
+      <c r="SU43" s="15"/>
+      <c r="SV43" s="15"/>
+      <c r="SW43" s="15"/>
+      <c r="SX43" s="15"/>
+      <c r="SY43" s="15"/>
+      <c r="SZ43" s="15"/>
+      <c r="TA43" s="15"/>
+      <c r="TB43" s="15"/>
+      <c r="TC43" s="15"/>
+      <c r="TD43" s="15"/>
+      <c r="TE43" s="15"/>
+      <c r="TF43" s="15"/>
+      <c r="TG43" s="15"/>
+      <c r="TH43" s="15"/>
+      <c r="TI43" s="15"/>
+      <c r="TJ43" s="15"/>
+      <c r="TK43" s="15"/>
+      <c r="TL43" s="15"/>
+      <c r="TM43" s="15"/>
+      <c r="TN43" s="15"/>
+      <c r="TO43" s="15"/>
+      <c r="TP43" s="15"/>
+      <c r="TQ43" s="15"/>
+      <c r="TR43" s="15"/>
+      <c r="TS43" s="15"/>
+      <c r="TT43" s="15"/>
+      <c r="TU43" s="15"/>
+      <c r="TV43" s="15"/>
+      <c r="TW43" s="15"/>
+      <c r="TX43" s="15"/>
+      <c r="TY43" s="15"/>
+      <c r="TZ43" s="15"/>
+      <c r="UA43" s="15"/>
+      <c r="UB43" s="15"/>
+      <c r="UC43" s="15"/>
+      <c r="UD43" s="15"/>
+      <c r="UE43" s="15"/>
+      <c r="UF43" s="15"/>
+      <c r="UG43" s="15"/>
+      <c r="UH43" s="15"/>
+      <c r="UI43" s="15"/>
+      <c r="UJ43" s="15"/>
+      <c r="UK43" s="15"/>
+      <c r="UL43" s="15"/>
+      <c r="UM43" s="15"/>
+      <c r="UN43" s="15"/>
+      <c r="UO43" s="15"/>
+      <c r="UP43" s="15"/>
+      <c r="UQ43" s="15"/>
+      <c r="UR43" s="15"/>
+      <c r="US43" s="15"/>
+      <c r="UT43" s="15"/>
+      <c r="UU43" s="15"/>
+      <c r="UV43" s="15"/>
+      <c r="UW43" s="15"/>
+      <c r="UX43" s="15"/>
+      <c r="UY43" s="15"/>
+      <c r="UZ43" s="15"/>
+      <c r="VA43" s="15"/>
+      <c r="VB43" s="15"/>
+      <c r="VC43" s="15"/>
+      <c r="VD43" s="15"/>
+      <c r="VE43" s="15"/>
+      <c r="VF43" s="15"/>
+      <c r="VG43" s="15"/>
+      <c r="VH43" s="15"/>
+      <c r="VI43" s="15"/>
+      <c r="VJ43" s="15"/>
+      <c r="VK43" s="15"/>
+      <c r="VL43" s="15"/>
+      <c r="VM43" s="15"/>
+      <c r="VN43" s="15"/>
+      <c r="VO43" s="15"/>
+      <c r="VP43" s="15"/>
+      <c r="VQ43" s="15"/>
+      <c r="VR43" s="15"/>
+      <c r="VS43" s="15"/>
+      <c r="VT43" s="15"/>
+      <c r="VU43" s="15"/>
+      <c r="VV43" s="15"/>
+      <c r="VW43" s="15"/>
+      <c r="VX43" s="15"/>
+      <c r="VY43" s="15"/>
+      <c r="VZ43" s="15"/>
+      <c r="WA43" s="15"/>
+      <c r="WB43" s="15"/>
+      <c r="WC43" s="15"/>
+      <c r="WD43" s="15"/>
+      <c r="WE43" s="15"/>
+      <c r="WF43" s="15"/>
+      <c r="WG43" s="15"/>
+      <c r="WH43" s="15"/>
+      <c r="WI43" s="15"/>
+      <c r="WJ43" s="15"/>
+      <c r="WK43" s="15"/>
+      <c r="WL43" s="15"/>
+      <c r="WM43" s="15"/>
+      <c r="WN43" s="15"/>
+      <c r="WO43" s="15"/>
+      <c r="WP43" s="15"/>
+      <c r="WQ43" s="15"/>
+      <c r="WR43" s="15"/>
+      <c r="WS43" s="15"/>
+      <c r="WT43" s="15"/>
+      <c r="WU43" s="15"/>
+      <c r="WV43" s="15"/>
+      <c r="WW43" s="15"/>
+      <c r="WX43" s="15"/>
+      <c r="WY43" s="15"/>
+      <c r="WZ43" s="15"/>
+      <c r="XA43" s="15"/>
+      <c r="XB43" s="15"/>
+      <c r="XC43" s="15"/>
+      <c r="XD43" s="15"/>
+      <c r="XE43" s="15"/>
+      <c r="XF43" s="15"/>
+      <c r="XG43" s="15"/>
+      <c r="XH43" s="15"/>
+      <c r="XI43" s="15"/>
+      <c r="XJ43" s="15"/>
+      <c r="XK43" s="15"/>
+      <c r="XL43" s="15"/>
+      <c r="XM43" s="15"/>
+      <c r="XN43" s="15"/>
+      <c r="XO43" s="15"/>
+      <c r="XP43" s="15"/>
+      <c r="XQ43" s="15"/>
+      <c r="XR43" s="15"/>
+      <c r="XS43" s="15"/>
+      <c r="XT43" s="15"/>
+      <c r="XU43" s="15"/>
+      <c r="XV43" s="15"/>
+      <c r="XW43" s="15"/>
+      <c r="XX43" s="15"/>
+      <c r="XY43" s="15"/>
+      <c r="XZ43" s="15"/>
+      <c r="YA43" s="15"/>
+      <c r="YB43" s="15"/>
+      <c r="YC43" s="15"/>
+      <c r="YD43" s="15"/>
+      <c r="YE43" s="15"/>
+      <c r="YF43" s="15"/>
+      <c r="YG43" s="15"/>
+      <c r="YH43" s="15"/>
+      <c r="YI43" s="15"/>
+      <c r="YJ43" s="15"/>
+      <c r="YK43" s="15"/>
+      <c r="YL43" s="15"/>
+      <c r="YM43" s="15"/>
+      <c r="YN43" s="15"/>
+      <c r="YO43" s="15"/>
+      <c r="YP43" s="15"/>
+      <c r="YQ43" s="15"/>
+      <c r="YR43" s="15"/>
+      <c r="YS43" s="15"/>
+      <c r="YT43" s="15"/>
+      <c r="YU43" s="15"/>
+      <c r="YV43" s="15"/>
+      <c r="YW43" s="15"/>
+      <c r="YX43" s="15"/>
+      <c r="YY43" s="15"/>
+      <c r="YZ43" s="15"/>
+      <c r="ZA43" s="15"/>
+      <c r="ZB43" s="15"/>
+      <c r="ZC43" s="15"/>
+      <c r="ZD43" s="15"/>
+      <c r="ZE43" s="15"/>
+      <c r="ZF43" s="15"/>
+      <c r="ZG43" s="15"/>
+      <c r="ZH43" s="15"/>
+      <c r="ZI43" s="15"/>
+      <c r="ZJ43" s="15"/>
+      <c r="ZK43" s="15"/>
+      <c r="ZL43" s="15"/>
+      <c r="ZM43" s="15"/>
+      <c r="ZN43" s="15"/>
+      <c r="ZO43" s="15"/>
+      <c r="ZP43" s="15"/>
+      <c r="ZQ43" s="15"/>
+      <c r="ZR43" s="15"/>
+      <c r="ZS43" s="15"/>
+      <c r="ZT43" s="15"/>
+      <c r="ZU43" s="15"/>
+      <c r="ZV43" s="15"/>
+      <c r="ZW43" s="15"/>
+      <c r="ZX43" s="15"/>
+      <c r="ZY43" s="15"/>
+      <c r="ZZ43" s="15"/>
+      <c r="AAA43" s="15"/>
+      <c r="AAB43" s="15"/>
+      <c r="AAC43" s="15"/>
+      <c r="AAD43" s="15"/>
+      <c r="AAE43" s="15"/>
+      <c r="AAF43" s="15"/>
+      <c r="AAG43" s="15"/>
+      <c r="AAH43" s="15"/>
+      <c r="AAI43" s="15"/>
+      <c r="AAJ43" s="15"/>
+      <c r="AAK43" s="15"/>
+      <c r="AAL43" s="15"/>
+      <c r="AAM43" s="15"/>
+      <c r="AAN43" s="15"/>
+      <c r="AAO43" s="15"/>
+      <c r="AAP43" s="15"/>
+      <c r="AAQ43" s="15"/>
+      <c r="AAR43" s="15"/>
+      <c r="AAS43" s="15"/>
+      <c r="AAT43" s="15"/>
+      <c r="AAU43" s="15"/>
+      <c r="AAV43" s="15"/>
+      <c r="AAW43" s="15"/>
+      <c r="AAX43" s="15"/>
+      <c r="AAY43" s="15"/>
+      <c r="AAZ43" s="15"/>
+      <c r="ABA43" s="15"/>
+      <c r="ABB43" s="15"/>
+      <c r="ABC43" s="15"/>
+      <c r="ABD43" s="15"/>
+      <c r="ABE43" s="15"/>
+      <c r="ABF43" s="15"/>
+      <c r="ABG43" s="15"/>
+      <c r="ABH43" s="15"/>
+      <c r="ABI43" s="15"/>
+      <c r="ABJ43" s="15"/>
+      <c r="ABK43" s="15"/>
+      <c r="ABL43" s="15"/>
+      <c r="ABM43" s="15"/>
+      <c r="ABN43" s="15"/>
+      <c r="ABO43" s="15"/>
+      <c r="ABP43" s="15"/>
+      <c r="ABQ43" s="15"/>
+      <c r="ABR43" s="15"/>
+      <c r="ABS43" s="15"/>
+      <c r="ABT43" s="15"/>
+      <c r="ABU43" s="15"/>
+      <c r="ABV43" s="15"/>
+      <c r="ABW43" s="15"/>
+      <c r="ABX43" s="15"/>
+      <c r="ABY43" s="15"/>
+      <c r="ABZ43" s="15"/>
+      <c r="ACA43" s="15"/>
+      <c r="ACB43" s="15"/>
+      <c r="ACC43" s="15"/>
+      <c r="ACD43" s="15"/>
+      <c r="ACE43" s="15"/>
+      <c r="ACF43" s="15"/>
+      <c r="ACG43" s="15"/>
+      <c r="ACH43" s="15"/>
+      <c r="ACI43" s="15"/>
+      <c r="ACJ43" s="15"/>
+      <c r="ACK43" s="15"/>
+      <c r="ACL43" s="15"/>
+      <c r="ACM43" s="15"/>
+      <c r="ACN43" s="15"/>
+      <c r="ACO43" s="15"/>
+      <c r="ACP43" s="15"/>
+      <c r="ACQ43" s="15"/>
+      <c r="ACR43" s="15"/>
+      <c r="ACS43" s="15"/>
+      <c r="ACT43" s="15"/>
+      <c r="ACU43" s="15"/>
+      <c r="ACV43" s="15"/>
+      <c r="ACW43" s="15"/>
+      <c r="ACX43" s="15"/>
+      <c r="ACY43" s="15"/>
+      <c r="ACZ43" s="15"/>
+      <c r="ADA43" s="15"/>
+      <c r="ADB43" s="15"/>
+      <c r="ADC43" s="15"/>
+      <c r="ADD43" s="15"/>
+      <c r="ADE43" s="15"/>
+      <c r="ADF43" s="15"/>
+      <c r="ADG43" s="15"/>
+      <c r="ADH43" s="15"/>
+      <c r="ADI43" s="15"/>
+      <c r="ADJ43" s="15"/>
+      <c r="ADK43" s="15"/>
+      <c r="ADL43" s="15"/>
+      <c r="ADM43" s="15"/>
+      <c r="ADN43" s="15"/>
+      <c r="ADO43" s="15"/>
+      <c r="ADP43" s="15"/>
+      <c r="ADQ43" s="15"/>
+      <c r="ADR43" s="15"/>
+      <c r="ADS43" s="15"/>
+      <c r="ADT43" s="15"/>
+      <c r="ADU43" s="15"/>
+      <c r="ADV43" s="15"/>
+      <c r="ADW43" s="15"/>
+      <c r="ADX43" s="15"/>
+      <c r="ADY43" s="15"/>
+      <c r="ADZ43" s="15"/>
+      <c r="AEA43" s="15"/>
+      <c r="AEB43" s="15"/>
+      <c r="AEC43" s="15"/>
+      <c r="AED43" s="15"/>
+      <c r="AEE43" s="15"/>
+      <c r="AEF43" s="15"/>
+      <c r="AEG43" s="15"/>
+      <c r="AEH43" s="15"/>
+      <c r="AEI43" s="15"/>
+      <c r="AEJ43" s="15"/>
+      <c r="AEK43" s="15"/>
+      <c r="AEL43" s="15"/>
+      <c r="AEM43" s="15"/>
+      <c r="AEN43" s="15"/>
+      <c r="AEO43" s="15"/>
+      <c r="AEP43" s="15"/>
+      <c r="AEQ43" s="15"/>
+      <c r="AER43" s="15"/>
+      <c r="AES43" s="15"/>
+      <c r="AET43" s="15"/>
+      <c r="AEU43" s="15"/>
+      <c r="AEV43" s="15"/>
+      <c r="AEW43" s="15"/>
+      <c r="AEX43" s="15"/>
+      <c r="AEY43" s="15"/>
+      <c r="AEZ43" s="15"/>
+      <c r="AFA43" s="15"/>
+      <c r="AFB43" s="15"/>
+      <c r="AFC43" s="15"/>
+      <c r="AFD43" s="15"/>
+      <c r="AFE43" s="15"/>
+      <c r="AFF43" s="15"/>
+      <c r="AFG43" s="15"/>
+      <c r="AFH43" s="15"/>
+      <c r="AFI43" s="15"/>
+      <c r="AFJ43" s="15"/>
+      <c r="AFK43" s="15"/>
+      <c r="AFL43" s="15"/>
+      <c r="AFM43" s="15"/>
+      <c r="AFN43" s="15"/>
+      <c r="AFO43" s="15"/>
+      <c r="AFP43" s="15"/>
+      <c r="AFQ43" s="15"/>
+      <c r="AFR43" s="15"/>
+      <c r="AFS43" s="15"/>
+      <c r="AFT43" s="15"/>
+      <c r="AFU43" s="15"/>
+      <c r="AFV43" s="15"/>
+      <c r="AFW43" s="15"/>
+      <c r="AFX43" s="15"/>
+      <c r="AFY43" s="15"/>
+      <c r="AFZ43" s="15"/>
+      <c r="AGA43" s="15"/>
+      <c r="AGB43" s="15"/>
+      <c r="AGC43" s="15"/>
+      <c r="AGD43" s="15"/>
+      <c r="AGE43" s="15"/>
+      <c r="AGF43" s="15"/>
+      <c r="AGG43" s="15"/>
+      <c r="AGH43" s="15"/>
+      <c r="AGI43" s="15"/>
+      <c r="AGJ43" s="15"/>
+      <c r="AGK43" s="15"/>
+      <c r="AGL43" s="15"/>
+      <c r="AGM43" s="15"/>
+      <c r="AGN43" s="15"/>
+      <c r="AGO43" s="15"/>
+      <c r="AGP43" s="15"/>
+      <c r="AGQ43" s="15"/>
+      <c r="AGR43" s="15"/>
+      <c r="AGS43" s="15"/>
+      <c r="AGT43" s="15"/>
+      <c r="AGU43" s="15"/>
+      <c r="AGV43" s="15"/>
+      <c r="AGW43" s="15"/>
+      <c r="AGX43" s="15"/>
+      <c r="AGY43" s="15"/>
+      <c r="AGZ43" s="15"/>
+      <c r="AHA43" s="15"/>
+      <c r="AHB43" s="15"/>
+      <c r="AHC43" s="15"/>
+      <c r="AHD43" s="15"/>
+      <c r="AHE43" s="15"/>
+      <c r="AHF43" s="15"/>
+      <c r="AHG43" s="15"/>
+      <c r="AHH43" s="15"/>
+      <c r="AHI43" s="15"/>
+      <c r="AHJ43" s="15"/>
+      <c r="AHK43" s="15"/>
+      <c r="AHL43" s="15"/>
+      <c r="AHM43" s="15"/>
+      <c r="AHN43" s="15"/>
+      <c r="AHO43" s="15"/>
+      <c r="AHP43" s="15"/>
+      <c r="AHQ43" s="15"/>
+      <c r="AHR43" s="15"/>
+      <c r="AHS43" s="15"/>
+      <c r="AHT43" s="15"/>
+      <c r="AHU43" s="15"/>
+      <c r="AHV43" s="15"/>
+      <c r="AHW43" s="15"/>
+      <c r="AHX43" s="15"/>
+      <c r="AHY43" s="15"/>
+      <c r="AHZ43" s="15"/>
+      <c r="AIA43" s="15"/>
+      <c r="AIB43" s="15"/>
+      <c r="AIC43" s="15"/>
+      <c r="AID43" s="15"/>
+      <c r="AIE43" s="15"/>
+      <c r="AIF43" s="15"/>
+      <c r="AIG43" s="15"/>
+      <c r="AIH43" s="15"/>
+      <c r="AII43" s="15"/>
+      <c r="AIJ43" s="15"/>
+      <c r="AIK43" s="15"/>
+      <c r="AIL43" s="15"/>
+      <c r="AIM43" s="15"/>
+      <c r="AIN43" s="15"/>
+      <c r="AIO43" s="15"/>
+      <c r="AIP43" s="15"/>
+      <c r="AIQ43" s="15"/>
+      <c r="AIR43" s="15"/>
+      <c r="AIS43" s="15"/>
+      <c r="AIT43" s="15"/>
+      <c r="AIU43" s="15"/>
+      <c r="AIV43" s="15"/>
+      <c r="AIW43" s="15"/>
+      <c r="AIX43" s="15"/>
+      <c r="AIY43" s="15"/>
+      <c r="AIZ43" s="15"/>
+      <c r="AJA43" s="15"/>
+      <c r="AJB43" s="15"/>
+      <c r="AJC43" s="15"/>
+      <c r="AJD43" s="15"/>
+      <c r="AJE43" s="15"/>
+      <c r="AJF43" s="15"/>
+      <c r="AJG43" s="15"/>
+      <c r="AJH43" s="15"/>
+      <c r="AJI43" s="15"/>
+      <c r="AJJ43" s="15"/>
+      <c r="AJK43" s="15"/>
+      <c r="AJL43" s="15"/>
+      <c r="AJM43" s="15"/>
+      <c r="AJN43" s="15"/>
+      <c r="AJO43" s="15"/>
+      <c r="AJP43" s="15"/>
+      <c r="AJQ43" s="15"/>
+      <c r="AJR43" s="15"/>
+      <c r="AJS43" s="15"/>
+      <c r="AJT43" s="15"/>
+      <c r="AJU43" s="15"/>
+      <c r="AJV43" s="15"/>
+      <c r="AJW43" s="15"/>
+      <c r="AJX43" s="15"/>
+      <c r="AJY43" s="15"/>
+      <c r="AJZ43" s="15"/>
+      <c r="AKA43" s="15"/>
+      <c r="AKB43" s="15"/>
+      <c r="AKC43" s="15"/>
+      <c r="AKD43" s="15"/>
+      <c r="AKE43" s="15"/>
+      <c r="AKF43" s="15"/>
+      <c r="AKG43" s="15"/>
+      <c r="AKH43" s="15"/>
+      <c r="AKI43" s="15"/>
+      <c r="AKJ43" s="15"/>
+      <c r="AKK43" s="15"/>
+      <c r="AKL43" s="15"/>
+      <c r="AKM43" s="15"/>
+      <c r="AKN43" s="15"/>
+      <c r="AKO43" s="15"/>
+      <c r="AKP43" s="15"/>
+      <c r="AKQ43" s="15"/>
+      <c r="AKR43" s="15"/>
+      <c r="AKS43" s="15"/>
+      <c r="AKT43" s="15"/>
+      <c r="AKU43" s="15"/>
+      <c r="AKV43" s="15"/>
+      <c r="AKW43" s="15"/>
+      <c r="AKX43" s="15"/>
+      <c r="AKY43" s="15"/>
+      <c r="AKZ43" s="15"/>
+      <c r="ALA43" s="15"/>
+      <c r="ALB43" s="15"/>
+      <c r="ALC43" s="15"/>
+      <c r="ALD43" s="15"/>
+      <c r="ALE43" s="15"/>
+      <c r="ALF43" s="15"/>
+      <c r="ALG43" s="15"/>
+      <c r="ALH43" s="15"/>
+      <c r="ALI43" s="15"/>
+      <c r="ALJ43" s="15"/>
+      <c r="ALK43" s="15"/>
+      <c r="ALL43" s="15"/>
+      <c r="ALM43" s="15"/>
+      <c r="ALN43" s="15"/>
+      <c r="ALO43" s="15"/>
+      <c r="ALP43" s="15"/>
+      <c r="ALQ43" s="15"/>
+      <c r="ALR43" s="15"/>
+      <c r="ALS43" s="15"/>
+      <c r="ALT43" s="15"/>
+      <c r="ALU43" s="15"/>
+      <c r="ALV43" s="15"/>
+      <c r="ALW43" s="15"/>
+      <c r="ALX43" s="15"/>
+      <c r="ALY43" s="15"/>
+      <c r="ALZ43" s="15"/>
+      <c r="AMA43" s="15"/>
+      <c r="AMB43" s="15"/>
+      <c r="AMC43" s="15"/>
+      <c r="AMD43" s="15"/>
+      <c r="AME43" s="15"/>
+      <c r="AMF43" s="15"/>
+      <c r="AMG43" s="15"/>
+      <c r="AMH43" s="15"/>
+      <c r="AMI43" s="15"/>
+      <c r="AMJ43" s="15"/>
+      <c r="AMK43" s="15"/>
+      <c r="AML43" s="15"/>
+      <c r="AMM43" s="15"/>
+    </row>
+    <row r="44" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>148</v>
       </c>
@@ -4216,7 +7290,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>151</v>
       </c>
@@ -4239,7 +7313,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>156</v>
       </c>
@@ -4272,7 +7346,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:14 1028:1028" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1028" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>160</v>
       </c>
@@ -4298,7 +7372,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>163</v>
       </c>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5348658-D5AE-402F-8286-C00016281E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938600A1-AD98-4B1B-B698-877AB4F02D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1975,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2032,6 +2032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2699,10 +2702,10 @@
   <dimension ref="A1:AMN98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4122,7 +4125,7 @@
         <v>502</v>
       </c>
       <c r="I41" s="18">
-        <v>45138</v>
+        <v>45070</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>497</v>
@@ -5175,7 +5178,7 @@
         <v>502</v>
       </c>
       <c r="I42" s="18">
-        <v>45138</v>
+        <v>45070</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -8112,7 +8115,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>289</v>
       </c>
@@ -8134,7 +8137,7 @@
       </c>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>293</v>
       </c>
@@ -8156,7 +8159,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>297</v>
       </c>
@@ -8178,7 +8181,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>301</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>305</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>309</v>
       </c>
@@ -8241,7 +8244,7 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>313</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>317</v>
       </c>
@@ -8289,7 +8292,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>322</v>
       </c>
@@ -8310,7 +8313,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>326</v>
       </c>
@@ -8346,7 +8349,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>331</v>
       </c>
@@ -8366,34 +8369,1054 @@
         <v>492</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="E92" s="15"/>
+      <c r="F92" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H92" s="8" t="s">
+      <c r="G92" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="H92" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="I92" s="4"/>
-      <c r="N92" s="7" t="s">
+      <c r="I92" s="22">
+        <v>45138</v>
+      </c>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="15" t="s">
         <v>421</v>
       </c>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="15"/>
+      <c r="AN92" s="15"/>
+      <c r="AO92" s="15"/>
+      <c r="AP92" s="15"/>
+      <c r="AQ92" s="15"/>
+      <c r="AR92" s="15"/>
+      <c r="AS92" s="15"/>
+      <c r="AT92" s="15"/>
+      <c r="AU92" s="15"/>
+      <c r="AV92" s="15"/>
+      <c r="AW92" s="15"/>
+      <c r="AX92" s="15"/>
+      <c r="AY92" s="15"/>
+      <c r="AZ92" s="15"/>
+      <c r="BA92" s="15"/>
+      <c r="BB92" s="15"/>
+      <c r="BC92" s="15"/>
+      <c r="BD92" s="15"/>
+      <c r="BE92" s="15"/>
+      <c r="BF92" s="15"/>
+      <c r="BG92" s="15"/>
+      <c r="BH92" s="15"/>
+      <c r="BI92" s="15"/>
+      <c r="BJ92" s="15"/>
+      <c r="BK92" s="15"/>
+      <c r="BL92" s="15"/>
+      <c r="BM92" s="15"/>
+      <c r="BN92" s="15"/>
+      <c r="BO92" s="15"/>
+      <c r="BP92" s="15"/>
+      <c r="BQ92" s="15"/>
+      <c r="BR92" s="15"/>
+      <c r="BS92" s="15"/>
+      <c r="BT92" s="15"/>
+      <c r="BU92" s="15"/>
+      <c r="BV92" s="15"/>
+      <c r="BW92" s="15"/>
+      <c r="BX92" s="15"/>
+      <c r="BY92" s="15"/>
+      <c r="BZ92" s="15"/>
+      <c r="CA92" s="15"/>
+      <c r="CB92" s="15"/>
+      <c r="CC92" s="15"/>
+      <c r="CD92" s="15"/>
+      <c r="CE92" s="15"/>
+      <c r="CF92" s="15"/>
+      <c r="CG92" s="15"/>
+      <c r="CH92" s="15"/>
+      <c r="CI92" s="15"/>
+      <c r="CJ92" s="15"/>
+      <c r="CK92" s="15"/>
+      <c r="CL92" s="15"/>
+      <c r="CM92" s="15"/>
+      <c r="CN92" s="15"/>
+      <c r="CO92" s="15"/>
+      <c r="CP92" s="15"/>
+      <c r="CQ92" s="15"/>
+      <c r="CR92" s="15"/>
+      <c r="CS92" s="15"/>
+      <c r="CT92" s="15"/>
+      <c r="CU92" s="15"/>
+      <c r="CV92" s="15"/>
+      <c r="CW92" s="15"/>
+      <c r="CX92" s="15"/>
+      <c r="CY92" s="15"/>
+      <c r="CZ92" s="15"/>
+      <c r="DA92" s="15"/>
+      <c r="DB92" s="15"/>
+      <c r="DC92" s="15"/>
+      <c r="DD92" s="15"/>
+      <c r="DE92" s="15"/>
+      <c r="DF92" s="15"/>
+      <c r="DG92" s="15"/>
+      <c r="DH92" s="15"/>
+      <c r="DI92" s="15"/>
+      <c r="DJ92" s="15"/>
+      <c r="DK92" s="15"/>
+      <c r="DL92" s="15"/>
+      <c r="DM92" s="15"/>
+      <c r="DN92" s="15"/>
+      <c r="DO92" s="15"/>
+      <c r="DP92" s="15"/>
+      <c r="DQ92" s="15"/>
+      <c r="DR92" s="15"/>
+      <c r="DS92" s="15"/>
+      <c r="DT92" s="15"/>
+      <c r="DU92" s="15"/>
+      <c r="DV92" s="15"/>
+      <c r="DW92" s="15"/>
+      <c r="DX92" s="15"/>
+      <c r="DY92" s="15"/>
+      <c r="DZ92" s="15"/>
+      <c r="EA92" s="15"/>
+      <c r="EB92" s="15"/>
+      <c r="EC92" s="15"/>
+      <c r="ED92" s="15"/>
+      <c r="EE92" s="15"/>
+      <c r="EF92" s="15"/>
+      <c r="EG92" s="15"/>
+      <c r="EH92" s="15"/>
+      <c r="EI92" s="15"/>
+      <c r="EJ92" s="15"/>
+      <c r="EK92" s="15"/>
+      <c r="EL92" s="15"/>
+      <c r="EM92" s="15"/>
+      <c r="EN92" s="15"/>
+      <c r="EO92" s="15"/>
+      <c r="EP92" s="15"/>
+      <c r="EQ92" s="15"/>
+      <c r="ER92" s="15"/>
+      <c r="ES92" s="15"/>
+      <c r="ET92" s="15"/>
+      <c r="EU92" s="15"/>
+      <c r="EV92" s="15"/>
+      <c r="EW92" s="15"/>
+      <c r="EX92" s="15"/>
+      <c r="EY92" s="15"/>
+      <c r="EZ92" s="15"/>
+      <c r="FA92" s="15"/>
+      <c r="FB92" s="15"/>
+      <c r="FC92" s="15"/>
+      <c r="FD92" s="15"/>
+      <c r="FE92" s="15"/>
+      <c r="FF92" s="15"/>
+      <c r="FG92" s="15"/>
+      <c r="FH92" s="15"/>
+      <c r="FI92" s="15"/>
+      <c r="FJ92" s="15"/>
+      <c r="FK92" s="15"/>
+      <c r="FL92" s="15"/>
+      <c r="FM92" s="15"/>
+      <c r="FN92" s="15"/>
+      <c r="FO92" s="15"/>
+      <c r="FP92" s="15"/>
+      <c r="FQ92" s="15"/>
+      <c r="FR92" s="15"/>
+      <c r="FS92" s="15"/>
+      <c r="FT92" s="15"/>
+      <c r="FU92" s="15"/>
+      <c r="FV92" s="15"/>
+      <c r="FW92" s="15"/>
+      <c r="FX92" s="15"/>
+      <c r="FY92" s="15"/>
+      <c r="FZ92" s="15"/>
+      <c r="GA92" s="15"/>
+      <c r="GB92" s="15"/>
+      <c r="GC92" s="15"/>
+      <c r="GD92" s="15"/>
+      <c r="GE92" s="15"/>
+      <c r="GF92" s="15"/>
+      <c r="GG92" s="15"/>
+      <c r="GH92" s="15"/>
+      <c r="GI92" s="15"/>
+      <c r="GJ92" s="15"/>
+      <c r="GK92" s="15"/>
+      <c r="GL92" s="15"/>
+      <c r="GM92" s="15"/>
+      <c r="GN92" s="15"/>
+      <c r="GO92" s="15"/>
+      <c r="GP92" s="15"/>
+      <c r="GQ92" s="15"/>
+      <c r="GR92" s="15"/>
+      <c r="GS92" s="15"/>
+      <c r="GT92" s="15"/>
+      <c r="GU92" s="15"/>
+      <c r="GV92" s="15"/>
+      <c r="GW92" s="15"/>
+      <c r="GX92" s="15"/>
+      <c r="GY92" s="15"/>
+      <c r="GZ92" s="15"/>
+      <c r="HA92" s="15"/>
+      <c r="HB92" s="15"/>
+      <c r="HC92" s="15"/>
+      <c r="HD92" s="15"/>
+      <c r="HE92" s="15"/>
+      <c r="HF92" s="15"/>
+      <c r="HG92" s="15"/>
+      <c r="HH92" s="15"/>
+      <c r="HI92" s="15"/>
+      <c r="HJ92" s="15"/>
+      <c r="HK92" s="15"/>
+      <c r="HL92" s="15"/>
+      <c r="HM92" s="15"/>
+      <c r="HN92" s="15"/>
+      <c r="HO92" s="15"/>
+      <c r="HP92" s="15"/>
+      <c r="HQ92" s="15"/>
+      <c r="HR92" s="15"/>
+      <c r="HS92" s="15"/>
+      <c r="HT92" s="15"/>
+      <c r="HU92" s="15"/>
+      <c r="HV92" s="15"/>
+      <c r="HW92" s="15"/>
+      <c r="HX92" s="15"/>
+      <c r="HY92" s="15"/>
+      <c r="HZ92" s="15"/>
+      <c r="IA92" s="15"/>
+      <c r="IB92" s="15"/>
+      <c r="IC92" s="15"/>
+      <c r="ID92" s="15"/>
+      <c r="IE92" s="15"/>
+      <c r="IF92" s="15"/>
+      <c r="IG92" s="15"/>
+      <c r="IH92" s="15"/>
+      <c r="II92" s="15"/>
+      <c r="IJ92" s="15"/>
+      <c r="IK92" s="15"/>
+      <c r="IL92" s="15"/>
+      <c r="IM92" s="15"/>
+      <c r="IN92" s="15"/>
+      <c r="IO92" s="15"/>
+      <c r="IP92" s="15"/>
+      <c r="IQ92" s="15"/>
+      <c r="IR92" s="15"/>
+      <c r="IS92" s="15"/>
+      <c r="IT92" s="15"/>
+      <c r="IU92" s="15"/>
+      <c r="IV92" s="15"/>
+      <c r="IW92" s="15"/>
+      <c r="IX92" s="15"/>
+      <c r="IY92" s="15"/>
+      <c r="IZ92" s="15"/>
+      <c r="JA92" s="15"/>
+      <c r="JB92" s="15"/>
+      <c r="JC92" s="15"/>
+      <c r="JD92" s="15"/>
+      <c r="JE92" s="15"/>
+      <c r="JF92" s="15"/>
+      <c r="JG92" s="15"/>
+      <c r="JH92" s="15"/>
+      <c r="JI92" s="15"/>
+      <c r="JJ92" s="15"/>
+      <c r="JK92" s="15"/>
+      <c r="JL92" s="15"/>
+      <c r="JM92" s="15"/>
+      <c r="JN92" s="15"/>
+      <c r="JO92" s="15"/>
+      <c r="JP92" s="15"/>
+      <c r="JQ92" s="15"/>
+      <c r="JR92" s="15"/>
+      <c r="JS92" s="15"/>
+      <c r="JT92" s="15"/>
+      <c r="JU92" s="15"/>
+      <c r="JV92" s="15"/>
+      <c r="JW92" s="15"/>
+      <c r="JX92" s="15"/>
+      <c r="JY92" s="15"/>
+      <c r="JZ92" s="15"/>
+      <c r="KA92" s="15"/>
+      <c r="KB92" s="15"/>
+      <c r="KC92" s="15"/>
+      <c r="KD92" s="15"/>
+      <c r="KE92" s="15"/>
+      <c r="KF92" s="15"/>
+      <c r="KG92" s="15"/>
+      <c r="KH92" s="15"/>
+      <c r="KI92" s="15"/>
+      <c r="KJ92" s="15"/>
+      <c r="KK92" s="15"/>
+      <c r="KL92" s="15"/>
+      <c r="KM92" s="15"/>
+      <c r="KN92" s="15"/>
+      <c r="KO92" s="15"/>
+      <c r="KP92" s="15"/>
+      <c r="KQ92" s="15"/>
+      <c r="KR92" s="15"/>
+      <c r="KS92" s="15"/>
+      <c r="KT92" s="15"/>
+      <c r="KU92" s="15"/>
+      <c r="KV92" s="15"/>
+      <c r="KW92" s="15"/>
+      <c r="KX92" s="15"/>
+      <c r="KY92" s="15"/>
+      <c r="KZ92" s="15"/>
+      <c r="LA92" s="15"/>
+      <c r="LB92" s="15"/>
+      <c r="LC92" s="15"/>
+      <c r="LD92" s="15"/>
+      <c r="LE92" s="15"/>
+      <c r="LF92" s="15"/>
+      <c r="LG92" s="15"/>
+      <c r="LH92" s="15"/>
+      <c r="LI92" s="15"/>
+      <c r="LJ92" s="15"/>
+      <c r="LK92" s="15"/>
+      <c r="LL92" s="15"/>
+      <c r="LM92" s="15"/>
+      <c r="LN92" s="15"/>
+      <c r="LO92" s="15"/>
+      <c r="LP92" s="15"/>
+      <c r="LQ92" s="15"/>
+      <c r="LR92" s="15"/>
+      <c r="LS92" s="15"/>
+      <c r="LT92" s="15"/>
+      <c r="LU92" s="15"/>
+      <c r="LV92" s="15"/>
+      <c r="LW92" s="15"/>
+      <c r="LX92" s="15"/>
+      <c r="LY92" s="15"/>
+      <c r="LZ92" s="15"/>
+      <c r="MA92" s="15"/>
+      <c r="MB92" s="15"/>
+      <c r="MC92" s="15"/>
+      <c r="MD92" s="15"/>
+      <c r="ME92" s="15"/>
+      <c r="MF92" s="15"/>
+      <c r="MG92" s="15"/>
+      <c r="MH92" s="15"/>
+      <c r="MI92" s="15"/>
+      <c r="MJ92" s="15"/>
+      <c r="MK92" s="15"/>
+      <c r="ML92" s="15"/>
+      <c r="MM92" s="15"/>
+      <c r="MN92" s="15"/>
+      <c r="MO92" s="15"/>
+      <c r="MP92" s="15"/>
+      <c r="MQ92" s="15"/>
+      <c r="MR92" s="15"/>
+      <c r="MS92" s="15"/>
+      <c r="MT92" s="15"/>
+      <c r="MU92" s="15"/>
+      <c r="MV92" s="15"/>
+      <c r="MW92" s="15"/>
+      <c r="MX92" s="15"/>
+      <c r="MY92" s="15"/>
+      <c r="MZ92" s="15"/>
+      <c r="NA92" s="15"/>
+      <c r="NB92" s="15"/>
+      <c r="NC92" s="15"/>
+      <c r="ND92" s="15"/>
+      <c r="NE92" s="15"/>
+      <c r="NF92" s="15"/>
+      <c r="NG92" s="15"/>
+      <c r="NH92" s="15"/>
+      <c r="NI92" s="15"/>
+      <c r="NJ92" s="15"/>
+      <c r="NK92" s="15"/>
+      <c r="NL92" s="15"/>
+      <c r="NM92" s="15"/>
+      <c r="NN92" s="15"/>
+      <c r="NO92" s="15"/>
+      <c r="NP92" s="15"/>
+      <c r="NQ92" s="15"/>
+      <c r="NR92" s="15"/>
+      <c r="NS92" s="15"/>
+      <c r="NT92" s="15"/>
+      <c r="NU92" s="15"/>
+      <c r="NV92" s="15"/>
+      <c r="NW92" s="15"/>
+      <c r="NX92" s="15"/>
+      <c r="NY92" s="15"/>
+      <c r="NZ92" s="15"/>
+      <c r="OA92" s="15"/>
+      <c r="OB92" s="15"/>
+      <c r="OC92" s="15"/>
+      <c r="OD92" s="15"/>
+      <c r="OE92" s="15"/>
+      <c r="OF92" s="15"/>
+      <c r="OG92" s="15"/>
+      <c r="OH92" s="15"/>
+      <c r="OI92" s="15"/>
+      <c r="OJ92" s="15"/>
+      <c r="OK92" s="15"/>
+      <c r="OL92" s="15"/>
+      <c r="OM92" s="15"/>
+      <c r="ON92" s="15"/>
+      <c r="OO92" s="15"/>
+      <c r="OP92" s="15"/>
+      <c r="OQ92" s="15"/>
+      <c r="OR92" s="15"/>
+      <c r="OS92" s="15"/>
+      <c r="OT92" s="15"/>
+      <c r="OU92" s="15"/>
+      <c r="OV92" s="15"/>
+      <c r="OW92" s="15"/>
+      <c r="OX92" s="15"/>
+      <c r="OY92" s="15"/>
+      <c r="OZ92" s="15"/>
+      <c r="PA92" s="15"/>
+      <c r="PB92" s="15"/>
+      <c r="PC92" s="15"/>
+      <c r="PD92" s="15"/>
+      <c r="PE92" s="15"/>
+      <c r="PF92" s="15"/>
+      <c r="PG92" s="15"/>
+      <c r="PH92" s="15"/>
+      <c r="PI92" s="15"/>
+      <c r="PJ92" s="15"/>
+      <c r="PK92" s="15"/>
+      <c r="PL92" s="15"/>
+      <c r="PM92" s="15"/>
+      <c r="PN92" s="15"/>
+      <c r="PO92" s="15"/>
+      <c r="PP92" s="15"/>
+      <c r="PQ92" s="15"/>
+      <c r="PR92" s="15"/>
+      <c r="PS92" s="15"/>
+      <c r="PT92" s="15"/>
+      <c r="PU92" s="15"/>
+      <c r="PV92" s="15"/>
+      <c r="PW92" s="15"/>
+      <c r="PX92" s="15"/>
+      <c r="PY92" s="15"/>
+      <c r="PZ92" s="15"/>
+      <c r="QA92" s="15"/>
+      <c r="QB92" s="15"/>
+      <c r="QC92" s="15"/>
+      <c r="QD92" s="15"/>
+      <c r="QE92" s="15"/>
+      <c r="QF92" s="15"/>
+      <c r="QG92" s="15"/>
+      <c r="QH92" s="15"/>
+      <c r="QI92" s="15"/>
+      <c r="QJ92" s="15"/>
+      <c r="QK92" s="15"/>
+      <c r="QL92" s="15"/>
+      <c r="QM92" s="15"/>
+      <c r="QN92" s="15"/>
+      <c r="QO92" s="15"/>
+      <c r="QP92" s="15"/>
+      <c r="QQ92" s="15"/>
+      <c r="QR92" s="15"/>
+      <c r="QS92" s="15"/>
+      <c r="QT92" s="15"/>
+      <c r="QU92" s="15"/>
+      <c r="QV92" s="15"/>
+      <c r="QW92" s="15"/>
+      <c r="QX92" s="15"/>
+      <c r="QY92" s="15"/>
+      <c r="QZ92" s="15"/>
+      <c r="RA92" s="15"/>
+      <c r="RB92" s="15"/>
+      <c r="RC92" s="15"/>
+      <c r="RD92" s="15"/>
+      <c r="RE92" s="15"/>
+      <c r="RF92" s="15"/>
+      <c r="RG92" s="15"/>
+      <c r="RH92" s="15"/>
+      <c r="RI92" s="15"/>
+      <c r="RJ92" s="15"/>
+      <c r="RK92" s="15"/>
+      <c r="RL92" s="15"/>
+      <c r="RM92" s="15"/>
+      <c r="RN92" s="15"/>
+      <c r="RO92" s="15"/>
+      <c r="RP92" s="15"/>
+      <c r="RQ92" s="15"/>
+      <c r="RR92" s="15"/>
+      <c r="RS92" s="15"/>
+      <c r="RT92" s="15"/>
+      <c r="RU92" s="15"/>
+      <c r="RV92" s="15"/>
+      <c r="RW92" s="15"/>
+      <c r="RX92" s="15"/>
+      <c r="RY92" s="15"/>
+      <c r="RZ92" s="15"/>
+      <c r="SA92" s="15"/>
+      <c r="SB92" s="15"/>
+      <c r="SC92" s="15"/>
+      <c r="SD92" s="15"/>
+      <c r="SE92" s="15"/>
+      <c r="SF92" s="15"/>
+      <c r="SG92" s="15"/>
+      <c r="SH92" s="15"/>
+      <c r="SI92" s="15"/>
+      <c r="SJ92" s="15"/>
+      <c r="SK92" s="15"/>
+      <c r="SL92" s="15"/>
+      <c r="SM92" s="15"/>
+      <c r="SN92" s="15"/>
+      <c r="SO92" s="15"/>
+      <c r="SP92" s="15"/>
+      <c r="SQ92" s="15"/>
+      <c r="SR92" s="15"/>
+      <c r="SS92" s="15"/>
+      <c r="ST92" s="15"/>
+      <c r="SU92" s="15"/>
+      <c r="SV92" s="15"/>
+      <c r="SW92" s="15"/>
+      <c r="SX92" s="15"/>
+      <c r="SY92" s="15"/>
+      <c r="SZ92" s="15"/>
+      <c r="TA92" s="15"/>
+      <c r="TB92" s="15"/>
+      <c r="TC92" s="15"/>
+      <c r="TD92" s="15"/>
+      <c r="TE92" s="15"/>
+      <c r="TF92" s="15"/>
+      <c r="TG92" s="15"/>
+      <c r="TH92" s="15"/>
+      <c r="TI92" s="15"/>
+      <c r="TJ92" s="15"/>
+      <c r="TK92" s="15"/>
+      <c r="TL92" s="15"/>
+      <c r="TM92" s="15"/>
+      <c r="TN92" s="15"/>
+      <c r="TO92" s="15"/>
+      <c r="TP92" s="15"/>
+      <c r="TQ92" s="15"/>
+      <c r="TR92" s="15"/>
+      <c r="TS92" s="15"/>
+      <c r="TT92" s="15"/>
+      <c r="TU92" s="15"/>
+      <c r="TV92" s="15"/>
+      <c r="TW92" s="15"/>
+      <c r="TX92" s="15"/>
+      <c r="TY92" s="15"/>
+      <c r="TZ92" s="15"/>
+      <c r="UA92" s="15"/>
+      <c r="UB92" s="15"/>
+      <c r="UC92" s="15"/>
+      <c r="UD92" s="15"/>
+      <c r="UE92" s="15"/>
+      <c r="UF92" s="15"/>
+      <c r="UG92" s="15"/>
+      <c r="UH92" s="15"/>
+      <c r="UI92" s="15"/>
+      <c r="UJ92" s="15"/>
+      <c r="UK92" s="15"/>
+      <c r="UL92" s="15"/>
+      <c r="UM92" s="15"/>
+      <c r="UN92" s="15"/>
+      <c r="UO92" s="15"/>
+      <c r="UP92" s="15"/>
+      <c r="UQ92" s="15"/>
+      <c r="UR92" s="15"/>
+      <c r="US92" s="15"/>
+      <c r="UT92" s="15"/>
+      <c r="UU92" s="15"/>
+      <c r="UV92" s="15"/>
+      <c r="UW92" s="15"/>
+      <c r="UX92" s="15"/>
+      <c r="UY92" s="15"/>
+      <c r="UZ92" s="15"/>
+      <c r="VA92" s="15"/>
+      <c r="VB92" s="15"/>
+      <c r="VC92" s="15"/>
+      <c r="VD92" s="15"/>
+      <c r="VE92" s="15"/>
+      <c r="VF92" s="15"/>
+      <c r="VG92" s="15"/>
+      <c r="VH92" s="15"/>
+      <c r="VI92" s="15"/>
+      <c r="VJ92" s="15"/>
+      <c r="VK92" s="15"/>
+      <c r="VL92" s="15"/>
+      <c r="VM92" s="15"/>
+      <c r="VN92" s="15"/>
+      <c r="VO92" s="15"/>
+      <c r="VP92" s="15"/>
+      <c r="VQ92" s="15"/>
+      <c r="VR92" s="15"/>
+      <c r="VS92" s="15"/>
+      <c r="VT92" s="15"/>
+      <c r="VU92" s="15"/>
+      <c r="VV92" s="15"/>
+      <c r="VW92" s="15"/>
+      <c r="VX92" s="15"/>
+      <c r="VY92" s="15"/>
+      <c r="VZ92" s="15"/>
+      <c r="WA92" s="15"/>
+      <c r="WB92" s="15"/>
+      <c r="WC92" s="15"/>
+      <c r="WD92" s="15"/>
+      <c r="WE92" s="15"/>
+      <c r="WF92" s="15"/>
+      <c r="WG92" s="15"/>
+      <c r="WH92" s="15"/>
+      <c r="WI92" s="15"/>
+      <c r="WJ92" s="15"/>
+      <c r="WK92" s="15"/>
+      <c r="WL92" s="15"/>
+      <c r="WM92" s="15"/>
+      <c r="WN92" s="15"/>
+      <c r="WO92" s="15"/>
+      <c r="WP92" s="15"/>
+      <c r="WQ92" s="15"/>
+      <c r="WR92" s="15"/>
+      <c r="WS92" s="15"/>
+      <c r="WT92" s="15"/>
+      <c r="WU92" s="15"/>
+      <c r="WV92" s="15"/>
+      <c r="WW92" s="15"/>
+      <c r="WX92" s="15"/>
+      <c r="WY92" s="15"/>
+      <c r="WZ92" s="15"/>
+      <c r="XA92" s="15"/>
+      <c r="XB92" s="15"/>
+      <c r="XC92" s="15"/>
+      <c r="XD92" s="15"/>
+      <c r="XE92" s="15"/>
+      <c r="XF92" s="15"/>
+      <c r="XG92" s="15"/>
+      <c r="XH92" s="15"/>
+      <c r="XI92" s="15"/>
+      <c r="XJ92" s="15"/>
+      <c r="XK92" s="15"/>
+      <c r="XL92" s="15"/>
+      <c r="XM92" s="15"/>
+      <c r="XN92" s="15"/>
+      <c r="XO92" s="15"/>
+      <c r="XP92" s="15"/>
+      <c r="XQ92" s="15"/>
+      <c r="XR92" s="15"/>
+      <c r="XS92" s="15"/>
+      <c r="XT92" s="15"/>
+      <c r="XU92" s="15"/>
+      <c r="XV92" s="15"/>
+      <c r="XW92" s="15"/>
+      <c r="XX92" s="15"/>
+      <c r="XY92" s="15"/>
+      <c r="XZ92" s="15"/>
+      <c r="YA92" s="15"/>
+      <c r="YB92" s="15"/>
+      <c r="YC92" s="15"/>
+      <c r="YD92" s="15"/>
+      <c r="YE92" s="15"/>
+      <c r="YF92" s="15"/>
+      <c r="YG92" s="15"/>
+      <c r="YH92" s="15"/>
+      <c r="YI92" s="15"/>
+      <c r="YJ92" s="15"/>
+      <c r="YK92" s="15"/>
+      <c r="YL92" s="15"/>
+      <c r="YM92" s="15"/>
+      <c r="YN92" s="15"/>
+      <c r="YO92" s="15"/>
+      <c r="YP92" s="15"/>
+      <c r="YQ92" s="15"/>
+      <c r="YR92" s="15"/>
+      <c r="YS92" s="15"/>
+      <c r="YT92" s="15"/>
+      <c r="YU92" s="15"/>
+      <c r="YV92" s="15"/>
+      <c r="YW92" s="15"/>
+      <c r="YX92" s="15"/>
+      <c r="YY92" s="15"/>
+      <c r="YZ92" s="15"/>
+      <c r="ZA92" s="15"/>
+      <c r="ZB92" s="15"/>
+      <c r="ZC92" s="15"/>
+      <c r="ZD92" s="15"/>
+      <c r="ZE92" s="15"/>
+      <c r="ZF92" s="15"/>
+      <c r="ZG92" s="15"/>
+      <c r="ZH92" s="15"/>
+      <c r="ZI92" s="15"/>
+      <c r="ZJ92" s="15"/>
+      <c r="ZK92" s="15"/>
+      <c r="ZL92" s="15"/>
+      <c r="ZM92" s="15"/>
+      <c r="ZN92" s="15"/>
+      <c r="ZO92" s="15"/>
+      <c r="ZP92" s="15"/>
+      <c r="ZQ92" s="15"/>
+      <c r="ZR92" s="15"/>
+      <c r="ZS92" s="15"/>
+      <c r="ZT92" s="15"/>
+      <c r="ZU92" s="15"/>
+      <c r="ZV92" s="15"/>
+      <c r="ZW92" s="15"/>
+      <c r="ZX92" s="15"/>
+      <c r="ZY92" s="15"/>
+      <c r="ZZ92" s="15"/>
+      <c r="AAA92" s="15"/>
+      <c r="AAB92" s="15"/>
+      <c r="AAC92" s="15"/>
+      <c r="AAD92" s="15"/>
+      <c r="AAE92" s="15"/>
+      <c r="AAF92" s="15"/>
+      <c r="AAG92" s="15"/>
+      <c r="AAH92" s="15"/>
+      <c r="AAI92" s="15"/>
+      <c r="AAJ92" s="15"/>
+      <c r="AAK92" s="15"/>
+      <c r="AAL92" s="15"/>
+      <c r="AAM92" s="15"/>
+      <c r="AAN92" s="15"/>
+      <c r="AAO92" s="15"/>
+      <c r="AAP92" s="15"/>
+      <c r="AAQ92" s="15"/>
+      <c r="AAR92" s="15"/>
+      <c r="AAS92" s="15"/>
+      <c r="AAT92" s="15"/>
+      <c r="AAU92" s="15"/>
+      <c r="AAV92" s="15"/>
+      <c r="AAW92" s="15"/>
+      <c r="AAX92" s="15"/>
+      <c r="AAY92" s="15"/>
+      <c r="AAZ92" s="15"/>
+      <c r="ABA92" s="15"/>
+      <c r="ABB92" s="15"/>
+      <c r="ABC92" s="15"/>
+      <c r="ABD92" s="15"/>
+      <c r="ABE92" s="15"/>
+      <c r="ABF92" s="15"/>
+      <c r="ABG92" s="15"/>
+      <c r="ABH92" s="15"/>
+      <c r="ABI92" s="15"/>
+      <c r="ABJ92" s="15"/>
+      <c r="ABK92" s="15"/>
+      <c r="ABL92" s="15"/>
+      <c r="ABM92" s="15"/>
+      <c r="ABN92" s="15"/>
+      <c r="ABO92" s="15"/>
+      <c r="ABP92" s="15"/>
+      <c r="ABQ92" s="15"/>
+      <c r="ABR92" s="15"/>
+      <c r="ABS92" s="15"/>
+      <c r="ABT92" s="15"/>
+      <c r="ABU92" s="15"/>
+      <c r="ABV92" s="15"/>
+      <c r="ABW92" s="15"/>
+      <c r="ABX92" s="15"/>
+      <c r="ABY92" s="15"/>
+      <c r="ABZ92" s="15"/>
+      <c r="ACA92" s="15"/>
+      <c r="ACB92" s="15"/>
+      <c r="ACC92" s="15"/>
+      <c r="ACD92" s="15"/>
+      <c r="ACE92" s="15"/>
+      <c r="ACF92" s="15"/>
+      <c r="ACG92" s="15"/>
+      <c r="ACH92" s="15"/>
+      <c r="ACI92" s="15"/>
+      <c r="ACJ92" s="15"/>
+      <c r="ACK92" s="15"/>
+      <c r="ACL92" s="15"/>
+      <c r="ACM92" s="15"/>
+      <c r="ACN92" s="15"/>
+      <c r="ACO92" s="15"/>
+      <c r="ACP92" s="15"/>
+      <c r="ACQ92" s="15"/>
+      <c r="ACR92" s="15"/>
+      <c r="ACS92" s="15"/>
+      <c r="ACT92" s="15"/>
+      <c r="ACU92" s="15"/>
+      <c r="ACV92" s="15"/>
+      <c r="ACW92" s="15"/>
+      <c r="ACX92" s="15"/>
+      <c r="ACY92" s="15"/>
+      <c r="ACZ92" s="15"/>
+      <c r="ADA92" s="15"/>
+      <c r="ADB92" s="15"/>
+      <c r="ADC92" s="15"/>
+      <c r="ADD92" s="15"/>
+      <c r="ADE92" s="15"/>
+      <c r="ADF92" s="15"/>
+      <c r="ADG92" s="15"/>
+      <c r="ADH92" s="15"/>
+      <c r="ADI92" s="15"/>
+      <c r="ADJ92" s="15"/>
+      <c r="ADK92" s="15"/>
+      <c r="ADL92" s="15"/>
+      <c r="ADM92" s="15"/>
+      <c r="ADN92" s="15"/>
+      <c r="ADO92" s="15"/>
+      <c r="ADP92" s="15"/>
+      <c r="ADQ92" s="15"/>
+      <c r="ADR92" s="15"/>
+      <c r="ADS92" s="15"/>
+      <c r="ADT92" s="15"/>
+      <c r="ADU92" s="15"/>
+      <c r="ADV92" s="15"/>
+      <c r="ADW92" s="15"/>
+      <c r="ADX92" s="15"/>
+      <c r="ADY92" s="15"/>
+      <c r="ADZ92" s="15"/>
+      <c r="AEA92" s="15"/>
+      <c r="AEB92" s="15"/>
+      <c r="AEC92" s="15"/>
+      <c r="AED92" s="15"/>
+      <c r="AEE92" s="15"/>
+      <c r="AEF92" s="15"/>
+      <c r="AEG92" s="15"/>
+      <c r="AEH92" s="15"/>
+      <c r="AEI92" s="15"/>
+      <c r="AEJ92" s="15"/>
+      <c r="AEK92" s="15"/>
+      <c r="AEL92" s="15"/>
+      <c r="AEM92" s="15"/>
+      <c r="AEN92" s="15"/>
+      <c r="AEO92" s="15"/>
+      <c r="AEP92" s="15"/>
+      <c r="AEQ92" s="15"/>
+      <c r="AER92" s="15"/>
+      <c r="AES92" s="15"/>
+      <c r="AET92" s="15"/>
+      <c r="AEU92" s="15"/>
+      <c r="AEV92" s="15"/>
+      <c r="AEW92" s="15"/>
+      <c r="AEX92" s="15"/>
+      <c r="AEY92" s="15"/>
+      <c r="AEZ92" s="15"/>
+      <c r="AFA92" s="15"/>
+      <c r="AFB92" s="15"/>
+      <c r="AFC92" s="15"/>
+      <c r="AFD92" s="15"/>
+      <c r="AFE92" s="15"/>
+      <c r="AFF92" s="15"/>
+      <c r="AFG92" s="15"/>
+      <c r="AFH92" s="15"/>
+      <c r="AFI92" s="15"/>
+      <c r="AFJ92" s="15"/>
+      <c r="AFK92" s="15"/>
+      <c r="AFL92" s="15"/>
+      <c r="AFM92" s="15"/>
+      <c r="AFN92" s="15"/>
+      <c r="AFO92" s="15"/>
+      <c r="AFP92" s="15"/>
+      <c r="AFQ92" s="15"/>
+      <c r="AFR92" s="15"/>
+      <c r="AFS92" s="15"/>
+      <c r="AFT92" s="15"/>
+      <c r="AFU92" s="15"/>
+      <c r="AFV92" s="15"/>
+      <c r="AFW92" s="15"/>
+      <c r="AFX92" s="15"/>
+      <c r="AFY92" s="15"/>
+      <c r="AFZ92" s="15"/>
+      <c r="AGA92" s="15"/>
+      <c r="AGB92" s="15"/>
+      <c r="AGC92" s="15"/>
+      <c r="AGD92" s="15"/>
+      <c r="AGE92" s="15"/>
+      <c r="AGF92" s="15"/>
+      <c r="AGG92" s="15"/>
+      <c r="AGH92" s="15"/>
+      <c r="AGI92" s="15"/>
+      <c r="AGJ92" s="15"/>
+      <c r="AGK92" s="15"/>
+      <c r="AGL92" s="15"/>
+      <c r="AGM92" s="15"/>
+      <c r="AGN92" s="15"/>
+      <c r="AGO92" s="15"/>
+      <c r="AGP92" s="15"/>
+      <c r="AGQ92" s="15"/>
+      <c r="AGR92" s="15"/>
+      <c r="AGS92" s="15"/>
+      <c r="AGT92" s="15"/>
+      <c r="AGU92" s="15"/>
+      <c r="AGV92" s="15"/>
+      <c r="AGW92" s="15"/>
+      <c r="AGX92" s="15"/>
+      <c r="AGY92" s="15"/>
+      <c r="AGZ92" s="15"/>
+      <c r="AHA92" s="15"/>
+      <c r="AHB92" s="15"/>
+      <c r="AHC92" s="15"/>
+      <c r="AHD92" s="15"/>
+      <c r="AHE92" s="15"/>
+      <c r="AHF92" s="15"/>
+      <c r="AHG92" s="15"/>
+      <c r="AHH92" s="15"/>
+      <c r="AHI92" s="15"/>
+      <c r="AHJ92" s="15"/>
+      <c r="AHK92" s="15"/>
+      <c r="AHL92" s="15"/>
+      <c r="AHM92" s="15"/>
+      <c r="AHN92" s="15"/>
+      <c r="AHO92" s="15"/>
+      <c r="AHP92" s="15"/>
+      <c r="AHQ92" s="15"/>
+      <c r="AHR92" s="15"/>
+      <c r="AHS92" s="15"/>
+      <c r="AHT92" s="15"/>
+      <c r="AHU92" s="15"/>
+      <c r="AHV92" s="15"/>
+      <c r="AHW92" s="15"/>
+      <c r="AHX92" s="15"/>
+      <c r="AHY92" s="15"/>
+      <c r="AHZ92" s="15"/>
+      <c r="AIA92" s="15"/>
+      <c r="AIB92" s="15"/>
+      <c r="AIC92" s="15"/>
+      <c r="AID92" s="15"/>
+      <c r="AIE92" s="15"/>
+      <c r="AIF92" s="15"/>
+      <c r="AIG92" s="15"/>
+      <c r="AIH92" s="15"/>
+      <c r="AII92" s="15"/>
+      <c r="AIJ92" s="15"/>
+      <c r="AIK92" s="15"/>
+      <c r="AIL92" s="15"/>
+      <c r="AIM92" s="15"/>
+      <c r="AIN92" s="15"/>
+      <c r="AIO92" s="15"/>
+      <c r="AIP92" s="15"/>
+      <c r="AIQ92" s="15"/>
+      <c r="AIR92" s="15"/>
+      <c r="AIS92" s="15"/>
+      <c r="AIT92" s="15"/>
+      <c r="AIU92" s="15"/>
+      <c r="AIV92" s="15"/>
+      <c r="AIW92" s="15"/>
+      <c r="AIX92" s="15"/>
+      <c r="AIY92" s="15"/>
+      <c r="AIZ92" s="15"/>
+      <c r="AJA92" s="15"/>
+      <c r="AJB92" s="15"/>
+      <c r="AJC92" s="15"/>
+      <c r="AJD92" s="15"/>
+      <c r="AJE92" s="15"/>
+      <c r="AJF92" s="15"/>
+      <c r="AJG92" s="15"/>
+      <c r="AJH92" s="15"/>
+      <c r="AJI92" s="15"/>
+      <c r="AJJ92" s="15"/>
+      <c r="AJK92" s="15"/>
+      <c r="AJL92" s="15"/>
+      <c r="AJM92" s="15"/>
+      <c r="AJN92" s="15"/>
+      <c r="AJO92" s="15"/>
+      <c r="AJP92" s="15"/>
+      <c r="AJQ92" s="15"/>
+      <c r="AJR92" s="15"/>
+      <c r="AJS92" s="15"/>
+      <c r="AJT92" s="15"/>
+      <c r="AJU92" s="15"/>
+      <c r="AJV92" s="15"/>
+      <c r="AJW92" s="15"/>
+      <c r="AJX92" s="15"/>
+      <c r="AJY92" s="15"/>
+      <c r="AJZ92" s="15"/>
+      <c r="AKA92" s="15"/>
+      <c r="AKB92" s="15"/>
+      <c r="AKC92" s="15"/>
+      <c r="AKD92" s="15"/>
+      <c r="AKE92" s="15"/>
+      <c r="AKF92" s="15"/>
+      <c r="AKG92" s="15"/>
+      <c r="AKH92" s="15"/>
+      <c r="AKI92" s="15"/>
+      <c r="AKJ92" s="15"/>
+      <c r="AKK92" s="15"/>
+      <c r="AKL92" s="15"/>
+      <c r="AKM92" s="15"/>
+      <c r="AKN92" s="15"/>
+      <c r="AKO92" s="15"/>
+      <c r="AKP92" s="15"/>
+      <c r="AKQ92" s="15"/>
+      <c r="AKR92" s="15"/>
+      <c r="AKS92" s="15"/>
+      <c r="AKT92" s="15"/>
+      <c r="AKU92" s="15"/>
+      <c r="AKV92" s="15"/>
+      <c r="AKW92" s="15"/>
+      <c r="AKX92" s="15"/>
+      <c r="AKY92" s="15"/>
+      <c r="AKZ92" s="15"/>
+      <c r="ALA92" s="15"/>
+      <c r="ALB92" s="15"/>
+      <c r="ALC92" s="15"/>
+      <c r="ALD92" s="15"/>
+      <c r="ALE92" s="15"/>
+      <c r="ALF92" s="15"/>
+      <c r="ALG92" s="15"/>
+      <c r="ALH92" s="15"/>
+      <c r="ALI92" s="15"/>
+      <c r="ALJ92" s="15"/>
+      <c r="ALK92" s="15"/>
+      <c r="ALL92" s="15"/>
+      <c r="ALM92" s="15"/>
+      <c r="ALN92" s="15"/>
+      <c r="ALO92" s="15"/>
+      <c r="ALP92" s="15"/>
+      <c r="ALQ92" s="15"/>
+      <c r="ALR92" s="15"/>
+      <c r="ALS92" s="15"/>
+      <c r="ALT92" s="15"/>
+      <c r="ALU92" s="15"/>
+      <c r="ALV92" s="15"/>
+      <c r="ALW92" s="15"/>
+      <c r="ALX92" s="15"/>
+      <c r="ALY92" s="15"/>
+      <c r="ALZ92" s="15"/>
+      <c r="AMA92" s="15"/>
+      <c r="AMB92" s="15"/>
+      <c r="AMC92" s="15"/>
+      <c r="AMD92" s="15"/>
+      <c r="AME92" s="15"/>
+      <c r="AMF92" s="15"/>
+      <c r="AMG92" s="15"/>
+      <c r="AMH92" s="15"/>
+      <c r="AMI92" s="15"/>
+      <c r="AMJ92" s="15"/>
+      <c r="AMK92" s="15"/>
+      <c r="AML92" s="15"/>
+      <c r="AMM92" s="15"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>522</v>
       </c>

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938600A1-AD98-4B1B-B698-877AB4F02D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F223AA-9E9D-477D-871A-C00FAF3E758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="532">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1879,6 +1879,9 @@
   </si>
   <si>
     <t>removed</t>
+  </si>
+  <si>
+    <t>8.4</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2708,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8292,26 +8295,1050 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="E89" s="15"/>
+      <c r="F89" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G89" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="I89" s="3"/>
+      <c r="G89" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="I89" s="22">
+        <v>45138</v>
+      </c>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="15"/>
+      <c r="AN89" s="15"/>
+      <c r="AO89" s="15"/>
+      <c r="AP89" s="15"/>
+      <c r="AQ89" s="15"/>
+      <c r="AR89" s="15"/>
+      <c r="AS89" s="15"/>
+      <c r="AT89" s="15"/>
+      <c r="AU89" s="15"/>
+      <c r="AV89" s="15"/>
+      <c r="AW89" s="15"/>
+      <c r="AX89" s="15"/>
+      <c r="AY89" s="15"/>
+      <c r="AZ89" s="15"/>
+      <c r="BA89" s="15"/>
+      <c r="BB89" s="15"/>
+      <c r="BC89" s="15"/>
+      <c r="BD89" s="15"/>
+      <c r="BE89" s="15"/>
+      <c r="BF89" s="15"/>
+      <c r="BG89" s="15"/>
+      <c r="BH89" s="15"/>
+      <c r="BI89" s="15"/>
+      <c r="BJ89" s="15"/>
+      <c r="BK89" s="15"/>
+      <c r="BL89" s="15"/>
+      <c r="BM89" s="15"/>
+      <c r="BN89" s="15"/>
+      <c r="BO89" s="15"/>
+      <c r="BP89" s="15"/>
+      <c r="BQ89" s="15"/>
+      <c r="BR89" s="15"/>
+      <c r="BS89" s="15"/>
+      <c r="BT89" s="15"/>
+      <c r="BU89" s="15"/>
+      <c r="BV89" s="15"/>
+      <c r="BW89" s="15"/>
+      <c r="BX89" s="15"/>
+      <c r="BY89" s="15"/>
+      <c r="BZ89" s="15"/>
+      <c r="CA89" s="15"/>
+      <c r="CB89" s="15"/>
+      <c r="CC89" s="15"/>
+      <c r="CD89" s="15"/>
+      <c r="CE89" s="15"/>
+      <c r="CF89" s="15"/>
+      <c r="CG89" s="15"/>
+      <c r="CH89" s="15"/>
+      <c r="CI89" s="15"/>
+      <c r="CJ89" s="15"/>
+      <c r="CK89" s="15"/>
+      <c r="CL89" s="15"/>
+      <c r="CM89" s="15"/>
+      <c r="CN89" s="15"/>
+      <c r="CO89" s="15"/>
+      <c r="CP89" s="15"/>
+      <c r="CQ89" s="15"/>
+      <c r="CR89" s="15"/>
+      <c r="CS89" s="15"/>
+      <c r="CT89" s="15"/>
+      <c r="CU89" s="15"/>
+      <c r="CV89" s="15"/>
+      <c r="CW89" s="15"/>
+      <c r="CX89" s="15"/>
+      <c r="CY89" s="15"/>
+      <c r="CZ89" s="15"/>
+      <c r="DA89" s="15"/>
+      <c r="DB89" s="15"/>
+      <c r="DC89" s="15"/>
+      <c r="DD89" s="15"/>
+      <c r="DE89" s="15"/>
+      <c r="DF89" s="15"/>
+      <c r="DG89" s="15"/>
+      <c r="DH89" s="15"/>
+      <c r="DI89" s="15"/>
+      <c r="DJ89" s="15"/>
+      <c r="DK89" s="15"/>
+      <c r="DL89" s="15"/>
+      <c r="DM89" s="15"/>
+      <c r="DN89" s="15"/>
+      <c r="DO89" s="15"/>
+      <c r="DP89" s="15"/>
+      <c r="DQ89" s="15"/>
+      <c r="DR89" s="15"/>
+      <c r="DS89" s="15"/>
+      <c r="DT89" s="15"/>
+      <c r="DU89" s="15"/>
+      <c r="DV89" s="15"/>
+      <c r="DW89" s="15"/>
+      <c r="DX89" s="15"/>
+      <c r="DY89" s="15"/>
+      <c r="DZ89" s="15"/>
+      <c r="EA89" s="15"/>
+      <c r="EB89" s="15"/>
+      <c r="EC89" s="15"/>
+      <c r="ED89" s="15"/>
+      <c r="EE89" s="15"/>
+      <c r="EF89" s="15"/>
+      <c r="EG89" s="15"/>
+      <c r="EH89" s="15"/>
+      <c r="EI89" s="15"/>
+      <c r="EJ89" s="15"/>
+      <c r="EK89" s="15"/>
+      <c r="EL89" s="15"/>
+      <c r="EM89" s="15"/>
+      <c r="EN89" s="15"/>
+      <c r="EO89" s="15"/>
+      <c r="EP89" s="15"/>
+      <c r="EQ89" s="15"/>
+      <c r="ER89" s="15"/>
+      <c r="ES89" s="15"/>
+      <c r="ET89" s="15"/>
+      <c r="EU89" s="15"/>
+      <c r="EV89" s="15"/>
+      <c r="EW89" s="15"/>
+      <c r="EX89" s="15"/>
+      <c r="EY89" s="15"/>
+      <c r="EZ89" s="15"/>
+      <c r="FA89" s="15"/>
+      <c r="FB89" s="15"/>
+      <c r="FC89" s="15"/>
+      <c r="FD89" s="15"/>
+      <c r="FE89" s="15"/>
+      <c r="FF89" s="15"/>
+      <c r="FG89" s="15"/>
+      <c r="FH89" s="15"/>
+      <c r="FI89" s="15"/>
+      <c r="FJ89" s="15"/>
+      <c r="FK89" s="15"/>
+      <c r="FL89" s="15"/>
+      <c r="FM89" s="15"/>
+      <c r="FN89" s="15"/>
+      <c r="FO89" s="15"/>
+      <c r="FP89" s="15"/>
+      <c r="FQ89" s="15"/>
+      <c r="FR89" s="15"/>
+      <c r="FS89" s="15"/>
+      <c r="FT89" s="15"/>
+      <c r="FU89" s="15"/>
+      <c r="FV89" s="15"/>
+      <c r="FW89" s="15"/>
+      <c r="FX89" s="15"/>
+      <c r="FY89" s="15"/>
+      <c r="FZ89" s="15"/>
+      <c r="GA89" s="15"/>
+      <c r="GB89" s="15"/>
+      <c r="GC89" s="15"/>
+      <c r="GD89" s="15"/>
+      <c r="GE89" s="15"/>
+      <c r="GF89" s="15"/>
+      <c r="GG89" s="15"/>
+      <c r="GH89" s="15"/>
+      <c r="GI89" s="15"/>
+      <c r="GJ89" s="15"/>
+      <c r="GK89" s="15"/>
+      <c r="GL89" s="15"/>
+      <c r="GM89" s="15"/>
+      <c r="GN89" s="15"/>
+      <c r="GO89" s="15"/>
+      <c r="GP89" s="15"/>
+      <c r="GQ89" s="15"/>
+      <c r="GR89" s="15"/>
+      <c r="GS89" s="15"/>
+      <c r="GT89" s="15"/>
+      <c r="GU89" s="15"/>
+      <c r="GV89" s="15"/>
+      <c r="GW89" s="15"/>
+      <c r="GX89" s="15"/>
+      <c r="GY89" s="15"/>
+      <c r="GZ89" s="15"/>
+      <c r="HA89" s="15"/>
+      <c r="HB89" s="15"/>
+      <c r="HC89" s="15"/>
+      <c r="HD89" s="15"/>
+      <c r="HE89" s="15"/>
+      <c r="HF89" s="15"/>
+      <c r="HG89" s="15"/>
+      <c r="HH89" s="15"/>
+      <c r="HI89" s="15"/>
+      <c r="HJ89" s="15"/>
+      <c r="HK89" s="15"/>
+      <c r="HL89" s="15"/>
+      <c r="HM89" s="15"/>
+      <c r="HN89" s="15"/>
+      <c r="HO89" s="15"/>
+      <c r="HP89" s="15"/>
+      <c r="HQ89" s="15"/>
+      <c r="HR89" s="15"/>
+      <c r="HS89" s="15"/>
+      <c r="HT89" s="15"/>
+      <c r="HU89" s="15"/>
+      <c r="HV89" s="15"/>
+      <c r="HW89" s="15"/>
+      <c r="HX89" s="15"/>
+      <c r="HY89" s="15"/>
+      <c r="HZ89" s="15"/>
+      <c r="IA89" s="15"/>
+      <c r="IB89" s="15"/>
+      <c r="IC89" s="15"/>
+      <c r="ID89" s="15"/>
+      <c r="IE89" s="15"/>
+      <c r="IF89" s="15"/>
+      <c r="IG89" s="15"/>
+      <c r="IH89" s="15"/>
+      <c r="II89" s="15"/>
+      <c r="IJ89" s="15"/>
+      <c r="IK89" s="15"/>
+      <c r="IL89" s="15"/>
+      <c r="IM89" s="15"/>
+      <c r="IN89" s="15"/>
+      <c r="IO89" s="15"/>
+      <c r="IP89" s="15"/>
+      <c r="IQ89" s="15"/>
+      <c r="IR89" s="15"/>
+      <c r="IS89" s="15"/>
+      <c r="IT89" s="15"/>
+      <c r="IU89" s="15"/>
+      <c r="IV89" s="15"/>
+      <c r="IW89" s="15"/>
+      <c r="IX89" s="15"/>
+      <c r="IY89" s="15"/>
+      <c r="IZ89" s="15"/>
+      <c r="JA89" s="15"/>
+      <c r="JB89" s="15"/>
+      <c r="JC89" s="15"/>
+      <c r="JD89" s="15"/>
+      <c r="JE89" s="15"/>
+      <c r="JF89" s="15"/>
+      <c r="JG89" s="15"/>
+      <c r="JH89" s="15"/>
+      <c r="JI89" s="15"/>
+      <c r="JJ89" s="15"/>
+      <c r="JK89" s="15"/>
+      <c r="JL89" s="15"/>
+      <c r="JM89" s="15"/>
+      <c r="JN89" s="15"/>
+      <c r="JO89" s="15"/>
+      <c r="JP89" s="15"/>
+      <c r="JQ89" s="15"/>
+      <c r="JR89" s="15"/>
+      <c r="JS89" s="15"/>
+      <c r="JT89" s="15"/>
+      <c r="JU89" s="15"/>
+      <c r="JV89" s="15"/>
+      <c r="JW89" s="15"/>
+      <c r="JX89" s="15"/>
+      <c r="JY89" s="15"/>
+      <c r="JZ89" s="15"/>
+      <c r="KA89" s="15"/>
+      <c r="KB89" s="15"/>
+      <c r="KC89" s="15"/>
+      <c r="KD89" s="15"/>
+      <c r="KE89" s="15"/>
+      <c r="KF89" s="15"/>
+      <c r="KG89" s="15"/>
+      <c r="KH89" s="15"/>
+      <c r="KI89" s="15"/>
+      <c r="KJ89" s="15"/>
+      <c r="KK89" s="15"/>
+      <c r="KL89" s="15"/>
+      <c r="KM89" s="15"/>
+      <c r="KN89" s="15"/>
+      <c r="KO89" s="15"/>
+      <c r="KP89" s="15"/>
+      <c r="KQ89" s="15"/>
+      <c r="KR89" s="15"/>
+      <c r="KS89" s="15"/>
+      <c r="KT89" s="15"/>
+      <c r="KU89" s="15"/>
+      <c r="KV89" s="15"/>
+      <c r="KW89" s="15"/>
+      <c r="KX89" s="15"/>
+      <c r="KY89" s="15"/>
+      <c r="KZ89" s="15"/>
+      <c r="LA89" s="15"/>
+      <c r="LB89" s="15"/>
+      <c r="LC89" s="15"/>
+      <c r="LD89" s="15"/>
+      <c r="LE89" s="15"/>
+      <c r="LF89" s="15"/>
+      <c r="LG89" s="15"/>
+      <c r="LH89" s="15"/>
+      <c r="LI89" s="15"/>
+      <c r="LJ89" s="15"/>
+      <c r="LK89" s="15"/>
+      <c r="LL89" s="15"/>
+      <c r="LM89" s="15"/>
+      <c r="LN89" s="15"/>
+      <c r="LO89" s="15"/>
+      <c r="LP89" s="15"/>
+      <c r="LQ89" s="15"/>
+      <c r="LR89" s="15"/>
+      <c r="LS89" s="15"/>
+      <c r="LT89" s="15"/>
+      <c r="LU89" s="15"/>
+      <c r="LV89" s="15"/>
+      <c r="LW89" s="15"/>
+      <c r="LX89" s="15"/>
+      <c r="LY89" s="15"/>
+      <c r="LZ89" s="15"/>
+      <c r="MA89" s="15"/>
+      <c r="MB89" s="15"/>
+      <c r="MC89" s="15"/>
+      <c r="MD89" s="15"/>
+      <c r="ME89" s="15"/>
+      <c r="MF89" s="15"/>
+      <c r="MG89" s="15"/>
+      <c r="MH89" s="15"/>
+      <c r="MI89" s="15"/>
+      <c r="MJ89" s="15"/>
+      <c r="MK89" s="15"/>
+      <c r="ML89" s="15"/>
+      <c r="MM89" s="15"/>
+      <c r="MN89" s="15"/>
+      <c r="MO89" s="15"/>
+      <c r="MP89" s="15"/>
+      <c r="MQ89" s="15"/>
+      <c r="MR89" s="15"/>
+      <c r="MS89" s="15"/>
+      <c r="MT89" s="15"/>
+      <c r="MU89" s="15"/>
+      <c r="MV89" s="15"/>
+      <c r="MW89" s="15"/>
+      <c r="MX89" s="15"/>
+      <c r="MY89" s="15"/>
+      <c r="MZ89" s="15"/>
+      <c r="NA89" s="15"/>
+      <c r="NB89" s="15"/>
+      <c r="NC89" s="15"/>
+      <c r="ND89" s="15"/>
+      <c r="NE89" s="15"/>
+      <c r="NF89" s="15"/>
+      <c r="NG89" s="15"/>
+      <c r="NH89" s="15"/>
+      <c r="NI89" s="15"/>
+      <c r="NJ89" s="15"/>
+      <c r="NK89" s="15"/>
+      <c r="NL89" s="15"/>
+      <c r="NM89" s="15"/>
+      <c r="NN89" s="15"/>
+      <c r="NO89" s="15"/>
+      <c r="NP89" s="15"/>
+      <c r="NQ89" s="15"/>
+      <c r="NR89" s="15"/>
+      <c r="NS89" s="15"/>
+      <c r="NT89" s="15"/>
+      <c r="NU89" s="15"/>
+      <c r="NV89" s="15"/>
+      <c r="NW89" s="15"/>
+      <c r="NX89" s="15"/>
+      <c r="NY89" s="15"/>
+      <c r="NZ89" s="15"/>
+      <c r="OA89" s="15"/>
+      <c r="OB89" s="15"/>
+      <c r="OC89" s="15"/>
+      <c r="OD89" s="15"/>
+      <c r="OE89" s="15"/>
+      <c r="OF89" s="15"/>
+      <c r="OG89" s="15"/>
+      <c r="OH89" s="15"/>
+      <c r="OI89" s="15"/>
+      <c r="OJ89" s="15"/>
+      <c r="OK89" s="15"/>
+      <c r="OL89" s="15"/>
+      <c r="OM89" s="15"/>
+      <c r="ON89" s="15"/>
+      <c r="OO89" s="15"/>
+      <c r="OP89" s="15"/>
+      <c r="OQ89" s="15"/>
+      <c r="OR89" s="15"/>
+      <c r="OS89" s="15"/>
+      <c r="OT89" s="15"/>
+      <c r="OU89" s="15"/>
+      <c r="OV89" s="15"/>
+      <c r="OW89" s="15"/>
+      <c r="OX89" s="15"/>
+      <c r="OY89" s="15"/>
+      <c r="OZ89" s="15"/>
+      <c r="PA89" s="15"/>
+      <c r="PB89" s="15"/>
+      <c r="PC89" s="15"/>
+      <c r="PD89" s="15"/>
+      <c r="PE89" s="15"/>
+      <c r="PF89" s="15"/>
+      <c r="PG89" s="15"/>
+      <c r="PH89" s="15"/>
+      <c r="PI89" s="15"/>
+      <c r="PJ89" s="15"/>
+      <c r="PK89" s="15"/>
+      <c r="PL89" s="15"/>
+      <c r="PM89" s="15"/>
+      <c r="PN89" s="15"/>
+      <c r="PO89" s="15"/>
+      <c r="PP89" s="15"/>
+      <c r="PQ89" s="15"/>
+      <c r="PR89" s="15"/>
+      <c r="PS89" s="15"/>
+      <c r="PT89" s="15"/>
+      <c r="PU89" s="15"/>
+      <c r="PV89" s="15"/>
+      <c r="PW89" s="15"/>
+      <c r="PX89" s="15"/>
+      <c r="PY89" s="15"/>
+      <c r="PZ89" s="15"/>
+      <c r="QA89" s="15"/>
+      <c r="QB89" s="15"/>
+      <c r="QC89" s="15"/>
+      <c r="QD89" s="15"/>
+      <c r="QE89" s="15"/>
+      <c r="QF89" s="15"/>
+      <c r="QG89" s="15"/>
+      <c r="QH89" s="15"/>
+      <c r="QI89" s="15"/>
+      <c r="QJ89" s="15"/>
+      <c r="QK89" s="15"/>
+      <c r="QL89" s="15"/>
+      <c r="QM89" s="15"/>
+      <c r="QN89" s="15"/>
+      <c r="QO89" s="15"/>
+      <c r="QP89" s="15"/>
+      <c r="QQ89" s="15"/>
+      <c r="QR89" s="15"/>
+      <c r="QS89" s="15"/>
+      <c r="QT89" s="15"/>
+      <c r="QU89" s="15"/>
+      <c r="QV89" s="15"/>
+      <c r="QW89" s="15"/>
+      <c r="QX89" s="15"/>
+      <c r="QY89" s="15"/>
+      <c r="QZ89" s="15"/>
+      <c r="RA89" s="15"/>
+      <c r="RB89" s="15"/>
+      <c r="RC89" s="15"/>
+      <c r="RD89" s="15"/>
+      <c r="RE89" s="15"/>
+      <c r="RF89" s="15"/>
+      <c r="RG89" s="15"/>
+      <c r="RH89" s="15"/>
+      <c r="RI89" s="15"/>
+      <c r="RJ89" s="15"/>
+      <c r="RK89" s="15"/>
+      <c r="RL89" s="15"/>
+      <c r="RM89" s="15"/>
+      <c r="RN89" s="15"/>
+      <c r="RO89" s="15"/>
+      <c r="RP89" s="15"/>
+      <c r="RQ89" s="15"/>
+      <c r="RR89" s="15"/>
+      <c r="RS89" s="15"/>
+      <c r="RT89" s="15"/>
+      <c r="RU89" s="15"/>
+      <c r="RV89" s="15"/>
+      <c r="RW89" s="15"/>
+      <c r="RX89" s="15"/>
+      <c r="RY89" s="15"/>
+      <c r="RZ89" s="15"/>
+      <c r="SA89" s="15"/>
+      <c r="SB89" s="15"/>
+      <c r="SC89" s="15"/>
+      <c r="SD89" s="15"/>
+      <c r="SE89" s="15"/>
+      <c r="SF89" s="15"/>
+      <c r="SG89" s="15"/>
+      <c r="SH89" s="15"/>
+      <c r="SI89" s="15"/>
+      <c r="SJ89" s="15"/>
+      <c r="SK89" s="15"/>
+      <c r="SL89" s="15"/>
+      <c r="SM89" s="15"/>
+      <c r="SN89" s="15"/>
+      <c r="SO89" s="15"/>
+      <c r="SP89" s="15"/>
+      <c r="SQ89" s="15"/>
+      <c r="SR89" s="15"/>
+      <c r="SS89" s="15"/>
+      <c r="ST89" s="15"/>
+      <c r="SU89" s="15"/>
+      <c r="SV89" s="15"/>
+      <c r="SW89" s="15"/>
+      <c r="SX89" s="15"/>
+      <c r="SY89" s="15"/>
+      <c r="SZ89" s="15"/>
+      <c r="TA89" s="15"/>
+      <c r="TB89" s="15"/>
+      <c r="TC89" s="15"/>
+      <c r="TD89" s="15"/>
+      <c r="TE89" s="15"/>
+      <c r="TF89" s="15"/>
+      <c r="TG89" s="15"/>
+      <c r="TH89" s="15"/>
+      <c r="TI89" s="15"/>
+      <c r="TJ89" s="15"/>
+      <c r="TK89" s="15"/>
+      <c r="TL89" s="15"/>
+      <c r="TM89" s="15"/>
+      <c r="TN89" s="15"/>
+      <c r="TO89" s="15"/>
+      <c r="TP89" s="15"/>
+      <c r="TQ89" s="15"/>
+      <c r="TR89" s="15"/>
+      <c r="TS89" s="15"/>
+      <c r="TT89" s="15"/>
+      <c r="TU89" s="15"/>
+      <c r="TV89" s="15"/>
+      <c r="TW89" s="15"/>
+      <c r="TX89" s="15"/>
+      <c r="TY89" s="15"/>
+      <c r="TZ89" s="15"/>
+      <c r="UA89" s="15"/>
+      <c r="UB89" s="15"/>
+      <c r="UC89" s="15"/>
+      <c r="UD89" s="15"/>
+      <c r="UE89" s="15"/>
+      <c r="UF89" s="15"/>
+      <c r="UG89" s="15"/>
+      <c r="UH89" s="15"/>
+      <c r="UI89" s="15"/>
+      <c r="UJ89" s="15"/>
+      <c r="UK89" s="15"/>
+      <c r="UL89" s="15"/>
+      <c r="UM89" s="15"/>
+      <c r="UN89" s="15"/>
+      <c r="UO89" s="15"/>
+      <c r="UP89" s="15"/>
+      <c r="UQ89" s="15"/>
+      <c r="UR89" s="15"/>
+      <c r="US89" s="15"/>
+      <c r="UT89" s="15"/>
+      <c r="UU89" s="15"/>
+      <c r="UV89" s="15"/>
+      <c r="UW89" s="15"/>
+      <c r="UX89" s="15"/>
+      <c r="UY89" s="15"/>
+      <c r="UZ89" s="15"/>
+      <c r="VA89" s="15"/>
+      <c r="VB89" s="15"/>
+      <c r="VC89" s="15"/>
+      <c r="VD89" s="15"/>
+      <c r="VE89" s="15"/>
+      <c r="VF89" s="15"/>
+      <c r="VG89" s="15"/>
+      <c r="VH89" s="15"/>
+      <c r="VI89" s="15"/>
+      <c r="VJ89" s="15"/>
+      <c r="VK89" s="15"/>
+      <c r="VL89" s="15"/>
+      <c r="VM89" s="15"/>
+      <c r="VN89" s="15"/>
+      <c r="VO89" s="15"/>
+      <c r="VP89" s="15"/>
+      <c r="VQ89" s="15"/>
+      <c r="VR89" s="15"/>
+      <c r="VS89" s="15"/>
+      <c r="VT89" s="15"/>
+      <c r="VU89" s="15"/>
+      <c r="VV89" s="15"/>
+      <c r="VW89" s="15"/>
+      <c r="VX89" s="15"/>
+      <c r="VY89" s="15"/>
+      <c r="VZ89" s="15"/>
+      <c r="WA89" s="15"/>
+      <c r="WB89" s="15"/>
+      <c r="WC89" s="15"/>
+      <c r="WD89" s="15"/>
+      <c r="WE89" s="15"/>
+      <c r="WF89" s="15"/>
+      <c r="WG89" s="15"/>
+      <c r="WH89" s="15"/>
+      <c r="WI89" s="15"/>
+      <c r="WJ89" s="15"/>
+      <c r="WK89" s="15"/>
+      <c r="WL89" s="15"/>
+      <c r="WM89" s="15"/>
+      <c r="WN89" s="15"/>
+      <c r="WO89" s="15"/>
+      <c r="WP89" s="15"/>
+      <c r="WQ89" s="15"/>
+      <c r="WR89" s="15"/>
+      <c r="WS89" s="15"/>
+      <c r="WT89" s="15"/>
+      <c r="WU89" s="15"/>
+      <c r="WV89" s="15"/>
+      <c r="WW89" s="15"/>
+      <c r="WX89" s="15"/>
+      <c r="WY89" s="15"/>
+      <c r="WZ89" s="15"/>
+      <c r="XA89" s="15"/>
+      <c r="XB89" s="15"/>
+      <c r="XC89" s="15"/>
+      <c r="XD89" s="15"/>
+      <c r="XE89" s="15"/>
+      <c r="XF89" s="15"/>
+      <c r="XG89" s="15"/>
+      <c r="XH89" s="15"/>
+      <c r="XI89" s="15"/>
+      <c r="XJ89" s="15"/>
+      <c r="XK89" s="15"/>
+      <c r="XL89" s="15"/>
+      <c r="XM89" s="15"/>
+      <c r="XN89" s="15"/>
+      <c r="XO89" s="15"/>
+      <c r="XP89" s="15"/>
+      <c r="XQ89" s="15"/>
+      <c r="XR89" s="15"/>
+      <c r="XS89" s="15"/>
+      <c r="XT89" s="15"/>
+      <c r="XU89" s="15"/>
+      <c r="XV89" s="15"/>
+      <c r="XW89" s="15"/>
+      <c r="XX89" s="15"/>
+      <c r="XY89" s="15"/>
+      <c r="XZ89" s="15"/>
+      <c r="YA89" s="15"/>
+      <c r="YB89" s="15"/>
+      <c r="YC89" s="15"/>
+      <c r="YD89" s="15"/>
+      <c r="YE89" s="15"/>
+      <c r="YF89" s="15"/>
+      <c r="YG89" s="15"/>
+      <c r="YH89" s="15"/>
+      <c r="YI89" s="15"/>
+      <c r="YJ89" s="15"/>
+      <c r="YK89" s="15"/>
+      <c r="YL89" s="15"/>
+      <c r="YM89" s="15"/>
+      <c r="YN89" s="15"/>
+      <c r="YO89" s="15"/>
+      <c r="YP89" s="15"/>
+      <c r="YQ89" s="15"/>
+      <c r="YR89" s="15"/>
+      <c r="YS89" s="15"/>
+      <c r="YT89" s="15"/>
+      <c r="YU89" s="15"/>
+      <c r="YV89" s="15"/>
+      <c r="YW89" s="15"/>
+      <c r="YX89" s="15"/>
+      <c r="YY89" s="15"/>
+      <c r="YZ89" s="15"/>
+      <c r="ZA89" s="15"/>
+      <c r="ZB89" s="15"/>
+      <c r="ZC89" s="15"/>
+      <c r="ZD89" s="15"/>
+      <c r="ZE89" s="15"/>
+      <c r="ZF89" s="15"/>
+      <c r="ZG89" s="15"/>
+      <c r="ZH89" s="15"/>
+      <c r="ZI89" s="15"/>
+      <c r="ZJ89" s="15"/>
+      <c r="ZK89" s="15"/>
+      <c r="ZL89" s="15"/>
+      <c r="ZM89" s="15"/>
+      <c r="ZN89" s="15"/>
+      <c r="ZO89" s="15"/>
+      <c r="ZP89" s="15"/>
+      <c r="ZQ89" s="15"/>
+      <c r="ZR89" s="15"/>
+      <c r="ZS89" s="15"/>
+      <c r="ZT89" s="15"/>
+      <c r="ZU89" s="15"/>
+      <c r="ZV89" s="15"/>
+      <c r="ZW89" s="15"/>
+      <c r="ZX89" s="15"/>
+      <c r="ZY89" s="15"/>
+      <c r="ZZ89" s="15"/>
+      <c r="AAA89" s="15"/>
+      <c r="AAB89" s="15"/>
+      <c r="AAC89" s="15"/>
+      <c r="AAD89" s="15"/>
+      <c r="AAE89" s="15"/>
+      <c r="AAF89" s="15"/>
+      <c r="AAG89" s="15"/>
+      <c r="AAH89" s="15"/>
+      <c r="AAI89" s="15"/>
+      <c r="AAJ89" s="15"/>
+      <c r="AAK89" s="15"/>
+      <c r="AAL89" s="15"/>
+      <c r="AAM89" s="15"/>
+      <c r="AAN89" s="15"/>
+      <c r="AAO89" s="15"/>
+      <c r="AAP89" s="15"/>
+      <c r="AAQ89" s="15"/>
+      <c r="AAR89" s="15"/>
+      <c r="AAS89" s="15"/>
+      <c r="AAT89" s="15"/>
+      <c r="AAU89" s="15"/>
+      <c r="AAV89" s="15"/>
+      <c r="AAW89" s="15"/>
+      <c r="AAX89" s="15"/>
+      <c r="AAY89" s="15"/>
+      <c r="AAZ89" s="15"/>
+      <c r="ABA89" s="15"/>
+      <c r="ABB89" s="15"/>
+      <c r="ABC89" s="15"/>
+      <c r="ABD89" s="15"/>
+      <c r="ABE89" s="15"/>
+      <c r="ABF89" s="15"/>
+      <c r="ABG89" s="15"/>
+      <c r="ABH89" s="15"/>
+      <c r="ABI89" s="15"/>
+      <c r="ABJ89" s="15"/>
+      <c r="ABK89" s="15"/>
+      <c r="ABL89" s="15"/>
+      <c r="ABM89" s="15"/>
+      <c r="ABN89" s="15"/>
+      <c r="ABO89" s="15"/>
+      <c r="ABP89" s="15"/>
+      <c r="ABQ89" s="15"/>
+      <c r="ABR89" s="15"/>
+      <c r="ABS89" s="15"/>
+      <c r="ABT89" s="15"/>
+      <c r="ABU89" s="15"/>
+      <c r="ABV89" s="15"/>
+      <c r="ABW89" s="15"/>
+      <c r="ABX89" s="15"/>
+      <c r="ABY89" s="15"/>
+      <c r="ABZ89" s="15"/>
+      <c r="ACA89" s="15"/>
+      <c r="ACB89" s="15"/>
+      <c r="ACC89" s="15"/>
+      <c r="ACD89" s="15"/>
+      <c r="ACE89" s="15"/>
+      <c r="ACF89" s="15"/>
+      <c r="ACG89" s="15"/>
+      <c r="ACH89" s="15"/>
+      <c r="ACI89" s="15"/>
+      <c r="ACJ89" s="15"/>
+      <c r="ACK89" s="15"/>
+      <c r="ACL89" s="15"/>
+      <c r="ACM89" s="15"/>
+      <c r="ACN89" s="15"/>
+      <c r="ACO89" s="15"/>
+      <c r="ACP89" s="15"/>
+      <c r="ACQ89" s="15"/>
+      <c r="ACR89" s="15"/>
+      <c r="ACS89" s="15"/>
+      <c r="ACT89" s="15"/>
+      <c r="ACU89" s="15"/>
+      <c r="ACV89" s="15"/>
+      <c r="ACW89" s="15"/>
+      <c r="ACX89" s="15"/>
+      <c r="ACY89" s="15"/>
+      <c r="ACZ89" s="15"/>
+      <c r="ADA89" s="15"/>
+      <c r="ADB89" s="15"/>
+      <c r="ADC89" s="15"/>
+      <c r="ADD89" s="15"/>
+      <c r="ADE89" s="15"/>
+      <c r="ADF89" s="15"/>
+      <c r="ADG89" s="15"/>
+      <c r="ADH89" s="15"/>
+      <c r="ADI89" s="15"/>
+      <c r="ADJ89" s="15"/>
+      <c r="ADK89" s="15"/>
+      <c r="ADL89" s="15"/>
+      <c r="ADM89" s="15"/>
+      <c r="ADN89" s="15"/>
+      <c r="ADO89" s="15"/>
+      <c r="ADP89" s="15"/>
+      <c r="ADQ89" s="15"/>
+      <c r="ADR89" s="15"/>
+      <c r="ADS89" s="15"/>
+      <c r="ADT89" s="15"/>
+      <c r="ADU89" s="15"/>
+      <c r="ADV89" s="15"/>
+      <c r="ADW89" s="15"/>
+      <c r="ADX89" s="15"/>
+      <c r="ADY89" s="15"/>
+      <c r="ADZ89" s="15"/>
+      <c r="AEA89" s="15"/>
+      <c r="AEB89" s="15"/>
+      <c r="AEC89" s="15"/>
+      <c r="AED89" s="15"/>
+      <c r="AEE89" s="15"/>
+      <c r="AEF89" s="15"/>
+      <c r="AEG89" s="15"/>
+      <c r="AEH89" s="15"/>
+      <c r="AEI89" s="15"/>
+      <c r="AEJ89" s="15"/>
+      <c r="AEK89" s="15"/>
+      <c r="AEL89" s="15"/>
+      <c r="AEM89" s="15"/>
+      <c r="AEN89" s="15"/>
+      <c r="AEO89" s="15"/>
+      <c r="AEP89" s="15"/>
+      <c r="AEQ89" s="15"/>
+      <c r="AER89" s="15"/>
+      <c r="AES89" s="15"/>
+      <c r="AET89" s="15"/>
+      <c r="AEU89" s="15"/>
+      <c r="AEV89" s="15"/>
+      <c r="AEW89" s="15"/>
+      <c r="AEX89" s="15"/>
+      <c r="AEY89" s="15"/>
+      <c r="AEZ89" s="15"/>
+      <c r="AFA89" s="15"/>
+      <c r="AFB89" s="15"/>
+      <c r="AFC89" s="15"/>
+      <c r="AFD89" s="15"/>
+      <c r="AFE89" s="15"/>
+      <c r="AFF89" s="15"/>
+      <c r="AFG89" s="15"/>
+      <c r="AFH89" s="15"/>
+      <c r="AFI89" s="15"/>
+      <c r="AFJ89" s="15"/>
+      <c r="AFK89" s="15"/>
+      <c r="AFL89" s="15"/>
+      <c r="AFM89" s="15"/>
+      <c r="AFN89" s="15"/>
+      <c r="AFO89" s="15"/>
+      <c r="AFP89" s="15"/>
+      <c r="AFQ89" s="15"/>
+      <c r="AFR89" s="15"/>
+      <c r="AFS89" s="15"/>
+      <c r="AFT89" s="15"/>
+      <c r="AFU89" s="15"/>
+      <c r="AFV89" s="15"/>
+      <c r="AFW89" s="15"/>
+      <c r="AFX89" s="15"/>
+      <c r="AFY89" s="15"/>
+      <c r="AFZ89" s="15"/>
+      <c r="AGA89" s="15"/>
+      <c r="AGB89" s="15"/>
+      <c r="AGC89" s="15"/>
+      <c r="AGD89" s="15"/>
+      <c r="AGE89" s="15"/>
+      <c r="AGF89" s="15"/>
+      <c r="AGG89" s="15"/>
+      <c r="AGH89" s="15"/>
+      <c r="AGI89" s="15"/>
+      <c r="AGJ89" s="15"/>
+      <c r="AGK89" s="15"/>
+      <c r="AGL89" s="15"/>
+      <c r="AGM89" s="15"/>
+      <c r="AGN89" s="15"/>
+      <c r="AGO89" s="15"/>
+      <c r="AGP89" s="15"/>
+      <c r="AGQ89" s="15"/>
+      <c r="AGR89" s="15"/>
+      <c r="AGS89" s="15"/>
+      <c r="AGT89" s="15"/>
+      <c r="AGU89" s="15"/>
+      <c r="AGV89" s="15"/>
+      <c r="AGW89" s="15"/>
+      <c r="AGX89" s="15"/>
+      <c r="AGY89" s="15"/>
+      <c r="AGZ89" s="15"/>
+      <c r="AHA89" s="15"/>
+      <c r="AHB89" s="15"/>
+      <c r="AHC89" s="15"/>
+      <c r="AHD89" s="15"/>
+      <c r="AHE89" s="15"/>
+      <c r="AHF89" s="15"/>
+      <c r="AHG89" s="15"/>
+      <c r="AHH89" s="15"/>
+      <c r="AHI89" s="15"/>
+      <c r="AHJ89" s="15"/>
+      <c r="AHK89" s="15"/>
+      <c r="AHL89" s="15"/>
+      <c r="AHM89" s="15"/>
+      <c r="AHN89" s="15"/>
+      <c r="AHO89" s="15"/>
+      <c r="AHP89" s="15"/>
+      <c r="AHQ89" s="15"/>
+      <c r="AHR89" s="15"/>
+      <c r="AHS89" s="15"/>
+      <c r="AHT89" s="15"/>
+      <c r="AHU89" s="15"/>
+      <c r="AHV89" s="15"/>
+      <c r="AHW89" s="15"/>
+      <c r="AHX89" s="15"/>
+      <c r="AHY89" s="15"/>
+      <c r="AHZ89" s="15"/>
+      <c r="AIA89" s="15"/>
+      <c r="AIB89" s="15"/>
+      <c r="AIC89" s="15"/>
+      <c r="AID89" s="15"/>
+      <c r="AIE89" s="15"/>
+      <c r="AIF89" s="15"/>
+      <c r="AIG89" s="15"/>
+      <c r="AIH89" s="15"/>
+      <c r="AII89" s="15"/>
+      <c r="AIJ89" s="15"/>
+      <c r="AIK89" s="15"/>
+      <c r="AIL89" s="15"/>
+      <c r="AIM89" s="15"/>
+      <c r="AIN89" s="15"/>
+      <c r="AIO89" s="15"/>
+      <c r="AIP89" s="15"/>
+      <c r="AIQ89" s="15"/>
+      <c r="AIR89" s="15"/>
+      <c r="AIS89" s="15"/>
+      <c r="AIT89" s="15"/>
+      <c r="AIU89" s="15"/>
+      <c r="AIV89" s="15"/>
+      <c r="AIW89" s="15"/>
+      <c r="AIX89" s="15"/>
+      <c r="AIY89" s="15"/>
+      <c r="AIZ89" s="15"/>
+      <c r="AJA89" s="15"/>
+      <c r="AJB89" s="15"/>
+      <c r="AJC89" s="15"/>
+      <c r="AJD89" s="15"/>
+      <c r="AJE89" s="15"/>
+      <c r="AJF89" s="15"/>
+      <c r="AJG89" s="15"/>
+      <c r="AJH89" s="15"/>
+      <c r="AJI89" s="15"/>
+      <c r="AJJ89" s="15"/>
+      <c r="AJK89" s="15"/>
+      <c r="AJL89" s="15"/>
+      <c r="AJM89" s="15"/>
+      <c r="AJN89" s="15"/>
+      <c r="AJO89" s="15"/>
+      <c r="AJP89" s="15"/>
+      <c r="AJQ89" s="15"/>
+      <c r="AJR89" s="15"/>
+      <c r="AJS89" s="15"/>
+      <c r="AJT89" s="15"/>
+      <c r="AJU89" s="15"/>
+      <c r="AJV89" s="15"/>
+      <c r="AJW89" s="15"/>
+      <c r="AJX89" s="15"/>
+      <c r="AJY89" s="15"/>
+      <c r="AJZ89" s="15"/>
+      <c r="AKA89" s="15"/>
+      <c r="AKB89" s="15"/>
+      <c r="AKC89" s="15"/>
+      <c r="AKD89" s="15"/>
+      <c r="AKE89" s="15"/>
+      <c r="AKF89" s="15"/>
+      <c r="AKG89" s="15"/>
+      <c r="AKH89" s="15"/>
+      <c r="AKI89" s="15"/>
+      <c r="AKJ89" s="15"/>
+      <c r="AKK89" s="15"/>
+      <c r="AKL89" s="15"/>
+      <c r="AKM89" s="15"/>
+      <c r="AKN89" s="15"/>
+      <c r="AKO89" s="15"/>
+      <c r="AKP89" s="15"/>
+      <c r="AKQ89" s="15"/>
+      <c r="AKR89" s="15"/>
+      <c r="AKS89" s="15"/>
+      <c r="AKT89" s="15"/>
+      <c r="AKU89" s="15"/>
+      <c r="AKV89" s="15"/>
+      <c r="AKW89" s="15"/>
+      <c r="AKX89" s="15"/>
+      <c r="AKY89" s="15"/>
+      <c r="AKZ89" s="15"/>
+      <c r="ALA89" s="15"/>
+      <c r="ALB89" s="15"/>
+      <c r="ALC89" s="15"/>
+      <c r="ALD89" s="15"/>
+      <c r="ALE89" s="15"/>
+      <c r="ALF89" s="15"/>
+      <c r="ALG89" s="15"/>
+      <c r="ALH89" s="15"/>
+      <c r="ALI89" s="15"/>
+      <c r="ALJ89" s="15"/>
+      <c r="ALK89" s="15"/>
+      <c r="ALL89" s="15"/>
+      <c r="ALM89" s="15"/>
+      <c r="ALN89" s="15"/>
+      <c r="ALO89" s="15"/>
+      <c r="ALP89" s="15"/>
+      <c r="ALQ89" s="15"/>
+      <c r="ALR89" s="15"/>
+      <c r="ALS89" s="15"/>
+      <c r="ALT89" s="15"/>
+      <c r="ALU89" s="15"/>
+      <c r="ALV89" s="15"/>
+      <c r="ALW89" s="15"/>
+      <c r="ALX89" s="15"/>
+      <c r="ALY89" s="15"/>
+      <c r="ALZ89" s="15"/>
+      <c r="AMA89" s="15"/>
+      <c r="AMB89" s="15"/>
+      <c r="AMC89" s="15"/>
+      <c r="AMD89" s="15"/>
+      <c r="AME89" s="15"/>
+      <c r="AMF89" s="15"/>
+      <c r="AMG89" s="15"/>
+      <c r="AMH89" s="15"/>
+      <c r="AMI89" s="15"/>
+      <c r="AMJ89" s="15"/>
+      <c r="AMK89" s="15"/>
+      <c r="AML89" s="15"/>
+      <c r="AMM89" s="15"/>
     </row>
     <row r="90" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">

--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v8.4.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F223AA-9E9D-477D-871A-C00FAF3E758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD0A06D-E622-4084-9D84-7797FBD11FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1170" windowWidth="22695" windowHeight="18240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participant Identifier Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$N$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Participant Identifier Scheme'!$A$1:$O$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="540">
   <si>
     <t>Scheme ID</t>
   </si>
@@ -1882,6 +1882,30 @@
   </si>
   <si>
     <t>8.4</t>
+  </si>
+  <si>
+    <t>IT:COD</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>CODDEST</t>
+  </si>
+  <si>
+    <t>The code is 7 alphanumeric characters</t>
+  </si>
+  <si>
+    <t>Participants with this ID CAN NOT be registered in the SMP/SML!</t>
+  </si>
+  <si>
+    <t>Registerable?</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2039,6 +2063,15 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2702,13 +2735,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMN98"/>
+  <dimension ref="A1:AMN99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,10 +2760,11 @@
     <col min="12" max="12" width="30.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.5703125" style="10" customWidth="1"/>
     <col min="14" max="14" width="24.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="14.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="24" customWidth="1"/>
+    <col min="16" max="1027" width="14.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2773,8 +2807,11 @@
       <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="O1" s="23" t="s">
+        <v>537</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -2811,8 +2848,11 @@
       <c r="N2" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2846,8 +2886,11 @@
       <c r="M3" s="10" t="s">
         <v>431</v>
       </c>
+      <c r="O3" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2881,8 +2924,11 @@
       <c r="M4" s="10" t="s">
         <v>432</v>
       </c>
+      <c r="O4" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2919,8 +2965,11 @@
       <c r="N5" s="7" t="s">
         <v>402</v>
       </c>
+      <c r="O5" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
@@ -2957,8 +3006,11 @@
       <c r="N6" s="7" t="s">
         <v>403</v>
       </c>
+      <c r="O6" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -2995,8 +3047,11 @@
       <c r="N7" s="7" t="s">
         <v>404</v>
       </c>
+      <c r="O7" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -3027,8 +3082,11 @@
       <c r="M8" s="10" t="s">
         <v>435</v>
       </c>
+      <c r="O8" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -3062,8 +3120,11 @@
       <c r="N9" s="7" t="s">
         <v>405</v>
       </c>
+      <c r="O9" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
@@ -3097,8 +3158,11 @@
       <c r="N10" s="7" t="s">
         <v>406</v>
       </c>
+      <c r="O10" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
@@ -3129,8 +3193,11 @@
       <c r="N11" s="7" t="s">
         <v>407</v>
       </c>
+      <c r="O11" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3228,11 @@
       <c r="N12" s="7" t="s">
         <v>408</v>
       </c>
+      <c r="O12" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>69</v>
       </c>
@@ -3193,8 +3263,11 @@
       <c r="N13" s="7" t="s">
         <v>408</v>
       </c>
+      <c r="O13" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>74</v>
       </c>
@@ -3231,8 +3304,11 @@
       <c r="N14" s="7" t="s">
         <v>409</v>
       </c>
+      <c r="O14" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="15" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>340</v>
       </c>
@@ -3266,8 +3342,11 @@
       <c r="N15" s="7" t="s">
         <v>342</v>
       </c>
+      <c r="O15" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>81</v>
       </c>
@@ -3298,8 +3377,11 @@
       <c r="M16" s="10" t="s">
         <v>439</v>
       </c>
+      <c r="O16" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="17" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>503</v>
       </c>
@@ -3327,8 +3409,11 @@
       <c r="K17" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="O17" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="18" spans="1:14 1028:1028" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15 1028:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
@@ -3365,8 +3450,11 @@
       <c r="N18" s="7" t="s">
         <v>410</v>
       </c>
+      <c r="O18" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="19" spans="1:14 1028:1028" ht="225" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15 1028:1028" ht="225" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -3403,8 +3491,11 @@
       <c r="N19" s="7" t="s">
         <v>411</v>
       </c>
+      <c r="O19" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="20" spans="1:14 1028:1028" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15 1028:1028" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>95</v>
       </c>
@@ -3438,8 +3529,11 @@
       <c r="M20" s="10" t="s">
         <v>442</v>
       </c>
+      <c r="O20" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="21" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
@@ -3470,8 +3564,11 @@
       <c r="M21" s="10" t="s">
         <v>443</v>
       </c>
+      <c r="O21" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="22" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15 1028:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>108</v>
       </c>
@@ -3505,8 +3602,11 @@
       <c r="N22" s="7" t="s">
         <v>412</v>
       </c>
+      <c r="O22" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="23" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15 1028:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
@@ -3537,8 +3637,11 @@
       <c r="M23" s="10" t="s">
         <v>445</v>
       </c>
+      <c r="O23" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="24" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>346</v>
       </c>
@@ -3569,8 +3672,11 @@
       <c r="M24" s="10" t="s">
         <v>446</v>
       </c>
+      <c r="O24" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="25" spans="1:14 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15 1028:1028" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>354</v>
       </c>
@@ -3601,8 +3707,11 @@
       <c r="M25" s="10" t="s">
         <v>447</v>
       </c>
+      <c r="O25" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="26" spans="1:14 1028:1028" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15 1028:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>118</v>
       </c>
@@ -3636,8 +3745,11 @@
       <c r="M26" s="10" t="s">
         <v>448</v>
       </c>
+      <c r="O26" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="27" spans="1:14 1028:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15 1028:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>355</v>
       </c>
@@ -3672,9 +3784,12 @@
       <c r="N27" s="7" t="s">
         <v>361</v>
       </c>
+      <c r="O27" s="24" t="s">
+        <v>538</v>
+      </c>
       <c r="AMN27" s="7"/>
     </row>
-    <row r="28" spans="1:14 1028:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>362</v>
       </c>
@@ -3709,93 +3824,98 @@
       <c r="N28" s="7" t="s">
         <v>495</v>
       </c>
+      <c r="O28" s="24" t="s">
+        <v>538</v>
+      </c>
       <c r="AMN28" s="7"/>
     </row>
-    <row r="29" spans="1:14 1028:1028" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15 1028:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>427</v>
+        <v>532</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>492</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>426</v>
+        <v>535</v>
       </c>
       <c r="L29" s="11"/>
-      <c r="M29" s="10" t="s">
-        <v>458</v>
+      <c r="M29" s="11"/>
+      <c r="N29" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>539</v>
       </c>
       <c r="AMN29" s="7"/>
     </row>
-    <row r="30" spans="1:14 1028:1028" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15 1028:1028" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>465</v>
+        <v>424</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>425</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>492</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>468</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="10" t="s">
-        <v>467</v>
+        <v>458</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN30" s="7"/>
     </row>
-    <row r="31" spans="1:14 1028:1028" ht="255" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15 1028:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>465</v>
@@ -3804,26 +3924,34 @@
         <v>492</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="L31" s="11"/>
+        <v>466</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>468</v>
+      </c>
       <c r="M31" s="10" t="s">
-        <v>474</v>
+        <v>467</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN31" s="7"/>
     </row>
-    <row r="32" spans="1:14 1028:1028" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15 1028:1028" ht="255" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>472</v>
@@ -3835,29 +3963,32 @@
         <v>492</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="10" t="s">
-        <v>452</v>
+        <v>474</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN32" s="7"/>
     </row>
-    <row r="33" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1028" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>465</v>
@@ -3866,29 +3997,29 @@
         <v>492</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="10" t="s">
-        <v>484</v>
+        <v>452</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN33" s="7"/>
     </row>
     <row r="34" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>481</v>
@@ -3900,69 +4031,72 @@
         <v>492</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L34" s="11"/>
       <c r="M34" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN34" s="7"/>
     </row>
-    <row r="35" spans="1:1028" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>502</v>
+        <v>465</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>492</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>32</v>
+        <v>487</v>
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>513</v>
+        <v>488</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN35" s="7"/>
     </row>
-    <row r="36" spans="1:1028" ht="240" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1028" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>502</v>
@@ -3971,67 +4105,78 @@
         <v>492</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="10" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>538</v>
       </c>
       <c r="AMN36" s="7"/>
     </row>
-    <row r="37" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1028" ht="240" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>124</v>
+        <v>515</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>516</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>126</v>
+        <v>517</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>13</v>
+        <v>518</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>492</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>127</v>
+        <v>519</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="10" t="s">
+        <v>521</v>
+      </c>
       <c r="N37" s="7" t="s">
-        <v>413</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="AMN37" s="7"/>
     </row>
-    <row r="38" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>13</v>
@@ -4039,28 +4184,34 @@
       <c r="G38" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>450</v>
+      <c r="J38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>13</v>
@@ -4069,27 +4220,30 @@
         <v>492</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>134</v>
+        <v>398</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="O39" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>13</v>
@@ -4100,1077 +4254,59 @@
       <c r="L40" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="M40" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="O40" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N41" s="7" t="s">
         <v>414</v>
       </c>
+      <c r="O41" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="41" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:1028" s="20" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="I41" s="18">
-        <v>45070</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-      <c r="AU41" s="15"/>
-      <c r="AV41" s="15"/>
-      <c r="AW41" s="15"/>
-      <c r="AX41" s="15"/>
-      <c r="AY41" s="15"/>
-      <c r="AZ41" s="15"/>
-      <c r="BA41" s="15"/>
-      <c r="BB41" s="15"/>
-      <c r="BC41" s="15"/>
-      <c r="BD41" s="15"/>
-      <c r="BE41" s="15"/>
-      <c r="BF41" s="15"/>
-      <c r="BG41" s="15"/>
-      <c r="BH41" s="15"/>
-      <c r="BI41" s="15"/>
-      <c r="BJ41" s="15"/>
-      <c r="BK41" s="15"/>
-      <c r="BL41" s="15"/>
-      <c r="BM41" s="15"/>
-      <c r="BN41" s="15"/>
-      <c r="BO41" s="15"/>
-      <c r="BP41" s="15"/>
-      <c r="BQ41" s="15"/>
-      <c r="BR41" s="15"/>
-      <c r="BS41" s="15"/>
-      <c r="BT41" s="15"/>
-      <c r="BU41" s="15"/>
-      <c r="BV41" s="15"/>
-      <c r="BW41" s="15"/>
-      <c r="BX41" s="15"/>
-      <c r="BY41" s="15"/>
-      <c r="BZ41" s="15"/>
-      <c r="CA41" s="15"/>
-      <c r="CB41" s="15"/>
-      <c r="CC41" s="15"/>
-      <c r="CD41" s="15"/>
-      <c r="CE41" s="15"/>
-      <c r="CF41" s="15"/>
-      <c r="CG41" s="15"/>
-      <c r="CH41" s="15"/>
-      <c r="CI41" s="15"/>
-      <c r="CJ41" s="15"/>
-      <c r="CK41" s="15"/>
-      <c r="CL41" s="15"/>
-      <c r="CM41" s="15"/>
-      <c r="CN41" s="15"/>
-      <c r="CO41" s="15"/>
-      <c r="CP41" s="15"/>
-      <c r="CQ41" s="15"/>
-      <c r="CR41" s="15"/>
-      <c r="CS41" s="15"/>
-      <c r="CT41" s="15"/>
-      <c r="CU41" s="15"/>
-      <c r="CV41" s="15"/>
-      <c r="CW41" s="15"/>
-      <c r="CX41" s="15"/>
-      <c r="CY41" s="15"/>
-      <c r="CZ41" s="15"/>
-      <c r="DA41" s="15"/>
-      <c r="DB41" s="15"/>
-      <c r="DC41" s="15"/>
-      <c r="DD41" s="15"/>
-      <c r="DE41" s="15"/>
-      <c r="DF41" s="15"/>
-      <c r="DG41" s="15"/>
-      <c r="DH41" s="15"/>
-      <c r="DI41" s="15"/>
-      <c r="DJ41" s="15"/>
-      <c r="DK41" s="15"/>
-      <c r="DL41" s="15"/>
-      <c r="DM41" s="15"/>
-      <c r="DN41" s="15"/>
-      <c r="DO41" s="15"/>
-      <c r="DP41" s="15"/>
-      <c r="DQ41" s="15"/>
-      <c r="DR41" s="15"/>
-      <c r="DS41" s="15"/>
-      <c r="DT41" s="15"/>
-      <c r="DU41" s="15"/>
-      <c r="DV41" s="15"/>
-      <c r="DW41" s="15"/>
-      <c r="DX41" s="15"/>
-      <c r="DY41" s="15"/>
-      <c r="DZ41" s="15"/>
-      <c r="EA41" s="15"/>
-      <c r="EB41" s="15"/>
-      <c r="EC41" s="15"/>
-      <c r="ED41" s="15"/>
-      <c r="EE41" s="15"/>
-      <c r="EF41" s="15"/>
-      <c r="EG41" s="15"/>
-      <c r="EH41" s="15"/>
-      <c r="EI41" s="15"/>
-      <c r="EJ41" s="15"/>
-      <c r="EK41" s="15"/>
-      <c r="EL41" s="15"/>
-      <c r="EM41" s="15"/>
-      <c r="EN41" s="15"/>
-      <c r="EO41" s="15"/>
-      <c r="EP41" s="15"/>
-      <c r="EQ41" s="15"/>
-      <c r="ER41" s="15"/>
-      <c r="ES41" s="15"/>
-      <c r="ET41" s="15"/>
-      <c r="EU41" s="15"/>
-      <c r="EV41" s="15"/>
-      <c r="EW41" s="15"/>
-      <c r="EX41" s="15"/>
-      <c r="EY41" s="15"/>
-      <c r="EZ41" s="15"/>
-      <c r="FA41" s="15"/>
-      <c r="FB41" s="15"/>
-      <c r="FC41" s="15"/>
-      <c r="FD41" s="15"/>
-      <c r="FE41" s="15"/>
-      <c r="FF41" s="15"/>
-      <c r="FG41" s="15"/>
-      <c r="FH41" s="15"/>
-      <c r="FI41" s="15"/>
-      <c r="FJ41" s="15"/>
-      <c r="FK41" s="15"/>
-      <c r="FL41" s="15"/>
-      <c r="FM41" s="15"/>
-      <c r="FN41" s="15"/>
-      <c r="FO41" s="15"/>
-      <c r="FP41" s="15"/>
-      <c r="FQ41" s="15"/>
-      <c r="FR41" s="15"/>
-      <c r="FS41" s="15"/>
-      <c r="FT41" s="15"/>
-      <c r="FU41" s="15"/>
-      <c r="FV41" s="15"/>
-      <c r="FW41" s="15"/>
-      <c r="FX41" s="15"/>
-      <c r="FY41" s="15"/>
-      <c r="FZ41" s="15"/>
-      <c r="GA41" s="15"/>
-      <c r="GB41" s="15"/>
-      <c r="GC41" s="15"/>
-      <c r="GD41" s="15"/>
-      <c r="GE41" s="15"/>
-      <c r="GF41" s="15"/>
-      <c r="GG41" s="15"/>
-      <c r="GH41" s="15"/>
-      <c r="GI41" s="15"/>
-      <c r="GJ41" s="15"/>
-      <c r="GK41" s="15"/>
-      <c r="GL41" s="15"/>
-      <c r="GM41" s="15"/>
-      <c r="GN41" s="15"/>
-      <c r="GO41" s="15"/>
-      <c r="GP41" s="15"/>
-      <c r="GQ41" s="15"/>
-      <c r="GR41" s="15"/>
-      <c r="GS41" s="15"/>
-      <c r="GT41" s="15"/>
-      <c r="GU41" s="15"/>
-      <c r="GV41" s="15"/>
-      <c r="GW41" s="15"/>
-      <c r="GX41" s="15"/>
-      <c r="GY41" s="15"/>
-      <c r="GZ41" s="15"/>
-      <c r="HA41" s="15"/>
-      <c r="HB41" s="15"/>
-      <c r="HC41" s="15"/>
-      <c r="HD41" s="15"/>
-      <c r="HE41" s="15"/>
-      <c r="HF41" s="15"/>
-      <c r="HG41" s="15"/>
-      <c r="HH41" s="15"/>
-      <c r="HI41" s="15"/>
-      <c r="HJ41" s="15"/>
-      <c r="HK41" s="15"/>
-      <c r="HL41" s="15"/>
-      <c r="HM41" s="15"/>
-      <c r="HN41" s="15"/>
-      <c r="HO41" s="15"/>
-      <c r="HP41" s="15"/>
-      <c r="HQ41" s="15"/>
-      <c r="HR41" s="15"/>
-      <c r="HS41" s="15"/>
-      <c r="HT41" s="15"/>
-      <c r="HU41" s="15"/>
-      <c r="HV41" s="15"/>
-      <c r="HW41" s="15"/>
-      <c r="HX41" s="15"/>
-      <c r="HY41" s="15"/>
-      <c r="HZ41" s="15"/>
-      <c r="IA41" s="15"/>
-      <c r="IB41" s="15"/>
-      <c r="IC41" s="15"/>
-      <c r="ID41" s="15"/>
-      <c r="IE41" s="15"/>
-      <c r="IF41" s="15"/>
-      <c r="IG41" s="15"/>
-      <c r="IH41" s="15"/>
-      <c r="II41" s="15"/>
-      <c r="IJ41" s="15"/>
-      <c r="IK41" s="15"/>
-      <c r="IL41" s="15"/>
-      <c r="IM41" s="15"/>
-      <c r="IN41" s="15"/>
-      <c r="IO41" s="15"/>
-      <c r="IP41" s="15"/>
-      <c r="IQ41" s="15"/>
-      <c r="IR41" s="15"/>
-      <c r="IS41" s="15"/>
-      <c r="IT41" s="15"/>
-      <c r="IU41" s="15"/>
-      <c r="IV41" s="15"/>
-      <c r="IW41" s="15"/>
-      <c r="IX41" s="15"/>
-      <c r="IY41" s="15"/>
-      <c r="IZ41" s="15"/>
-      <c r="JA41" s="15"/>
-      <c r="JB41" s="15"/>
-      <c r="JC41" s="15"/>
-      <c r="JD41" s="15"/>
-      <c r="JE41" s="15"/>
-      <c r="JF41" s="15"/>
-      <c r="JG41" s="15"/>
-      <c r="JH41" s="15"/>
-      <c r="JI41" s="15"/>
-      <c r="JJ41" s="15"/>
-      <c r="JK41" s="15"/>
-      <c r="JL41" s="15"/>
-      <c r="JM41" s="15"/>
-      <c r="JN41" s="15"/>
-      <c r="JO41" s="15"/>
-      <c r="JP41" s="15"/>
-      <c r="JQ41" s="15"/>
-      <c r="JR41" s="15"/>
-      <c r="JS41" s="15"/>
-      <c r="JT41" s="15"/>
-      <c r="JU41" s="15"/>
-      <c r="JV41" s="15"/>
-      <c r="JW41" s="15"/>
-      <c r="JX41" s="15"/>
-      <c r="JY41" s="15"/>
-      <c r="JZ41" s="15"/>
-      <c r="KA41" s="15"/>
-      <c r="KB41" s="15"/>
-      <c r="KC41" s="15"/>
-      <c r="KD41" s="15"/>
-      <c r="KE41" s="15"/>
-      <c r="KF41" s="15"/>
-      <c r="KG41" s="15"/>
-      <c r="KH41" s="15"/>
-      <c r="KI41" s="15"/>
-      <c r="KJ41" s="15"/>
-      <c r="KK41" s="15"/>
-      <c r="KL41" s="15"/>
-      <c r="KM41" s="15"/>
-      <c r="KN41" s="15"/>
-      <c r="KO41" s="15"/>
-      <c r="KP41" s="15"/>
-      <c r="KQ41" s="15"/>
-      <c r="KR41" s="15"/>
-      <c r="KS41" s="15"/>
-      <c r="KT41" s="15"/>
-      <c r="KU41" s="15"/>
-      <c r="KV41" s="15"/>
-      <c r="KW41" s="15"/>
-      <c r="KX41" s="15"/>
-      <c r="KY41" s="15"/>
-      <c r="KZ41" s="15"/>
-      <c r="LA41" s="15"/>
-      <c r="LB41" s="15"/>
-      <c r="LC41" s="15"/>
-      <c r="LD41" s="15"/>
-      <c r="LE41" s="15"/>
-      <c r="LF41" s="15"/>
-      <c r="LG41" s="15"/>
-      <c r="LH41" s="15"/>
-      <c r="LI41" s="15"/>
-      <c r="LJ41" s="15"/>
-      <c r="LK41" s="15"/>
-      <c r="LL41" s="15"/>
-      <c r="LM41" s="15"/>
-      <c r="LN41" s="15"/>
-      <c r="LO41" s="15"/>
-      <c r="LP41" s="15"/>
-      <c r="LQ41" s="15"/>
-      <c r="LR41" s="15"/>
-      <c r="LS41" s="15"/>
-      <c r="LT41" s="15"/>
-      <c r="LU41" s="15"/>
-      <c r="LV41" s="15"/>
-      <c r="LW41" s="15"/>
-      <c r="LX41" s="15"/>
-      <c r="LY41" s="15"/>
-      <c r="LZ41" s="15"/>
-      <c r="MA41" s="15"/>
-      <c r="MB41" s="15"/>
-      <c r="MC41" s="15"/>
-      <c r="MD41" s="15"/>
-      <c r="ME41" s="15"/>
-      <c r="MF41" s="15"/>
-      <c r="MG41" s="15"/>
-      <c r="MH41" s="15"/>
-      <c r="MI41" s="15"/>
-      <c r="MJ41" s="15"/>
-      <c r="MK41" s="15"/>
-      <c r="ML41" s="15"/>
-      <c r="MM41" s="15"/>
-      <c r="MN41" s="15"/>
-      <c r="MO41" s="15"/>
-      <c r="MP41" s="15"/>
-      <c r="MQ41" s="15"/>
-      <c r="MR41" s="15"/>
-      <c r="MS41" s="15"/>
-      <c r="MT41" s="15"/>
-      <c r="MU41" s="15"/>
-      <c r="MV41" s="15"/>
-      <c r="MW41" s="15"/>
-      <c r="MX41" s="15"/>
-      <c r="MY41" s="15"/>
-      <c r="MZ41" s="15"/>
-      <c r="NA41" s="15"/>
-      <c r="NB41" s="15"/>
-      <c r="NC41" s="15"/>
-      <c r="ND41" s="15"/>
-      <c r="NE41" s="15"/>
-      <c r="NF41" s="15"/>
-      <c r="NG41" s="15"/>
-      <c r="NH41" s="15"/>
-      <c r="NI41" s="15"/>
-      <c r="NJ41" s="15"/>
-      <c r="NK41" s="15"/>
-      <c r="NL41" s="15"/>
-      <c r="NM41" s="15"/>
-      <c r="NN41" s="15"/>
-      <c r="NO41" s="15"/>
-      <c r="NP41" s="15"/>
-      <c r="NQ41" s="15"/>
-      <c r="NR41" s="15"/>
-      <c r="NS41" s="15"/>
-      <c r="NT41" s="15"/>
-      <c r="NU41" s="15"/>
-      <c r="NV41" s="15"/>
-      <c r="NW41" s="15"/>
-      <c r="NX41" s="15"/>
-      <c r="NY41" s="15"/>
-      <c r="NZ41" s="15"/>
-      <c r="OA41" s="15"/>
-      <c r="OB41" s="15"/>
-      <c r="OC41" s="15"/>
-      <c r="OD41" s="15"/>
-      <c r="OE41" s="15"/>
-      <c r="OF41" s="15"/>
-      <c r="OG41" s="15"/>
-      <c r="OH41" s="15"/>
-      <c r="OI41" s="15"/>
-      <c r="OJ41" s="15"/>
-      <c r="OK41" s="15"/>
-      <c r="OL41" s="15"/>
-      <c r="OM41" s="15"/>
-      <c r="ON41" s="15"/>
-      <c r="OO41" s="15"/>
-      <c r="OP41" s="15"/>
-      <c r="OQ41" s="15"/>
-      <c r="OR41" s="15"/>
-      <c r="OS41" s="15"/>
-      <c r="OT41" s="15"/>
-      <c r="OU41" s="15"/>
-      <c r="OV41" s="15"/>
-      <c r="OW41" s="15"/>
-      <c r="OX41" s="15"/>
-      <c r="OY41" s="15"/>
-      <c r="OZ41" s="15"/>
-      <c r="PA41" s="15"/>
-      <c r="PB41" s="15"/>
-      <c r="PC41" s="15"/>
-      <c r="PD41" s="15"/>
-      <c r="PE41" s="15"/>
-      <c r="PF41" s="15"/>
-      <c r="PG41" s="15"/>
-      <c r="PH41" s="15"/>
-      <c r="PI41" s="15"/>
-      <c r="PJ41" s="15"/>
-      <c r="PK41" s="15"/>
-      <c r="PL41" s="15"/>
-      <c r="PM41" s="15"/>
-      <c r="PN41" s="15"/>
-      <c r="PO41" s="15"/>
-      <c r="PP41" s="15"/>
-      <c r="PQ41" s="15"/>
-      <c r="PR41" s="15"/>
-      <c r="PS41" s="15"/>
-      <c r="PT41" s="15"/>
-      <c r="PU41" s="15"/>
-      <c r="PV41" s="15"/>
-      <c r="PW41" s="15"/>
-      <c r="PX41" s="15"/>
-      <c r="PY41" s="15"/>
-      <c r="PZ41" s="15"/>
-      <c r="QA41" s="15"/>
-      <c r="QB41" s="15"/>
-      <c r="QC41" s="15"/>
-      <c r="QD41" s="15"/>
-      <c r="QE41" s="15"/>
-      <c r="QF41" s="15"/>
-      <c r="QG41" s="15"/>
-      <c r="QH41" s="15"/>
-      <c r="QI41" s="15"/>
-      <c r="QJ41" s="15"/>
-      <c r="QK41" s="15"/>
-      <c r="QL41" s="15"/>
-      <c r="QM41" s="15"/>
-      <c r="QN41" s="15"/>
-      <c r="QO41" s="15"/>
-      <c r="QP41" s="15"/>
-      <c r="QQ41" s="15"/>
-      <c r="QR41" s="15"/>
-      <c r="QS41" s="15"/>
-      <c r="QT41" s="15"/>
-      <c r="QU41" s="15"/>
-      <c r="QV41" s="15"/>
-      <c r="QW41" s="15"/>
-      <c r="QX41" s="15"/>
-      <c r="QY41" s="15"/>
-      <c r="QZ41" s="15"/>
-      <c r="RA41" s="15"/>
-      <c r="RB41" s="15"/>
-      <c r="RC41" s="15"/>
-      <c r="RD41" s="15"/>
-      <c r="RE41" s="15"/>
-      <c r="RF41" s="15"/>
-      <c r="RG41" s="15"/>
-      <c r="RH41" s="15"/>
-      <c r="RI41" s="15"/>
-      <c r="RJ41" s="15"/>
-      <c r="RK41" s="15"/>
-      <c r="RL41" s="15"/>
-      <c r="RM41" s="15"/>
-      <c r="RN41" s="15"/>
-      <c r="RO41" s="15"/>
-      <c r="RP41" s="15"/>
-      <c r="RQ41" s="15"/>
-      <c r="RR41" s="15"/>
-      <c r="RS41" s="15"/>
-      <c r="RT41" s="15"/>
-      <c r="RU41" s="15"/>
-      <c r="RV41" s="15"/>
-      <c r="RW41" s="15"/>
-      <c r="RX41" s="15"/>
-      <c r="RY41" s="15"/>
-      <c r="RZ41" s="15"/>
-      <c r="SA41" s="15"/>
-      <c r="SB41" s="15"/>
-      <c r="SC41" s="15"/>
-      <c r="SD41" s="15"/>
-      <c r="SE41" s="15"/>
-      <c r="SF41" s="15"/>
-      <c r="SG41" s="15"/>
-      <c r="SH41" s="15"/>
-      <c r="SI41" s="15"/>
-      <c r="SJ41" s="15"/>
-      <c r="SK41" s="15"/>
-      <c r="SL41" s="15"/>
-      <c r="SM41" s="15"/>
-      <c r="SN41" s="15"/>
-      <c r="SO41" s="15"/>
-      <c r="SP41" s="15"/>
-      <c r="SQ41" s="15"/>
-      <c r="SR41" s="15"/>
-      <c r="SS41" s="15"/>
-      <c r="ST41" s="15"/>
-      <c r="SU41" s="15"/>
-      <c r="SV41" s="15"/>
-      <c r="SW41" s="15"/>
-      <c r="SX41" s="15"/>
-      <c r="SY41" s="15"/>
-      <c r="SZ41" s="15"/>
-      <c r="TA41" s="15"/>
-      <c r="TB41" s="15"/>
-      <c r="TC41" s="15"/>
-      <c r="TD41" s="15"/>
-      <c r="TE41" s="15"/>
-      <c r="TF41" s="15"/>
-      <c r="TG41" s="15"/>
-      <c r="TH41" s="15"/>
-      <c r="TI41" s="15"/>
-      <c r="TJ41" s="15"/>
-      <c r="TK41" s="15"/>
-      <c r="TL41" s="15"/>
-      <c r="TM41" s="15"/>
-      <c r="TN41" s="15"/>
-      <c r="TO41" s="15"/>
-      <c r="TP41" s="15"/>
-      <c r="TQ41" s="15"/>
-      <c r="TR41" s="15"/>
-      <c r="TS41" s="15"/>
-      <c r="TT41" s="15"/>
-      <c r="TU41" s="15"/>
-      <c r="TV41" s="15"/>
-      <c r="TW41" s="15"/>
-      <c r="TX41" s="15"/>
-      <c r="TY41" s="15"/>
-      <c r="TZ41" s="15"/>
-      <c r="UA41" s="15"/>
-      <c r="UB41" s="15"/>
-      <c r="UC41" s="15"/>
-      <c r="UD41" s="15"/>
-      <c r="UE41" s="15"/>
-      <c r="UF41" s="15"/>
-      <c r="UG41" s="15"/>
-      <c r="UH41" s="15"/>
-      <c r="UI41" s="15"/>
-      <c r="UJ41" s="15"/>
-      <c r="UK41" s="15"/>
-      <c r="UL41" s="15"/>
-      <c r="UM41" s="15"/>
-      <c r="UN41" s="15"/>
-      <c r="UO41" s="15"/>
-      <c r="UP41" s="15"/>
-      <c r="UQ41" s="15"/>
-      <c r="UR41" s="15"/>
-      <c r="US41" s="15"/>
-      <c r="UT41" s="15"/>
-      <c r="UU41" s="15"/>
-      <c r="UV41" s="15"/>
-      <c r="UW41" s="15"/>
-      <c r="UX41" s="15"/>
-      <c r="UY41" s="15"/>
-      <c r="UZ41" s="15"/>
-      <c r="VA41" s="15"/>
-      <c r="VB41" s="15"/>
-      <c r="VC41" s="15"/>
-      <c r="VD41" s="15"/>
-      <c r="VE41" s="15"/>
-      <c r="VF41" s="15"/>
-      <c r="VG41" s="15"/>
-      <c r="VH41" s="15"/>
-      <c r="VI41" s="15"/>
-      <c r="VJ41" s="15"/>
-      <c r="VK41" s="15"/>
-      <c r="VL41" s="15"/>
-      <c r="VM41" s="15"/>
-      <c r="VN41" s="15"/>
-      <c r="VO41" s="15"/>
-      <c r="VP41" s="15"/>
-      <c r="VQ41" s="15"/>
-      <c r="VR41" s="15"/>
-      <c r="VS41" s="15"/>
-      <c r="VT41" s="15"/>
-      <c r="VU41" s="15"/>
-      <c r="VV41" s="15"/>
-      <c r="VW41" s="15"/>
-      <c r="VX41" s="15"/>
-      <c r="VY41" s="15"/>
-      <c r="VZ41" s="15"/>
-      <c r="WA41" s="15"/>
-      <c r="WB41" s="15"/>
-      <c r="WC41" s="15"/>
-      <c r="WD41" s="15"/>
-      <c r="WE41" s="15"/>
-      <c r="WF41" s="15"/>
-      <c r="WG41" s="15"/>
-      <c r="WH41" s="15"/>
-      <c r="WI41" s="15"/>
-      <c r="WJ41" s="15"/>
-      <c r="WK41" s="15"/>
-      <c r="WL41" s="15"/>
-      <c r="WM41" s="15"/>
-      <c r="WN41" s="15"/>
-      <c r="WO41" s="15"/>
-      <c r="WP41" s="15"/>
-      <c r="WQ41" s="15"/>
-      <c r="WR41" s="15"/>
-      <c r="WS41" s="15"/>
-      <c r="WT41" s="15"/>
-      <c r="WU41" s="15"/>
-      <c r="WV41" s="15"/>
-      <c r="WW41" s="15"/>
-      <c r="WX41" s="15"/>
-      <c r="WY41" s="15"/>
-      <c r="WZ41" s="15"/>
-      <c r="XA41" s="15"/>
-      <c r="XB41" s="15"/>
-      <c r="XC41" s="15"/>
-      <c r="XD41" s="15"/>
-      <c r="XE41" s="15"/>
-      <c r="XF41" s="15"/>
-      <c r="XG41" s="15"/>
-      <c r="XH41" s="15"/>
-      <c r="XI41" s="15"/>
-      <c r="XJ41" s="15"/>
-      <c r="XK41" s="15"/>
-      <c r="XL41" s="15"/>
-      <c r="XM41" s="15"/>
-      <c r="XN41" s="15"/>
-      <c r="XO41" s="15"/>
-      <c r="XP41" s="15"/>
-      <c r="XQ41" s="15"/>
-      <c r="XR41" s="15"/>
-      <c r="XS41" s="15"/>
-      <c r="XT41" s="15"/>
-      <c r="XU41" s="15"/>
-      <c r="XV41" s="15"/>
-      <c r="XW41" s="15"/>
-      <c r="XX41" s="15"/>
-      <c r="XY41" s="15"/>
-      <c r="XZ41" s="15"/>
-      <c r="YA41" s="15"/>
-      <c r="YB41" s="15"/>
-      <c r="YC41" s="15"/>
-      <c r="YD41" s="15"/>
-      <c r="YE41" s="15"/>
-      <c r="YF41" s="15"/>
-      <c r="YG41" s="15"/>
-      <c r="YH41" s="15"/>
-      <c r="YI41" s="15"/>
-      <c r="YJ41" s="15"/>
-      <c r="YK41" s="15"/>
-      <c r="YL41" s="15"/>
-      <c r="YM41" s="15"/>
-      <c r="YN41" s="15"/>
-      <c r="YO41" s="15"/>
-      <c r="YP41" s="15"/>
-      <c r="YQ41" s="15"/>
-      <c r="YR41" s="15"/>
-      <c r="YS41" s="15"/>
-      <c r="YT41" s="15"/>
-      <c r="YU41" s="15"/>
-      <c r="YV41" s="15"/>
-      <c r="YW41" s="15"/>
-      <c r="YX41" s="15"/>
-      <c r="YY41" s="15"/>
-      <c r="YZ41" s="15"/>
-      <c r="ZA41" s="15"/>
-      <c r="ZB41" s="15"/>
-      <c r="ZC41" s="15"/>
-      <c r="ZD41" s="15"/>
-      <c r="ZE41" s="15"/>
-      <c r="ZF41" s="15"/>
-      <c r="ZG41" s="15"/>
-      <c r="ZH41" s="15"/>
-      <c r="ZI41" s="15"/>
-      <c r="ZJ41" s="15"/>
-      <c r="ZK41" s="15"/>
-      <c r="ZL41" s="15"/>
-      <c r="ZM41" s="15"/>
-      <c r="ZN41" s="15"/>
-      <c r="ZO41" s="15"/>
-      <c r="ZP41" s="15"/>
-      <c r="ZQ41" s="15"/>
-      <c r="ZR41" s="15"/>
-      <c r="ZS41" s="15"/>
-      <c r="ZT41" s="15"/>
-      <c r="ZU41" s="15"/>
-      <c r="ZV41" s="15"/>
-      <c r="ZW41" s="15"/>
-      <c r="ZX41" s="15"/>
-      <c r="ZY41" s="15"/>
-      <c r="ZZ41" s="15"/>
-      <c r="AAA41" s="15"/>
-      <c r="AAB41" s="15"/>
-      <c r="AAC41" s="15"/>
-      <c r="AAD41" s="15"/>
-      <c r="AAE41" s="15"/>
-      <c r="AAF41" s="15"/>
-      <c r="AAG41" s="15"/>
-      <c r="AAH41" s="15"/>
-      <c r="AAI41" s="15"/>
-      <c r="AAJ41" s="15"/>
-      <c r="AAK41" s="15"/>
-      <c r="AAL41" s="15"/>
-      <c r="AAM41" s="15"/>
-      <c r="AAN41" s="15"/>
-      <c r="AAO41" s="15"/>
-      <c r="AAP41" s="15"/>
-      <c r="AAQ41" s="15"/>
-      <c r="AAR41" s="15"/>
-      <c r="AAS41" s="15"/>
-      <c r="AAT41" s="15"/>
-      <c r="AAU41" s="15"/>
-      <c r="AAV41" s="15"/>
-      <c r="AAW41" s="15"/>
-      <c r="AAX41" s="15"/>
-      <c r="AAY41" s="15"/>
-      <c r="AAZ41" s="15"/>
-      <c r="ABA41" s="15"/>
-      <c r="ABB41" s="15"/>
-      <c r="ABC41" s="15"/>
-      <c r="ABD41" s="15"/>
-      <c r="ABE41" s="15"/>
-      <c r="ABF41" s="15"/>
-      <c r="ABG41" s="15"/>
-      <c r="ABH41" s="15"/>
-      <c r="ABI41" s="15"/>
-      <c r="ABJ41" s="15"/>
-      <c r="ABK41" s="15"/>
-      <c r="ABL41" s="15"/>
-      <c r="ABM41" s="15"/>
-      <c r="ABN41" s="15"/>
-      <c r="ABO41" s="15"/>
-      <c r="ABP41" s="15"/>
-      <c r="ABQ41" s="15"/>
-      <c r="ABR41" s="15"/>
-      <c r="ABS41" s="15"/>
-      <c r="ABT41" s="15"/>
-      <c r="ABU41" s="15"/>
-      <c r="ABV41" s="15"/>
-      <c r="ABW41" s="15"/>
-      <c r="ABX41" s="15"/>
-      <c r="ABY41" s="15"/>
-      <c r="ABZ41" s="15"/>
-      <c r="ACA41" s="15"/>
-      <c r="ACB41" s="15"/>
-      <c r="ACC41" s="15"/>
-      <c r="ACD41" s="15"/>
-      <c r="ACE41" s="15"/>
-      <c r="ACF41" s="15"/>
-      <c r="ACG41" s="15"/>
-      <c r="ACH41" s="15"/>
-      <c r="ACI41" s="15"/>
-      <c r="ACJ41" s="15"/>
-      <c r="ACK41" s="15"/>
-      <c r="ACL41" s="15"/>
-      <c r="ACM41" s="15"/>
-      <c r="ACN41" s="15"/>
-      <c r="ACO41" s="15"/>
-      <c r="ACP41" s="15"/>
-      <c r="ACQ41" s="15"/>
-      <c r="ACR41" s="15"/>
-      <c r="ACS41" s="15"/>
-      <c r="ACT41" s="15"/>
-      <c r="ACU41" s="15"/>
-      <c r="ACV41" s="15"/>
-      <c r="ACW41" s="15"/>
-      <c r="ACX41" s="15"/>
-      <c r="ACY41" s="15"/>
-      <c r="ACZ41" s="15"/>
-      <c r="ADA41" s="15"/>
-      <c r="ADB41" s="15"/>
-      <c r="ADC41" s="15"/>
-      <c r="ADD41" s="15"/>
-      <c r="ADE41" s="15"/>
-      <c r="ADF41" s="15"/>
-      <c r="ADG41" s="15"/>
-      <c r="ADH41" s="15"/>
-      <c r="ADI41" s="15"/>
-      <c r="ADJ41" s="15"/>
-      <c r="ADK41" s="15"/>
-      <c r="ADL41" s="15"/>
-      <c r="ADM41" s="15"/>
-      <c r="ADN41" s="15"/>
-      <c r="ADO41" s="15"/>
-      <c r="ADP41" s="15"/>
-      <c r="ADQ41" s="15"/>
-      <c r="ADR41" s="15"/>
-      <c r="ADS41" s="15"/>
-      <c r="ADT41" s="15"/>
-      <c r="ADU41" s="15"/>
-      <c r="ADV41" s="15"/>
-      <c r="ADW41" s="15"/>
-      <c r="ADX41" s="15"/>
-      <c r="ADY41" s="15"/>
-      <c r="ADZ41" s="15"/>
-      <c r="AEA41" s="15"/>
-      <c r="AEB41" s="15"/>
-      <c r="AEC41" s="15"/>
-      <c r="AED41" s="15"/>
-      <c r="AEE41" s="15"/>
-      <c r="AEF41" s="15"/>
-      <c r="AEG41" s="15"/>
-      <c r="AEH41" s="15"/>
-      <c r="AEI41" s="15"/>
-      <c r="AEJ41" s="15"/>
-      <c r="AEK41" s="15"/>
-      <c r="AEL41" s="15"/>
-      <c r="AEM41" s="15"/>
-      <c r="AEN41" s="15"/>
-      <c r="AEO41" s="15"/>
-      <c r="AEP41" s="15"/>
-      <c r="AEQ41" s="15"/>
-      <c r="AER41" s="15"/>
-      <c r="AES41" s="15"/>
-      <c r="AET41" s="15"/>
-      <c r="AEU41" s="15"/>
-      <c r="AEV41" s="15"/>
-      <c r="AEW41" s="15"/>
-      <c r="AEX41" s="15"/>
-      <c r="AEY41" s="15"/>
-      <c r="AEZ41" s="15"/>
-      <c r="AFA41" s="15"/>
-      <c r="AFB41" s="15"/>
-      <c r="AFC41" s="15"/>
-      <c r="AFD41" s="15"/>
-      <c r="AFE41" s="15"/>
-      <c r="AFF41" s="15"/>
-      <c r="AFG41" s="15"/>
-      <c r="AFH41" s="15"/>
-      <c r="AFI41" s="15"/>
-      <c r="AFJ41" s="15"/>
-      <c r="AFK41" s="15"/>
-      <c r="AFL41" s="15"/>
-      <c r="AFM41" s="15"/>
-      <c r="AFN41" s="15"/>
-      <c r="AFO41" s="15"/>
-      <c r="AFP41" s="15"/>
-      <c r="AFQ41" s="15"/>
-      <c r="AFR41" s="15"/>
-      <c r="AFS41" s="15"/>
-      <c r="AFT41" s="15"/>
-      <c r="AFU41" s="15"/>
-      <c r="AFV41" s="15"/>
-      <c r="AFW41" s="15"/>
-      <c r="AFX41" s="15"/>
-      <c r="AFY41" s="15"/>
-      <c r="AFZ41" s="15"/>
-      <c r="AGA41" s="15"/>
-      <c r="AGB41" s="15"/>
-      <c r="AGC41" s="15"/>
-      <c r="AGD41" s="15"/>
-      <c r="AGE41" s="15"/>
-      <c r="AGF41" s="15"/>
-      <c r="AGG41" s="15"/>
-      <c r="AGH41" s="15"/>
-      <c r="AGI41" s="15"/>
-      <c r="AGJ41" s="15"/>
-      <c r="AGK41" s="15"/>
-      <c r="AGL41" s="15"/>
-      <c r="AGM41" s="15"/>
-      <c r="AGN41" s="15"/>
-      <c r="AGO41" s="15"/>
-      <c r="AGP41" s="15"/>
-      <c r="AGQ41" s="15"/>
-      <c r="AGR41" s="15"/>
-      <c r="AGS41" s="15"/>
-      <c r="AGT41" s="15"/>
-      <c r="AGU41" s="15"/>
-      <c r="AGV41" s="15"/>
-      <c r="AGW41" s="15"/>
-      <c r="AGX41" s="15"/>
-      <c r="AGY41" s="15"/>
-      <c r="AGZ41" s="15"/>
-      <c r="AHA41" s="15"/>
-      <c r="AHB41" s="15"/>
-      <c r="AHC41" s="15"/>
-      <c r="AHD41" s="15"/>
-      <c r="AHE41" s="15"/>
-      <c r="AHF41" s="15"/>
-      <c r="AHG41" s="15"/>
-      <c r="AHH41" s="15"/>
-      <c r="AHI41" s="15"/>
-      <c r="AHJ41" s="15"/>
-      <c r="AHK41" s="15"/>
-      <c r="AHL41" s="15"/>
-      <c r="AHM41" s="15"/>
-      <c r="AHN41" s="15"/>
-      <c r="AHO41" s="15"/>
-      <c r="AHP41" s="15"/>
-      <c r="AHQ41" s="15"/>
-      <c r="AHR41" s="15"/>
-      <c r="AHS41" s="15"/>
-      <c r="AHT41" s="15"/>
-      <c r="AHU41" s="15"/>
-      <c r="AHV41" s="15"/>
-      <c r="AHW41" s="15"/>
-      <c r="AHX41" s="15"/>
-      <c r="AHY41" s="15"/>
-      <c r="AHZ41" s="15"/>
-      <c r="AIA41" s="15"/>
-      <c r="AIB41" s="15"/>
-      <c r="AIC41" s="15"/>
-      <c r="AID41" s="15"/>
-      <c r="AIE41" s="15"/>
-      <c r="AIF41" s="15"/>
-      <c r="AIG41" s="15"/>
-      <c r="AIH41" s="15"/>
-      <c r="AII41" s="15"/>
-      <c r="AIJ41" s="15"/>
-      <c r="AIK41" s="15"/>
-      <c r="AIL41" s="15"/>
-      <c r="AIM41" s="15"/>
-      <c r="AIN41" s="15"/>
-      <c r="AIO41" s="15"/>
-      <c r="AIP41" s="15"/>
-      <c r="AIQ41" s="15"/>
-      <c r="AIR41" s="15"/>
-      <c r="AIS41" s="15"/>
-      <c r="AIT41" s="15"/>
-      <c r="AIU41" s="15"/>
-      <c r="AIV41" s="15"/>
-      <c r="AIW41" s="15"/>
-      <c r="AIX41" s="15"/>
-      <c r="AIY41" s="15"/>
-      <c r="AIZ41" s="15"/>
-      <c r="AJA41" s="15"/>
-      <c r="AJB41" s="15"/>
-      <c r="AJC41" s="15"/>
-      <c r="AJD41" s="15"/>
-      <c r="AJE41" s="15"/>
-      <c r="AJF41" s="15"/>
-      <c r="AJG41" s="15"/>
-      <c r="AJH41" s="15"/>
-      <c r="AJI41" s="15"/>
-      <c r="AJJ41" s="15"/>
-      <c r="AJK41" s="15"/>
-      <c r="AJL41" s="15"/>
-      <c r="AJM41" s="15"/>
-      <c r="AJN41" s="15"/>
-      <c r="AJO41" s="15"/>
-      <c r="AJP41" s="15"/>
-      <c r="AJQ41" s="15"/>
-      <c r="AJR41" s="15"/>
-      <c r="AJS41" s="15"/>
-      <c r="AJT41" s="15"/>
-      <c r="AJU41" s="15"/>
-      <c r="AJV41" s="15"/>
-      <c r="AJW41" s="15"/>
-      <c r="AJX41" s="15"/>
-      <c r="AJY41" s="15"/>
-      <c r="AJZ41" s="15"/>
-      <c r="AKA41" s="15"/>
-      <c r="AKB41" s="15"/>
-      <c r="AKC41" s="15"/>
-      <c r="AKD41" s="15"/>
-      <c r="AKE41" s="15"/>
-      <c r="AKF41" s="15"/>
-      <c r="AKG41" s="15"/>
-      <c r="AKH41" s="15"/>
-      <c r="AKI41" s="15"/>
-      <c r="AKJ41" s="15"/>
-      <c r="AKK41" s="15"/>
-      <c r="AKL41" s="15"/>
-      <c r="AKM41" s="15"/>
-      <c r="AKN41" s="15"/>
-      <c r="AKO41" s="15"/>
-      <c r="AKP41" s="15"/>
-      <c r="AKQ41" s="15"/>
-      <c r="AKR41" s="15"/>
-      <c r="AKS41" s="15"/>
-      <c r="AKT41" s="15"/>
-      <c r="AKU41" s="15"/>
-      <c r="AKV41" s="15"/>
-      <c r="AKW41" s="15"/>
-      <c r="AKX41" s="15"/>
-      <c r="AKY41" s="15"/>
-      <c r="AKZ41" s="15"/>
-      <c r="ALA41" s="15"/>
-      <c r="ALB41" s="15"/>
-      <c r="ALC41" s="15"/>
-      <c r="ALD41" s="15"/>
-      <c r="ALE41" s="15"/>
-      <c r="ALF41" s="15"/>
-      <c r="ALG41" s="15"/>
-      <c r="ALH41" s="15"/>
-      <c r="ALI41" s="15"/>
-      <c r="ALJ41" s="15"/>
-      <c r="ALK41" s="15"/>
-      <c r="ALL41" s="15"/>
-      <c r="ALM41" s="15"/>
-      <c r="ALN41" s="15"/>
-      <c r="ALO41" s="15"/>
-      <c r="ALP41" s="15"/>
-      <c r="ALQ41" s="15"/>
-      <c r="ALR41" s="15"/>
-      <c r="ALS41" s="15"/>
-      <c r="ALT41" s="15"/>
-      <c r="ALU41" s="15"/>
-      <c r="ALV41" s="15"/>
-      <c r="ALW41" s="15"/>
-      <c r="ALX41" s="15"/>
-      <c r="ALY41" s="15"/>
-      <c r="ALZ41" s="15"/>
-      <c r="AMA41" s="15"/>
-      <c r="AMB41" s="15"/>
-      <c r="AMC41" s="15"/>
-      <c r="AMD41" s="15"/>
-      <c r="AME41" s="15"/>
-      <c r="AMF41" s="15"/>
-      <c r="AMG41" s="15"/>
-      <c r="AMH41" s="15"/>
-      <c r="AMI41" s="15"/>
-      <c r="AMJ41" s="15"/>
-      <c r="AMK41" s="15"/>
-      <c r="AML41" s="15"/>
-      <c r="AMM41" s="15"/>
-    </row>
-    <row r="42" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>143</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
         <v>13</v>
       </c>
@@ -5183,18 +4319,20 @@
       <c r="I42" s="18">
         <v>45070</v>
       </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="K42" s="19"/>
       <c r="L42" s="17" t="s">
-        <v>399</v>
+        <v>141</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="O42" s="15"/>
+        <v>452</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="25" t="s">
+        <v>539</v>
+      </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
       <c r="R42" s="15"/>
@@ -6208,21 +5346,21 @@
       <c r="AML42" s="15"/>
       <c r="AMM42" s="15"/>
     </row>
-    <row r="43" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1028" s="20" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>13</v>
@@ -6230,24 +5368,26 @@
       <c r="G43" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="H43" s="21" t="s">
-        <v>527</v>
+      <c r="H43" s="16" t="s">
+        <v>502</v>
       </c>
       <c r="I43" s="18">
         <v>45070</v>
       </c>
-      <c r="J43" s="19" t="s">
-        <v>100</v>
-      </c>
+      <c r="J43" s="19"/>
       <c r="K43" s="19"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="M43" s="17" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="O43" s="15"/>
+        <v>415</v>
+      </c>
+      <c r="O43" s="25" t="s">
+        <v>539</v>
+      </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
@@ -7261,135 +6401,1176 @@
       <c r="AML43" s="15"/>
       <c r="AMM43" s="15"/>
     </row>
-    <row r="44" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:1028" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="I44" s="18">
+        <v>45070</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="O44" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
+      <c r="AR44" s="15"/>
+      <c r="AS44" s="15"/>
+      <c r="AT44" s="15"/>
+      <c r="AU44" s="15"/>
+      <c r="AV44" s="15"/>
+      <c r="AW44" s="15"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="15"/>
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="15"/>
+      <c r="BB44" s="15"/>
+      <c r="BC44" s="15"/>
+      <c r="BD44" s="15"/>
+      <c r="BE44" s="15"/>
+      <c r="BF44" s="15"/>
+      <c r="BG44" s="15"/>
+      <c r="BH44" s="15"/>
+      <c r="BI44" s="15"/>
+      <c r="BJ44" s="15"/>
+      <c r="BK44" s="15"/>
+      <c r="BL44" s="15"/>
+      <c r="BM44" s="15"/>
+      <c r="BN44" s="15"/>
+      <c r="BO44" s="15"/>
+      <c r="BP44" s="15"/>
+      <c r="BQ44" s="15"/>
+      <c r="BR44" s="15"/>
+      <c r="BS44" s="15"/>
+      <c r="BT44" s="15"/>
+      <c r="BU44" s="15"/>
+      <c r="BV44" s="15"/>
+      <c r="BW44" s="15"/>
+      <c r="BX44" s="15"/>
+      <c r="BY44" s="15"/>
+      <c r="BZ44" s="15"/>
+      <c r="CA44" s="15"/>
+      <c r="CB44" s="15"/>
+      <c r="CC44" s="15"/>
+      <c r="CD44" s="15"/>
+      <c r="CE44" s="15"/>
+      <c r="CF44" s="15"/>
+      <c r="CG44" s="15"/>
+      <c r="CH44" s="15"/>
+      <c r="CI44" s="15"/>
+      <c r="CJ44" s="15"/>
+      <c r="CK44" s="15"/>
+      <c r="CL44" s="15"/>
+      <c r="CM44" s="15"/>
+      <c r="CN44" s="15"/>
+      <c r="CO44" s="15"/>
+      <c r="CP44" s="15"/>
+      <c r="CQ44" s="15"/>
+      <c r="CR44" s="15"/>
+      <c r="CS44" s="15"/>
+      <c r="CT44" s="15"/>
+      <c r="CU44" s="15"/>
+      <c r="CV44" s="15"/>
+      <c r="CW44" s="15"/>
+      <c r="CX44" s="15"/>
+      <c r="CY44" s="15"/>
+      <c r="CZ44" s="15"/>
+      <c r="DA44" s="15"/>
+      <c r="DB44" s="15"/>
+      <c r="DC44" s="15"/>
+      <c r="DD44" s="15"/>
+      <c r="DE44" s="15"/>
+      <c r="DF44" s="15"/>
+      <c r="DG44" s="15"/>
+      <c r="DH44" s="15"/>
+      <c r="DI44" s="15"/>
+      <c r="DJ44" s="15"/>
+      <c r="DK44" s="15"/>
+      <c r="DL44" s="15"/>
+      <c r="DM44" s="15"/>
+      <c r="DN44" s="15"/>
+      <c r="DO44" s="15"/>
+      <c r="DP44" s="15"/>
+      <c r="DQ44" s="15"/>
+      <c r="DR44" s="15"/>
+      <c r="DS44" s="15"/>
+      <c r="DT44" s="15"/>
+      <c r="DU44" s="15"/>
+      <c r="DV44" s="15"/>
+      <c r="DW44" s="15"/>
+      <c r="DX44" s="15"/>
+      <c r="DY44" s="15"/>
+      <c r="DZ44" s="15"/>
+      <c r="EA44" s="15"/>
+      <c r="EB44" s="15"/>
+      <c r="EC44" s="15"/>
+      <c r="ED44" s="15"/>
+      <c r="EE44" s="15"/>
+      <c r="EF44" s="15"/>
+      <c r="EG44" s="15"/>
+      <c r="EH44" s="15"/>
+      <c r="EI44" s="15"/>
+      <c r="EJ44" s="15"/>
+      <c r="EK44" s="15"/>
+      <c r="EL44" s="15"/>
+      <c r="EM44" s="15"/>
+      <c r="EN44" s="15"/>
+      <c r="EO44" s="15"/>
+      <c r="EP44" s="15"/>
+      <c r="EQ44" s="15"/>
+      <c r="ER44" s="15"/>
+      <c r="ES44" s="15"/>
+      <c r="ET44" s="15"/>
+      <c r="EU44" s="15"/>
+      <c r="EV44" s="15"/>
+      <c r="EW44" s="15"/>
+      <c r="EX44" s="15"/>
+      <c r="EY44" s="15"/>
+      <c r="EZ44" s="15"/>
+      <c r="FA44" s="15"/>
+      <c r="FB44" s="15"/>
+      <c r="FC44" s="15"/>
+      <c r="FD44" s="15"/>
+      <c r="FE44" s="15"/>
+      <c r="FF44" s="15"/>
+      <c r="FG44" s="15"/>
+      <c r="FH44" s="15"/>
+      <c r="FI44" s="15"/>
+      <c r="FJ44" s="15"/>
+      <c r="FK44" s="15"/>
+      <c r="FL44" s="15"/>
+      <c r="FM44" s="15"/>
+      <c r="FN44" s="15"/>
+      <c r="FO44" s="15"/>
+      <c r="FP44" s="15"/>
+      <c r="FQ44" s="15"/>
+      <c r="FR44" s="15"/>
+      <c r="FS44" s="15"/>
+      <c r="FT44" s="15"/>
+      <c r="FU44" s="15"/>
+      <c r="FV44" s="15"/>
+      <c r="FW44" s="15"/>
+      <c r="FX44" s="15"/>
+      <c r="FY44" s="15"/>
+      <c r="FZ44" s="15"/>
+      <c r="GA44" s="15"/>
+      <c r="GB44" s="15"/>
+      <c r="GC44" s="15"/>
+      <c r="GD44" s="15"/>
+      <c r="GE44" s="15"/>
+      <c r="GF44" s="15"/>
+      <c r="GG44" s="15"/>
+      <c r="GH44" s="15"/>
+      <c r="GI44" s="15"/>
+      <c r="GJ44" s="15"/>
+      <c r="GK44" s="15"/>
+      <c r="GL44" s="15"/>
+      <c r="GM44" s="15"/>
+      <c r="GN44" s="15"/>
+      <c r="GO44" s="15"/>
+      <c r="GP44" s="15"/>
+      <c r="GQ44" s="15"/>
+      <c r="GR44" s="15"/>
+      <c r="GS44" s="15"/>
+      <c r="GT44" s="15"/>
+      <c r="GU44" s="15"/>
+      <c r="GV44" s="15"/>
+      <c r="GW44" s="15"/>
+      <c r="GX44" s="15"/>
+      <c r="GY44" s="15"/>
+      <c r="GZ44" s="15"/>
+      <c r="HA44" s="15"/>
+      <c r="HB44" s="15"/>
+      <c r="HC44" s="15"/>
+      <c r="HD44" s="15"/>
+      <c r="HE44" s="15"/>
+      <c r="HF44" s="15"/>
+      <c r="HG44" s="15"/>
+      <c r="HH44" s="15"/>
+      <c r="HI44" s="15"/>
+      <c r="HJ44" s="15"/>
+      <c r="HK44" s="15"/>
+      <c r="HL44" s="15"/>
+      <c r="HM44" s="15"/>
+      <c r="HN44" s="15"/>
+      <c r="HO44" s="15"/>
+      <c r="HP44" s="15"/>
+      <c r="HQ44" s="15"/>
+      <c r="HR44" s="15"/>
+      <c r="HS44" s="15"/>
+      <c r="HT44" s="15"/>
+      <c r="HU44" s="15"/>
+      <c r="HV44" s="15"/>
+      <c r="HW44" s="15"/>
+      <c r="HX44" s="15"/>
+      <c r="HY44" s="15"/>
+      <c r="HZ44" s="15"/>
+      <c r="IA44" s="15"/>
+      <c r="IB44" s="15"/>
+      <c r="IC44" s="15"/>
+      <c r="ID44" s="15"/>
+      <c r="IE44" s="15"/>
+      <c r="IF44" s="15"/>
+      <c r="IG44" s="15"/>
+      <c r="IH44" s="15"/>
+      <c r="II44" s="15"/>
+      <c r="IJ44" s="15"/>
+      <c r="IK44" s="15"/>
+      <c r="IL44" s="15"/>
+      <c r="IM44" s="15"/>
+      <c r="IN44" s="15"/>
+      <c r="IO44" s="15"/>
+      <c r="IP44" s="15"/>
+      <c r="IQ44" s="15"/>
+      <c r="IR44" s="15"/>
+      <c r="IS44" s="15"/>
+      <c r="IT44" s="15"/>
+      <c r="IU44" s="15"/>
+      <c r="IV44" s="15"/>
+      <c r="IW44" s="15"/>
+      <c r="IX44" s="15"/>
+      <c r="IY44" s="15"/>
+      <c r="IZ44" s="15"/>
+      <c r="JA44" s="15"/>
+      <c r="JB44" s="15"/>
+      <c r="JC44" s="15"/>
+      <c r="JD44" s="15"/>
+      <c r="JE44" s="15"/>
+      <c r="JF44" s="15"/>
+      <c r="JG44" s="15"/>
+      <c r="JH44" s="15"/>
+      <c r="JI44" s="15"/>
+      <c r="JJ44" s="15"/>
+      <c r="JK44" s="15"/>
+      <c r="JL44" s="15"/>
+      <c r="JM44" s="15"/>
+      <c r="JN44" s="15"/>
+      <c r="JO44" s="15"/>
+      <c r="JP44" s="15"/>
+      <c r="JQ44" s="15"/>
+      <c r="JR44" s="15"/>
+      <c r="JS44" s="15"/>
+      <c r="JT44" s="15"/>
+      <c r="JU44" s="15"/>
+      <c r="JV44" s="15"/>
+      <c r="JW44" s="15"/>
+      <c r="JX44" s="15"/>
+      <c r="JY44" s="15"/>
+      <c r="JZ44" s="15"/>
+      <c r="KA44" s="15"/>
+      <c r="KB44" s="15"/>
+      <c r="KC44" s="15"/>
+      <c r="KD44" s="15"/>
+      <c r="KE44" s="15"/>
+      <c r="KF44" s="15"/>
+      <c r="KG44" s="15"/>
+      <c r="KH44" s="15"/>
+      <c r="KI44" s="15"/>
+      <c r="KJ44" s="15"/>
+      <c r="KK44" s="15"/>
+      <c r="KL44" s="15"/>
+      <c r="KM44" s="15"/>
+      <c r="KN44" s="15"/>
+      <c r="KO44" s="15"/>
+      <c r="KP44" s="15"/>
+      <c r="KQ44" s="15"/>
+      <c r="KR44" s="15"/>
+      <c r="KS44" s="15"/>
+      <c r="KT44" s="15"/>
+      <c r="KU44" s="15"/>
+      <c r="KV44" s="15"/>
+      <c r="KW44" s="15"/>
+      <c r="KX44" s="15"/>
+      <c r="KY44" s="15"/>
+      <c r="KZ44" s="15"/>
+      <c r="LA44" s="15"/>
+      <c r="LB44" s="15"/>
+      <c r="LC44" s="15"/>
+      <c r="LD44" s="15"/>
+      <c r="LE44" s="15"/>
+      <c r="LF44" s="15"/>
+      <c r="LG44" s="15"/>
+      <c r="LH44" s="15"/>
+      <c r="LI44" s="15"/>
+      <c r="LJ44" s="15"/>
+      <c r="LK44" s="15"/>
+      <c r="LL44" s="15"/>
+      <c r="LM44" s="15"/>
+      <c r="LN44" s="15"/>
+      <c r="LO44" s="15"/>
+      <c r="LP44" s="15"/>
+      <c r="LQ44" s="15"/>
+      <c r="LR44" s="15"/>
+      <c r="LS44" s="15"/>
+      <c r="LT44" s="15"/>
+      <c r="LU44" s="15"/>
+      <c r="LV44" s="15"/>
+      <c r="LW44" s="15"/>
+      <c r="LX44" s="15"/>
+      <c r="LY44" s="15"/>
+      <c r="LZ44" s="15"/>
+      <c r="MA44" s="15"/>
+      <c r="MB44" s="15"/>
+      <c r="MC44" s="15"/>
+      <c r="MD44" s="15"/>
+      <c r="ME44" s="15"/>
+      <c r="MF44" s="15"/>
+      <c r="MG44" s="15"/>
+      <c r="MH44" s="15"/>
+      <c r="MI44" s="15"/>
+      <c r="MJ44" s="15"/>
+      <c r="MK44" s="15"/>
+      <c r="ML44" s="15"/>
+      <c r="MM44" s="15"/>
+      <c r="MN44" s="15"/>
+      <c r="MO44" s="15"/>
+      <c r="MP44" s="15"/>
+      <c r="MQ44" s="15"/>
+      <c r="MR44" s="15"/>
+      <c r="MS44" s="15"/>
+      <c r="MT44" s="15"/>
+      <c r="MU44" s="15"/>
+      <c r="MV44" s="15"/>
+      <c r="MW44" s="15"/>
+      <c r="MX44" s="15"/>
+      <c r="MY44" s="15"/>
+      <c r="MZ44" s="15"/>
+      <c r="NA44" s="15"/>
+      <c r="NB44" s="15"/>
+      <c r="NC44" s="15"/>
+      <c r="ND44" s="15"/>
+      <c r="NE44" s="15"/>
+      <c r="NF44" s="15"/>
+      <c r="NG44" s="15"/>
+      <c r="NH44" s="15"/>
+      <c r="NI44" s="15"/>
+      <c r="NJ44" s="15"/>
+      <c r="NK44" s="15"/>
+      <c r="NL44" s="15"/>
+      <c r="NM44" s="15"/>
+      <c r="NN44" s="15"/>
+      <c r="NO44" s="15"/>
+      <c r="NP44" s="15"/>
+      <c r="NQ44" s="15"/>
+      <c r="NR44" s="15"/>
+      <c r="NS44" s="15"/>
+      <c r="NT44" s="15"/>
+      <c r="NU44" s="15"/>
+      <c r="NV44" s="15"/>
+      <c r="NW44" s="15"/>
+      <c r="NX44" s="15"/>
+      <c r="NY44" s="15"/>
+      <c r="NZ44" s="15"/>
+      <c r="OA44" s="15"/>
+      <c r="OB44" s="15"/>
+      <c r="OC44" s="15"/>
+      <c r="OD44" s="15"/>
+      <c r="OE44" s="15"/>
+      <c r="OF44" s="15"/>
+      <c r="OG44" s="15"/>
+      <c r="OH44" s="15"/>
+      <c r="OI44" s="15"/>
+      <c r="OJ44" s="15"/>
+      <c r="OK44" s="15"/>
+      <c r="OL44" s="15"/>
+      <c r="OM44" s="15"/>
+      <c r="ON44" s="15"/>
+      <c r="OO44" s="15"/>
+      <c r="OP44" s="15"/>
+      <c r="OQ44" s="15"/>
+      <c r="OR44" s="15"/>
+      <c r="OS44" s="15"/>
+      <c r="OT44" s="15"/>
+      <c r="OU44" s="15"/>
+      <c r="OV44" s="15"/>
+      <c r="OW44" s="15"/>
+      <c r="OX44" s="15"/>
+      <c r="OY44" s="15"/>
+      <c r="OZ44" s="15"/>
+      <c r="PA44" s="15"/>
+      <c r="PB44" s="15"/>
+      <c r="PC44" s="15"/>
+      <c r="PD44" s="15"/>
+      <c r="PE44" s="15"/>
+      <c r="PF44" s="15"/>
+      <c r="PG44" s="15"/>
+      <c r="PH44" s="15"/>
+      <c r="PI44" s="15"/>
+      <c r="PJ44" s="15"/>
+      <c r="PK44" s="15"/>
+      <c r="PL44" s="15"/>
+      <c r="PM44" s="15"/>
+      <c r="PN44" s="15"/>
+      <c r="PO44" s="15"/>
+      <c r="PP44" s="15"/>
+      <c r="PQ44" s="15"/>
+      <c r="PR44" s="15"/>
+      <c r="PS44" s="15"/>
+      <c r="PT44" s="15"/>
+      <c r="PU44" s="15"/>
+      <c r="PV44" s="15"/>
+      <c r="PW44" s="15"/>
+      <c r="PX44" s="15"/>
+      <c r="PY44" s="15"/>
+      <c r="PZ44" s="15"/>
+      <c r="QA44" s="15"/>
+      <c r="QB44" s="15"/>
+      <c r="QC44" s="15"/>
+      <c r="QD44" s="15"/>
+      <c r="QE44" s="15"/>
+      <c r="QF44" s="15"/>
+      <c r="QG44" s="15"/>
+      <c r="QH44" s="15"/>
+      <c r="QI44" s="15"/>
+      <c r="QJ44" s="15"/>
+      <c r="QK44" s="15"/>
+      <c r="QL44" s="15"/>
+      <c r="QM44" s="15"/>
+      <c r="QN44" s="15"/>
+      <c r="QO44" s="15"/>
+      <c r="QP44" s="15"/>
+      <c r="QQ44" s="15"/>
+      <c r="QR44" s="15"/>
+      <c r="QS44" s="15"/>
+      <c r="QT44" s="15"/>
+      <c r="QU44" s="15"/>
+      <c r="QV44" s="15"/>
+      <c r="QW44" s="15"/>
+      <c r="QX44" s="15"/>
+      <c r="QY44" s="15"/>
+      <c r="QZ44" s="15"/>
+      <c r="RA44" s="15"/>
+      <c r="RB44" s="15"/>
+      <c r="RC44" s="15"/>
+      <c r="RD44" s="15"/>
+      <c r="RE44" s="15"/>
+      <c r="RF44" s="15"/>
+      <c r="RG44" s="15"/>
+      <c r="RH44" s="15"/>
+      <c r="RI44" s="15"/>
+      <c r="RJ44" s="15"/>
+      <c r="RK44" s="15"/>
+      <c r="RL44" s="15"/>
+      <c r="RM44" s="15"/>
+      <c r="RN44" s="15"/>
+      <c r="RO44" s="15"/>
+      <c r="RP44" s="15"/>
+      <c r="RQ44" s="15"/>
+      <c r="RR44" s="15"/>
+      <c r="RS44" s="15"/>
+      <c r="RT44" s="15"/>
+      <c r="RU44" s="15"/>
+      <c r="RV44" s="15"/>
+      <c r="RW44" s="15"/>
+      <c r="RX44" s="15"/>
+      <c r="RY44" s="15"/>
+      <c r="RZ44" s="15"/>
+      <c r="SA44" s="15"/>
+      <c r="SB44" s="15"/>
+      <c r="SC44" s="15"/>
+      <c r="SD44" s="15"/>
+      <c r="SE44" s="15"/>
+      <c r="SF44" s="15"/>
+      <c r="SG44" s="15"/>
+      <c r="SH44" s="15"/>
+      <c r="SI44" s="15"/>
+      <c r="SJ44" s="15"/>
+      <c r="SK44" s="15"/>
+      <c r="SL44" s="15"/>
+      <c r="SM44" s="15"/>
+      <c r="SN44" s="15"/>
+      <c r="SO44" s="15"/>
+      <c r="SP44" s="15"/>
+      <c r="SQ44" s="15"/>
+      <c r="SR44" s="15"/>
+      <c r="SS44" s="15"/>
+      <c r="ST44" s="15"/>
+      <c r="SU44" s="15"/>
+      <c r="SV44" s="15"/>
+      <c r="SW44" s="15"/>
+      <c r="SX44" s="15"/>
+      <c r="SY44" s="15"/>
+      <c r="SZ44" s="15"/>
+      <c r="TA44" s="15"/>
+      <c r="TB44" s="15"/>
+      <c r="TC44" s="15"/>
+      <c r="TD44" s="15"/>
+      <c r="TE44" s="15"/>
+      <c r="TF44" s="15"/>
+      <c r="TG44" s="15"/>
+      <c r="TH44" s="15"/>
+      <c r="TI44" s="15"/>
+      <c r="TJ44" s="15"/>
+      <c r="TK44" s="15"/>
+      <c r="TL44" s="15"/>
+      <c r="TM44" s="15"/>
+      <c r="TN44" s="15"/>
+      <c r="TO44" s="15"/>
+      <c r="TP44" s="15"/>
+      <c r="TQ44" s="15"/>
+      <c r="TR44" s="15"/>
+      <c r="TS44" s="15"/>
+      <c r="TT44" s="15"/>
+      <c r="TU44" s="15"/>
+      <c r="TV44" s="15"/>
+      <c r="TW44" s="15"/>
+      <c r="TX44" s="15"/>
+      <c r="TY44" s="15"/>
+      <c r="TZ44" s="15"/>
+      <c r="UA44" s="15"/>
+      <c r="UB44" s="15"/>
+      <c r="UC44" s="15"/>
+      <c r="UD44" s="15"/>
+      <c r="UE44" s="15"/>
+      <c r="UF44" s="15"/>
+      <c r="UG44" s="15"/>
+      <c r="UH44" s="15"/>
+      <c r="UI44" s="15"/>
+      <c r="UJ44" s="15"/>
+      <c r="UK44" s="15"/>
+      <c r="UL44" s="15"/>
+      <c r="UM44" s="15"/>
+      <c r="UN44" s="15"/>
+      <c r="UO44" s="15"/>
+      <c r="UP44" s="15"/>
+      <c r="UQ44" s="15"/>
+      <c r="UR44" s="15"/>
+      <c r="US44" s="15"/>
+      <c r="UT44" s="15"/>
+      <c r="UU44" s="15"/>
+      <c r="UV44" s="15"/>
+      <c r="UW44" s="15"/>
+      <c r="UX44" s="15"/>
+      <c r="UY44" s="15"/>
+      <c r="UZ44" s="15"/>
+      <c r="VA44" s="15"/>
+      <c r="VB44" s="15"/>
+      <c r="VC44" s="15"/>
+      <c r="VD44" s="15"/>
+      <c r="VE44" s="15"/>
+      <c r="VF44" s="15"/>
+      <c r="VG44" s="15"/>
+      <c r="VH44" s="15"/>
+      <c r="VI44" s="15"/>
+      <c r="VJ44" s="15"/>
+      <c r="VK44" s="15"/>
+      <c r="VL44" s="15"/>
+      <c r="VM44" s="15"/>
+      <c r="VN44" s="15"/>
+      <c r="VO44" s="15"/>
+      <c r="VP44" s="15"/>
+      <c r="VQ44" s="15"/>
+      <c r="VR44" s="15"/>
+      <c r="VS44" s="15"/>
+      <c r="VT44" s="15"/>
+      <c r="VU44" s="15"/>
+      <c r="VV44" s="15"/>
+      <c r="VW44" s="15"/>
+      <c r="VX44" s="15"/>
+      <c r="VY44" s="15"/>
+      <c r="VZ44" s="15"/>
+      <c r="WA44" s="15"/>
+      <c r="WB44" s="15"/>
+      <c r="WC44" s="15"/>
+      <c r="WD44" s="15"/>
+      <c r="WE44" s="15"/>
+      <c r="WF44" s="15"/>
+      <c r="WG44" s="15"/>
+      <c r="WH44" s="15"/>
+      <c r="WI44" s="15"/>
+      <c r="WJ44" s="15"/>
+      <c r="WK44" s="15"/>
+      <c r="WL44" s="15"/>
+      <c r="WM44" s="15"/>
+      <c r="WN44" s="15"/>
+      <c r="WO44" s="15"/>
+      <c r="WP44" s="15"/>
+      <c r="WQ44" s="15"/>
+      <c r="WR44" s="15"/>
+      <c r="WS44" s="15"/>
+      <c r="WT44" s="15"/>
+      <c r="WU44" s="15"/>
+      <c r="WV44" s="15"/>
+      <c r="WW44" s="15"/>
+      <c r="WX44" s="15"/>
+      <c r="WY44" s="15"/>
+      <c r="WZ44" s="15"/>
+      <c r="XA44" s="15"/>
+      <c r="XB44" s="15"/>
+      <c r="XC44" s="15"/>
+      <c r="XD44" s="15"/>
+      <c r="XE44" s="15"/>
+      <c r="XF44" s="15"/>
+      <c r="XG44" s="15"/>
+      <c r="XH44" s="15"/>
+      <c r="XI44" s="15"/>
+      <c r="XJ44" s="15"/>
+      <c r="XK44" s="15"/>
+      <c r="XL44" s="15"/>
+      <c r="XM44" s="15"/>
+      <c r="XN44" s="15"/>
+      <c r="XO44" s="15"/>
+      <c r="XP44" s="15"/>
+      <c r="XQ44" s="15"/>
+      <c r="XR44" s="15"/>
+      <c r="XS44" s="15"/>
+      <c r="XT44" s="15"/>
+      <c r="XU44" s="15"/>
+      <c r="XV44" s="15"/>
+      <c r="XW44" s="15"/>
+      <c r="XX44" s="15"/>
+      <c r="XY44" s="15"/>
+      <c r="XZ44" s="15"/>
+      <c r="YA44" s="15"/>
+      <c r="YB44" s="15"/>
+      <c r="YC44" s="15"/>
+      <c r="YD44" s="15"/>
+      <c r="YE44" s="15"/>
+      <c r="YF44" s="15"/>
+      <c r="YG44" s="15"/>
+      <c r="YH44" s="15"/>
+      <c r="YI44" s="15"/>
+      <c r="YJ44" s="15"/>
+      <c r="YK44" s="15"/>
+      <c r="YL44" s="15"/>
+      <c r="YM44" s="15"/>
+      <c r="YN44" s="15"/>
+      <c r="YO44" s="15"/>
+      <c r="YP44" s="15"/>
+      <c r="YQ44" s="15"/>
+      <c r="YR44" s="15"/>
+      <c r="YS44" s="15"/>
+      <c r="YT44" s="15"/>
+      <c r="YU44" s="15"/>
+      <c r="YV44" s="15"/>
+      <c r="YW44" s="15"/>
+      <c r="YX44" s="15"/>
+      <c r="YY44" s="15"/>
+      <c r="YZ44" s="15"/>
+      <c r="ZA44" s="15"/>
+      <c r="ZB44" s="15"/>
+      <c r="ZC44" s="15"/>
+      <c r="ZD44" s="15"/>
+      <c r="ZE44" s="15"/>
+      <c r="ZF44" s="15"/>
+      <c r="ZG44" s="15"/>
+      <c r="ZH44" s="15"/>
+      <c r="ZI44" s="15"/>
+      <c r="ZJ44" s="15"/>
+      <c r="ZK44" s="15"/>
+      <c r="ZL44" s="15"/>
+      <c r="ZM44" s="15"/>
+      <c r="ZN44" s="15"/>
+      <c r="ZO44" s="15"/>
+      <c r="ZP44" s="15"/>
+      <c r="ZQ44" s="15"/>
+      <c r="ZR44" s="15"/>
+      <c r="ZS44" s="15"/>
+      <c r="ZT44" s="15"/>
+      <c r="ZU44" s="15"/>
+      <c r="ZV44" s="15"/>
+      <c r="ZW44" s="15"/>
+      <c r="ZX44" s="15"/>
+      <c r="ZY44" s="15"/>
+      <c r="ZZ44" s="15"/>
+      <c r="AAA44" s="15"/>
+      <c r="AAB44" s="15"/>
+      <c r="AAC44" s="15"/>
+      <c r="AAD44" s="15"/>
+      <c r="AAE44" s="15"/>
+      <c r="AAF44" s="15"/>
+      <c r="AAG44" s="15"/>
+      <c r="AAH44" s="15"/>
+      <c r="AAI44" s="15"/>
+      <c r="AAJ44" s="15"/>
+      <c r="AAK44" s="15"/>
+      <c r="AAL44" s="15"/>
+      <c r="AAM44" s="15"/>
+      <c r="AAN44" s="15"/>
+      <c r="AAO44" s="15"/>
+      <c r="AAP44" s="15"/>
+      <c r="AAQ44" s="15"/>
+      <c r="AAR44" s="15"/>
+      <c r="AAS44" s="15"/>
+      <c r="AAT44" s="15"/>
+      <c r="AAU44" s="15"/>
+      <c r="AAV44" s="15"/>
+      <c r="AAW44" s="15"/>
+      <c r="AAX44" s="15"/>
+      <c r="AAY44" s="15"/>
+      <c r="AAZ44" s="15"/>
+      <c r="ABA44" s="15"/>
+      <c r="ABB44" s="15"/>
+      <c r="ABC44" s="15"/>
+      <c r="ABD44" s="15"/>
+      <c r="ABE44" s="15"/>
+      <c r="ABF44" s="15"/>
+      <c r="ABG44" s="15"/>
+      <c r="ABH44" s="15"/>
+      <c r="ABI44" s="15"/>
+      <c r="ABJ44" s="15"/>
+      <c r="ABK44" s="15"/>
+      <c r="ABL44" s="15"/>
+      <c r="ABM44" s="15"/>
+      <c r="ABN44" s="15"/>
+      <c r="ABO44" s="15"/>
+      <c r="ABP44" s="15"/>
+      <c r="ABQ44" s="15"/>
+      <c r="ABR44" s="15"/>
+      <c r="ABS44" s="15"/>
+      <c r="ABT44" s="15"/>
+      <c r="ABU44" s="15"/>
+      <c r="ABV44" s="15"/>
+      <c r="ABW44" s="15"/>
+      <c r="ABX44" s="15"/>
+      <c r="ABY44" s="15"/>
+      <c r="ABZ44" s="15"/>
+      <c r="ACA44" s="15"/>
+      <c r="ACB44" s="15"/>
+      <c r="ACC44" s="15"/>
+      <c r="ACD44" s="15"/>
+      <c r="ACE44" s="15"/>
+      <c r="ACF44" s="15"/>
+      <c r="ACG44" s="15"/>
+      <c r="ACH44" s="15"/>
+      <c r="ACI44" s="15"/>
+      <c r="ACJ44" s="15"/>
+      <c r="ACK44" s="15"/>
+      <c r="ACL44" s="15"/>
+      <c r="ACM44" s="15"/>
+      <c r="ACN44" s="15"/>
+      <c r="ACO44" s="15"/>
+      <c r="ACP44" s="15"/>
+      <c r="ACQ44" s="15"/>
+      <c r="ACR44" s="15"/>
+      <c r="ACS44" s="15"/>
+      <c r="ACT44" s="15"/>
+      <c r="ACU44" s="15"/>
+      <c r="ACV44" s="15"/>
+      <c r="ACW44" s="15"/>
+      <c r="ACX44" s="15"/>
+      <c r="ACY44" s="15"/>
+      <c r="ACZ44" s="15"/>
+      <c r="ADA44" s="15"/>
+      <c r="ADB44" s="15"/>
+      <c r="ADC44" s="15"/>
+      <c r="ADD44" s="15"/>
+      <c r="ADE44" s="15"/>
+      <c r="ADF44" s="15"/>
+      <c r="ADG44" s="15"/>
+      <c r="ADH44" s="15"/>
+      <c r="ADI44" s="15"/>
+      <c r="ADJ44" s="15"/>
+      <c r="ADK44" s="15"/>
+      <c r="ADL44" s="15"/>
+      <c r="ADM44" s="15"/>
+      <c r="ADN44" s="15"/>
+      <c r="ADO44" s="15"/>
+      <c r="ADP44" s="15"/>
+      <c r="ADQ44" s="15"/>
+      <c r="ADR44" s="15"/>
+      <c r="ADS44" s="15"/>
+      <c r="ADT44" s="15"/>
+      <c r="ADU44" s="15"/>
+      <c r="ADV44" s="15"/>
+      <c r="ADW44" s="15"/>
+      <c r="ADX44" s="15"/>
+      <c r="ADY44" s="15"/>
+      <c r="ADZ44" s="15"/>
+      <c r="AEA44" s="15"/>
+      <c r="AEB44" s="15"/>
+      <c r="AEC44" s="15"/>
+      <c r="AED44" s="15"/>
+      <c r="AEE44" s="15"/>
+      <c r="AEF44" s="15"/>
+      <c r="AEG44" s="15"/>
+      <c r="AEH44" s="15"/>
+      <c r="AEI44" s="15"/>
+      <c r="AEJ44" s="15"/>
+      <c r="AEK44" s="15"/>
+      <c r="AEL44" s="15"/>
+      <c r="AEM44" s="15"/>
+      <c r="AEN44" s="15"/>
+      <c r="AEO44" s="15"/>
+      <c r="AEP44" s="15"/>
+      <c r="AEQ44" s="15"/>
+      <c r="AER44" s="15"/>
+      <c r="AES44" s="15"/>
+      <c r="AET44" s="15"/>
+      <c r="AEU44" s="15"/>
+      <c r="AEV44" s="15"/>
+      <c r="AEW44" s="15"/>
+      <c r="AEX44" s="15"/>
+      <c r="AEY44" s="15"/>
+      <c r="AEZ44" s="15"/>
+      <c r="AFA44" s="15"/>
+      <c r="AFB44" s="15"/>
+      <c r="AFC44" s="15"/>
+      <c r="AFD44" s="15"/>
+      <c r="AFE44" s="15"/>
+      <c r="AFF44" s="15"/>
+      <c r="AFG44" s="15"/>
+      <c r="AFH44" s="15"/>
+      <c r="AFI44" s="15"/>
+      <c r="AFJ44" s="15"/>
+      <c r="AFK44" s="15"/>
+      <c r="AFL44" s="15"/>
+      <c r="AFM44" s="15"/>
+      <c r="AFN44" s="15"/>
+      <c r="AFO44" s="15"/>
+      <c r="AFP44" s="15"/>
+      <c r="AFQ44" s="15"/>
+      <c r="AFR44" s="15"/>
+      <c r="AFS44" s="15"/>
+      <c r="AFT44" s="15"/>
+      <c r="AFU44" s="15"/>
+      <c r="AFV44" s="15"/>
+      <c r="AFW44" s="15"/>
+      <c r="AFX44" s="15"/>
+      <c r="AFY44" s="15"/>
+      <c r="AFZ44" s="15"/>
+      <c r="AGA44" s="15"/>
+      <c r="AGB44" s="15"/>
+      <c r="AGC44" s="15"/>
+      <c r="AGD44" s="15"/>
+      <c r="AGE44" s="15"/>
+      <c r="AGF44" s="15"/>
+      <c r="AGG44" s="15"/>
+      <c r="AGH44" s="15"/>
+      <c r="AGI44" s="15"/>
+      <c r="AGJ44" s="15"/>
+      <c r="AGK44" s="15"/>
+      <c r="AGL44" s="15"/>
+      <c r="AGM44" s="15"/>
+      <c r="AGN44" s="15"/>
+      <c r="AGO44" s="15"/>
+      <c r="AGP44" s="15"/>
+      <c r="AGQ44" s="15"/>
+      <c r="AGR44" s="15"/>
+      <c r="AGS44" s="15"/>
+      <c r="AGT44" s="15"/>
+      <c r="AGU44" s="15"/>
+      <c r="AGV44" s="15"/>
+      <c r="AGW44" s="15"/>
+      <c r="AGX44" s="15"/>
+      <c r="AGY44" s="15"/>
+      <c r="AGZ44" s="15"/>
+      <c r="AHA44" s="15"/>
+      <c r="AHB44" s="15"/>
+      <c r="AHC44" s="15"/>
+      <c r="AHD44" s="15"/>
+      <c r="AHE44" s="15"/>
+      <c r="AHF44" s="15"/>
+      <c r="AHG44" s="15"/>
+      <c r="AHH44" s="15"/>
+      <c r="AHI44" s="15"/>
+      <c r="AHJ44" s="15"/>
+      <c r="AHK44" s="15"/>
+      <c r="AHL44" s="15"/>
+      <c r="AHM44" s="15"/>
+      <c r="AHN44" s="15"/>
+      <c r="AHO44" s="15"/>
+      <c r="AHP44" s="15"/>
+      <c r="AHQ44" s="15"/>
+      <c r="AHR44" s="15"/>
+      <c r="AHS44" s="15"/>
+      <c r="AHT44" s="15"/>
+      <c r="AHU44" s="15"/>
+      <c r="AHV44" s="15"/>
+      <c r="AHW44" s="15"/>
+      <c r="AHX44" s="15"/>
+      <c r="AHY44" s="15"/>
+      <c r="AHZ44" s="15"/>
+      <c r="AIA44" s="15"/>
+      <c r="AIB44" s="15"/>
+      <c r="AIC44" s="15"/>
+      <c r="AID44" s="15"/>
+      <c r="AIE44" s="15"/>
+      <c r="AIF44" s="15"/>
+      <c r="AIG44" s="15"/>
+      <c r="AIH44" s="15"/>
+      <c r="AII44" s="15"/>
+      <c r="AIJ44" s="15"/>
+      <c r="AIK44" s="15"/>
+      <c r="AIL44" s="15"/>
+      <c r="AIM44" s="15"/>
+      <c r="AIN44" s="15"/>
+      <c r="AIO44" s="15"/>
+      <c r="AIP44" s="15"/>
+      <c r="AIQ44" s="15"/>
+      <c r="AIR44" s="15"/>
+      <c r="AIS44" s="15"/>
+      <c r="AIT44" s="15"/>
+      <c r="AIU44" s="15"/>
+      <c r="AIV44" s="15"/>
+      <c r="AIW44" s="15"/>
+      <c r="AIX44" s="15"/>
+      <c r="AIY44" s="15"/>
+      <c r="AIZ44" s="15"/>
+      <c r="AJA44" s="15"/>
+      <c r="AJB44" s="15"/>
+      <c r="AJC44" s="15"/>
+      <c r="AJD44" s="15"/>
+      <c r="AJE44" s="15"/>
+      <c r="AJF44" s="15"/>
+      <c r="AJG44" s="15"/>
+      <c r="AJH44" s="15"/>
+      <c r="AJI44" s="15"/>
+      <c r="AJJ44" s="15"/>
+      <c r="AJK44" s="15"/>
+      <c r="AJL44" s="15"/>
+      <c r="AJM44" s="15"/>
+      <c r="AJN44" s="15"/>
+      <c r="AJO44" s="15"/>
+      <c r="AJP44" s="15"/>
+      <c r="AJQ44" s="15"/>
+      <c r="AJR44" s="15"/>
+      <c r="AJS44" s="15"/>
+      <c r="AJT44" s="15"/>
+      <c r="AJU44" s="15"/>
+      <c r="AJV44" s="15"/>
+      <c r="AJW44" s="15"/>
+      <c r="AJX44" s="15"/>
+      <c r="AJY44" s="15"/>
+      <c r="AJZ44" s="15"/>
+      <c r="AKA44" s="15"/>
+      <c r="AKB44" s="15"/>
+      <c r="AKC44" s="15"/>
+      <c r="AKD44" s="15"/>
+      <c r="AKE44" s="15"/>
+      <c r="AKF44" s="15"/>
+      <c r="AKG44" s="15"/>
+      <c r="AKH44" s="15"/>
+      <c r="AKI44" s="15"/>
+      <c r="AKJ44" s="15"/>
+      <c r="AKK44" s="15"/>
+      <c r="AKL44" s="15"/>
+      <c r="AKM44" s="15"/>
+      <c r="AKN44" s="15"/>
+      <c r="AKO44" s="15"/>
+      <c r="AKP44" s="15"/>
+      <c r="AKQ44" s="15"/>
+      <c r="AKR44" s="15"/>
+      <c r="AKS44" s="15"/>
+      <c r="AKT44" s="15"/>
+      <c r="AKU44" s="15"/>
+      <c r="AKV44" s="15"/>
+      <c r="AKW44" s="15"/>
+      <c r="AKX44" s="15"/>
+      <c r="AKY44" s="15"/>
+      <c r="AKZ44" s="15"/>
+      <c r="ALA44" s="15"/>
+      <c r="ALB44" s="15"/>
+      <c r="ALC44" s="15"/>
+      <c r="ALD44" s="15"/>
+      <c r="ALE44" s="15"/>
+      <c r="ALF44" s="15"/>
+      <c r="ALG44" s="15"/>
+      <c r="ALH44" s="15"/>
+      <c r="ALI44" s="15"/>
+      <c r="ALJ44" s="15"/>
+      <c r="ALK44" s="15"/>
+      <c r="ALL44" s="15"/>
+      <c r="ALM44" s="15"/>
+      <c r="ALN44" s="15"/>
+      <c r="ALO44" s="15"/>
+      <c r="ALP44" s="15"/>
+      <c r="ALQ44" s="15"/>
+      <c r="ALR44" s="15"/>
+      <c r="ALS44" s="15"/>
+      <c r="ALT44" s="15"/>
+      <c r="ALU44" s="15"/>
+      <c r="ALV44" s="15"/>
+      <c r="ALW44" s="15"/>
+      <c r="ALX44" s="15"/>
+      <c r="ALY44" s="15"/>
+      <c r="ALZ44" s="15"/>
+      <c r="AMA44" s="15"/>
+      <c r="AMB44" s="15"/>
+      <c r="AMC44" s="15"/>
+      <c r="AMD44" s="15"/>
+      <c r="AME44" s="15"/>
+      <c r="AMF44" s="15"/>
+      <c r="AMG44" s="15"/>
+      <c r="AMH44" s="15"/>
+      <c r="AMI44" s="15"/>
+      <c r="AMJ44" s="15"/>
+      <c r="AMK44" s="15"/>
+      <c r="AML44" s="15"/>
+      <c r="AMM44" s="15"/>
+    </row>
+    <row r="45" spans="1:1028" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1028" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46"/>
+        <v>154</v>
+      </c>
       <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>159</v>
+        <v>492</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
+      </c>
+      <c r="O46" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="47" spans="1:1028" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1028" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>162</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E47"/>
       <c r="F47" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>417</v>
+        <v>459</v>
+      </c>
+      <c r="O47" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="48" spans="1:1028" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1028" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>13</v>
@@ -7397,24 +7578,26 @@
       <c r="G48" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>168</v>
+      <c r="N48" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49"/>
+        <v>166</v>
+      </c>
       <c r="F49" s="8" t="s">
         <v>13</v>
       </c>
@@ -7422,50 +7605,57 @@
         <v>492</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
+      </c>
+      <c r="O49" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>165</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E50"/>
       <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>176</v>
+        <v>492</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>13</v>
@@ -7474,159 +7664,179 @@
         <v>493</v>
       </c>
       <c r="H51" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O51" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J52" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="M51" s="10" t="s">
+      <c r="M52" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="O52" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="52" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E53"/>
-      <c r="F53" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>492</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
+      </c>
+      <c r="O53" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="E54"/>
       <c r="F54" s="8" t="s">
         <v>176</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="J54" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="55" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="O55" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E56"/>
       <c r="F56" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E57"/>
       <c r="F57" s="8" t="s">
@@ -7635,19 +7845,22 @@
       <c r="G57" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O57" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E58"/>
       <c r="F58" s="8" t="s">
@@ -7656,19 +7869,22 @@
       <c r="G58" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O58" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E59"/>
       <c r="F59" s="8" t="s">
@@ -7677,19 +7893,22 @@
       <c r="G59" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O59" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E60"/>
       <c r="F60" s="8" t="s">
@@ -7698,19 +7917,22 @@
       <c r="G60" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O60" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E61"/>
       <c r="F61" s="8" t="s">
@@ -7719,60 +7941,69 @@
       <c r="G61" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O61" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>219</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E62"/>
       <c r="F62" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O62" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63"/>
+        <v>219</v>
+      </c>
       <c r="F63" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O63" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E64"/>
       <c r="F64" s="8" t="s">
@@ -7781,19 +8012,22 @@
       <c r="G64" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O64" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E65"/>
       <c r="F65" s="8" t="s">
@@ -7802,19 +8036,22 @@
       <c r="G65" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O65" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>231</v>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E66"/>
       <c r="F66" s="8" t="s">
@@ -7823,19 +8060,22 @@
       <c r="G66" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O66" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E67"/>
       <c r="F67" s="8" t="s">
@@ -7844,19 +8084,22 @@
       <c r="G67" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O67" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E68"/>
       <c r="F68" s="8" t="s">
@@ -7865,19 +8108,22 @@
       <c r="G68" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O68" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E69"/>
       <c r="F69" s="8" t="s">
@@ -7886,19 +8132,22 @@
       <c r="G69" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O69" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E70"/>
       <c r="F70" s="8" t="s">
@@ -7907,19 +8156,22 @@
       <c r="G70" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O70" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>120</v>
+        <v>249</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E71"/>
       <c r="F71" s="8" t="s">
@@ -7928,19 +8180,22 @@
       <c r="G71" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O71" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="8" t="s">
@@ -7949,19 +8204,22 @@
       <c r="G72" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O72" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E73"/>
       <c r="F73" s="8" t="s">
@@ -7970,19 +8228,22 @@
       <c r="G73" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O73" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E74"/>
       <c r="F74" s="8" t="s">
@@ -7991,19 +8252,22 @@
       <c r="G74" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O74" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E75"/>
       <c r="F75" s="8" t="s">
@@ -8012,19 +8276,22 @@
       <c r="G75" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O75" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E76"/>
       <c r="F76" s="8" t="s">
@@ -8033,19 +8300,22 @@
       <c r="G76" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O76" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E77"/>
       <c r="F77" s="8" t="s">
@@ -8054,19 +8324,22 @@
       <c r="G77" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O77" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E78"/>
       <c r="F78" s="8" t="s">
@@ -8075,19 +8348,22 @@
       <c r="G78" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O78" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>283</v>
+        <v>55</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E79"/>
       <c r="F79" s="8" t="s">
@@ -8096,19 +8372,22 @@
       <c r="G79" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O79" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E80"/>
       <c r="F80" s="8" t="s">
@@ -8117,19 +8396,22 @@
       <c r="G80" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O80" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="81" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E81"/>
       <c r="F81" s="8" t="s">
@@ -8138,20 +8420,22 @@
       <c r="G81" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="O81" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="82" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E82"/>
       <c r="F82" s="8" t="s">
@@ -8161,19 +8445,22 @@
         <v>492</v>
       </c>
       <c r="I82" s="3"/>
+      <c r="O82" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="83" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E83"/>
       <c r="F83" s="8" t="s">
@@ -8183,19 +8470,22 @@
         <v>492</v>
       </c>
       <c r="I83" s="3"/>
+      <c r="O83" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="84" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E84"/>
       <c r="F84" s="8" t="s">
@@ -8204,61 +8494,70 @@
       <c r="G84" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="I84" s="3"/>
+      <c r="O84" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="85" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>308</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="E85"/>
       <c r="F85" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>492</v>
+      </c>
+      <c r="O85" s="24" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E86"/>
+        <v>308</v>
+      </c>
       <c r="F86" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="I86" s="4"/>
+      <c r="O86" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="87" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E87"/>
       <c r="F87" s="8" t="s">
@@ -8267,2207 +8566,2251 @@
       <c r="G87" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="I87" s="4"/>
+      <c r="O87" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="88" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:1027" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="O88" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F89" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="H89" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I88" s="3"/>
-      <c r="N88" s="7" t="s">
+      <c r="I89" s="3"/>
+      <c r="N89" s="7" t="s">
         <v>321</v>
       </c>
+      <c r="O89" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="89" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
+    <row r="90" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D90" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="16" t="s">
+      <c r="E90" s="15"/>
+      <c r="F90" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G90" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="H89" s="16" t="s">
+      <c r="H90" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I90" s="22">
         <v>45138</v>
       </c>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
-      <c r="V89" s="15"/>
-      <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="15"/>
-      <c r="AA89" s="15"/>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="15"/>
-      <c r="AD89" s="15"/>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="15"/>
-      <c r="AN89" s="15"/>
-      <c r="AO89" s="15"/>
-      <c r="AP89" s="15"/>
-      <c r="AQ89" s="15"/>
-      <c r="AR89" s="15"/>
-      <c r="AS89" s="15"/>
-      <c r="AT89" s="15"/>
-      <c r="AU89" s="15"/>
-      <c r="AV89" s="15"/>
-      <c r="AW89" s="15"/>
-      <c r="AX89" s="15"/>
-      <c r="AY89" s="15"/>
-      <c r="AZ89" s="15"/>
-      <c r="BA89" s="15"/>
-      <c r="BB89" s="15"/>
-      <c r="BC89" s="15"/>
-      <c r="BD89" s="15"/>
-      <c r="BE89" s="15"/>
-      <c r="BF89" s="15"/>
-      <c r="BG89" s="15"/>
-      <c r="BH89" s="15"/>
-      <c r="BI89" s="15"/>
-      <c r="BJ89" s="15"/>
-      <c r="BK89" s="15"/>
-      <c r="BL89" s="15"/>
-      <c r="BM89" s="15"/>
-      <c r="BN89" s="15"/>
-      <c r="BO89" s="15"/>
-      <c r="BP89" s="15"/>
-      <c r="BQ89" s="15"/>
-      <c r="BR89" s="15"/>
-      <c r="BS89" s="15"/>
-      <c r="BT89" s="15"/>
-      <c r="BU89" s="15"/>
-      <c r="BV89" s="15"/>
-      <c r="BW89" s="15"/>
-      <c r="BX89" s="15"/>
-      <c r="BY89" s="15"/>
-      <c r="BZ89" s="15"/>
-      <c r="CA89" s="15"/>
-      <c r="CB89" s="15"/>
-      <c r="CC89" s="15"/>
-      <c r="CD89" s="15"/>
-      <c r="CE89" s="15"/>
-      <c r="CF89" s="15"/>
-      <c r="CG89" s="15"/>
-      <c r="CH89" s="15"/>
-      <c r="CI89" s="15"/>
-      <c r="CJ89" s="15"/>
-      <c r="CK89" s="15"/>
-      <c r="CL89" s="15"/>
-      <c r="CM89" s="15"/>
-      <c r="CN89" s="15"/>
-      <c r="CO89" s="15"/>
-      <c r="CP89" s="15"/>
-      <c r="CQ89" s="15"/>
-      <c r="CR89" s="15"/>
-      <c r="CS89" s="15"/>
-      <c r="CT89" s="15"/>
-      <c r="CU89" s="15"/>
-      <c r="CV89" s="15"/>
-      <c r="CW89" s="15"/>
-      <c r="CX89" s="15"/>
-      <c r="CY89" s="15"/>
-      <c r="CZ89" s="15"/>
-      <c r="DA89" s="15"/>
-      <c r="DB89" s="15"/>
-      <c r="DC89" s="15"/>
-      <c r="DD89" s="15"/>
-      <c r="DE89" s="15"/>
-      <c r="DF89" s="15"/>
-      <c r="DG89" s="15"/>
-      <c r="DH89" s="15"/>
-      <c r="DI89" s="15"/>
-      <c r="DJ89" s="15"/>
-      <c r="DK89" s="15"/>
-      <c r="DL89" s="15"/>
-      <c r="DM89" s="15"/>
-      <c r="DN89" s="15"/>
-      <c r="DO89" s="15"/>
-      <c r="DP89" s="15"/>
-      <c r="DQ89" s="15"/>
-      <c r="DR89" s="15"/>
-      <c r="DS89" s="15"/>
-      <c r="DT89" s="15"/>
-      <c r="DU89" s="15"/>
-      <c r="DV89" s="15"/>
-      <c r="DW89" s="15"/>
-      <c r="DX89" s="15"/>
-      <c r="DY89" s="15"/>
-      <c r="DZ89" s="15"/>
-      <c r="EA89" s="15"/>
-      <c r="EB89" s="15"/>
-      <c r="EC89" s="15"/>
-      <c r="ED89" s="15"/>
-      <c r="EE89" s="15"/>
-      <c r="EF89" s="15"/>
-      <c r="EG89" s="15"/>
-      <c r="EH89" s="15"/>
-      <c r="EI89" s="15"/>
-      <c r="EJ89" s="15"/>
-      <c r="EK89" s="15"/>
-      <c r="EL89" s="15"/>
-      <c r="EM89" s="15"/>
-      <c r="EN89" s="15"/>
-      <c r="EO89" s="15"/>
-      <c r="EP89" s="15"/>
-      <c r="EQ89" s="15"/>
-      <c r="ER89" s="15"/>
-      <c r="ES89" s="15"/>
-      <c r="ET89" s="15"/>
-      <c r="EU89" s="15"/>
-      <c r="EV89" s="15"/>
-      <c r="EW89" s="15"/>
-      <c r="EX89" s="15"/>
-      <c r="EY89" s="15"/>
-      <c r="EZ89" s="15"/>
-      <c r="FA89" s="15"/>
-      <c r="FB89" s="15"/>
-      <c r="FC89" s="15"/>
-      <c r="FD89" s="15"/>
-      <c r="FE89" s="15"/>
-      <c r="FF89" s="15"/>
-      <c r="FG89" s="15"/>
-      <c r="FH89" s="15"/>
-      <c r="FI89" s="15"/>
-      <c r="FJ89" s="15"/>
-      <c r="FK89" s="15"/>
-      <c r="FL89" s="15"/>
-      <c r="FM89" s="15"/>
-      <c r="FN89" s="15"/>
-      <c r="FO89" s="15"/>
-      <c r="FP89" s="15"/>
-      <c r="FQ89" s="15"/>
-      <c r="FR89" s="15"/>
-      <c r="FS89" s="15"/>
-      <c r="FT89" s="15"/>
-      <c r="FU89" s="15"/>
-      <c r="FV89" s="15"/>
-      <c r="FW89" s="15"/>
-      <c r="FX89" s="15"/>
-      <c r="FY89" s="15"/>
-      <c r="FZ89" s="15"/>
-      <c r="GA89" s="15"/>
-      <c r="GB89" s="15"/>
-      <c r="GC89" s="15"/>
-      <c r="GD89" s="15"/>
-      <c r="GE89" s="15"/>
-      <c r="GF89" s="15"/>
-      <c r="GG89" s="15"/>
-      <c r="GH89" s="15"/>
-      <c r="GI89" s="15"/>
-      <c r="GJ89" s="15"/>
-      <c r="GK89" s="15"/>
-      <c r="GL89" s="15"/>
-      <c r="GM89" s="15"/>
-      <c r="GN89" s="15"/>
-      <c r="GO89" s="15"/>
-      <c r="GP89" s="15"/>
-      <c r="GQ89" s="15"/>
-      <c r="GR89" s="15"/>
-      <c r="GS89" s="15"/>
-      <c r="GT89" s="15"/>
-      <c r="GU89" s="15"/>
-      <c r="GV89" s="15"/>
-      <c r="GW89" s="15"/>
-      <c r="GX89" s="15"/>
-      <c r="GY89" s="15"/>
-      <c r="GZ89" s="15"/>
-      <c r="HA89" s="15"/>
-      <c r="HB89" s="15"/>
-      <c r="HC89" s="15"/>
-      <c r="HD89" s="15"/>
-      <c r="HE89" s="15"/>
-      <c r="HF89" s="15"/>
-      <c r="HG89" s="15"/>
-      <c r="HH89" s="15"/>
-      <c r="HI89" s="15"/>
-      <c r="HJ89" s="15"/>
-      <c r="HK89" s="15"/>
-      <c r="HL89" s="15"/>
-      <c r="HM89" s="15"/>
-      <c r="HN89" s="15"/>
-      <c r="HO89" s="15"/>
-      <c r="HP89" s="15"/>
-      <c r="HQ89" s="15"/>
-      <c r="HR89" s="15"/>
-      <c r="HS89" s="15"/>
-      <c r="HT89" s="15"/>
-      <c r="HU89" s="15"/>
-      <c r="HV89" s="15"/>
-      <c r="HW89" s="15"/>
-      <c r="HX89" s="15"/>
-      <c r="HY89" s="15"/>
-      <c r="HZ89" s="15"/>
-      <c r="IA89" s="15"/>
-      <c r="IB89" s="15"/>
-      <c r="IC89" s="15"/>
-      <c r="ID89" s="15"/>
-      <c r="IE89" s="15"/>
-      <c r="IF89" s="15"/>
-      <c r="IG89" s="15"/>
-      <c r="IH89" s="15"/>
-      <c r="II89" s="15"/>
-      <c r="IJ89" s="15"/>
-      <c r="IK89" s="15"/>
-      <c r="IL89" s="15"/>
-      <c r="IM89" s="15"/>
-      <c r="IN89" s="15"/>
-      <c r="IO89" s="15"/>
-      <c r="IP89" s="15"/>
-      <c r="IQ89" s="15"/>
-      <c r="IR89" s="15"/>
-      <c r="IS89" s="15"/>
-      <c r="IT89" s="15"/>
-      <c r="IU89" s="15"/>
-      <c r="IV89" s="15"/>
-      <c r="IW89" s="15"/>
-      <c r="IX89" s="15"/>
-      <c r="IY89" s="15"/>
-      <c r="IZ89" s="15"/>
-      <c r="JA89" s="15"/>
-      <c r="JB89" s="15"/>
-      <c r="JC89" s="15"/>
-      <c r="JD89" s="15"/>
-      <c r="JE89" s="15"/>
-      <c r="JF89" s="15"/>
-      <c r="JG89" s="15"/>
-      <c r="JH89" s="15"/>
-      <c r="JI89" s="15"/>
-      <c r="JJ89" s="15"/>
-      <c r="JK89" s="15"/>
-      <c r="JL89" s="15"/>
-      <c r="JM89" s="15"/>
-      <c r="JN89" s="15"/>
-      <c r="JO89" s="15"/>
-      <c r="JP89" s="15"/>
-      <c r="JQ89" s="15"/>
-      <c r="JR89" s="15"/>
-      <c r="JS89" s="15"/>
-      <c r="JT89" s="15"/>
-      <c r="JU89" s="15"/>
-      <c r="JV89" s="15"/>
-      <c r="JW89" s="15"/>
-      <c r="JX89" s="15"/>
-      <c r="JY89" s="15"/>
-      <c r="JZ89" s="15"/>
-      <c r="KA89" s="15"/>
-      <c r="KB89" s="15"/>
-      <c r="KC89" s="15"/>
-      <c r="KD89" s="15"/>
-      <c r="KE89" s="15"/>
-      <c r="KF89" s="15"/>
-      <c r="KG89" s="15"/>
-      <c r="KH89" s="15"/>
-      <c r="KI89" s="15"/>
-      <c r="KJ89" s="15"/>
-      <c r="KK89" s="15"/>
-      <c r="KL89" s="15"/>
-      <c r="KM89" s="15"/>
-      <c r="KN89" s="15"/>
-      <c r="KO89" s="15"/>
-      <c r="KP89" s="15"/>
-      <c r="KQ89" s="15"/>
-      <c r="KR89" s="15"/>
-      <c r="KS89" s="15"/>
-      <c r="KT89" s="15"/>
-      <c r="KU89" s="15"/>
-      <c r="KV89" s="15"/>
-      <c r="KW89" s="15"/>
-      <c r="KX89" s="15"/>
-      <c r="KY89" s="15"/>
-      <c r="KZ89" s="15"/>
-      <c r="LA89" s="15"/>
-      <c r="LB89" s="15"/>
-      <c r="LC89" s="15"/>
-      <c r="LD89" s="15"/>
-      <c r="LE89" s="15"/>
-      <c r="LF89" s="15"/>
-      <c r="LG89" s="15"/>
-      <c r="LH89" s="15"/>
-      <c r="LI89" s="15"/>
-      <c r="LJ89" s="15"/>
-      <c r="LK89" s="15"/>
-      <c r="LL89" s="15"/>
-      <c r="LM89" s="15"/>
-      <c r="LN89" s="15"/>
-      <c r="LO89" s="15"/>
-      <c r="LP89" s="15"/>
-      <c r="LQ89" s="15"/>
-      <c r="LR89" s="15"/>
-      <c r="LS89" s="15"/>
-      <c r="LT89" s="15"/>
-      <c r="LU89" s="15"/>
-      <c r="LV89" s="15"/>
-      <c r="LW89" s="15"/>
-      <c r="LX89" s="15"/>
-      <c r="LY89" s="15"/>
-      <c r="LZ89" s="15"/>
-      <c r="MA89" s="15"/>
-      <c r="MB89" s="15"/>
-      <c r="MC89" s="15"/>
-      <c r="MD89" s="15"/>
-      <c r="ME89" s="15"/>
-      <c r="MF89" s="15"/>
-      <c r="MG89" s="15"/>
-      <c r="MH89" s="15"/>
-      <c r="MI89" s="15"/>
-      <c r="MJ89" s="15"/>
-      <c r="MK89" s="15"/>
-      <c r="ML89" s="15"/>
-      <c r="MM89" s="15"/>
-      <c r="MN89" s="15"/>
-      <c r="MO89" s="15"/>
-      <c r="MP89" s="15"/>
-      <c r="MQ89" s="15"/>
-      <c r="MR89" s="15"/>
-      <c r="MS89" s="15"/>
-      <c r="MT89" s="15"/>
-      <c r="MU89" s="15"/>
-      <c r="MV89" s="15"/>
-      <c r="MW89" s="15"/>
-      <c r="MX89" s="15"/>
-      <c r="MY89" s="15"/>
-      <c r="MZ89" s="15"/>
-      <c r="NA89" s="15"/>
-      <c r="NB89" s="15"/>
-      <c r="NC89" s="15"/>
-      <c r="ND89" s="15"/>
-      <c r="NE89" s="15"/>
-      <c r="NF89" s="15"/>
-      <c r="NG89" s="15"/>
-      <c r="NH89" s="15"/>
-      <c r="NI89" s="15"/>
-      <c r="NJ89" s="15"/>
-      <c r="NK89" s="15"/>
-      <c r="NL89" s="15"/>
-      <c r="NM89" s="15"/>
-      <c r="NN89" s="15"/>
-      <c r="NO89" s="15"/>
-      <c r="NP89" s="15"/>
-      <c r="NQ89" s="15"/>
-      <c r="NR89" s="15"/>
-      <c r="NS89" s="15"/>
-      <c r="NT89" s="15"/>
-      <c r="NU89" s="15"/>
-      <c r="NV89" s="15"/>
-      <c r="NW89" s="15"/>
-      <c r="NX89" s="15"/>
-      <c r="NY89" s="15"/>
-      <c r="NZ89" s="15"/>
-      <c r="OA89" s="15"/>
-      <c r="OB89" s="15"/>
-      <c r="OC89" s="15"/>
-      <c r="OD89" s="15"/>
-      <c r="OE89" s="15"/>
-      <c r="OF89" s="15"/>
-      <c r="OG89" s="15"/>
-      <c r="OH89" s="15"/>
-      <c r="OI89" s="15"/>
-      <c r="OJ89" s="15"/>
-      <c r="OK89" s="15"/>
-      <c r="OL89" s="15"/>
-      <c r="OM89" s="15"/>
-      <c r="ON89" s="15"/>
-      <c r="OO89" s="15"/>
-      <c r="OP89" s="15"/>
-      <c r="OQ89" s="15"/>
-      <c r="OR89" s="15"/>
-      <c r="OS89" s="15"/>
-      <c r="OT89" s="15"/>
-      <c r="OU89" s="15"/>
-      <c r="OV89" s="15"/>
-      <c r="OW89" s="15"/>
-      <c r="OX89" s="15"/>
-      <c r="OY89" s="15"/>
-      <c r="OZ89" s="15"/>
-      <c r="PA89" s="15"/>
-      <c r="PB89" s="15"/>
-      <c r="PC89" s="15"/>
-      <c r="PD89" s="15"/>
-      <c r="PE89" s="15"/>
-      <c r="PF89" s="15"/>
-      <c r="PG89" s="15"/>
-      <c r="PH89" s="15"/>
-      <c r="PI89" s="15"/>
-      <c r="PJ89" s="15"/>
-      <c r="PK89" s="15"/>
-      <c r="PL89" s="15"/>
-      <c r="PM89" s="15"/>
-      <c r="PN89" s="15"/>
-      <c r="PO89" s="15"/>
-      <c r="PP89" s="15"/>
-      <c r="PQ89" s="15"/>
-      <c r="PR89" s="15"/>
-      <c r="PS89" s="15"/>
-      <c r="PT89" s="15"/>
-      <c r="PU89" s="15"/>
-      <c r="PV89" s="15"/>
-      <c r="PW89" s="15"/>
-      <c r="PX89" s="15"/>
-      <c r="PY89" s="15"/>
-      <c r="PZ89" s="15"/>
-      <c r="QA89" s="15"/>
-      <c r="QB89" s="15"/>
-      <c r="QC89" s="15"/>
-      <c r="QD89" s="15"/>
-      <c r="QE89" s="15"/>
-      <c r="QF89" s="15"/>
-      <c r="QG89" s="15"/>
-      <c r="QH89" s="15"/>
-      <c r="QI89" s="15"/>
-      <c r="QJ89" s="15"/>
-      <c r="QK89" s="15"/>
-      <c r="QL89" s="15"/>
-      <c r="QM89" s="15"/>
-      <c r="QN89" s="15"/>
-      <c r="QO89" s="15"/>
-      <c r="QP89" s="15"/>
-      <c r="QQ89" s="15"/>
-      <c r="QR89" s="15"/>
-      <c r="QS89" s="15"/>
-      <c r="QT89" s="15"/>
-      <c r="QU89" s="15"/>
-      <c r="QV89" s="15"/>
-      <c r="QW89" s="15"/>
-      <c r="QX89" s="15"/>
-      <c r="QY89" s="15"/>
-      <c r="QZ89" s="15"/>
-      <c r="RA89" s="15"/>
-      <c r="RB89" s="15"/>
-      <c r="RC89" s="15"/>
-      <c r="RD89" s="15"/>
-      <c r="RE89" s="15"/>
-      <c r="RF89" s="15"/>
-      <c r="RG89" s="15"/>
-      <c r="RH89" s="15"/>
-      <c r="RI89" s="15"/>
-      <c r="RJ89" s="15"/>
-      <c r="RK89" s="15"/>
-      <c r="RL89" s="15"/>
-      <c r="RM89" s="15"/>
-      <c r="RN89" s="15"/>
-      <c r="RO89" s="15"/>
-      <c r="RP89" s="15"/>
-      <c r="RQ89" s="15"/>
-      <c r="RR89" s="15"/>
-      <c r="RS89" s="15"/>
-      <c r="RT89" s="15"/>
-      <c r="RU89" s="15"/>
-      <c r="RV89" s="15"/>
-      <c r="RW89" s="15"/>
-      <c r="RX89" s="15"/>
-      <c r="RY89" s="15"/>
-      <c r="RZ89" s="15"/>
-      <c r="SA89" s="15"/>
-      <c r="SB89" s="15"/>
-      <c r="SC89" s="15"/>
-      <c r="SD89" s="15"/>
-      <c r="SE89" s="15"/>
-      <c r="SF89" s="15"/>
-      <c r="SG89" s="15"/>
-      <c r="SH89" s="15"/>
-      <c r="SI89" s="15"/>
-      <c r="SJ89" s="15"/>
-      <c r="SK89" s="15"/>
-      <c r="SL89" s="15"/>
-      <c r="SM89" s="15"/>
-      <c r="SN89" s="15"/>
-      <c r="SO89" s="15"/>
-      <c r="SP89" s="15"/>
-      <c r="SQ89" s="15"/>
-      <c r="SR89" s="15"/>
-      <c r="SS89" s="15"/>
-      <c r="ST89" s="15"/>
-      <c r="SU89" s="15"/>
-      <c r="SV89" s="15"/>
-      <c r="SW89" s="15"/>
-      <c r="SX89" s="15"/>
-      <c r="SY89" s="15"/>
-      <c r="SZ89" s="15"/>
-      <c r="TA89" s="15"/>
-      <c r="TB89" s="15"/>
-      <c r="TC89" s="15"/>
-      <c r="TD89" s="15"/>
-      <c r="TE89" s="15"/>
-      <c r="TF89" s="15"/>
-      <c r="TG89" s="15"/>
-      <c r="TH89" s="15"/>
-      <c r="TI89" s="15"/>
-      <c r="TJ89" s="15"/>
-      <c r="TK89" s="15"/>
-      <c r="TL89" s="15"/>
-      <c r="TM89" s="15"/>
-      <c r="TN89" s="15"/>
-      <c r="TO89" s="15"/>
-      <c r="TP89" s="15"/>
-      <c r="TQ89" s="15"/>
-      <c r="TR89" s="15"/>
-      <c r="TS89" s="15"/>
-      <c r="TT89" s="15"/>
-      <c r="TU89" s="15"/>
-      <c r="TV89" s="15"/>
-      <c r="TW89" s="15"/>
-      <c r="TX89" s="15"/>
-      <c r="TY89" s="15"/>
-      <c r="TZ89" s="15"/>
-      <c r="UA89" s="15"/>
-      <c r="UB89" s="15"/>
-      <c r="UC89" s="15"/>
-      <c r="UD89" s="15"/>
-      <c r="UE89" s="15"/>
-      <c r="UF89" s="15"/>
-      <c r="UG89" s="15"/>
-      <c r="UH89" s="15"/>
-      <c r="UI89" s="15"/>
-      <c r="UJ89" s="15"/>
-      <c r="UK89" s="15"/>
-      <c r="UL89" s="15"/>
-      <c r="UM89" s="15"/>
-      <c r="UN89" s="15"/>
-      <c r="UO89" s="15"/>
-      <c r="UP89" s="15"/>
-      <c r="UQ89" s="15"/>
-      <c r="UR89" s="15"/>
-      <c r="US89" s="15"/>
-      <c r="UT89" s="15"/>
-      <c r="UU89" s="15"/>
-      <c r="UV89" s="15"/>
-      <c r="UW89" s="15"/>
-      <c r="UX89" s="15"/>
-      <c r="UY89" s="15"/>
-      <c r="UZ89" s="15"/>
-      <c r="VA89" s="15"/>
-      <c r="VB89" s="15"/>
-      <c r="VC89" s="15"/>
-      <c r="VD89" s="15"/>
-      <c r="VE89" s="15"/>
-      <c r="VF89" s="15"/>
-      <c r="VG89" s="15"/>
-      <c r="VH89" s="15"/>
-      <c r="VI89" s="15"/>
-      <c r="VJ89" s="15"/>
-      <c r="VK89" s="15"/>
-      <c r="VL89" s="15"/>
-      <c r="VM89" s="15"/>
-      <c r="VN89" s="15"/>
-      <c r="VO89" s="15"/>
-      <c r="VP89" s="15"/>
-      <c r="VQ89" s="15"/>
-      <c r="VR89" s="15"/>
-      <c r="VS89" s="15"/>
-      <c r="VT89" s="15"/>
-      <c r="VU89" s="15"/>
-      <c r="VV89" s="15"/>
-      <c r="VW89" s="15"/>
-      <c r="VX89" s="15"/>
-      <c r="VY89" s="15"/>
-      <c r="VZ89" s="15"/>
-      <c r="WA89" s="15"/>
-      <c r="WB89" s="15"/>
-      <c r="WC89" s="15"/>
-      <c r="WD89" s="15"/>
-      <c r="WE89" s="15"/>
-      <c r="WF89" s="15"/>
-      <c r="WG89" s="15"/>
-      <c r="WH89" s="15"/>
-      <c r="WI89" s="15"/>
-      <c r="WJ89" s="15"/>
-      <c r="WK89" s="15"/>
-      <c r="WL89" s="15"/>
-      <c r="WM89" s="15"/>
-      <c r="WN89" s="15"/>
-      <c r="WO89" s="15"/>
-      <c r="WP89" s="15"/>
-      <c r="WQ89" s="15"/>
-      <c r="WR89" s="15"/>
-      <c r="WS89" s="15"/>
-      <c r="WT89" s="15"/>
-      <c r="WU89" s="15"/>
-      <c r="WV89" s="15"/>
-      <c r="WW89" s="15"/>
-      <c r="WX89" s="15"/>
-      <c r="WY89" s="15"/>
-      <c r="WZ89" s="15"/>
-      <c r="XA89" s="15"/>
-      <c r="XB89" s="15"/>
-      <c r="XC89" s="15"/>
-      <c r="XD89" s="15"/>
-      <c r="XE89" s="15"/>
-      <c r="XF89" s="15"/>
-      <c r="XG89" s="15"/>
-      <c r="XH89" s="15"/>
-      <c r="XI89" s="15"/>
-      <c r="XJ89" s="15"/>
-      <c r="XK89" s="15"/>
-      <c r="XL89" s="15"/>
-      <c r="XM89" s="15"/>
-      <c r="XN89" s="15"/>
-      <c r="XO89" s="15"/>
-      <c r="XP89" s="15"/>
-      <c r="XQ89" s="15"/>
-      <c r="XR89" s="15"/>
-      <c r="XS89" s="15"/>
-      <c r="XT89" s="15"/>
-      <c r="XU89" s="15"/>
-      <c r="XV89" s="15"/>
-      <c r="XW89" s="15"/>
-      <c r="XX89" s="15"/>
-      <c r="XY89" s="15"/>
-      <c r="XZ89" s="15"/>
-      <c r="YA89" s="15"/>
-      <c r="YB89" s="15"/>
-      <c r="YC89" s="15"/>
-      <c r="YD89" s="15"/>
-      <c r="YE89" s="15"/>
-      <c r="YF89" s="15"/>
-      <c r="YG89" s="15"/>
-      <c r="YH89" s="15"/>
-      <c r="YI89" s="15"/>
-      <c r="YJ89" s="15"/>
-      <c r="YK89" s="15"/>
-      <c r="YL89" s="15"/>
-      <c r="YM89" s="15"/>
-      <c r="YN89" s="15"/>
-      <c r="YO89" s="15"/>
-      <c r="YP89" s="15"/>
-      <c r="YQ89" s="15"/>
-      <c r="YR89" s="15"/>
-      <c r="YS89" s="15"/>
-      <c r="YT89" s="15"/>
-      <c r="YU89" s="15"/>
-      <c r="YV89" s="15"/>
-      <c r="YW89" s="15"/>
-      <c r="YX89" s="15"/>
-      <c r="YY89" s="15"/>
-      <c r="YZ89" s="15"/>
-      <c r="ZA89" s="15"/>
-      <c r="ZB89" s="15"/>
-      <c r="ZC89" s="15"/>
-      <c r="ZD89" s="15"/>
-      <c r="ZE89" s="15"/>
-      <c r="ZF89" s="15"/>
-      <c r="ZG89" s="15"/>
-      <c r="ZH89" s="15"/>
-      <c r="ZI89" s="15"/>
-      <c r="ZJ89" s="15"/>
-      <c r="ZK89" s="15"/>
-      <c r="ZL89" s="15"/>
-      <c r="ZM89" s="15"/>
-      <c r="ZN89" s="15"/>
-      <c r="ZO89" s="15"/>
-      <c r="ZP89" s="15"/>
-      <c r="ZQ89" s="15"/>
-      <c r="ZR89" s="15"/>
-      <c r="ZS89" s="15"/>
-      <c r="ZT89" s="15"/>
-      <c r="ZU89" s="15"/>
-      <c r="ZV89" s="15"/>
-      <c r="ZW89" s="15"/>
-      <c r="ZX89" s="15"/>
-      <c r="ZY89" s="15"/>
-      <c r="ZZ89" s="15"/>
-      <c r="AAA89" s="15"/>
-      <c r="AAB89" s="15"/>
-      <c r="AAC89" s="15"/>
-      <c r="AAD89" s="15"/>
-      <c r="AAE89" s="15"/>
-      <c r="AAF89" s="15"/>
-      <c r="AAG89" s="15"/>
-      <c r="AAH89" s="15"/>
-      <c r="AAI89" s="15"/>
-      <c r="AAJ89" s="15"/>
-      <c r="AAK89" s="15"/>
-      <c r="AAL89" s="15"/>
-      <c r="AAM89" s="15"/>
-      <c r="AAN89" s="15"/>
-      <c r="AAO89" s="15"/>
-      <c r="AAP89" s="15"/>
-      <c r="AAQ89" s="15"/>
-      <c r="AAR89" s="15"/>
-      <c r="AAS89" s="15"/>
-      <c r="AAT89" s="15"/>
-      <c r="AAU89" s="15"/>
-      <c r="AAV89" s="15"/>
-      <c r="AAW89" s="15"/>
-      <c r="AAX89" s="15"/>
-      <c r="AAY89" s="15"/>
-      <c r="AAZ89" s="15"/>
-      <c r="ABA89" s="15"/>
-      <c r="ABB89" s="15"/>
-      <c r="ABC89" s="15"/>
-      <c r="ABD89" s="15"/>
-      <c r="ABE89" s="15"/>
-      <c r="ABF89" s="15"/>
-      <c r="ABG89" s="15"/>
-      <c r="ABH89" s="15"/>
-      <c r="ABI89" s="15"/>
-      <c r="ABJ89" s="15"/>
-      <c r="ABK89" s="15"/>
-      <c r="ABL89" s="15"/>
-      <c r="ABM89" s="15"/>
-      <c r="ABN89" s="15"/>
-      <c r="ABO89" s="15"/>
-      <c r="ABP89" s="15"/>
-      <c r="ABQ89" s="15"/>
-      <c r="ABR89" s="15"/>
-      <c r="ABS89" s="15"/>
-      <c r="ABT89" s="15"/>
-      <c r="ABU89" s="15"/>
-      <c r="ABV89" s="15"/>
-      <c r="ABW89" s="15"/>
-      <c r="ABX89" s="15"/>
-      <c r="ABY89" s="15"/>
-      <c r="ABZ89" s="15"/>
-      <c r="ACA89" s="15"/>
-      <c r="ACB89" s="15"/>
-      <c r="ACC89" s="15"/>
-      <c r="ACD89" s="15"/>
-      <c r="ACE89" s="15"/>
-      <c r="ACF89" s="15"/>
-      <c r="ACG89" s="15"/>
-      <c r="ACH89" s="15"/>
-      <c r="ACI89" s="15"/>
-      <c r="ACJ89" s="15"/>
-      <c r="ACK89" s="15"/>
-      <c r="ACL89" s="15"/>
-      <c r="ACM89" s="15"/>
-      <c r="ACN89" s="15"/>
-      <c r="ACO89" s="15"/>
-      <c r="ACP89" s="15"/>
-      <c r="ACQ89" s="15"/>
-      <c r="ACR89" s="15"/>
-      <c r="ACS89" s="15"/>
-      <c r="ACT89" s="15"/>
-      <c r="ACU89" s="15"/>
-      <c r="ACV89" s="15"/>
-      <c r="ACW89" s="15"/>
-      <c r="ACX89" s="15"/>
-      <c r="ACY89" s="15"/>
-      <c r="ACZ89" s="15"/>
-      <c r="ADA89" s="15"/>
-      <c r="ADB89" s="15"/>
-      <c r="ADC89" s="15"/>
-      <c r="ADD89" s="15"/>
-      <c r="ADE89" s="15"/>
-      <c r="ADF89" s="15"/>
-      <c r="ADG89" s="15"/>
-      <c r="ADH89" s="15"/>
-      <c r="ADI89" s="15"/>
-      <c r="ADJ89" s="15"/>
-      <c r="ADK89" s="15"/>
-      <c r="ADL89" s="15"/>
-      <c r="ADM89" s="15"/>
-      <c r="ADN89" s="15"/>
-      <c r="ADO89" s="15"/>
-      <c r="ADP89" s="15"/>
-      <c r="ADQ89" s="15"/>
-      <c r="ADR89" s="15"/>
-      <c r="ADS89" s="15"/>
-      <c r="ADT89" s="15"/>
-      <c r="ADU89" s="15"/>
-      <c r="ADV89" s="15"/>
-      <c r="ADW89" s="15"/>
-      <c r="ADX89" s="15"/>
-      <c r="ADY89" s="15"/>
-      <c r="ADZ89" s="15"/>
-      <c r="AEA89" s="15"/>
-      <c r="AEB89" s="15"/>
-      <c r="AEC89" s="15"/>
-      <c r="AED89" s="15"/>
-      <c r="AEE89" s="15"/>
-      <c r="AEF89" s="15"/>
-      <c r="AEG89" s="15"/>
-      <c r="AEH89" s="15"/>
-      <c r="AEI89" s="15"/>
-      <c r="AEJ89" s="15"/>
-      <c r="AEK89" s="15"/>
-      <c r="AEL89" s="15"/>
-      <c r="AEM89" s="15"/>
-      <c r="AEN89" s="15"/>
-      <c r="AEO89" s="15"/>
-      <c r="AEP89" s="15"/>
-      <c r="AEQ89" s="15"/>
-      <c r="AER89" s="15"/>
-      <c r="AES89" s="15"/>
-      <c r="AET89" s="15"/>
-      <c r="AEU89" s="15"/>
-      <c r="AEV89" s="15"/>
-      <c r="AEW89" s="15"/>
-      <c r="AEX89" s="15"/>
-      <c r="AEY89" s="15"/>
-      <c r="AEZ89" s="15"/>
-      <c r="AFA89" s="15"/>
-      <c r="AFB89" s="15"/>
-      <c r="AFC89" s="15"/>
-      <c r="AFD89" s="15"/>
-      <c r="AFE89" s="15"/>
-      <c r="AFF89" s="15"/>
-      <c r="AFG89" s="15"/>
-      <c r="AFH89" s="15"/>
-      <c r="AFI89" s="15"/>
-      <c r="AFJ89" s="15"/>
-      <c r="AFK89" s="15"/>
-      <c r="AFL89" s="15"/>
-      <c r="AFM89" s="15"/>
-      <c r="AFN89" s="15"/>
-      <c r="AFO89" s="15"/>
-      <c r="AFP89" s="15"/>
-      <c r="AFQ89" s="15"/>
-      <c r="AFR89" s="15"/>
-      <c r="AFS89" s="15"/>
-      <c r="AFT89" s="15"/>
-      <c r="AFU89" s="15"/>
-      <c r="AFV89" s="15"/>
-      <c r="AFW89" s="15"/>
-      <c r="AFX89" s="15"/>
-      <c r="AFY89" s="15"/>
-      <c r="AFZ89" s="15"/>
-      <c r="AGA89" s="15"/>
-      <c r="AGB89" s="15"/>
-      <c r="AGC89" s="15"/>
-      <c r="AGD89" s="15"/>
-      <c r="AGE89" s="15"/>
-      <c r="AGF89" s="15"/>
-      <c r="AGG89" s="15"/>
-      <c r="AGH89" s="15"/>
-      <c r="AGI89" s="15"/>
-      <c r="AGJ89" s="15"/>
-      <c r="AGK89" s="15"/>
-      <c r="AGL89" s="15"/>
-      <c r="AGM89" s="15"/>
-      <c r="AGN89" s="15"/>
-      <c r="AGO89" s="15"/>
-      <c r="AGP89" s="15"/>
-      <c r="AGQ89" s="15"/>
-      <c r="AGR89" s="15"/>
-      <c r="AGS89" s="15"/>
-      <c r="AGT89" s="15"/>
-      <c r="AGU89" s="15"/>
-      <c r="AGV89" s="15"/>
-      <c r="AGW89" s="15"/>
-      <c r="AGX89" s="15"/>
-      <c r="AGY89" s="15"/>
-      <c r="AGZ89" s="15"/>
-      <c r="AHA89" s="15"/>
-      <c r="AHB89" s="15"/>
-      <c r="AHC89" s="15"/>
-      <c r="AHD89" s="15"/>
-      <c r="AHE89" s="15"/>
-      <c r="AHF89" s="15"/>
-      <c r="AHG89" s="15"/>
-      <c r="AHH89" s="15"/>
-      <c r="AHI89" s="15"/>
-      <c r="AHJ89" s="15"/>
-      <c r="AHK89" s="15"/>
-      <c r="AHL89" s="15"/>
-      <c r="AHM89" s="15"/>
-      <c r="AHN89" s="15"/>
-      <c r="AHO89" s="15"/>
-      <c r="AHP89" s="15"/>
-      <c r="AHQ89" s="15"/>
-      <c r="AHR89" s="15"/>
-      <c r="AHS89" s="15"/>
-      <c r="AHT89" s="15"/>
-      <c r="AHU89" s="15"/>
-      <c r="AHV89" s="15"/>
-      <c r="AHW89" s="15"/>
-      <c r="AHX89" s="15"/>
-      <c r="AHY89" s="15"/>
-      <c r="AHZ89" s="15"/>
-      <c r="AIA89" s="15"/>
-      <c r="AIB89" s="15"/>
-      <c r="AIC89" s="15"/>
-      <c r="AID89" s="15"/>
-      <c r="AIE89" s="15"/>
-      <c r="AIF89" s="15"/>
-      <c r="AIG89" s="15"/>
-      <c r="AIH89" s="15"/>
-      <c r="AII89" s="15"/>
-      <c r="AIJ89" s="15"/>
-      <c r="AIK89" s="15"/>
-      <c r="AIL89" s="15"/>
-      <c r="AIM89" s="15"/>
-      <c r="AIN89" s="15"/>
-      <c r="AIO89" s="15"/>
-      <c r="AIP89" s="15"/>
-      <c r="AIQ89" s="15"/>
-      <c r="AIR89" s="15"/>
-      <c r="AIS89" s="15"/>
-      <c r="AIT89" s="15"/>
-      <c r="AIU89" s="15"/>
-      <c r="AIV89" s="15"/>
-      <c r="AIW89" s="15"/>
-      <c r="AIX89" s="15"/>
-      <c r="AIY89" s="15"/>
-      <c r="AIZ89" s="15"/>
-      <c r="AJA89" s="15"/>
-      <c r="AJB89" s="15"/>
-      <c r="AJC89" s="15"/>
-      <c r="AJD89" s="15"/>
-      <c r="AJE89" s="15"/>
-      <c r="AJF89" s="15"/>
-      <c r="AJG89" s="15"/>
-      <c r="AJH89" s="15"/>
-      <c r="AJI89" s="15"/>
-      <c r="AJJ89" s="15"/>
-      <c r="AJK89" s="15"/>
-      <c r="AJL89" s="15"/>
-      <c r="AJM89" s="15"/>
-      <c r="AJN89" s="15"/>
-      <c r="AJO89" s="15"/>
-      <c r="AJP89" s="15"/>
-      <c r="AJQ89" s="15"/>
-      <c r="AJR89" s="15"/>
-      <c r="AJS89" s="15"/>
-      <c r="AJT89" s="15"/>
-      <c r="AJU89" s="15"/>
-      <c r="AJV89" s="15"/>
-      <c r="AJW89" s="15"/>
-      <c r="AJX89" s="15"/>
-      <c r="AJY89" s="15"/>
-      <c r="AJZ89" s="15"/>
-      <c r="AKA89" s="15"/>
-      <c r="AKB89" s="15"/>
-      <c r="AKC89" s="15"/>
-      <c r="AKD89" s="15"/>
-      <c r="AKE89" s="15"/>
-      <c r="AKF89" s="15"/>
-      <c r="AKG89" s="15"/>
-      <c r="AKH89" s="15"/>
-      <c r="AKI89" s="15"/>
-      <c r="AKJ89" s="15"/>
-      <c r="AKK89" s="15"/>
-      <c r="AKL89" s="15"/>
-      <c r="AKM89" s="15"/>
-      <c r="AKN89" s="15"/>
-      <c r="AKO89" s="15"/>
-      <c r="AKP89" s="15"/>
-      <c r="AKQ89" s="15"/>
-      <c r="AKR89" s="15"/>
-      <c r="AKS89" s="15"/>
-      <c r="AKT89" s="15"/>
-      <c r="AKU89" s="15"/>
-      <c r="AKV89" s="15"/>
-      <c r="AKW89" s="15"/>
-      <c r="AKX89" s="15"/>
-      <c r="AKY89" s="15"/>
-      <c r="AKZ89" s="15"/>
-      <c r="ALA89" s="15"/>
-      <c r="ALB89" s="15"/>
-      <c r="ALC89" s="15"/>
-      <c r="ALD89" s="15"/>
-      <c r="ALE89" s="15"/>
-      <c r="ALF89" s="15"/>
-      <c r="ALG89" s="15"/>
-      <c r="ALH89" s="15"/>
-      <c r="ALI89" s="15"/>
-      <c r="ALJ89" s="15"/>
-      <c r="ALK89" s="15"/>
-      <c r="ALL89" s="15"/>
-      <c r="ALM89" s="15"/>
-      <c r="ALN89" s="15"/>
-      <c r="ALO89" s="15"/>
-      <c r="ALP89" s="15"/>
-      <c r="ALQ89" s="15"/>
-      <c r="ALR89" s="15"/>
-      <c r="ALS89" s="15"/>
-      <c r="ALT89" s="15"/>
-      <c r="ALU89" s="15"/>
-      <c r="ALV89" s="15"/>
-      <c r="ALW89" s="15"/>
-      <c r="ALX89" s="15"/>
-      <c r="ALY89" s="15"/>
-      <c r="ALZ89" s="15"/>
-      <c r="AMA89" s="15"/>
-      <c r="AMB89" s="15"/>
-      <c r="AMC89" s="15"/>
-      <c r="AMD89" s="15"/>
-      <c r="AME89" s="15"/>
-      <c r="AMF89" s="15"/>
-      <c r="AMG89" s="15"/>
-      <c r="AMH89" s="15"/>
-      <c r="AMI89" s="15"/>
-      <c r="AMJ89" s="15"/>
-      <c r="AMK89" s="15"/>
-      <c r="AML89" s="15"/>
-      <c r="AMM89" s="15"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="15"/>
+      <c r="AN90" s="15"/>
+      <c r="AO90" s="15"/>
+      <c r="AP90" s="15"/>
+      <c r="AQ90" s="15"/>
+      <c r="AR90" s="15"/>
+      <c r="AS90" s="15"/>
+      <c r="AT90" s="15"/>
+      <c r="AU90" s="15"/>
+      <c r="AV90" s="15"/>
+      <c r="AW90" s="15"/>
+      <c r="AX90" s="15"/>
+      <c r="AY90" s="15"/>
+      <c r="AZ90" s="15"/>
+      <c r="BA90" s="15"/>
+      <c r="BB90" s="15"/>
+      <c r="BC90" s="15"/>
+      <c r="BD90" s="15"/>
+      <c r="BE90" s="15"/>
+      <c r="BF90" s="15"/>
+      <c r="BG90" s="15"/>
+      <c r="BH90" s="15"/>
+      <c r="BI90" s="15"/>
+      <c r="BJ90" s="15"/>
+      <c r="BK90" s="15"/>
+      <c r="BL90" s="15"/>
+      <c r="BM90" s="15"/>
+      <c r="BN90" s="15"/>
+      <c r="BO90" s="15"/>
+      <c r="BP90" s="15"/>
+      <c r="BQ90" s="15"/>
+      <c r="BR90" s="15"/>
+      <c r="BS90" s="15"/>
+      <c r="BT90" s="15"/>
+      <c r="BU90" s="15"/>
+      <c r="BV90" s="15"/>
+      <c r="BW90" s="15"/>
+      <c r="BX90" s="15"/>
+      <c r="BY90" s="15"/>
+      <c r="BZ90" s="15"/>
+      <c r="CA90" s="15"/>
+      <c r="CB90" s="15"/>
+      <c r="CC90" s="15"/>
+      <c r="CD90" s="15"/>
+      <c r="CE90" s="15"/>
+      <c r="CF90" s="15"/>
+      <c r="CG90" s="15"/>
+      <c r="CH90" s="15"/>
+      <c r="CI90" s="15"/>
+      <c r="CJ90" s="15"/>
+      <c r="CK90" s="15"/>
+      <c r="CL90" s="15"/>
+      <c r="CM90" s="15"/>
+      <c r="CN90" s="15"/>
+      <c r="CO90" s="15"/>
+      <c r="CP90" s="15"/>
+      <c r="CQ90" s="15"/>
+      <c r="CR90" s="15"/>
+      <c r="CS90" s="15"/>
+      <c r="CT90" s="15"/>
+      <c r="CU90" s="15"/>
+      <c r="CV90" s="15"/>
+      <c r="CW90" s="15"/>
+      <c r="CX90" s="15"/>
+      <c r="CY90" s="15"/>
+      <c r="CZ90" s="15"/>
+      <c r="DA90" s="15"/>
+      <c r="DB90" s="15"/>
+      <c r="DC90" s="15"/>
+      <c r="DD90" s="15"/>
+      <c r="DE90" s="15"/>
+      <c r="DF90" s="15"/>
+      <c r="DG90" s="15"/>
+      <c r="DH90" s="15"/>
+      <c r="DI90" s="15"/>
+      <c r="DJ90" s="15"/>
+      <c r="DK90" s="15"/>
+      <c r="DL90" s="15"/>
+      <c r="DM90" s="15"/>
+      <c r="DN90" s="15"/>
+      <c r="DO90" s="15"/>
+      <c r="DP90" s="15"/>
+      <c r="DQ90" s="15"/>
+      <c r="DR90" s="15"/>
+      <c r="DS90" s="15"/>
+      <c r="DT90" s="15"/>
+      <c r="DU90" s="15"/>
+      <c r="DV90" s="15"/>
+      <c r="DW90" s="15"/>
+      <c r="DX90" s="15"/>
+      <c r="DY90" s="15"/>
+      <c r="DZ90" s="15"/>
+      <c r="EA90" s="15"/>
+      <c r="EB90" s="15"/>
+      <c r="EC90" s="15"/>
+      <c r="ED90" s="15"/>
+      <c r="EE90" s="15"/>
+      <c r="EF90" s="15"/>
+      <c r="EG90" s="15"/>
+      <c r="EH90" s="15"/>
+      <c r="EI90" s="15"/>
+      <c r="EJ90" s="15"/>
+      <c r="EK90" s="15"/>
+      <c r="EL90" s="15"/>
+      <c r="EM90" s="15"/>
+      <c r="EN90" s="15"/>
+      <c r="EO90" s="15"/>
+      <c r="EP90" s="15"/>
+      <c r="EQ90" s="15"/>
+      <c r="ER90" s="15"/>
+      <c r="ES90" s="15"/>
+      <c r="ET90" s="15"/>
+      <c r="EU90" s="15"/>
+      <c r="EV90" s="15"/>
+      <c r="EW90" s="15"/>
+      <c r="EX90" s="15"/>
+      <c r="EY90" s="15"/>
+      <c r="EZ90" s="15"/>
+      <c r="FA90" s="15"/>
+      <c r="FB90" s="15"/>
+      <c r="FC90" s="15"/>
+      <c r="FD90" s="15"/>
+      <c r="FE90" s="15"/>
+      <c r="FF90" s="15"/>
+      <c r="FG90" s="15"/>
+      <c r="FH90" s="15"/>
+      <c r="FI90" s="15"/>
+      <c r="FJ90" s="15"/>
+      <c r="FK90" s="15"/>
+      <c r="FL90" s="15"/>
+      <c r="FM90" s="15"/>
+      <c r="FN90" s="15"/>
+      <c r="FO90" s="15"/>
+      <c r="FP90" s="15"/>
+      <c r="FQ90" s="15"/>
+      <c r="FR90" s="15"/>
+      <c r="FS90" s="15"/>
+      <c r="FT90" s="15"/>
+      <c r="FU90" s="15"/>
+      <c r="FV90" s="15"/>
+      <c r="FW90" s="15"/>
+      <c r="FX90" s="15"/>
+      <c r="FY90" s="15"/>
+      <c r="FZ90" s="15"/>
+      <c r="GA90" s="15"/>
+      <c r="GB90" s="15"/>
+      <c r="GC90" s="15"/>
+      <c r="GD90" s="15"/>
+      <c r="GE90" s="15"/>
+      <c r="GF90" s="15"/>
+      <c r="GG90" s="15"/>
+      <c r="GH90" s="15"/>
+      <c r="GI90" s="15"/>
+      <c r="GJ90" s="15"/>
+      <c r="GK90" s="15"/>
+      <c r="GL90" s="15"/>
+      <c r="GM90" s="15"/>
+      <c r="GN90" s="15"/>
+      <c r="GO90" s="15"/>
+      <c r="GP90" s="15"/>
+      <c r="GQ90" s="15"/>
+      <c r="GR90" s="15"/>
+      <c r="GS90" s="15"/>
+      <c r="GT90" s="15"/>
+      <c r="GU90" s="15"/>
+      <c r="GV90" s="15"/>
+      <c r="GW90" s="15"/>
+      <c r="GX90" s="15"/>
+      <c r="GY90" s="15"/>
+      <c r="GZ90" s="15"/>
+      <c r="HA90" s="15"/>
+      <c r="HB90" s="15"/>
+      <c r="HC90" s="15"/>
+      <c r="HD90" s="15"/>
+      <c r="HE90" s="15"/>
+      <c r="HF90" s="15"/>
+      <c r="HG90" s="15"/>
+      <c r="HH90" s="15"/>
+      <c r="HI90" s="15"/>
+      <c r="HJ90" s="15"/>
+      <c r="HK90" s="15"/>
+      <c r="HL90" s="15"/>
+      <c r="HM90" s="15"/>
+      <c r="HN90" s="15"/>
+      <c r="HO90" s="15"/>
+      <c r="HP90" s="15"/>
+      <c r="HQ90" s="15"/>
+      <c r="HR90" s="15"/>
+      <c r="HS90" s="15"/>
+      <c r="HT90" s="15"/>
+      <c r="HU90" s="15"/>
+      <c r="HV90" s="15"/>
+      <c r="HW90" s="15"/>
+      <c r="HX90" s="15"/>
+      <c r="HY90" s="15"/>
+      <c r="HZ90" s="15"/>
+      <c r="IA90" s="15"/>
+      <c r="IB90" s="15"/>
+      <c r="IC90" s="15"/>
+      <c r="ID90" s="15"/>
+      <c r="IE90" s="15"/>
+      <c r="IF90" s="15"/>
+      <c r="IG90" s="15"/>
+      <c r="IH90" s="15"/>
+      <c r="II90" s="15"/>
+      <c r="IJ90" s="15"/>
+      <c r="IK90" s="15"/>
+      <c r="IL90" s="15"/>
+      <c r="IM90" s="15"/>
+      <c r="IN90" s="15"/>
+      <c r="IO90" s="15"/>
+      <c r="IP90" s="15"/>
+      <c r="IQ90" s="15"/>
+      <c r="IR90" s="15"/>
+      <c r="IS90" s="15"/>
+      <c r="IT90" s="15"/>
+      <c r="IU90" s="15"/>
+      <c r="IV90" s="15"/>
+      <c r="IW90" s="15"/>
+      <c r="IX90" s="15"/>
+      <c r="IY90" s="15"/>
+      <c r="IZ90" s="15"/>
+      <c r="JA90" s="15"/>
+      <c r="JB90" s="15"/>
+      <c r="JC90" s="15"/>
+      <c r="JD90" s="15"/>
+      <c r="JE90" s="15"/>
+      <c r="JF90" s="15"/>
+      <c r="JG90" s="15"/>
+      <c r="JH90" s="15"/>
+      <c r="JI90" s="15"/>
+      <c r="JJ90" s="15"/>
+      <c r="JK90" s="15"/>
+      <c r="JL90" s="15"/>
+      <c r="JM90" s="15"/>
+      <c r="JN90" s="15"/>
+      <c r="JO90" s="15"/>
+      <c r="JP90" s="15"/>
+      <c r="JQ90" s="15"/>
+      <c r="JR90" s="15"/>
+      <c r="JS90" s="15"/>
+      <c r="JT90" s="15"/>
+      <c r="JU90" s="15"/>
+      <c r="JV90" s="15"/>
+      <c r="JW90" s="15"/>
+      <c r="JX90" s="15"/>
+      <c r="JY90" s="15"/>
+      <c r="JZ90" s="15"/>
+      <c r="KA90" s="15"/>
+      <c r="KB90" s="15"/>
+      <c r="KC90" s="15"/>
+      <c r="KD90" s="15"/>
+      <c r="KE90" s="15"/>
+      <c r="KF90" s="15"/>
+      <c r="KG90" s="15"/>
+      <c r="KH90" s="15"/>
+      <c r="KI90" s="15"/>
+      <c r="KJ90" s="15"/>
+      <c r="KK90" s="15"/>
+      <c r="KL90" s="15"/>
+      <c r="KM90" s="15"/>
+      <c r="KN90" s="15"/>
+      <c r="KO90" s="15"/>
+      <c r="KP90" s="15"/>
+      <c r="KQ90" s="15"/>
+      <c r="KR90" s="15"/>
+      <c r="KS90" s="15"/>
+      <c r="KT90" s="15"/>
+      <c r="KU90" s="15"/>
+      <c r="KV90" s="15"/>
+      <c r="KW90" s="15"/>
+      <c r="KX90" s="15"/>
+      <c r="KY90" s="15"/>
+      <c r="KZ90" s="15"/>
+      <c r="LA90" s="15"/>
+      <c r="LB90" s="15"/>
+      <c r="LC90" s="15"/>
+      <c r="LD90" s="15"/>
+      <c r="LE90" s="15"/>
+      <c r="LF90" s="15"/>
+      <c r="LG90" s="15"/>
+      <c r="LH90" s="15"/>
+      <c r="LI90" s="15"/>
+      <c r="LJ90" s="15"/>
+      <c r="LK90" s="15"/>
+      <c r="LL90" s="15"/>
+      <c r="LM90" s="15"/>
+      <c r="LN90" s="15"/>
+      <c r="LO90" s="15"/>
+      <c r="LP90" s="15"/>
+      <c r="LQ90" s="15"/>
+      <c r="LR90" s="15"/>
+      <c r="LS90" s="15"/>
+      <c r="LT90" s="15"/>
+      <c r="LU90" s="15"/>
+      <c r="LV90" s="15"/>
+      <c r="LW90" s="15"/>
+      <c r="LX90" s="15"/>
+      <c r="LY90" s="15"/>
+      <c r="LZ90" s="15"/>
+      <c r="MA90" s="15"/>
+      <c r="MB90" s="15"/>
+      <c r="MC90" s="15"/>
+      <c r="MD90" s="15"/>
+      <c r="ME90" s="15"/>
+      <c r="MF90" s="15"/>
+      <c r="MG90" s="15"/>
+      <c r="MH90" s="15"/>
+      <c r="MI90" s="15"/>
+      <c r="MJ90" s="15"/>
+      <c r="MK90" s="15"/>
+      <c r="ML90" s="15"/>
+      <c r="MM90" s="15"/>
+      <c r="MN90" s="15"/>
+      <c r="MO90" s="15"/>
+      <c r="MP90" s="15"/>
+      <c r="MQ90" s="15"/>
+      <c r="MR90" s="15"/>
+      <c r="MS90" s="15"/>
+      <c r="MT90" s="15"/>
+      <c r="MU90" s="15"/>
+      <c r="MV90" s="15"/>
+      <c r="MW90" s="15"/>
+      <c r="MX90" s="15"/>
+      <c r="MY90" s="15"/>
+      <c r="MZ90" s="15"/>
+      <c r="NA90" s="15"/>
+      <c r="NB90" s="15"/>
+      <c r="NC90" s="15"/>
+      <c r="ND90" s="15"/>
+      <c r="NE90" s="15"/>
+      <c r="NF90" s="15"/>
+      <c r="NG90" s="15"/>
+      <c r="NH90" s="15"/>
+      <c r="NI90" s="15"/>
+      <c r="NJ90" s="15"/>
+      <c r="NK90" s="15"/>
+      <c r="NL90" s="15"/>
+      <c r="NM90" s="15"/>
+      <c r="NN90" s="15"/>
+      <c r="NO90" s="15"/>
+      <c r="NP90" s="15"/>
+      <c r="NQ90" s="15"/>
+      <c r="NR90" s="15"/>
+      <c r="NS90" s="15"/>
+      <c r="NT90" s="15"/>
+      <c r="NU90" s="15"/>
+      <c r="NV90" s="15"/>
+      <c r="NW90" s="15"/>
+      <c r="NX90" s="15"/>
+      <c r="NY90" s="15"/>
+      <c r="NZ90" s="15"/>
+      <c r="OA90" s="15"/>
+      <c r="OB90" s="15"/>
+      <c r="OC90" s="15"/>
+      <c r="OD90" s="15"/>
+      <c r="OE90" s="15"/>
+      <c r="OF90" s="15"/>
+      <c r="OG90" s="15"/>
+      <c r="OH90" s="15"/>
+      <c r="OI90" s="15"/>
+      <c r="OJ90" s="15"/>
+      <c r="OK90" s="15"/>
+      <c r="OL90" s="15"/>
+      <c r="OM90" s="15"/>
+      <c r="ON90" s="15"/>
+      <c r="OO90" s="15"/>
+      <c r="OP90" s="15"/>
+      <c r="OQ90" s="15"/>
+      <c r="OR90" s="15"/>
+      <c r="OS90" s="15"/>
+      <c r="OT90" s="15"/>
+      <c r="OU90" s="15"/>
+      <c r="OV90" s="15"/>
+      <c r="OW90" s="15"/>
+      <c r="OX90" s="15"/>
+      <c r="OY90" s="15"/>
+      <c r="OZ90" s="15"/>
+      <c r="PA90" s="15"/>
+      <c r="PB90" s="15"/>
+      <c r="PC90" s="15"/>
+      <c r="PD90" s="15"/>
+      <c r="PE90" s="15"/>
+      <c r="PF90" s="15"/>
+      <c r="PG90" s="15"/>
+      <c r="PH90" s="15"/>
+      <c r="PI90" s="15"/>
+      <c r="PJ90" s="15"/>
+      <c r="PK90" s="15"/>
+      <c r="PL90" s="15"/>
+      <c r="PM90" s="15"/>
+      <c r="PN90" s="15"/>
+      <c r="PO90" s="15"/>
+      <c r="PP90" s="15"/>
+      <c r="PQ90" s="15"/>
+      <c r="PR90" s="15"/>
+      <c r="PS90" s="15"/>
+      <c r="PT90" s="15"/>
+      <c r="PU90" s="15"/>
+      <c r="PV90" s="15"/>
+      <c r="PW90" s="15"/>
+      <c r="PX90" s="15"/>
+      <c r="PY90" s="15"/>
+      <c r="PZ90" s="15"/>
+      <c r="QA90" s="15"/>
+      <c r="QB90" s="15"/>
+      <c r="QC90" s="15"/>
+      <c r="QD90" s="15"/>
+      <c r="QE90" s="15"/>
+      <c r="QF90" s="15"/>
+      <c r="QG90" s="15"/>
+      <c r="QH90" s="15"/>
+      <c r="QI90" s="15"/>
+      <c r="QJ90" s="15"/>
+      <c r="QK90" s="15"/>
+      <c r="QL90" s="15"/>
+      <c r="QM90" s="15"/>
+      <c r="QN90" s="15"/>
+      <c r="QO90" s="15"/>
+      <c r="QP90" s="15"/>
+      <c r="QQ90" s="15"/>
+      <c r="QR90" s="15"/>
+      <c r="QS90" s="15"/>
+      <c r="QT90" s="15"/>
+      <c r="QU90" s="15"/>
+      <c r="QV90" s="15"/>
+      <c r="QW90" s="15"/>
+      <c r="QX90" s="15"/>
+      <c r="QY90" s="15"/>
+      <c r="QZ90" s="15"/>
+      <c r="RA90" s="15"/>
+      <c r="RB90" s="15"/>
+      <c r="RC90" s="15"/>
+      <c r="RD90" s="15"/>
+      <c r="RE90" s="15"/>
+      <c r="RF90" s="15"/>
+      <c r="RG90" s="15"/>
+      <c r="RH90" s="15"/>
+      <c r="RI90" s="15"/>
+      <c r="RJ90" s="15"/>
+      <c r="RK90" s="15"/>
+      <c r="RL90" s="15"/>
+      <c r="RM90" s="15"/>
+      <c r="RN90" s="15"/>
+      <c r="RO90" s="15"/>
+      <c r="RP90" s="15"/>
+      <c r="RQ90" s="15"/>
+      <c r="RR90" s="15"/>
+      <c r="RS90" s="15"/>
+      <c r="RT90" s="15"/>
+      <c r="RU90" s="15"/>
+      <c r="RV90" s="15"/>
+      <c r="RW90" s="15"/>
+      <c r="RX90" s="15"/>
+      <c r="RY90" s="15"/>
+      <c r="RZ90" s="15"/>
+      <c r="SA90" s="15"/>
+      <c r="SB90" s="15"/>
+      <c r="SC90" s="15"/>
+      <c r="SD90" s="15"/>
+      <c r="SE90" s="15"/>
+      <c r="SF90" s="15"/>
+      <c r="SG90" s="15"/>
+      <c r="SH90" s="15"/>
+      <c r="SI90" s="15"/>
+      <c r="SJ90" s="15"/>
+      <c r="SK90" s="15"/>
+      <c r="SL90" s="15"/>
+      <c r="SM90" s="15"/>
+      <c r="SN90" s="15"/>
+      <c r="SO90" s="15"/>
+      <c r="SP90" s="15"/>
+      <c r="SQ90" s="15"/>
+      <c r="SR90" s="15"/>
+      <c r="SS90" s="15"/>
+      <c r="ST90" s="15"/>
+      <c r="SU90" s="15"/>
+      <c r="SV90" s="15"/>
+      <c r="SW90" s="15"/>
+      <c r="SX90" s="15"/>
+      <c r="SY90" s="15"/>
+      <c r="SZ90" s="15"/>
+      <c r="TA90" s="15"/>
+      <c r="TB90" s="15"/>
+      <c r="TC90" s="15"/>
+      <c r="TD90" s="15"/>
+      <c r="TE90" s="15"/>
+      <c r="TF90" s="15"/>
+      <c r="TG90" s="15"/>
+      <c r="TH90" s="15"/>
+      <c r="TI90" s="15"/>
+      <c r="TJ90" s="15"/>
+      <c r="TK90" s="15"/>
+      <c r="TL90" s="15"/>
+      <c r="TM90" s="15"/>
+      <c r="TN90" s="15"/>
+      <c r="TO90" s="15"/>
+      <c r="TP90" s="15"/>
+      <c r="TQ90" s="15"/>
+      <c r="TR90" s="15"/>
+      <c r="TS90" s="15"/>
+      <c r="TT90" s="15"/>
+      <c r="TU90" s="15"/>
+      <c r="TV90" s="15"/>
+      <c r="TW90" s="15"/>
+      <c r="TX90" s="15"/>
+      <c r="TY90" s="15"/>
+      <c r="TZ90" s="15"/>
+      <c r="UA90" s="15"/>
+      <c r="UB90" s="15"/>
+      <c r="UC90" s="15"/>
+      <c r="UD90" s="15"/>
+      <c r="UE90" s="15"/>
+      <c r="UF90" s="15"/>
+      <c r="UG90" s="15"/>
+      <c r="UH90" s="15"/>
+      <c r="UI90" s="15"/>
+      <c r="UJ90" s="15"/>
+      <c r="UK90" s="15"/>
+      <c r="UL90" s="15"/>
+      <c r="UM90" s="15"/>
+      <c r="UN90" s="15"/>
+      <c r="UO90" s="15"/>
+      <c r="UP90" s="15"/>
+      <c r="UQ90" s="15"/>
+      <c r="UR90" s="15"/>
+      <c r="US90" s="15"/>
+      <c r="UT90" s="15"/>
+      <c r="UU90" s="15"/>
+      <c r="UV90" s="15"/>
+      <c r="UW90" s="15"/>
+      <c r="UX90" s="15"/>
+      <c r="UY90" s="15"/>
+      <c r="UZ90" s="15"/>
+      <c r="VA90" s="15"/>
+      <c r="VB90" s="15"/>
+      <c r="VC90" s="15"/>
+      <c r="VD90" s="15"/>
+      <c r="VE90" s="15"/>
+      <c r="VF90" s="15"/>
+      <c r="VG90" s="15"/>
+      <c r="VH90" s="15"/>
+      <c r="VI90" s="15"/>
+      <c r="VJ90" s="15"/>
+      <c r="VK90" s="15"/>
+      <c r="VL90" s="15"/>
+      <c r="VM90" s="15"/>
+      <c r="VN90" s="15"/>
+      <c r="VO90" s="15"/>
+      <c r="VP90" s="15"/>
+      <c r="VQ90" s="15"/>
+      <c r="VR90" s="15"/>
+      <c r="VS90" s="15"/>
+      <c r="VT90" s="15"/>
+      <c r="VU90" s="15"/>
+      <c r="VV90" s="15"/>
+      <c r="VW90" s="15"/>
+      <c r="VX90" s="15"/>
+      <c r="VY90" s="15"/>
+      <c r="VZ90" s="15"/>
+      <c r="WA90" s="15"/>
+      <c r="WB90" s="15"/>
+      <c r="WC90" s="15"/>
+      <c r="WD90" s="15"/>
+      <c r="WE90" s="15"/>
+      <c r="WF90" s="15"/>
+      <c r="WG90" s="15"/>
+      <c r="WH90" s="15"/>
+      <c r="WI90" s="15"/>
+      <c r="WJ90" s="15"/>
+      <c r="WK90" s="15"/>
+      <c r="WL90" s="15"/>
+      <c r="WM90" s="15"/>
+      <c r="WN90" s="15"/>
+      <c r="WO90" s="15"/>
+      <c r="WP90" s="15"/>
+      <c r="WQ90" s="15"/>
+      <c r="WR90" s="15"/>
+      <c r="WS90" s="15"/>
+      <c r="WT90" s="15"/>
+      <c r="WU90" s="15"/>
+      <c r="WV90" s="15"/>
+      <c r="WW90" s="15"/>
+      <c r="WX90" s="15"/>
+      <c r="WY90" s="15"/>
+      <c r="WZ90" s="15"/>
+      <c r="XA90" s="15"/>
+      <c r="XB90" s="15"/>
+      <c r="XC90" s="15"/>
+      <c r="XD90" s="15"/>
+      <c r="XE90" s="15"/>
+      <c r="XF90" s="15"/>
+      <c r="XG90" s="15"/>
+      <c r="XH90" s="15"/>
+      <c r="XI90" s="15"/>
+      <c r="XJ90" s="15"/>
+      <c r="XK90" s="15"/>
+      <c r="XL90" s="15"/>
+      <c r="XM90" s="15"/>
+      <c r="XN90" s="15"/>
+      <c r="XO90" s="15"/>
+      <c r="XP90" s="15"/>
+      <c r="XQ90" s="15"/>
+      <c r="XR90" s="15"/>
+      <c r="XS90" s="15"/>
+      <c r="XT90" s="15"/>
+      <c r="XU90" s="15"/>
+      <c r="XV90" s="15"/>
+      <c r="XW90" s="15"/>
+      <c r="XX90" s="15"/>
+      <c r="XY90" s="15"/>
+      <c r="XZ90" s="15"/>
+      <c r="YA90" s="15"/>
+      <c r="YB90" s="15"/>
+      <c r="YC90" s="15"/>
+      <c r="YD90" s="15"/>
+      <c r="YE90" s="15"/>
+      <c r="YF90" s="15"/>
+      <c r="YG90" s="15"/>
+      <c r="YH90" s="15"/>
+      <c r="YI90" s="15"/>
+      <c r="YJ90" s="15"/>
+      <c r="YK90" s="15"/>
+      <c r="YL90" s="15"/>
+      <c r="YM90" s="15"/>
+      <c r="YN90" s="15"/>
+      <c r="YO90" s="15"/>
+      <c r="YP90" s="15"/>
+      <c r="YQ90" s="15"/>
+      <c r="YR90" s="15"/>
+      <c r="YS90" s="15"/>
+      <c r="YT90" s="15"/>
+      <c r="YU90" s="15"/>
+      <c r="YV90" s="15"/>
+      <c r="YW90" s="15"/>
+      <c r="YX90" s="15"/>
+      <c r="YY90" s="15"/>
+      <c r="YZ90" s="15"/>
+      <c r="ZA90" s="15"/>
+      <c r="ZB90" s="15"/>
+      <c r="ZC90" s="15"/>
+      <c r="ZD90" s="15"/>
+      <c r="ZE90" s="15"/>
+      <c r="ZF90" s="15"/>
+      <c r="ZG90" s="15"/>
+      <c r="ZH90" s="15"/>
+      <c r="ZI90" s="15"/>
+      <c r="ZJ90" s="15"/>
+      <c r="ZK90" s="15"/>
+      <c r="ZL90" s="15"/>
+      <c r="ZM90" s="15"/>
+      <c r="ZN90" s="15"/>
+      <c r="ZO90" s="15"/>
+      <c r="ZP90" s="15"/>
+      <c r="ZQ90" s="15"/>
+      <c r="ZR90" s="15"/>
+      <c r="ZS90" s="15"/>
+      <c r="ZT90" s="15"/>
+      <c r="ZU90" s="15"/>
+      <c r="ZV90" s="15"/>
+      <c r="ZW90" s="15"/>
+      <c r="ZX90" s="15"/>
+      <c r="ZY90" s="15"/>
+      <c r="ZZ90" s="15"/>
+      <c r="AAA90" s="15"/>
+      <c r="AAB90" s="15"/>
+      <c r="AAC90" s="15"/>
+      <c r="AAD90" s="15"/>
+      <c r="AAE90" s="15"/>
+      <c r="AAF90" s="15"/>
+      <c r="AAG90" s="15"/>
+      <c r="AAH90" s="15"/>
+      <c r="AAI90" s="15"/>
+      <c r="AAJ90" s="15"/>
+      <c r="AAK90" s="15"/>
+      <c r="AAL90" s="15"/>
+      <c r="AAM90" s="15"/>
+      <c r="AAN90" s="15"/>
+      <c r="AAO90" s="15"/>
+      <c r="AAP90" s="15"/>
+      <c r="AAQ90" s="15"/>
+      <c r="AAR90" s="15"/>
+      <c r="AAS90" s="15"/>
+      <c r="AAT90" s="15"/>
+      <c r="AAU90" s="15"/>
+      <c r="AAV90" s="15"/>
+      <c r="AAW90" s="15"/>
+      <c r="AAX90" s="15"/>
+      <c r="AAY90" s="15"/>
+      <c r="AAZ90" s="15"/>
+      <c r="ABA90" s="15"/>
+      <c r="ABB90" s="15"/>
+      <c r="ABC90" s="15"/>
+      <c r="ABD90" s="15"/>
+      <c r="ABE90" s="15"/>
+      <c r="ABF90" s="15"/>
+      <c r="ABG90" s="15"/>
+      <c r="ABH90" s="15"/>
+      <c r="ABI90" s="15"/>
+      <c r="ABJ90" s="15"/>
+      <c r="ABK90" s="15"/>
+      <c r="ABL90" s="15"/>
+      <c r="ABM90" s="15"/>
+      <c r="ABN90" s="15"/>
+      <c r="ABO90" s="15"/>
+      <c r="ABP90" s="15"/>
+      <c r="ABQ90" s="15"/>
+      <c r="ABR90" s="15"/>
+      <c r="ABS90" s="15"/>
+      <c r="ABT90" s="15"/>
+      <c r="ABU90" s="15"/>
+      <c r="ABV90" s="15"/>
+      <c r="ABW90" s="15"/>
+      <c r="ABX90" s="15"/>
+      <c r="ABY90" s="15"/>
+      <c r="ABZ90" s="15"/>
+      <c r="ACA90" s="15"/>
+      <c r="ACB90" s="15"/>
+      <c r="ACC90" s="15"/>
+      <c r="ACD90" s="15"/>
+      <c r="ACE90" s="15"/>
+      <c r="ACF90" s="15"/>
+      <c r="ACG90" s="15"/>
+      <c r="ACH90" s="15"/>
+      <c r="ACI90" s="15"/>
+      <c r="ACJ90" s="15"/>
+      <c r="ACK90" s="15"/>
+      <c r="ACL90" s="15"/>
+      <c r="ACM90" s="15"/>
+      <c r="ACN90" s="15"/>
+      <c r="ACO90" s="15"/>
+      <c r="ACP90" s="15"/>
+      <c r="ACQ90" s="15"/>
+      <c r="ACR90" s="15"/>
+      <c r="ACS90" s="15"/>
+      <c r="ACT90" s="15"/>
+      <c r="ACU90" s="15"/>
+      <c r="ACV90" s="15"/>
+      <c r="ACW90" s="15"/>
+      <c r="ACX90" s="15"/>
+      <c r="ACY90" s="15"/>
+      <c r="ACZ90" s="15"/>
+      <c r="ADA90" s="15"/>
+      <c r="ADB90" s="15"/>
+      <c r="ADC90" s="15"/>
+      <c r="ADD90" s="15"/>
+      <c r="ADE90" s="15"/>
+      <c r="ADF90" s="15"/>
+      <c r="ADG90" s="15"/>
+      <c r="ADH90" s="15"/>
+      <c r="ADI90" s="15"/>
+      <c r="ADJ90" s="15"/>
+      <c r="ADK90" s="15"/>
+      <c r="ADL90" s="15"/>
+      <c r="ADM90" s="15"/>
+      <c r="ADN90" s="15"/>
+      <c r="ADO90" s="15"/>
+      <c r="ADP90" s="15"/>
+      <c r="ADQ90" s="15"/>
+      <c r="ADR90" s="15"/>
+      <c r="ADS90" s="15"/>
+      <c r="ADT90" s="15"/>
+      <c r="ADU90" s="15"/>
+      <c r="ADV90" s="15"/>
+      <c r="ADW90" s="15"/>
+      <c r="ADX90" s="15"/>
+      <c r="ADY90" s="15"/>
+      <c r="ADZ90" s="15"/>
+      <c r="AEA90" s="15"/>
+      <c r="AEB90" s="15"/>
+      <c r="AEC90" s="15"/>
+      <c r="AED90" s="15"/>
+      <c r="AEE90" s="15"/>
+      <c r="AEF90" s="15"/>
+      <c r="AEG90" s="15"/>
+      <c r="AEH90" s="15"/>
+      <c r="AEI90" s="15"/>
+      <c r="AEJ90" s="15"/>
+      <c r="AEK90" s="15"/>
+      <c r="AEL90" s="15"/>
+      <c r="AEM90" s="15"/>
+      <c r="AEN90" s="15"/>
+      <c r="AEO90" s="15"/>
+      <c r="AEP90" s="15"/>
+      <c r="AEQ90" s="15"/>
+      <c r="AER90" s="15"/>
+      <c r="AES90" s="15"/>
+      <c r="AET90" s="15"/>
+      <c r="AEU90" s="15"/>
+      <c r="AEV90" s="15"/>
+      <c r="AEW90" s="15"/>
+      <c r="AEX90" s="15"/>
+      <c r="AEY90" s="15"/>
+      <c r="AEZ90" s="15"/>
+      <c r="AFA90" s="15"/>
+      <c r="AFB90" s="15"/>
+      <c r="AFC90" s="15"/>
+      <c r="AFD90" s="15"/>
+      <c r="AFE90" s="15"/>
+      <c r="AFF90" s="15"/>
+      <c r="AFG90" s="15"/>
+      <c r="AFH90" s="15"/>
+      <c r="AFI90" s="15"/>
+      <c r="AFJ90" s="15"/>
+      <c r="AFK90" s="15"/>
+      <c r="AFL90" s="15"/>
+      <c r="AFM90" s="15"/>
+      <c r="AFN90" s="15"/>
+      <c r="AFO90" s="15"/>
+      <c r="AFP90" s="15"/>
+      <c r="AFQ90" s="15"/>
+      <c r="AFR90" s="15"/>
+      <c r="AFS90" s="15"/>
+      <c r="AFT90" s="15"/>
+      <c r="AFU90" s="15"/>
+      <c r="AFV90" s="15"/>
+      <c r="AFW90" s="15"/>
+      <c r="AFX90" s="15"/>
+      <c r="AFY90" s="15"/>
+      <c r="AFZ90" s="15"/>
+      <c r="AGA90" s="15"/>
+      <c r="AGB90" s="15"/>
+      <c r="AGC90" s="15"/>
+      <c r="AGD90" s="15"/>
+      <c r="AGE90" s="15"/>
+      <c r="AGF90" s="15"/>
+      <c r="AGG90" s="15"/>
+      <c r="AGH90" s="15"/>
+      <c r="AGI90" s="15"/>
+      <c r="AGJ90" s="15"/>
+      <c r="AGK90" s="15"/>
+      <c r="AGL90" s="15"/>
+      <c r="AGM90" s="15"/>
+      <c r="AGN90" s="15"/>
+      <c r="AGO90" s="15"/>
+      <c r="AGP90" s="15"/>
+      <c r="AGQ90" s="15"/>
+      <c r="AGR90" s="15"/>
+      <c r="AGS90" s="15"/>
+      <c r="AGT90" s="15"/>
+      <c r="AGU90" s="15"/>
+      <c r="AGV90" s="15"/>
+      <c r="AGW90" s="15"/>
+      <c r="AGX90" s="15"/>
+      <c r="AGY90" s="15"/>
+      <c r="AGZ90" s="15"/>
+      <c r="AHA90" s="15"/>
+      <c r="AHB90" s="15"/>
+      <c r="AHC90" s="15"/>
+      <c r="AHD90" s="15"/>
+      <c r="AHE90" s="15"/>
+      <c r="AHF90" s="15"/>
+      <c r="AHG90" s="15"/>
+      <c r="AHH90" s="15"/>
+      <c r="AHI90" s="15"/>
+      <c r="AHJ90" s="15"/>
+      <c r="AHK90" s="15"/>
+      <c r="AHL90" s="15"/>
+      <c r="AHM90" s="15"/>
+      <c r="AHN90" s="15"/>
+      <c r="AHO90" s="15"/>
+      <c r="AHP90" s="15"/>
+      <c r="AHQ90" s="15"/>
+      <c r="AHR90" s="15"/>
+      <c r="AHS90" s="15"/>
+      <c r="AHT90" s="15"/>
+      <c r="AHU90" s="15"/>
+      <c r="AHV90" s="15"/>
+      <c r="AHW90" s="15"/>
+      <c r="AHX90" s="15"/>
+      <c r="AHY90" s="15"/>
+      <c r="AHZ90" s="15"/>
+      <c r="AIA90" s="15"/>
+      <c r="AIB90" s="15"/>
+      <c r="AIC90" s="15"/>
+      <c r="AID90" s="15"/>
+      <c r="AIE90" s="15"/>
+      <c r="AIF90" s="15"/>
+      <c r="AIG90" s="15"/>
+      <c r="AIH90" s="15"/>
+      <c r="AII90" s="15"/>
+      <c r="AIJ90" s="15"/>
+      <c r="AIK90" s="15"/>
+      <c r="AIL90" s="15"/>
+      <c r="AIM90" s="15"/>
+      <c r="AIN90" s="15"/>
+      <c r="AIO90" s="15"/>
+      <c r="AIP90" s="15"/>
+      <c r="AIQ90" s="15"/>
+      <c r="AIR90" s="15"/>
+      <c r="AIS90" s="15"/>
+      <c r="AIT90" s="15"/>
+      <c r="AIU90" s="15"/>
+      <c r="AIV90" s="15"/>
+      <c r="AIW90" s="15"/>
+      <c r="AIX90" s="15"/>
+      <c r="AIY90" s="15"/>
+      <c r="AIZ90" s="15"/>
+      <c r="AJA90" s="15"/>
+      <c r="AJB90" s="15"/>
+      <c r="AJC90" s="15"/>
+      <c r="AJD90" s="15"/>
+      <c r="AJE90" s="15"/>
+      <c r="AJF90" s="15"/>
+      <c r="AJG90" s="15"/>
+      <c r="AJH90" s="15"/>
+      <c r="AJI90" s="15"/>
+      <c r="AJJ90" s="15"/>
+      <c r="AJK90" s="15"/>
+      <c r="AJL90" s="15"/>
+      <c r="AJM90" s="15"/>
+      <c r="AJN90" s="15"/>
+      <c r="AJO90" s="15"/>
+      <c r="AJP90" s="15"/>
+      <c r="AJQ90" s="15"/>
+      <c r="AJR90" s="15"/>
+      <c r="AJS90" s="15"/>
+      <c r="AJT90" s="15"/>
+      <c r="AJU90" s="15"/>
+      <c r="AJV90" s="15"/>
+      <c r="AJW90" s="15"/>
+      <c r="AJX90" s="15"/>
+      <c r="AJY90" s="15"/>
+      <c r="AJZ90" s="15"/>
+      <c r="AKA90" s="15"/>
+      <c r="AKB90" s="15"/>
+      <c r="AKC90" s="15"/>
+      <c r="AKD90" s="15"/>
+      <c r="AKE90" s="15"/>
+      <c r="AKF90" s="15"/>
+      <c r="AKG90" s="15"/>
+      <c r="AKH90" s="15"/>
+      <c r="AKI90" s="15"/>
+      <c r="AKJ90" s="15"/>
+      <c r="AKK90" s="15"/>
+      <c r="AKL90" s="15"/>
+      <c r="AKM90" s="15"/>
+      <c r="AKN90" s="15"/>
+      <c r="AKO90" s="15"/>
+      <c r="AKP90" s="15"/>
+      <c r="AKQ90" s="15"/>
+      <c r="AKR90" s="15"/>
+      <c r="AKS90" s="15"/>
+      <c r="AKT90" s="15"/>
+      <c r="AKU90" s="15"/>
+      <c r="AKV90" s="15"/>
+      <c r="AKW90" s="15"/>
+      <c r="AKX90" s="15"/>
+      <c r="AKY90" s="15"/>
+      <c r="AKZ90" s="15"/>
+      <c r="ALA90" s="15"/>
+      <c r="ALB90" s="15"/>
+      <c r="ALC90" s="15"/>
+      <c r="ALD90" s="15"/>
+      <c r="ALE90" s="15"/>
+      <c r="ALF90" s="15"/>
+      <c r="ALG90" s="15"/>
+      <c r="ALH90" s="15"/>
+      <c r="ALI90" s="15"/>
+      <c r="ALJ90" s="15"/>
+      <c r="ALK90" s="15"/>
+      <c r="ALL90" s="15"/>
+      <c r="ALM90" s="15"/>
+      <c r="ALN90" s="15"/>
+      <c r="ALO90" s="15"/>
+      <c r="ALP90" s="15"/>
+      <c r="ALQ90" s="15"/>
+      <c r="ALR90" s="15"/>
+      <c r="ALS90" s="15"/>
+      <c r="ALT90" s="15"/>
+      <c r="ALU90" s="15"/>
+      <c r="ALV90" s="15"/>
+      <c r="ALW90" s="15"/>
+      <c r="ALX90" s="15"/>
+      <c r="ALY90" s="15"/>
+      <c r="ALZ90" s="15"/>
+      <c r="AMA90" s="15"/>
+      <c r="AMB90" s="15"/>
+      <c r="AMC90" s="15"/>
+      <c r="AMD90" s="15"/>
+      <c r="AME90" s="15"/>
+      <c r="AMF90" s="15"/>
+      <c r="AMG90" s="15"/>
+      <c r="AMH90" s="15"/>
+      <c r="AMI90" s="15"/>
+      <c r="AMJ90" s="15"/>
+      <c r="AMK90" s="15"/>
+      <c r="AML90" s="15"/>
+      <c r="AMM90" s="15"/>
     </row>
-    <row r="90" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    <row r="91" spans="1:1027" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="I90" s="3"/>
-      <c r="J90" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="L90" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="M90" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G91" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="O91" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O92" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="92" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
+    <row r="93" spans="1:1027" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D93" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="16" t="s">
+      <c r="E93" s="15"/>
+      <c r="F93" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G93" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H93" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I93" s="22">
         <v>45138</v>
       </c>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="15" t="s">
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
-      <c r="U92" s="15"/>
-      <c r="V92" s="15"/>
-      <c r="W92" s="15"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="15"/>
-      <c r="AA92" s="15"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="15"/>
-      <c r="AD92" s="15"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="15"/>
-      <c r="AN92" s="15"/>
-      <c r="AO92" s="15"/>
-      <c r="AP92" s="15"/>
-      <c r="AQ92" s="15"/>
-      <c r="AR92" s="15"/>
-      <c r="AS92" s="15"/>
-      <c r="AT92" s="15"/>
-      <c r="AU92" s="15"/>
-      <c r="AV92" s="15"/>
-      <c r="AW92" s="15"/>
-      <c r="AX92" s="15"/>
-      <c r="AY92" s="15"/>
-      <c r="AZ92" s="15"/>
-      <c r="BA92" s="15"/>
-      <c r="BB92" s="15"/>
-      <c r="BC92" s="15"/>
-      <c r="BD92" s="15"/>
-      <c r="BE92" s="15"/>
-      <c r="BF92" s="15"/>
-      <c r="BG92" s="15"/>
-      <c r="BH92" s="15"/>
-      <c r="BI92" s="15"/>
-      <c r="BJ92" s="15"/>
-      <c r="BK92" s="15"/>
-      <c r="BL92" s="15"/>
-      <c r="BM92" s="15"/>
-      <c r="BN92" s="15"/>
-      <c r="BO92" s="15"/>
-      <c r="BP92" s="15"/>
-      <c r="BQ92" s="15"/>
-      <c r="BR92" s="15"/>
-      <c r="BS92" s="15"/>
-      <c r="BT92" s="15"/>
-      <c r="BU92" s="15"/>
-      <c r="BV92" s="15"/>
-      <c r="BW92" s="15"/>
-      <c r="BX92" s="15"/>
-      <c r="BY92" s="15"/>
-      <c r="BZ92" s="15"/>
-      <c r="CA92" s="15"/>
-      <c r="CB92" s="15"/>
-      <c r="CC92" s="15"/>
-      <c r="CD92" s="15"/>
-      <c r="CE92" s="15"/>
-      <c r="CF92" s="15"/>
-      <c r="CG92" s="15"/>
-      <c r="CH92" s="15"/>
-      <c r="CI92" s="15"/>
-      <c r="CJ92" s="15"/>
-      <c r="CK92" s="15"/>
-      <c r="CL92" s="15"/>
-      <c r="CM92" s="15"/>
-      <c r="CN92" s="15"/>
-      <c r="CO92" s="15"/>
-      <c r="CP92" s="15"/>
-      <c r="CQ92" s="15"/>
-      <c r="CR92" s="15"/>
-      <c r="CS92" s="15"/>
-      <c r="CT92" s="15"/>
-      <c r="CU92" s="15"/>
-      <c r="CV92" s="15"/>
-      <c r="CW92" s="15"/>
-      <c r="CX92" s="15"/>
-      <c r="CY92" s="15"/>
-      <c r="CZ92" s="15"/>
-      <c r="DA92" s="15"/>
-      <c r="DB92" s="15"/>
-      <c r="DC92" s="15"/>
-      <c r="DD92" s="15"/>
-      <c r="DE92" s="15"/>
-      <c r="DF92" s="15"/>
-      <c r="DG92" s="15"/>
-      <c r="DH92" s="15"/>
-      <c r="DI92" s="15"/>
-      <c r="DJ92" s="15"/>
-      <c r="DK92" s="15"/>
-      <c r="DL92" s="15"/>
-      <c r="DM92" s="15"/>
-      <c r="DN92" s="15"/>
-      <c r="DO92" s="15"/>
-      <c r="DP92" s="15"/>
-      <c r="DQ92" s="15"/>
-      <c r="DR92" s="15"/>
-      <c r="DS92" s="15"/>
-      <c r="DT92" s="15"/>
-      <c r="DU92" s="15"/>
-      <c r="DV92" s="15"/>
-      <c r="DW92" s="15"/>
-      <c r="DX92" s="15"/>
-      <c r="DY92" s="15"/>
-      <c r="DZ92" s="15"/>
-      <c r="EA92" s="15"/>
-      <c r="EB92" s="15"/>
-      <c r="EC92" s="15"/>
-      <c r="ED92" s="15"/>
-      <c r="EE92" s="15"/>
-      <c r="EF92" s="15"/>
-      <c r="EG92" s="15"/>
-      <c r="EH92" s="15"/>
-      <c r="EI92" s="15"/>
-      <c r="EJ92" s="15"/>
-      <c r="EK92" s="15"/>
-      <c r="EL92" s="15"/>
-      <c r="EM92" s="15"/>
-      <c r="EN92" s="15"/>
-      <c r="EO92" s="15"/>
-      <c r="EP92" s="15"/>
-      <c r="EQ92" s="15"/>
-      <c r="ER92" s="15"/>
-      <c r="ES92" s="15"/>
-      <c r="ET92" s="15"/>
-      <c r="EU92" s="15"/>
-      <c r="EV92" s="15"/>
-      <c r="EW92" s="15"/>
-      <c r="EX92" s="15"/>
-      <c r="EY92" s="15"/>
-      <c r="EZ92" s="15"/>
-      <c r="FA92" s="15"/>
-      <c r="FB92" s="15"/>
-      <c r="FC92" s="15"/>
-      <c r="FD92" s="15"/>
-      <c r="FE92" s="15"/>
-      <c r="FF92" s="15"/>
-      <c r="FG92" s="15"/>
-      <c r="FH92" s="15"/>
-      <c r="FI92" s="15"/>
-      <c r="FJ92" s="15"/>
-      <c r="FK92" s="15"/>
-      <c r="FL92" s="15"/>
-      <c r="FM92" s="15"/>
-      <c r="FN92" s="15"/>
-      <c r="FO92" s="15"/>
-      <c r="FP92" s="15"/>
-      <c r="FQ92" s="15"/>
-      <c r="FR92" s="15"/>
-      <c r="FS92" s="15"/>
-      <c r="FT92" s="15"/>
-      <c r="FU92" s="15"/>
-      <c r="FV92" s="15"/>
-      <c r="FW92" s="15"/>
-      <c r="FX92" s="15"/>
-      <c r="FY92" s="15"/>
-      <c r="FZ92" s="15"/>
-      <c r="GA92" s="15"/>
-      <c r="GB92" s="15"/>
-      <c r="GC92" s="15"/>
-      <c r="GD92" s="15"/>
-      <c r="GE92" s="15"/>
-      <c r="GF92" s="15"/>
-      <c r="GG92" s="15"/>
-      <c r="GH92" s="15"/>
-      <c r="GI92" s="15"/>
-      <c r="GJ92" s="15"/>
-      <c r="GK92" s="15"/>
-      <c r="GL92" s="15"/>
-      <c r="GM92" s="15"/>
-      <c r="GN92" s="15"/>
-      <c r="GO92" s="15"/>
-      <c r="GP92" s="15"/>
-      <c r="GQ92" s="15"/>
-      <c r="GR92" s="15"/>
-      <c r="GS92" s="15"/>
-      <c r="GT92" s="15"/>
-      <c r="GU92" s="15"/>
-      <c r="GV92" s="15"/>
-      <c r="GW92" s="15"/>
-      <c r="GX92" s="15"/>
-      <c r="GY92" s="15"/>
-      <c r="GZ92" s="15"/>
-      <c r="HA92" s="15"/>
-      <c r="HB92" s="15"/>
-      <c r="HC92" s="15"/>
-      <c r="HD92" s="15"/>
-      <c r="HE92" s="15"/>
-      <c r="HF92" s="15"/>
-      <c r="HG92" s="15"/>
-      <c r="HH92" s="15"/>
-      <c r="HI92" s="15"/>
-      <c r="HJ92" s="15"/>
-      <c r="HK92" s="15"/>
-      <c r="HL92" s="15"/>
-      <c r="HM92" s="15"/>
-      <c r="HN92" s="15"/>
-      <c r="HO92" s="15"/>
-      <c r="HP92" s="15"/>
-      <c r="HQ92" s="15"/>
-      <c r="HR92" s="15"/>
-      <c r="HS92" s="15"/>
-      <c r="HT92" s="15"/>
-      <c r="HU92" s="15"/>
-      <c r="HV92" s="15"/>
-      <c r="HW92" s="15"/>
-      <c r="HX92" s="15"/>
-      <c r="HY92" s="15"/>
-      <c r="HZ92" s="15"/>
-      <c r="IA92" s="15"/>
-      <c r="IB92" s="15"/>
-      <c r="IC92" s="15"/>
-      <c r="ID92" s="15"/>
-      <c r="IE92" s="15"/>
-      <c r="IF92" s="15"/>
-      <c r="IG92" s="15"/>
-      <c r="IH92" s="15"/>
-      <c r="II92" s="15"/>
-      <c r="IJ92" s="15"/>
-      <c r="IK92" s="15"/>
-      <c r="IL92" s="15"/>
-      <c r="IM92" s="15"/>
-      <c r="IN92" s="15"/>
-      <c r="IO92" s="15"/>
-      <c r="IP92" s="15"/>
-      <c r="IQ92" s="15"/>
-      <c r="IR92" s="15"/>
-      <c r="IS92" s="15"/>
-      <c r="IT92" s="15"/>
-      <c r="IU92" s="15"/>
-      <c r="IV92" s="15"/>
-      <c r="IW92" s="15"/>
-      <c r="IX92" s="15"/>
-      <c r="IY92" s="15"/>
-      <c r="IZ92" s="15"/>
-      <c r="JA92" s="15"/>
-      <c r="JB92" s="15"/>
-      <c r="JC92" s="15"/>
-      <c r="JD92" s="15"/>
-      <c r="JE92" s="15"/>
-      <c r="JF92" s="15"/>
-      <c r="JG92" s="15"/>
-      <c r="JH92" s="15"/>
-      <c r="JI92" s="15"/>
-      <c r="JJ92" s="15"/>
-      <c r="JK92" s="15"/>
-      <c r="JL92" s="15"/>
-      <c r="JM92" s="15"/>
-      <c r="JN92" s="15"/>
-      <c r="JO92" s="15"/>
-      <c r="JP92" s="15"/>
-      <c r="JQ92" s="15"/>
-      <c r="JR92" s="15"/>
-      <c r="JS92" s="15"/>
-      <c r="JT92" s="15"/>
-      <c r="JU92" s="15"/>
-      <c r="JV92" s="15"/>
-      <c r="JW92" s="15"/>
-      <c r="JX92" s="15"/>
-      <c r="JY92" s="15"/>
-      <c r="JZ92" s="15"/>
-      <c r="KA92" s="15"/>
-      <c r="KB92" s="15"/>
-      <c r="KC92" s="15"/>
-      <c r="KD92" s="15"/>
-      <c r="KE92" s="15"/>
-      <c r="KF92" s="15"/>
-      <c r="KG92" s="15"/>
-      <c r="KH92" s="15"/>
-      <c r="KI92" s="15"/>
-      <c r="KJ92" s="15"/>
-      <c r="KK92" s="15"/>
-      <c r="KL92" s="15"/>
-      <c r="KM92" s="15"/>
-      <c r="KN92" s="15"/>
-      <c r="KO92" s="15"/>
-      <c r="KP92" s="15"/>
-      <c r="KQ92" s="15"/>
-      <c r="KR92" s="15"/>
-      <c r="KS92" s="15"/>
-      <c r="KT92" s="15"/>
-      <c r="KU92" s="15"/>
-      <c r="KV92" s="15"/>
-      <c r="KW92" s="15"/>
-      <c r="KX92" s="15"/>
-      <c r="KY92" s="15"/>
-      <c r="KZ92" s="15"/>
-      <c r="LA92" s="15"/>
-      <c r="LB92" s="15"/>
-      <c r="LC92" s="15"/>
-      <c r="LD92" s="15"/>
-      <c r="LE92" s="15"/>
-      <c r="LF92" s="15"/>
-      <c r="LG92" s="15"/>
-      <c r="LH92" s="15"/>
-      <c r="LI92" s="15"/>
-      <c r="LJ92" s="15"/>
-      <c r="LK92" s="15"/>
-      <c r="LL92" s="15"/>
-      <c r="LM92" s="15"/>
-      <c r="LN92" s="15"/>
-      <c r="LO92" s="15"/>
-      <c r="LP92" s="15"/>
-      <c r="LQ92" s="15"/>
-      <c r="LR92" s="15"/>
-      <c r="LS92" s="15"/>
-      <c r="LT92" s="15"/>
-      <c r="LU92" s="15"/>
-      <c r="LV92" s="15"/>
-      <c r="LW92" s="15"/>
-      <c r="LX92" s="15"/>
-      <c r="LY92" s="15"/>
-      <c r="LZ92" s="15"/>
-      <c r="MA92" s="15"/>
-      <c r="MB92" s="15"/>
-      <c r="MC92" s="15"/>
-      <c r="MD92" s="15"/>
-      <c r="ME92" s="15"/>
-      <c r="MF92" s="15"/>
-      <c r="MG92" s="15"/>
-      <c r="MH92" s="15"/>
-      <c r="MI92" s="15"/>
-      <c r="MJ92" s="15"/>
-      <c r="MK92" s="15"/>
-      <c r="ML92" s="15"/>
-      <c r="MM92" s="15"/>
-      <c r="MN92" s="15"/>
-      <c r="MO92" s="15"/>
-      <c r="MP92" s="15"/>
-      <c r="MQ92" s="15"/>
-      <c r="MR92" s="15"/>
-      <c r="MS92" s="15"/>
-      <c r="MT92" s="15"/>
-      <c r="MU92" s="15"/>
-      <c r="MV92" s="15"/>
-      <c r="MW92" s="15"/>
-      <c r="MX92" s="15"/>
-      <c r="MY92" s="15"/>
-      <c r="MZ92" s="15"/>
-      <c r="NA92" s="15"/>
-      <c r="NB92" s="15"/>
-      <c r="NC92" s="15"/>
-      <c r="ND92" s="15"/>
-      <c r="NE92" s="15"/>
-      <c r="NF92" s="15"/>
-      <c r="NG92" s="15"/>
-      <c r="NH92" s="15"/>
-      <c r="NI92" s="15"/>
-      <c r="NJ92" s="15"/>
-      <c r="NK92" s="15"/>
-      <c r="NL92" s="15"/>
-      <c r="NM92" s="15"/>
-      <c r="NN92" s="15"/>
-      <c r="NO92" s="15"/>
-      <c r="NP92" s="15"/>
-      <c r="NQ92" s="15"/>
-      <c r="NR92" s="15"/>
-      <c r="NS92" s="15"/>
-      <c r="NT92" s="15"/>
-      <c r="NU92" s="15"/>
-      <c r="NV92" s="15"/>
-      <c r="NW92" s="15"/>
-      <c r="NX92" s="15"/>
-      <c r="NY92" s="15"/>
-      <c r="NZ92" s="15"/>
-      <c r="OA92" s="15"/>
-      <c r="OB92" s="15"/>
-      <c r="OC92" s="15"/>
-      <c r="OD92" s="15"/>
-      <c r="OE92" s="15"/>
-      <c r="OF92" s="15"/>
-      <c r="OG92" s="15"/>
-      <c r="OH92" s="15"/>
-      <c r="OI92" s="15"/>
-      <c r="OJ92" s="15"/>
-      <c r="OK92" s="15"/>
-      <c r="OL92" s="15"/>
-      <c r="OM92" s="15"/>
-      <c r="ON92" s="15"/>
-      <c r="OO92" s="15"/>
-      <c r="OP92" s="15"/>
-      <c r="OQ92" s="15"/>
-      <c r="OR92" s="15"/>
-      <c r="OS92" s="15"/>
-      <c r="OT92" s="15"/>
-      <c r="OU92" s="15"/>
-      <c r="OV92" s="15"/>
-      <c r="OW92" s="15"/>
-      <c r="OX92" s="15"/>
-      <c r="OY92" s="15"/>
-      <c r="OZ92" s="15"/>
-      <c r="PA92" s="15"/>
-      <c r="PB92" s="15"/>
-      <c r="PC92" s="15"/>
-      <c r="PD92" s="15"/>
-      <c r="PE92" s="15"/>
-      <c r="PF92" s="15"/>
-      <c r="PG92" s="15"/>
-      <c r="PH92" s="15"/>
-      <c r="PI92" s="15"/>
-      <c r="PJ92" s="15"/>
-      <c r="PK92" s="15"/>
-      <c r="PL92" s="15"/>
-      <c r="PM92" s="15"/>
-      <c r="PN92" s="15"/>
-      <c r="PO92" s="15"/>
-      <c r="PP92" s="15"/>
-      <c r="PQ92" s="15"/>
-      <c r="PR92" s="15"/>
-      <c r="PS92" s="15"/>
-      <c r="PT92" s="15"/>
-      <c r="PU92" s="15"/>
-      <c r="PV92" s="15"/>
-      <c r="PW92" s="15"/>
-      <c r="PX92" s="15"/>
-      <c r="PY92" s="15"/>
-      <c r="PZ92" s="15"/>
-      <c r="QA92" s="15"/>
-      <c r="QB92" s="15"/>
-      <c r="QC92" s="15"/>
-      <c r="QD92" s="15"/>
-      <c r="QE92" s="15"/>
-      <c r="QF92" s="15"/>
-      <c r="QG92" s="15"/>
-      <c r="QH92" s="15"/>
-      <c r="QI92" s="15"/>
-      <c r="QJ92" s="15"/>
-      <c r="QK92" s="15"/>
-      <c r="QL92" s="15"/>
-      <c r="QM92" s="15"/>
-      <c r="QN92" s="15"/>
-      <c r="QO92" s="15"/>
-      <c r="QP92" s="15"/>
-      <c r="QQ92" s="15"/>
-      <c r="QR92" s="15"/>
-      <c r="QS92" s="15"/>
-      <c r="QT92" s="15"/>
-      <c r="QU92" s="15"/>
-      <c r="QV92" s="15"/>
-      <c r="QW92" s="15"/>
-      <c r="QX92" s="15"/>
-      <c r="QY92" s="15"/>
-      <c r="QZ92" s="15"/>
-      <c r="RA92" s="15"/>
-      <c r="RB92" s="15"/>
-      <c r="RC92" s="15"/>
-      <c r="RD92" s="15"/>
-      <c r="RE92" s="15"/>
-      <c r="RF92" s="15"/>
-      <c r="RG92" s="15"/>
-      <c r="RH92" s="15"/>
-      <c r="RI92" s="15"/>
-      <c r="RJ92" s="15"/>
-      <c r="RK92" s="15"/>
-      <c r="RL92" s="15"/>
-      <c r="RM92" s="15"/>
-      <c r="RN92" s="15"/>
-      <c r="RO92" s="15"/>
-      <c r="RP92" s="15"/>
-      <c r="RQ92" s="15"/>
-      <c r="RR92" s="15"/>
-      <c r="RS92" s="15"/>
-      <c r="RT92" s="15"/>
-      <c r="RU92" s="15"/>
-      <c r="RV92" s="15"/>
-      <c r="RW92" s="15"/>
-      <c r="RX92" s="15"/>
-      <c r="RY92" s="15"/>
-      <c r="RZ92" s="15"/>
-      <c r="SA92" s="15"/>
-      <c r="SB92" s="15"/>
-      <c r="SC92" s="15"/>
-      <c r="SD92" s="15"/>
-      <c r="SE92" s="15"/>
-      <c r="SF92" s="15"/>
-      <c r="SG92" s="15"/>
-      <c r="SH92" s="15"/>
-      <c r="SI92" s="15"/>
-      <c r="SJ92" s="15"/>
-      <c r="SK92" s="15"/>
-      <c r="SL92" s="15"/>
-      <c r="SM92" s="15"/>
-      <c r="SN92" s="15"/>
-      <c r="SO92" s="15"/>
-      <c r="SP92" s="15"/>
-      <c r="SQ92" s="15"/>
-      <c r="SR92" s="15"/>
-      <c r="SS92" s="15"/>
-      <c r="ST92" s="15"/>
-      <c r="SU92" s="15"/>
-      <c r="SV92" s="15"/>
-      <c r="SW92" s="15"/>
-      <c r="SX92" s="15"/>
-      <c r="SY92" s="15"/>
-      <c r="SZ92" s="15"/>
-      <c r="TA92" s="15"/>
-      <c r="TB92" s="15"/>
-      <c r="TC92" s="15"/>
-      <c r="TD92" s="15"/>
-      <c r="TE92" s="15"/>
-      <c r="TF92" s="15"/>
-      <c r="TG92" s="15"/>
-      <c r="TH92" s="15"/>
-      <c r="TI92" s="15"/>
-      <c r="TJ92" s="15"/>
-      <c r="TK92" s="15"/>
-      <c r="TL92" s="15"/>
-      <c r="TM92" s="15"/>
-      <c r="TN92" s="15"/>
-      <c r="TO92" s="15"/>
-      <c r="TP92" s="15"/>
-      <c r="TQ92" s="15"/>
-      <c r="TR92" s="15"/>
-      <c r="TS92" s="15"/>
-      <c r="TT92" s="15"/>
-      <c r="TU92" s="15"/>
-      <c r="TV92" s="15"/>
-      <c r="TW92" s="15"/>
-      <c r="TX92" s="15"/>
-      <c r="TY92" s="15"/>
-      <c r="TZ92" s="15"/>
-      <c r="UA92" s="15"/>
-      <c r="UB92" s="15"/>
-      <c r="UC92" s="15"/>
-      <c r="UD92" s="15"/>
-      <c r="UE92" s="15"/>
-      <c r="UF92" s="15"/>
-      <c r="UG92" s="15"/>
-      <c r="UH92" s="15"/>
-      <c r="UI92" s="15"/>
-      <c r="UJ92" s="15"/>
-      <c r="UK92" s="15"/>
-      <c r="UL92" s="15"/>
-      <c r="UM92" s="15"/>
-      <c r="UN92" s="15"/>
-      <c r="UO92" s="15"/>
-      <c r="UP92" s="15"/>
-      <c r="UQ92" s="15"/>
-      <c r="UR92" s="15"/>
-      <c r="US92" s="15"/>
-      <c r="UT92" s="15"/>
-      <c r="UU92" s="15"/>
-      <c r="UV92" s="15"/>
-      <c r="UW92" s="15"/>
-      <c r="UX92" s="15"/>
-      <c r="UY92" s="15"/>
-      <c r="UZ92" s="15"/>
-      <c r="VA92" s="15"/>
-      <c r="VB92" s="15"/>
-      <c r="VC92" s="15"/>
-      <c r="VD92" s="15"/>
-      <c r="VE92" s="15"/>
-      <c r="VF92" s="15"/>
-      <c r="VG92" s="15"/>
-      <c r="VH92" s="15"/>
-      <c r="VI92" s="15"/>
-      <c r="VJ92" s="15"/>
-      <c r="VK92" s="15"/>
-      <c r="VL92" s="15"/>
-      <c r="VM92" s="15"/>
-      <c r="VN92" s="15"/>
-      <c r="VO92" s="15"/>
-      <c r="VP92" s="15"/>
-      <c r="VQ92" s="15"/>
-      <c r="VR92" s="15"/>
-      <c r="VS92" s="15"/>
-      <c r="VT92" s="15"/>
-      <c r="VU92" s="15"/>
-      <c r="VV92" s="15"/>
-      <c r="VW92" s="15"/>
-      <c r="VX92" s="15"/>
-      <c r="VY92" s="15"/>
-      <c r="VZ92" s="15"/>
-      <c r="WA92" s="15"/>
-      <c r="WB92" s="15"/>
-      <c r="WC92" s="15"/>
-      <c r="WD92" s="15"/>
-      <c r="WE92" s="15"/>
-      <c r="WF92" s="15"/>
-      <c r="WG92" s="15"/>
-      <c r="WH92" s="15"/>
-      <c r="WI92" s="15"/>
-      <c r="WJ92" s="15"/>
-      <c r="WK92" s="15"/>
-      <c r="WL92" s="15"/>
-      <c r="WM92" s="15"/>
-      <c r="WN92" s="15"/>
-      <c r="WO92" s="15"/>
-      <c r="WP92" s="15"/>
-      <c r="WQ92" s="15"/>
-      <c r="WR92" s="15"/>
-      <c r="WS92" s="15"/>
-      <c r="WT92" s="15"/>
-      <c r="WU92" s="15"/>
-      <c r="WV92" s="15"/>
-      <c r="WW92" s="15"/>
-      <c r="WX92" s="15"/>
-      <c r="WY92" s="15"/>
-      <c r="WZ92" s="15"/>
-      <c r="XA92" s="15"/>
-      <c r="XB92" s="15"/>
-      <c r="XC92" s="15"/>
-      <c r="XD92" s="15"/>
-      <c r="XE92" s="15"/>
-      <c r="XF92" s="15"/>
-      <c r="XG92" s="15"/>
-      <c r="XH92" s="15"/>
-      <c r="XI92" s="15"/>
-      <c r="XJ92" s="15"/>
-      <c r="XK92" s="15"/>
-      <c r="XL92" s="15"/>
-      <c r="XM92" s="15"/>
-      <c r="XN92" s="15"/>
-      <c r="XO92" s="15"/>
-      <c r="XP92" s="15"/>
-      <c r="XQ92" s="15"/>
-      <c r="XR92" s="15"/>
-      <c r="XS92" s="15"/>
-      <c r="XT92" s="15"/>
-      <c r="XU92" s="15"/>
-      <c r="XV92" s="15"/>
-      <c r="XW92" s="15"/>
-      <c r="XX92" s="15"/>
-      <c r="XY92" s="15"/>
-      <c r="XZ92" s="15"/>
-      <c r="YA92" s="15"/>
-      <c r="YB92" s="15"/>
-      <c r="YC92" s="15"/>
-      <c r="YD92" s="15"/>
-      <c r="YE92" s="15"/>
-      <c r="YF92" s="15"/>
-      <c r="YG92" s="15"/>
-      <c r="YH92" s="15"/>
-      <c r="YI92" s="15"/>
-      <c r="YJ92" s="15"/>
-      <c r="YK92" s="15"/>
-      <c r="YL92" s="15"/>
-      <c r="YM92" s="15"/>
-      <c r="YN92" s="15"/>
-      <c r="YO92" s="15"/>
-      <c r="YP92" s="15"/>
-      <c r="YQ92" s="15"/>
-      <c r="YR92" s="15"/>
-      <c r="YS92" s="15"/>
-      <c r="YT92" s="15"/>
-      <c r="YU92" s="15"/>
-      <c r="YV92" s="15"/>
-      <c r="YW92" s="15"/>
-      <c r="YX92" s="15"/>
-      <c r="YY92" s="15"/>
-      <c r="YZ92" s="15"/>
-      <c r="ZA92" s="15"/>
-      <c r="ZB92" s="15"/>
-      <c r="ZC92" s="15"/>
-      <c r="ZD92" s="15"/>
-      <c r="ZE92" s="15"/>
-      <c r="ZF92" s="15"/>
-      <c r="ZG92" s="15"/>
-      <c r="ZH92" s="15"/>
-      <c r="ZI92" s="15"/>
-      <c r="ZJ92" s="15"/>
-      <c r="ZK92" s="15"/>
-      <c r="ZL92" s="15"/>
-      <c r="ZM92" s="15"/>
-      <c r="ZN92" s="15"/>
-      <c r="ZO92" s="15"/>
-      <c r="ZP92" s="15"/>
-      <c r="ZQ92" s="15"/>
-      <c r="ZR92" s="15"/>
-      <c r="ZS92" s="15"/>
-      <c r="ZT92" s="15"/>
-      <c r="ZU92" s="15"/>
-      <c r="ZV92" s="15"/>
-      <c r="ZW92" s="15"/>
-      <c r="ZX92" s="15"/>
-      <c r="ZY92" s="15"/>
-      <c r="ZZ92" s="15"/>
-      <c r="AAA92" s="15"/>
-      <c r="AAB92" s="15"/>
-      <c r="AAC92" s="15"/>
-      <c r="AAD92" s="15"/>
-      <c r="AAE92" s="15"/>
-      <c r="AAF92" s="15"/>
-      <c r="AAG92" s="15"/>
-      <c r="AAH92" s="15"/>
-      <c r="AAI92" s="15"/>
-      <c r="AAJ92" s="15"/>
-      <c r="AAK92" s="15"/>
-      <c r="AAL92" s="15"/>
-      <c r="AAM92" s="15"/>
-      <c r="AAN92" s="15"/>
-      <c r="AAO92" s="15"/>
-      <c r="AAP92" s="15"/>
-      <c r="AAQ92" s="15"/>
-      <c r="AAR92" s="15"/>
-      <c r="AAS92" s="15"/>
-      <c r="AAT92" s="15"/>
-      <c r="AAU92" s="15"/>
-      <c r="AAV92" s="15"/>
-      <c r="AAW92" s="15"/>
-      <c r="AAX92" s="15"/>
-      <c r="AAY92" s="15"/>
-      <c r="AAZ92" s="15"/>
-      <c r="ABA92" s="15"/>
-      <c r="ABB92" s="15"/>
-      <c r="ABC92" s="15"/>
-      <c r="ABD92" s="15"/>
-      <c r="ABE92" s="15"/>
-      <c r="ABF92" s="15"/>
-      <c r="ABG92" s="15"/>
-      <c r="ABH92" s="15"/>
-      <c r="ABI92" s="15"/>
-      <c r="ABJ92" s="15"/>
-      <c r="ABK92" s="15"/>
-      <c r="ABL92" s="15"/>
-      <c r="ABM92" s="15"/>
-      <c r="ABN92" s="15"/>
-      <c r="ABO92" s="15"/>
-      <c r="ABP92" s="15"/>
-      <c r="ABQ92" s="15"/>
-      <c r="ABR92" s="15"/>
-      <c r="ABS92" s="15"/>
-      <c r="ABT92" s="15"/>
-      <c r="ABU92" s="15"/>
-      <c r="ABV92" s="15"/>
-      <c r="ABW92" s="15"/>
-      <c r="ABX92" s="15"/>
-      <c r="ABY92" s="15"/>
-      <c r="ABZ92" s="15"/>
-      <c r="ACA92" s="15"/>
-      <c r="ACB92" s="15"/>
-      <c r="ACC92" s="15"/>
-      <c r="ACD92" s="15"/>
-      <c r="ACE92" s="15"/>
-      <c r="ACF92" s="15"/>
-      <c r="ACG92" s="15"/>
-      <c r="ACH92" s="15"/>
-      <c r="ACI92" s="15"/>
-      <c r="ACJ92" s="15"/>
-      <c r="ACK92" s="15"/>
-      <c r="ACL92" s="15"/>
-      <c r="ACM92" s="15"/>
-      <c r="ACN92" s="15"/>
-      <c r="ACO92" s="15"/>
-      <c r="ACP92" s="15"/>
-      <c r="ACQ92" s="15"/>
-      <c r="ACR92" s="15"/>
-      <c r="ACS92" s="15"/>
-      <c r="ACT92" s="15"/>
-      <c r="ACU92" s="15"/>
-      <c r="ACV92" s="15"/>
-      <c r="ACW92" s="15"/>
-      <c r="ACX92" s="15"/>
-      <c r="ACY92" s="15"/>
-      <c r="ACZ92" s="15"/>
-      <c r="ADA92" s="15"/>
-      <c r="ADB92" s="15"/>
-      <c r="ADC92" s="15"/>
-      <c r="ADD92" s="15"/>
-      <c r="ADE92" s="15"/>
-      <c r="ADF92" s="15"/>
-      <c r="ADG92" s="15"/>
-      <c r="ADH92" s="15"/>
-      <c r="ADI92" s="15"/>
-      <c r="ADJ92" s="15"/>
-      <c r="ADK92" s="15"/>
-      <c r="ADL92" s="15"/>
-      <c r="ADM92" s="15"/>
-      <c r="ADN92" s="15"/>
-      <c r="ADO92" s="15"/>
-      <c r="ADP92" s="15"/>
-      <c r="ADQ92" s="15"/>
-      <c r="ADR92" s="15"/>
-      <c r="ADS92" s="15"/>
-      <c r="ADT92" s="15"/>
-      <c r="ADU92" s="15"/>
-      <c r="ADV92" s="15"/>
-      <c r="ADW92" s="15"/>
-      <c r="ADX92" s="15"/>
-      <c r="ADY92" s="15"/>
-      <c r="ADZ92" s="15"/>
-      <c r="AEA92" s="15"/>
-      <c r="AEB92" s="15"/>
-      <c r="AEC92" s="15"/>
-      <c r="AED92" s="15"/>
-      <c r="AEE92" s="15"/>
-      <c r="AEF92" s="15"/>
-      <c r="AEG92" s="15"/>
-      <c r="AEH92" s="15"/>
-      <c r="AEI92" s="15"/>
-      <c r="AEJ92" s="15"/>
-      <c r="AEK92" s="15"/>
-      <c r="AEL92" s="15"/>
-      <c r="AEM92" s="15"/>
-      <c r="AEN92" s="15"/>
-      <c r="AEO92" s="15"/>
-      <c r="AEP92" s="15"/>
-      <c r="AEQ92" s="15"/>
-      <c r="AER92" s="15"/>
-      <c r="AES92" s="15"/>
-      <c r="AET92" s="15"/>
-      <c r="AEU92" s="15"/>
-      <c r="AEV92" s="15"/>
-      <c r="AEW92" s="15"/>
-      <c r="AEX92" s="15"/>
-      <c r="AEY92" s="15"/>
-      <c r="AEZ92" s="15"/>
-      <c r="AFA92" s="15"/>
-      <c r="AFB92" s="15"/>
-      <c r="AFC92" s="15"/>
-      <c r="AFD92" s="15"/>
-      <c r="AFE92" s="15"/>
-      <c r="AFF92" s="15"/>
-      <c r="AFG92" s="15"/>
-      <c r="AFH92" s="15"/>
-      <c r="AFI92" s="15"/>
-      <c r="AFJ92" s="15"/>
-      <c r="AFK92" s="15"/>
-      <c r="AFL92" s="15"/>
-      <c r="AFM92" s="15"/>
-      <c r="AFN92" s="15"/>
-      <c r="AFO92" s="15"/>
-      <c r="AFP92" s="15"/>
-      <c r="AFQ92" s="15"/>
-      <c r="AFR92" s="15"/>
-      <c r="AFS92" s="15"/>
-      <c r="AFT92" s="15"/>
-      <c r="AFU92" s="15"/>
-      <c r="AFV92" s="15"/>
-      <c r="AFW92" s="15"/>
-      <c r="AFX92" s="15"/>
-      <c r="AFY92" s="15"/>
-      <c r="AFZ92" s="15"/>
-      <c r="AGA92" s="15"/>
-      <c r="AGB92" s="15"/>
-      <c r="AGC92" s="15"/>
-      <c r="AGD92" s="15"/>
-      <c r="AGE92" s="15"/>
-      <c r="AGF92" s="15"/>
-      <c r="AGG92" s="15"/>
-      <c r="AGH92" s="15"/>
-      <c r="AGI92" s="15"/>
-      <c r="AGJ92" s="15"/>
-      <c r="AGK92" s="15"/>
-      <c r="AGL92" s="15"/>
-      <c r="AGM92" s="15"/>
-      <c r="AGN92" s="15"/>
-      <c r="AGO92" s="15"/>
-      <c r="AGP92" s="15"/>
-      <c r="AGQ92" s="15"/>
-      <c r="AGR92" s="15"/>
-      <c r="AGS92" s="15"/>
-      <c r="AGT92" s="15"/>
-      <c r="AGU92" s="15"/>
-      <c r="AGV92" s="15"/>
-      <c r="AGW92" s="15"/>
-      <c r="AGX92" s="15"/>
-      <c r="AGY92" s="15"/>
-      <c r="AGZ92" s="15"/>
-      <c r="AHA92" s="15"/>
-      <c r="AHB92" s="15"/>
-      <c r="AHC92" s="15"/>
-      <c r="AHD92" s="15"/>
-      <c r="AHE92" s="15"/>
-      <c r="AHF92" s="15"/>
-      <c r="AHG92" s="15"/>
-      <c r="AHH92" s="15"/>
-      <c r="AHI92" s="15"/>
-      <c r="AHJ92" s="15"/>
-      <c r="AHK92" s="15"/>
-      <c r="AHL92" s="15"/>
-      <c r="AHM92" s="15"/>
-      <c r="AHN92" s="15"/>
-      <c r="AHO92" s="15"/>
-      <c r="AHP92" s="15"/>
-      <c r="AHQ92" s="15"/>
-      <c r="AHR92" s="15"/>
-      <c r="AHS92" s="15"/>
-      <c r="AHT92" s="15"/>
-      <c r="AHU92" s="15"/>
-      <c r="AHV92" s="15"/>
-      <c r="AHW92" s="15"/>
-      <c r="AHX92" s="15"/>
-      <c r="AHY92" s="15"/>
-      <c r="AHZ92" s="15"/>
-      <c r="AIA92" s="15"/>
-      <c r="AIB92" s="15"/>
-      <c r="AIC92" s="15"/>
-      <c r="AID92" s="15"/>
-      <c r="AIE92" s="15"/>
-      <c r="AIF92" s="15"/>
-      <c r="AIG92" s="15"/>
-      <c r="AIH92" s="15"/>
-      <c r="AII92" s="15"/>
-      <c r="AIJ92" s="15"/>
-      <c r="AIK92" s="15"/>
-      <c r="AIL92" s="15"/>
-      <c r="AIM92" s="15"/>
-      <c r="AIN92" s="15"/>
-      <c r="AIO92" s="15"/>
-      <c r="AIP92" s="15"/>
-      <c r="AIQ92" s="15"/>
-      <c r="AIR92" s="15"/>
-      <c r="AIS92" s="15"/>
-      <c r="AIT92" s="15"/>
-      <c r="AIU92" s="15"/>
-      <c r="AIV92" s="15"/>
-      <c r="AIW92" s="15"/>
-      <c r="AIX92" s="15"/>
-      <c r="AIY92" s="15"/>
-      <c r="AIZ92" s="15"/>
-      <c r="AJA92" s="15"/>
-      <c r="AJB92" s="15"/>
-      <c r="AJC92" s="15"/>
-      <c r="AJD92" s="15"/>
-      <c r="AJE92" s="15"/>
-      <c r="AJF92" s="15"/>
-      <c r="AJG92" s="15"/>
-      <c r="AJH92" s="15"/>
-      <c r="AJI92" s="15"/>
-      <c r="AJJ92" s="15"/>
-      <c r="AJK92" s="15"/>
-      <c r="AJL92" s="15"/>
-      <c r="AJM92" s="15"/>
-      <c r="AJN92" s="15"/>
-      <c r="AJO92" s="15"/>
-      <c r="AJP92" s="15"/>
-      <c r="AJQ92" s="15"/>
-      <c r="AJR92" s="15"/>
-      <c r="AJS92" s="15"/>
-      <c r="AJT92" s="15"/>
-      <c r="AJU92" s="15"/>
-      <c r="AJV92" s="15"/>
-      <c r="AJW92" s="15"/>
-      <c r="AJX92" s="15"/>
-      <c r="AJY92" s="15"/>
-      <c r="AJZ92" s="15"/>
-      <c r="AKA92" s="15"/>
-      <c r="AKB92" s="15"/>
-      <c r="AKC92" s="15"/>
-      <c r="AKD92" s="15"/>
-      <c r="AKE92" s="15"/>
-      <c r="AKF92" s="15"/>
-      <c r="AKG92" s="15"/>
-      <c r="AKH92" s="15"/>
-      <c r="AKI92" s="15"/>
-      <c r="AKJ92" s="15"/>
-      <c r="AKK92" s="15"/>
-      <c r="AKL92" s="15"/>
-      <c r="AKM92" s="15"/>
-      <c r="AKN92" s="15"/>
-      <c r="AKO92" s="15"/>
-      <c r="AKP92" s="15"/>
-      <c r="AKQ92" s="15"/>
-      <c r="AKR92" s="15"/>
-      <c r="AKS92" s="15"/>
-      <c r="AKT92" s="15"/>
-      <c r="AKU92" s="15"/>
-      <c r="AKV92" s="15"/>
-      <c r="AKW92" s="15"/>
-      <c r="AKX92" s="15"/>
-      <c r="AKY92" s="15"/>
-      <c r="AKZ92" s="15"/>
-      <c r="ALA92" s="15"/>
-      <c r="ALB92" s="15"/>
-      <c r="ALC92" s="15"/>
-      <c r="ALD92" s="15"/>
-      <c r="ALE92" s="15"/>
-      <c r="ALF92" s="15"/>
-      <c r="ALG92" s="15"/>
-      <c r="ALH92" s="15"/>
-      <c r="ALI92" s="15"/>
-      <c r="ALJ92" s="15"/>
-      <c r="ALK92" s="15"/>
-      <c r="ALL92" s="15"/>
-      <c r="ALM92" s="15"/>
-      <c r="ALN92" s="15"/>
-      <c r="ALO92" s="15"/>
-      <c r="ALP92" s="15"/>
-      <c r="ALQ92" s="15"/>
-      <c r="ALR92" s="15"/>
-      <c r="ALS92" s="15"/>
-      <c r="ALT92" s="15"/>
-      <c r="ALU92" s="15"/>
-      <c r="ALV92" s="15"/>
-      <c r="ALW92" s="15"/>
-      <c r="ALX92" s="15"/>
-      <c r="ALY92" s="15"/>
-      <c r="ALZ92" s="15"/>
-      <c r="AMA92" s="15"/>
-      <c r="AMB92" s="15"/>
-      <c r="AMC92" s="15"/>
-      <c r="AMD92" s="15"/>
-      <c r="AME92" s="15"/>
-      <c r="AMF92" s="15"/>
-      <c r="AMG92" s="15"/>
-      <c r="AMH92" s="15"/>
-      <c r="AMI92" s="15"/>
-      <c r="AMJ92" s="15"/>
-      <c r="AMK92" s="15"/>
-      <c r="AML92" s="15"/>
-      <c r="AMM92" s="15"/>
+      <c r="O93" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="15"/>
+      <c r="AN93" s="15"/>
+      <c r="AO93" s="15"/>
+      <c r="AP93" s="15"/>
+      <c r="AQ93" s="15"/>
+      <c r="AR93" s="15"/>
+      <c r="AS93" s="15"/>
+      <c r="AT93" s="15"/>
+      <c r="AU93" s="15"/>
+      <c r="AV93" s="15"/>
+      <c r="AW93" s="15"/>
+      <c r="AX93" s="15"/>
+      <c r="AY93" s="15"/>
+      <c r="AZ93" s="15"/>
+      <c r="BA93" s="15"/>
+      <c r="BB93" s="15"/>
+      <c r="BC93" s="15"/>
+      <c r="BD93" s="15"/>
+      <c r="BE93" s="15"/>
+      <c r="BF93" s="15"/>
+      <c r="BG93" s="15"/>
+      <c r="BH93" s="15"/>
+      <c r="BI93" s="15"/>
+      <c r="BJ93" s="15"/>
+      <c r="BK93" s="15"/>
+      <c r="BL93" s="15"/>
+      <c r="BM93" s="15"/>
+      <c r="BN93" s="15"/>
+      <c r="BO93" s="15"/>
+      <c r="BP93" s="15"/>
+      <c r="BQ93" s="15"/>
+      <c r="BR93" s="15"/>
+      <c r="BS93" s="15"/>
+      <c r="BT93" s="15"/>
+      <c r="BU93" s="15"/>
+      <c r="BV93" s="15"/>
+      <c r="BW93" s="15"/>
+      <c r="BX93" s="15"/>
+      <c r="BY93" s="15"/>
+      <c r="BZ93" s="15"/>
+      <c r="CA93" s="15"/>
+      <c r="CB93" s="15"/>
+      <c r="CC93" s="15"/>
+      <c r="CD93" s="15"/>
+      <c r="CE93" s="15"/>
+      <c r="CF93" s="15"/>
+      <c r="CG93" s="15"/>
+      <c r="CH93" s="15"/>
+      <c r="CI93" s="15"/>
+      <c r="CJ93" s="15"/>
+      <c r="CK93" s="15"/>
+      <c r="CL93" s="15"/>
+      <c r="CM93" s="15"/>
+      <c r="CN93" s="15"/>
+      <c r="CO93" s="15"/>
+      <c r="CP93" s="15"/>
+      <c r="CQ93" s="15"/>
+      <c r="CR93" s="15"/>
+      <c r="CS93" s="15"/>
+      <c r="CT93" s="15"/>
+      <c r="CU93" s="15"/>
+      <c r="CV93" s="15"/>
+      <c r="CW93" s="15"/>
+      <c r="CX93" s="15"/>
+      <c r="CY93" s="15"/>
+      <c r="CZ93" s="15"/>
+      <c r="DA93" s="15"/>
+      <c r="DB93" s="15"/>
+      <c r="DC93" s="15"/>
+      <c r="DD93" s="15"/>
+      <c r="DE93" s="15"/>
+      <c r="DF93" s="15"/>
+      <c r="DG93" s="15"/>
+      <c r="DH93" s="15"/>
+      <c r="DI93" s="15"/>
+      <c r="DJ93" s="15"/>
+      <c r="DK93" s="15"/>
+      <c r="DL93" s="15"/>
+      <c r="DM93" s="15"/>
+      <c r="DN93" s="15"/>
+      <c r="DO93" s="15"/>
+      <c r="DP93" s="15"/>
+      <c r="DQ93" s="15"/>
+      <c r="DR93" s="15"/>
+      <c r="DS93" s="15"/>
+      <c r="DT93" s="15"/>
+      <c r="DU93" s="15"/>
+      <c r="DV93" s="15"/>
+      <c r="DW93" s="15"/>
+      <c r="DX93" s="15"/>
+      <c r="DY93" s="15"/>
+      <c r="DZ93" s="15"/>
+      <c r="EA93" s="15"/>
+      <c r="EB93" s="15"/>
+      <c r="EC93" s="15"/>
+      <c r="ED93" s="15"/>
+      <c r="EE93" s="15"/>
+      <c r="EF93" s="15"/>
+      <c r="EG93" s="15"/>
+      <c r="EH93" s="15"/>
+      <c r="EI93" s="15"/>
+      <c r="EJ93" s="15"/>
+      <c r="EK93" s="15"/>
+      <c r="EL93" s="15"/>
+      <c r="EM93" s="15"/>
+      <c r="EN93" s="15"/>
+      <c r="EO93" s="15"/>
+      <c r="EP93" s="15"/>
+      <c r="EQ93" s="15"/>
+      <c r="ER93" s="15"/>
+      <c r="ES93" s="15"/>
+      <c r="ET93" s="15"/>
+      <c r="EU93" s="15"/>
+      <c r="EV93" s="15"/>
+      <c r="EW93" s="15"/>
+      <c r="EX93" s="15"/>
+      <c r="EY93" s="15"/>
+      <c r="EZ93" s="15"/>
+      <c r="FA93" s="15"/>
+      <c r="FB93" s="15"/>
+      <c r="FC93" s="15"/>
+      <c r="FD93" s="15"/>
+      <c r="FE93" s="15"/>
+      <c r="FF93" s="15"/>
+      <c r="FG93" s="15"/>
+      <c r="FH93" s="15"/>
+      <c r="FI93" s="15"/>
+      <c r="FJ93" s="15"/>
+      <c r="FK93" s="15"/>
+      <c r="FL93" s="15"/>
+      <c r="FM93" s="15"/>
+      <c r="FN93" s="15"/>
+      <c r="FO93" s="15"/>
+      <c r="FP93" s="15"/>
+      <c r="FQ93" s="15"/>
+      <c r="FR93" s="15"/>
+      <c r="FS93" s="15"/>
+      <c r="FT93" s="15"/>
+      <c r="FU93" s="15"/>
+      <c r="FV93" s="15"/>
+      <c r="FW93" s="15"/>
+      <c r="FX93" s="15"/>
+      <c r="FY93" s="15"/>
+      <c r="FZ93" s="15"/>
+      <c r="GA93" s="15"/>
+      <c r="GB93" s="15"/>
+      <c r="GC93" s="15"/>
+      <c r="GD93" s="15"/>
+      <c r="GE93" s="15"/>
+      <c r="GF93" s="15"/>
+      <c r="GG93" s="15"/>
+      <c r="GH93" s="15"/>
+      <c r="GI93" s="15"/>
+      <c r="GJ93" s="15"/>
+      <c r="GK93" s="15"/>
+      <c r="GL93" s="15"/>
+      <c r="GM93" s="15"/>
+      <c r="GN93" s="15"/>
+      <c r="GO93" s="15"/>
+      <c r="GP93" s="15"/>
+      <c r="GQ93" s="15"/>
+      <c r="GR93" s="15"/>
+      <c r="GS93" s="15"/>
+      <c r="GT93" s="15"/>
+      <c r="GU93" s="15"/>
+      <c r="GV93" s="15"/>
+      <c r="GW93" s="15"/>
+      <c r="GX93" s="15"/>
+      <c r="GY93" s="15"/>
+      <c r="GZ93" s="15"/>
+      <c r="HA93" s="15"/>
+      <c r="HB93" s="15"/>
+      <c r="HC93" s="15"/>
+      <c r="HD93" s="15"/>
+      <c r="HE93" s="15"/>
+      <c r="HF93" s="15"/>
+      <c r="HG93" s="15"/>
+      <c r="HH93" s="15"/>
+      <c r="HI93" s="15"/>
+      <c r="HJ93" s="15"/>
+      <c r="HK93" s="15"/>
+      <c r="HL93" s="15"/>
+      <c r="HM93" s="15"/>
+      <c r="HN93" s="15"/>
+      <c r="HO93" s="15"/>
+      <c r="HP93" s="15"/>
+      <c r="HQ93" s="15"/>
+      <c r="HR93" s="15"/>
+      <c r="HS93" s="15"/>
+      <c r="HT93" s="15"/>
+      <c r="HU93" s="15"/>
+      <c r="HV93" s="15"/>
+      <c r="HW93" s="15"/>
+      <c r="HX93" s="15"/>
+      <c r="HY93" s="15"/>
+      <c r="HZ93" s="15"/>
+      <c r="IA93" s="15"/>
+      <c r="IB93" s="15"/>
+      <c r="IC93" s="15"/>
+      <c r="ID93" s="15"/>
+      <c r="IE93" s="15"/>
+      <c r="IF93" s="15"/>
+      <c r="IG93" s="15"/>
+      <c r="IH93" s="15"/>
+      <c r="II93" s="15"/>
+      <c r="IJ93" s="15"/>
+      <c r="IK93" s="15"/>
+      <c r="IL93" s="15"/>
+      <c r="IM93" s="15"/>
+      <c r="IN93" s="15"/>
+      <c r="IO93" s="15"/>
+      <c r="IP93" s="15"/>
+      <c r="IQ93" s="15"/>
+      <c r="IR93" s="15"/>
+      <c r="IS93" s="15"/>
+      <c r="IT93" s="15"/>
+      <c r="IU93" s="15"/>
+      <c r="IV93" s="15"/>
+      <c r="IW93" s="15"/>
+      <c r="IX93" s="15"/>
+      <c r="IY93" s="15"/>
+      <c r="IZ93" s="15"/>
+      <c r="JA93" s="15"/>
+      <c r="JB93" s="15"/>
+      <c r="JC93" s="15"/>
+      <c r="JD93" s="15"/>
+      <c r="JE93" s="15"/>
+      <c r="JF93" s="15"/>
+      <c r="JG93" s="15"/>
+      <c r="JH93" s="15"/>
+      <c r="JI93" s="15"/>
+      <c r="JJ93" s="15"/>
+      <c r="JK93" s="15"/>
+      <c r="JL93" s="15"/>
+      <c r="JM93" s="15"/>
+      <c r="JN93" s="15"/>
+      <c r="JO93" s="15"/>
+      <c r="JP93" s="15"/>
+      <c r="JQ93" s="15"/>
+      <c r="JR93" s="15"/>
+      <c r="JS93" s="15"/>
+      <c r="JT93" s="15"/>
+      <c r="JU93" s="15"/>
+      <c r="JV93" s="15"/>
+      <c r="JW93" s="15"/>
+      <c r="JX93" s="15"/>
+      <c r="JY93" s="15"/>
+      <c r="JZ93" s="15"/>
+      <c r="KA93" s="15"/>
+      <c r="KB93" s="15"/>
+      <c r="KC93" s="15"/>
+      <c r="KD93" s="15"/>
+      <c r="KE93" s="15"/>
+      <c r="KF93" s="15"/>
+      <c r="KG93" s="15"/>
+      <c r="KH93" s="15"/>
+      <c r="KI93" s="15"/>
+      <c r="KJ93" s="15"/>
+      <c r="KK93" s="15"/>
+      <c r="KL93" s="15"/>
+      <c r="KM93" s="15"/>
+      <c r="KN93" s="15"/>
+      <c r="KO93" s="15"/>
+      <c r="KP93" s="15"/>
+      <c r="KQ93" s="15"/>
+      <c r="KR93" s="15"/>
+      <c r="KS93" s="15"/>
+      <c r="KT93" s="15"/>
+      <c r="KU93" s="15"/>
+      <c r="KV93" s="15"/>
+      <c r="KW93" s="15"/>
+      <c r="KX93" s="15"/>
+      <c r="KY93" s="15"/>
+      <c r="KZ93" s="15"/>
+      <c r="LA93" s="15"/>
+      <c r="LB93" s="15"/>
+      <c r="LC93" s="15"/>
+      <c r="LD93" s="15"/>
+      <c r="LE93" s="15"/>
+      <c r="LF93" s="15"/>
+      <c r="LG93" s="15"/>
+      <c r="LH93" s="15"/>
+      <c r="LI93" s="15"/>
+      <c r="LJ93" s="15"/>
+      <c r="LK93" s="15"/>
+      <c r="LL93" s="15"/>
+      <c r="LM93" s="15"/>
+      <c r="LN93" s="15"/>
+      <c r="LO93" s="15"/>
+      <c r="LP93" s="15"/>
+      <c r="LQ93" s="15"/>
+      <c r="LR93" s="15"/>
+      <c r="LS93" s="15"/>
+      <c r="LT93" s="15"/>
+      <c r="LU93" s="15"/>
+      <c r="LV93" s="15"/>
+      <c r="LW93" s="15"/>
+      <c r="LX93" s="15"/>
+      <c r="LY93" s="15"/>
+      <c r="LZ93" s="15"/>
+      <c r="MA93" s="15"/>
+      <c r="MB93" s="15"/>
+      <c r="MC93" s="15"/>
+      <c r="MD93" s="15"/>
+      <c r="ME93" s="15"/>
+      <c r="MF93" s="15"/>
+      <c r="MG93" s="15"/>
+      <c r="MH93" s="15"/>
+      <c r="MI93" s="15"/>
+      <c r="MJ93" s="15"/>
+      <c r="MK93" s="15"/>
+      <c r="ML93" s="15"/>
+      <c r="MM93" s="15"/>
+      <c r="MN93" s="15"/>
+      <c r="MO93" s="15"/>
+      <c r="MP93" s="15"/>
+      <c r="MQ93" s="15"/>
+      <c r="MR93" s="15"/>
+      <c r="MS93" s="15"/>
+      <c r="MT93" s="15"/>
+      <c r="MU93" s="15"/>
+      <c r="MV93" s="15"/>
+      <c r="MW93" s="15"/>
+      <c r="MX93" s="15"/>
+      <c r="MY93" s="15"/>
+      <c r="MZ93" s="15"/>
+      <c r="NA93" s="15"/>
+      <c r="NB93" s="15"/>
+      <c r="NC93" s="15"/>
+      <c r="ND93" s="15"/>
+      <c r="NE93" s="15"/>
+      <c r="NF93" s="15"/>
+      <c r="NG93" s="15"/>
+      <c r="NH93" s="15"/>
+      <c r="NI93" s="15"/>
+      <c r="NJ93" s="15"/>
+      <c r="NK93" s="15"/>
+      <c r="NL93" s="15"/>
+      <c r="NM93" s="15"/>
+      <c r="NN93" s="15"/>
+      <c r="NO93" s="15"/>
+      <c r="NP93" s="15"/>
+      <c r="NQ93" s="15"/>
+      <c r="NR93" s="15"/>
+      <c r="NS93" s="15"/>
+      <c r="NT93" s="15"/>
+      <c r="NU93" s="15"/>
+      <c r="NV93" s="15"/>
+      <c r="NW93" s="15"/>
+      <c r="NX93" s="15"/>
+      <c r="NY93" s="15"/>
+      <c r="NZ93" s="15"/>
+      <c r="OA93" s="15"/>
+      <c r="OB93" s="15"/>
+      <c r="OC93" s="15"/>
+      <c r="OD93" s="15"/>
+      <c r="OE93" s="15"/>
+      <c r="OF93" s="15"/>
+      <c r="OG93" s="15"/>
+      <c r="OH93" s="15"/>
+      <c r="OI93" s="15"/>
+      <c r="OJ93" s="15"/>
+      <c r="OK93" s="15"/>
+      <c r="OL93" s="15"/>
+      <c r="OM93" s="15"/>
+      <c r="ON93" s="15"/>
+      <c r="OO93" s="15"/>
+      <c r="OP93" s="15"/>
+      <c r="OQ93" s="15"/>
+      <c r="OR93" s="15"/>
+      <c r="OS93" s="15"/>
+      <c r="OT93" s="15"/>
+      <c r="OU93" s="15"/>
+      <c r="OV93" s="15"/>
+      <c r="OW93" s="15"/>
+      <c r="OX93" s="15"/>
+      <c r="OY93" s="15"/>
+      <c r="OZ93" s="15"/>
+      <c r="PA93" s="15"/>
+      <c r="PB93" s="15"/>
+      <c r="PC93" s="15"/>
+      <c r="PD93" s="15"/>
+      <c r="PE93" s="15"/>
+      <c r="PF93" s="15"/>
+      <c r="PG93" s="15"/>
+      <c r="PH93" s="15"/>
+      <c r="PI93" s="15"/>
+      <c r="PJ93" s="15"/>
+      <c r="PK93" s="15"/>
+      <c r="PL93" s="15"/>
+      <c r="PM93" s="15"/>
+      <c r="PN93" s="15"/>
+      <c r="PO93" s="15"/>
+      <c r="PP93" s="15"/>
+      <c r="PQ93" s="15"/>
+      <c r="PR93" s="15"/>
+      <c r="PS93" s="15"/>
+      <c r="PT93" s="15"/>
+      <c r="PU93" s="15"/>
+      <c r="PV93" s="15"/>
+      <c r="PW93" s="15"/>
+      <c r="PX93" s="15"/>
+      <c r="PY93" s="15"/>
+      <c r="PZ93" s="15"/>
+      <c r="QA93" s="15"/>
+      <c r="QB93" s="15"/>
+      <c r="QC93" s="15"/>
+      <c r="QD93" s="15"/>
+      <c r="QE93" s="15"/>
+      <c r="QF93" s="15"/>
+      <c r="QG93" s="15"/>
+      <c r="QH93" s="15"/>
+      <c r="QI93" s="15"/>
+      <c r="QJ93" s="15"/>
+      <c r="QK93" s="15"/>
+      <c r="QL93" s="15"/>
+      <c r="QM93" s="15"/>
+      <c r="QN93" s="15"/>
+      <c r="QO93" s="15"/>
+      <c r="QP93" s="15"/>
+      <c r="QQ93" s="15"/>
+      <c r="QR93" s="15"/>
+      <c r="QS93" s="15"/>
+      <c r="QT93" s="15"/>
+      <c r="QU93" s="15"/>
+      <c r="QV93" s="15"/>
+      <c r="QW93" s="15"/>
+      <c r="QX93" s="15"/>
+      <c r="QY93" s="15"/>
+      <c r="QZ93" s="15"/>
+      <c r="RA93" s="15"/>
+      <c r="RB93" s="15"/>
+      <c r="RC93" s="15"/>
+      <c r="RD93" s="15"/>
+      <c r="RE93" s="15"/>
+      <c r="RF93" s="15"/>
+      <c r="RG93" s="15"/>
+      <c r="RH93" s="15"/>
+      <c r="RI93" s="15"/>
+      <c r="RJ93" s="15"/>
+      <c r="RK93" s="15"/>
+      <c r="RL93" s="15"/>
+      <c r="RM93" s="15"/>
+      <c r="RN93" s="15"/>
+      <c r="RO93" s="15"/>
+      <c r="RP93" s="15"/>
+      <c r="RQ93" s="15"/>
+      <c r="RR93" s="15"/>
+      <c r="RS93" s="15"/>
+      <c r="RT93" s="15"/>
+      <c r="RU93" s="15"/>
+      <c r="RV93" s="15"/>
+      <c r="RW93" s="15"/>
+      <c r="RX93" s="15"/>
+      <c r="RY93" s="15"/>
+      <c r="RZ93" s="15"/>
+      <c r="SA93" s="15"/>
+      <c r="SB93" s="15"/>
+      <c r="SC93" s="15"/>
+      <c r="SD93" s="15"/>
+      <c r="SE93" s="15"/>
+      <c r="SF93" s="15"/>
+      <c r="SG93" s="15"/>
+      <c r="SH93" s="15"/>
+      <c r="SI93" s="15"/>
+      <c r="SJ93" s="15"/>
+      <c r="SK93" s="15"/>
+      <c r="SL93" s="15"/>
+      <c r="SM93" s="15"/>
+      <c r="SN93" s="15"/>
+      <c r="SO93" s="15"/>
+      <c r="SP93" s="15"/>
+      <c r="SQ93" s="15"/>
+      <c r="SR93" s="15"/>
+      <c r="SS93" s="15"/>
+      <c r="ST93" s="15"/>
+      <c r="SU93" s="15"/>
+      <c r="SV93" s="15"/>
+      <c r="SW93" s="15"/>
+      <c r="SX93" s="15"/>
+      <c r="SY93" s="15"/>
+      <c r="SZ93" s="15"/>
+      <c r="TA93" s="15"/>
+      <c r="TB93" s="15"/>
+      <c r="TC93" s="15"/>
+      <c r="TD93" s="15"/>
+      <c r="TE93" s="15"/>
+      <c r="TF93" s="15"/>
+      <c r="TG93" s="15"/>
+      <c r="TH93" s="15"/>
+      <c r="TI93" s="15"/>
+      <c r="TJ93" s="15"/>
+      <c r="TK93" s="15"/>
+      <c r="TL93" s="15"/>
+      <c r="TM93" s="15"/>
+      <c r="TN93" s="15"/>
+      <c r="TO93" s="15"/>
+      <c r="TP93" s="15"/>
+      <c r="TQ93" s="15"/>
+      <c r="TR93" s="15"/>
+      <c r="TS93" s="15"/>
+      <c r="TT93" s="15"/>
+      <c r="TU93" s="15"/>
+      <c r="TV93" s="15"/>
+      <c r="TW93" s="15"/>
+      <c r="TX93" s="15"/>
+      <c r="TY93" s="15"/>
+      <c r="TZ93" s="15"/>
+      <c r="UA93" s="15"/>
+      <c r="UB93" s="15"/>
+      <c r="UC93" s="15"/>
+      <c r="UD93" s="15"/>
+      <c r="UE93" s="15"/>
+      <c r="UF93" s="15"/>
+      <c r="UG93" s="15"/>
+      <c r="UH93" s="15"/>
+      <c r="UI93" s="15"/>
+      <c r="UJ93" s="15"/>
+      <c r="UK93" s="15"/>
+      <c r="UL93" s="15"/>
+      <c r="UM93" s="15"/>
+      <c r="UN93" s="15"/>
+      <c r="UO93" s="15"/>
+      <c r="UP93" s="15"/>
+      <c r="UQ93" s="15"/>
+      <c r="UR93" s="15"/>
+      <c r="US93" s="15"/>
+      <c r="UT93" s="15"/>
+      <c r="UU93" s="15"/>
+      <c r="UV93" s="15"/>
+      <c r="UW93" s="15"/>
+      <c r="UX93" s="15"/>
+      <c r="UY93" s="15"/>
+      <c r="UZ93" s="15"/>
+      <c r="VA93" s="15"/>
+      <c r="VB93" s="15"/>
+      <c r="VC93" s="15"/>
+      <c r="VD93" s="15"/>
+      <c r="VE93" s="15"/>
+      <c r="VF93" s="15"/>
+      <c r="VG93" s="15"/>
+      <c r="VH93" s="15"/>
+      <c r="VI93" s="15"/>
+      <c r="VJ93" s="15"/>
+      <c r="VK93" s="15"/>
+      <c r="VL93" s="15"/>
+      <c r="VM93" s="15"/>
+      <c r="VN93" s="15"/>
+      <c r="VO93" s="15"/>
+      <c r="VP93" s="15"/>
+      <c r="VQ93" s="15"/>
+      <c r="VR93" s="15"/>
+      <c r="VS93" s="15"/>
+      <c r="VT93" s="15"/>
+      <c r="VU93" s="15"/>
+      <c r="VV93" s="15"/>
+      <c r="VW93" s="15"/>
+      <c r="VX93" s="15"/>
+      <c r="VY93" s="15"/>
+      <c r="VZ93" s="15"/>
+      <c r="WA93" s="15"/>
+      <c r="WB93" s="15"/>
+      <c r="WC93" s="15"/>
+      <c r="WD93" s="15"/>
+      <c r="WE93" s="15"/>
+      <c r="WF93" s="15"/>
+      <c r="WG93" s="15"/>
+      <c r="WH93" s="15"/>
+      <c r="WI93" s="15"/>
+      <c r="WJ93" s="15"/>
+      <c r="WK93" s="15"/>
+      <c r="WL93" s="15"/>
+      <c r="WM93" s="15"/>
+      <c r="WN93" s="15"/>
+      <c r="WO93" s="15"/>
+      <c r="WP93" s="15"/>
+      <c r="WQ93" s="15"/>
+      <c r="WR93" s="15"/>
+      <c r="WS93" s="15"/>
+      <c r="WT93" s="15"/>
+      <c r="WU93" s="15"/>
+      <c r="WV93" s="15"/>
+      <c r="WW93" s="15"/>
+      <c r="WX93" s="15"/>
+      <c r="WY93" s="15"/>
+      <c r="WZ93" s="15"/>
+      <c r="XA93" s="15"/>
+      <c r="XB93" s="15"/>
+      <c r="XC93" s="15"/>
+      <c r="XD93" s="15"/>
+      <c r="XE93" s="15"/>
+      <c r="XF93" s="15"/>
+      <c r="XG93" s="15"/>
+      <c r="XH93" s="15"/>
+      <c r="XI93" s="15"/>
+      <c r="XJ93" s="15"/>
+      <c r="XK93" s="15"/>
+      <c r="XL93" s="15"/>
+      <c r="XM93" s="15"/>
+      <c r="XN93" s="15"/>
+      <c r="XO93" s="15"/>
+      <c r="XP93" s="15"/>
+      <c r="XQ93" s="15"/>
+      <c r="XR93" s="15"/>
+      <c r="XS93" s="15"/>
+      <c r="XT93" s="15"/>
+      <c r="XU93" s="15"/>
+      <c r="XV93" s="15"/>
+      <c r="XW93" s="15"/>
+      <c r="XX93" s="15"/>
+      <c r="XY93" s="15"/>
+      <c r="XZ93" s="15"/>
+      <c r="YA93" s="15"/>
+      <c r="YB93" s="15"/>
+      <c r="YC93" s="15"/>
+      <c r="YD93" s="15"/>
+      <c r="YE93" s="15"/>
+      <c r="YF93" s="15"/>
+      <c r="YG93" s="15"/>
+      <c r="YH93" s="15"/>
+      <c r="YI93" s="15"/>
+      <c r="YJ93" s="15"/>
+      <c r="YK93" s="15"/>
+      <c r="YL93" s="15"/>
+      <c r="YM93" s="15"/>
+      <c r="YN93" s="15"/>
+      <c r="YO93" s="15"/>
+      <c r="YP93" s="15"/>
+      <c r="YQ93" s="15"/>
+      <c r="YR93" s="15"/>
+      <c r="YS93" s="15"/>
+      <c r="YT93" s="15"/>
+      <c r="YU93" s="15"/>
+      <c r="YV93" s="15"/>
+      <c r="YW93" s="15"/>
+      <c r="YX93" s="15"/>
+      <c r="YY93" s="15"/>
+      <c r="YZ93" s="15"/>
+      <c r="ZA93" s="15"/>
+      <c r="ZB93" s="15"/>
+      <c r="ZC93" s="15"/>
+      <c r="ZD93" s="15"/>
+      <c r="ZE93" s="15"/>
+      <c r="ZF93" s="15"/>
+      <c r="ZG93" s="15"/>
+      <c r="ZH93" s="15"/>
+      <c r="ZI93" s="15"/>
+      <c r="ZJ93" s="15"/>
+      <c r="ZK93" s="15"/>
+      <c r="ZL93" s="15"/>
+      <c r="ZM93" s="15"/>
+      <c r="ZN93" s="15"/>
+      <c r="ZO93" s="15"/>
+      <c r="ZP93" s="15"/>
+      <c r="ZQ93" s="15"/>
+      <c r="ZR93" s="15"/>
+      <c r="ZS93" s="15"/>
+      <c r="ZT93" s="15"/>
+      <c r="ZU93" s="15"/>
+      <c r="ZV93" s="15"/>
+      <c r="ZW93" s="15"/>
+      <c r="ZX93" s="15"/>
+      <c r="ZY93" s="15"/>
+      <c r="ZZ93" s="15"/>
+      <c r="AAA93" s="15"/>
+      <c r="AAB93" s="15"/>
+      <c r="AAC93" s="15"/>
+      <c r="AAD93" s="15"/>
+      <c r="AAE93" s="15"/>
+      <c r="AAF93" s="15"/>
+      <c r="AAG93" s="15"/>
+      <c r="AAH93" s="15"/>
+      <c r="AAI93" s="15"/>
+      <c r="AAJ93" s="15"/>
+      <c r="AAK93" s="15"/>
+      <c r="AAL93" s="15"/>
+      <c r="AAM93" s="15"/>
+      <c r="AAN93" s="15"/>
+      <c r="AAO93" s="15"/>
+      <c r="AAP93" s="15"/>
+      <c r="AAQ93" s="15"/>
+      <c r="AAR93" s="15"/>
+      <c r="AAS93" s="15"/>
+      <c r="AAT93" s="15"/>
+      <c r="AAU93" s="15"/>
+      <c r="AAV93" s="15"/>
+      <c r="AAW93" s="15"/>
+      <c r="AAX93" s="15"/>
+      <c r="AAY93" s="15"/>
+      <c r="AAZ93" s="15"/>
+      <c r="ABA93" s="15"/>
+      <c r="ABB93" s="15"/>
+      <c r="ABC93" s="15"/>
+      <c r="ABD93" s="15"/>
+      <c r="ABE93" s="15"/>
+      <c r="ABF93" s="15"/>
+      <c r="ABG93" s="15"/>
+      <c r="ABH93" s="15"/>
+      <c r="ABI93" s="15"/>
+      <c r="ABJ93" s="15"/>
+      <c r="ABK93" s="15"/>
+      <c r="ABL93" s="15"/>
+      <c r="ABM93" s="15"/>
+      <c r="ABN93" s="15"/>
+      <c r="ABO93" s="15"/>
+      <c r="ABP93" s="15"/>
+      <c r="ABQ93" s="15"/>
+      <c r="ABR93" s="15"/>
+      <c r="ABS93" s="15"/>
+      <c r="ABT93" s="15"/>
+      <c r="ABU93" s="15"/>
+      <c r="ABV93" s="15"/>
+      <c r="ABW93" s="15"/>
+      <c r="ABX93" s="15"/>
+      <c r="ABY93" s="15"/>
+      <c r="ABZ93" s="15"/>
+      <c r="ACA93" s="15"/>
+      <c r="ACB93" s="15"/>
+      <c r="ACC93" s="15"/>
+      <c r="ACD93" s="15"/>
+      <c r="ACE93" s="15"/>
+      <c r="ACF93" s="15"/>
+      <c r="ACG93" s="15"/>
+      <c r="ACH93" s="15"/>
+      <c r="ACI93" s="15"/>
+      <c r="ACJ93" s="15"/>
+      <c r="ACK93" s="15"/>
+      <c r="ACL93" s="15"/>
+      <c r="ACM93" s="15"/>
+      <c r="ACN93" s="15"/>
+      <c r="ACO93" s="15"/>
+      <c r="ACP93" s="15"/>
+      <c r="ACQ93" s="15"/>
+      <c r="ACR93" s="15"/>
+      <c r="ACS93" s="15"/>
+      <c r="ACT93" s="15"/>
+      <c r="ACU93" s="15"/>
+      <c r="ACV93" s="15"/>
+      <c r="ACW93" s="15"/>
+      <c r="ACX93" s="15"/>
+      <c r="ACY93" s="15"/>
+      <c r="ACZ93" s="15"/>
+      <c r="ADA93" s="15"/>
+      <c r="ADB93" s="15"/>
+      <c r="ADC93" s="15"/>
+      <c r="ADD93" s="15"/>
+      <c r="ADE93" s="15"/>
+      <c r="ADF93" s="15"/>
+      <c r="ADG93" s="15"/>
+      <c r="ADH93" s="15"/>
+      <c r="ADI93" s="15"/>
+      <c r="ADJ93" s="15"/>
+      <c r="ADK93" s="15"/>
+      <c r="ADL93" s="15"/>
+      <c r="ADM93" s="15"/>
+      <c r="ADN93" s="15"/>
+      <c r="ADO93" s="15"/>
+      <c r="ADP93" s="15"/>
+      <c r="ADQ93" s="15"/>
+      <c r="ADR93" s="15"/>
+      <c r="ADS93" s="15"/>
+      <c r="ADT93" s="15"/>
+      <c r="ADU93" s="15"/>
+      <c r="ADV93" s="15"/>
+      <c r="ADW93" s="15"/>
+      <c r="ADX93" s="15"/>
+      <c r="ADY93" s="15"/>
+      <c r="ADZ93" s="15"/>
+      <c r="AEA93" s="15"/>
+      <c r="AEB93" s="15"/>
+      <c r="AEC93" s="15"/>
+      <c r="AED93" s="15"/>
+      <c r="AEE93" s="15"/>
+      <c r="AEF93" s="15"/>
+      <c r="AEG93" s="15"/>
+      <c r="AEH93" s="15"/>
+      <c r="AEI93" s="15"/>
+      <c r="AEJ93" s="15"/>
+      <c r="AEK93" s="15"/>
+      <c r="AEL93" s="15"/>
+      <c r="AEM93" s="15"/>
+      <c r="AEN93" s="15"/>
+      <c r="AEO93" s="15"/>
+      <c r="AEP93" s="15"/>
+      <c r="AEQ93" s="15"/>
+      <c r="AER93" s="15"/>
+      <c r="AES93" s="15"/>
+      <c r="AET93" s="15"/>
+      <c r="AEU93" s="15"/>
+      <c r="AEV93" s="15"/>
+      <c r="AEW93" s="15"/>
+      <c r="AEX93" s="15"/>
+      <c r="AEY93" s="15"/>
+      <c r="AEZ93" s="15"/>
+      <c r="AFA93" s="15"/>
+      <c r="AFB93" s="15"/>
+      <c r="AFC93" s="15"/>
+      <c r="AFD93" s="15"/>
+      <c r="AFE93" s="15"/>
+      <c r="AFF93" s="15"/>
+      <c r="AFG93" s="15"/>
+      <c r="AFH93" s="15"/>
+      <c r="AFI93" s="15"/>
+      <c r="AFJ93" s="15"/>
+      <c r="AFK93" s="15"/>
+      <c r="AFL93" s="15"/>
+      <c r="AFM93" s="15"/>
+      <c r="AFN93" s="15"/>
+      <c r="AFO93" s="15"/>
+      <c r="AFP93" s="15"/>
+      <c r="AFQ93" s="15"/>
+      <c r="AFR93" s="15"/>
+      <c r="AFS93" s="15"/>
+      <c r="AFT93" s="15"/>
+      <c r="AFU93" s="15"/>
+      <c r="AFV93" s="15"/>
+      <c r="AFW93" s="15"/>
+      <c r="AFX93" s="15"/>
+      <c r="AFY93" s="15"/>
+      <c r="AFZ93" s="15"/>
+      <c r="AGA93" s="15"/>
+      <c r="AGB93" s="15"/>
+      <c r="AGC93" s="15"/>
+      <c r="AGD93" s="15"/>
+      <c r="AGE93" s="15"/>
+      <c r="AGF93" s="15"/>
+      <c r="AGG93" s="15"/>
+      <c r="AGH93" s="15"/>
+      <c r="AGI93" s="15"/>
+      <c r="AGJ93" s="15"/>
+      <c r="AGK93" s="15"/>
+      <c r="AGL93" s="15"/>
+      <c r="AGM93" s="15"/>
+      <c r="AGN93" s="15"/>
+      <c r="AGO93" s="15"/>
+      <c r="AGP93" s="15"/>
+      <c r="AGQ93" s="15"/>
+      <c r="AGR93" s="15"/>
+      <c r="AGS93" s="15"/>
+      <c r="AGT93" s="15"/>
+      <c r="AGU93" s="15"/>
+      <c r="AGV93" s="15"/>
+      <c r="AGW93" s="15"/>
+      <c r="AGX93" s="15"/>
+      <c r="AGY93" s="15"/>
+      <c r="AGZ93" s="15"/>
+      <c r="AHA93" s="15"/>
+      <c r="AHB93" s="15"/>
+      <c r="AHC93" s="15"/>
+      <c r="AHD93" s="15"/>
+      <c r="AHE93" s="15"/>
+      <c r="AHF93" s="15"/>
+      <c r="AHG93" s="15"/>
+      <c r="AHH93" s="15"/>
+      <c r="AHI93" s="15"/>
+      <c r="AHJ93" s="15"/>
+      <c r="AHK93" s="15"/>
+      <c r="AHL93" s="15"/>
+      <c r="AHM93" s="15"/>
+      <c r="AHN93" s="15"/>
+      <c r="AHO93" s="15"/>
+      <c r="AHP93" s="15"/>
+      <c r="AHQ93" s="15"/>
+      <c r="AHR93" s="15"/>
+      <c r="AHS93" s="15"/>
+      <c r="AHT93" s="15"/>
+      <c r="AHU93" s="15"/>
+      <c r="AHV93" s="15"/>
+      <c r="AHW93" s="15"/>
+      <c r="AHX93" s="15"/>
+      <c r="AHY93" s="15"/>
+      <c r="AHZ93" s="15"/>
+      <c r="AIA93" s="15"/>
+      <c r="AIB93" s="15"/>
+      <c r="AIC93" s="15"/>
+      <c r="AID93" s="15"/>
+      <c r="AIE93" s="15"/>
+      <c r="AIF93" s="15"/>
+      <c r="AIG93" s="15"/>
+      <c r="AIH93" s="15"/>
+      <c r="AII93" s="15"/>
+      <c r="AIJ93" s="15"/>
+      <c r="AIK93" s="15"/>
+      <c r="AIL93" s="15"/>
+      <c r="AIM93" s="15"/>
+      <c r="AIN93" s="15"/>
+      <c r="AIO93" s="15"/>
+      <c r="AIP93" s="15"/>
+      <c r="AIQ93" s="15"/>
+      <c r="AIR93" s="15"/>
+      <c r="AIS93" s="15"/>
+      <c r="AIT93" s="15"/>
+      <c r="AIU93" s="15"/>
+      <c r="AIV93" s="15"/>
+      <c r="AIW93" s="15"/>
+      <c r="AIX93" s="15"/>
+      <c r="AIY93" s="15"/>
+      <c r="AIZ93" s="15"/>
+      <c r="AJA93" s="15"/>
+      <c r="AJB93" s="15"/>
+      <c r="AJC93" s="15"/>
+      <c r="AJD93" s="15"/>
+      <c r="AJE93" s="15"/>
+      <c r="AJF93" s="15"/>
+      <c r="AJG93" s="15"/>
+      <c r="AJH93" s="15"/>
+      <c r="AJI93" s="15"/>
+      <c r="AJJ93" s="15"/>
+      <c r="AJK93" s="15"/>
+      <c r="AJL93" s="15"/>
+      <c r="AJM93" s="15"/>
+      <c r="AJN93" s="15"/>
+      <c r="AJO93" s="15"/>
+      <c r="AJP93" s="15"/>
+      <c r="AJQ93" s="15"/>
+      <c r="AJR93" s="15"/>
+      <c r="AJS93" s="15"/>
+      <c r="AJT93" s="15"/>
+      <c r="AJU93" s="15"/>
+      <c r="AJV93" s="15"/>
+      <c r="AJW93" s="15"/>
+      <c r="AJX93" s="15"/>
+      <c r="AJY93" s="15"/>
+      <c r="AJZ93" s="15"/>
+      <c r="AKA93" s="15"/>
+      <c r="AKB93" s="15"/>
+      <c r="AKC93" s="15"/>
+      <c r="AKD93" s="15"/>
+      <c r="AKE93" s="15"/>
+      <c r="AKF93" s="15"/>
+      <c r="AKG93" s="15"/>
+      <c r="AKH93" s="15"/>
+      <c r="AKI93" s="15"/>
+      <c r="AKJ93" s="15"/>
+      <c r="AKK93" s="15"/>
+      <c r="AKL93" s="15"/>
+      <c r="AKM93" s="15"/>
+      <c r="AKN93" s="15"/>
+      <c r="AKO93" s="15"/>
+      <c r="AKP93" s="15"/>
+      <c r="AKQ93" s="15"/>
+      <c r="AKR93" s="15"/>
+      <c r="AKS93" s="15"/>
+      <c r="AKT93" s="15"/>
+      <c r="AKU93" s="15"/>
+      <c r="AKV93" s="15"/>
+      <c r="AKW93" s="15"/>
+      <c r="AKX93" s="15"/>
+      <c r="AKY93" s="15"/>
+      <c r="AKZ93" s="15"/>
+      <c r="ALA93" s="15"/>
+      <c r="ALB93" s="15"/>
+      <c r="ALC93" s="15"/>
+      <c r="ALD93" s="15"/>
+      <c r="ALE93" s="15"/>
+      <c r="ALF93" s="15"/>
+      <c r="ALG93" s="15"/>
+      <c r="ALH93" s="15"/>
+      <c r="ALI93" s="15"/>
+      <c r="ALJ93" s="15"/>
+      <c r="ALK93" s="15"/>
+      <c r="ALL93" s="15"/>
+      <c r="ALM93" s="15"/>
+      <c r="ALN93" s="15"/>
+      <c r="ALO93" s="15"/>
+      <c r="ALP93" s="15"/>
+      <c r="ALQ93" s="15"/>
+      <c r="ALR93" s="15"/>
+      <c r="ALS93" s="15"/>
+      <c r="ALT93" s="15"/>
+      <c r="ALU93" s="15"/>
+      <c r="ALV93" s="15"/>
+      <c r="ALW93" s="15"/>
+      <c r="ALX93" s="15"/>
+      <c r="ALY93" s="15"/>
+      <c r="ALZ93" s="15"/>
+      <c r="AMA93" s="15"/>
+      <c r="AMB93" s="15"/>
+      <c r="AMC93" s="15"/>
+      <c r="AMD93" s="15"/>
+      <c r="AME93" s="15"/>
+      <c r="AMF93" s="15"/>
+      <c r="AMG93" s="15"/>
+      <c r="AMH93" s="15"/>
+      <c r="AMI93" s="15"/>
+      <c r="AMJ93" s="15"/>
+      <c r="AMK93" s="15"/>
+      <c r="AML93" s="15"/>
+      <c r="AMM93" s="15"/>
     </row>
-    <row r="93" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F94" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G94" s="10" t="s">
         <v>492</v>
       </c>
+      <c r="O94" s="24" t="s">
+        <v>538</v>
+      </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" s="4"/>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N92" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
